--- a/docs/macro/real-estate/全国房地产投资-2018-2023.xlsx
+++ b/docs/macro/real-estate/全国房地产投资-2018-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="14180" tabRatio="923" activeTab="6"/>
+    <workbookView windowWidth="28520" windowHeight="13500" tabRatio="923" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="全国房地产投资" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="住宅开发投资" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全国房地产投资!$A$3:$E$1911</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全国房地产投资!$A$3:$E$1947</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6100" uniqueCount="71">
   <si>
     <t>统计年度</t>
   </si>
@@ -282,12 +282,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +340,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -348,30 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,16 +370,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,9 +402,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,29 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -477,16 +454,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.8"/>
@@ -505,31 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +584,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,67 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,43 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,41 +739,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,7 +767,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +787,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -820,158 +812,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,8 +1054,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1796,6 +1815,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,6 +2729,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,6 +3646,9 @@
                 <c:pt idx="2">
                   <c:v>32966</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>40663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4532,6 +4560,9 @@
                 <c:pt idx="2">
                   <c:v>542968</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>548475</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5443,6 +5474,9 @@
                 <c:pt idx="2">
                   <c:v>31429</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>31048</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6353,6 +6387,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10393,9 +10430,9 @@
   <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1873" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A1618" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1899" sqref="D1899"/>
+      <selection pane="bottomLeft" activeCell="D1913" sqref="D1913:E1913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -10466,7 +10503,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:9">
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -11222,7 +11259,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:9">
+    <row r="41" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -11978,7 +12015,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:9">
+    <row r="77" customHeight="1" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -12734,7 +12771,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" hidden="1" spans="1:9">
+    <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -13490,7 +13527,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" hidden="1" spans="1:9">
+    <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -14246,7 +14283,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" hidden="1" spans="1:9">
+    <row r="185" spans="1:9">
       <c r="A185" s="2" t="s">
         <v>5</v>
       </c>
@@ -15002,7 +15039,7 @@
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
     </row>
-    <row r="221" hidden="1" spans="1:9">
+    <row r="221" spans="1:9">
       <c r="A221" s="2" t="s">
         <v>48</v>
       </c>
@@ -15758,7 +15795,7 @@
       <c r="H256" s="15"/>
       <c r="I256" s="15"/>
     </row>
-    <row r="257" hidden="1" spans="1:9">
+    <row r="257" spans="1:9">
       <c r="A257" s="2" t="s">
         <v>48</v>
       </c>
@@ -16514,7 +16551,7 @@
       <c r="H292" s="15"/>
       <c r="I292" s="15"/>
     </row>
-    <row r="293" hidden="1" spans="1:9">
+    <row r="293" spans="1:9">
       <c r="A293" s="2" t="s">
         <v>48</v>
       </c>
@@ -17270,7 +17307,7 @@
       <c r="H328" s="15"/>
       <c r="I328" s="15"/>
     </row>
-    <row r="329" hidden="1" spans="1:9">
+    <row r="329" spans="1:9">
       <c r="A329" s="2" t="s">
         <v>48</v>
       </c>
@@ -18026,7 +18063,7 @@
       <c r="H364" s="15"/>
       <c r="I364" s="15"/>
     </row>
-    <row r="365" hidden="1" spans="1:9">
+    <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
         <v>48</v>
       </c>
@@ -18782,7 +18819,7 @@
       <c r="H400" s="15"/>
       <c r="I400" s="15"/>
     </row>
-    <row r="401" hidden="1" spans="1:9">
+    <row r="401" spans="1:9">
       <c r="A401" s="2" t="s">
         <v>48</v>
       </c>
@@ -19538,7 +19575,7 @@
       <c r="H436" s="15"/>
       <c r="I436" s="15"/>
     </row>
-    <row r="437" hidden="1" spans="1:9">
+    <row r="437" spans="1:9">
       <c r="A437" s="2" t="s">
         <v>48</v>
       </c>
@@ -20294,7 +20331,7 @@
       <c r="H472" s="15"/>
       <c r="I472" s="15"/>
     </row>
-    <row r="473" hidden="1" spans="1:9">
+    <row r="473" spans="1:9">
       <c r="A473" s="2" t="s">
         <v>48</v>
       </c>
@@ -21050,7 +21087,7 @@
       <c r="H508" s="20"/>
       <c r="I508" s="20"/>
     </row>
-    <row r="509" hidden="1" spans="1:9">
+    <row r="509" spans="1:9">
       <c r="A509" s="2" t="s">
         <v>48</v>
       </c>
@@ -21806,7 +21843,7 @@
       <c r="H544" s="20"/>
       <c r="I544" s="20"/>
     </row>
-    <row r="545" hidden="1" spans="1:9">
+    <row r="545" spans="1:9">
       <c r="A545" s="2" t="s">
         <v>48</v>
       </c>
@@ -22562,7 +22599,7 @@
       <c r="H580" s="20"/>
       <c r="I580" s="20"/>
     </row>
-    <row r="581" hidden="1" spans="1:9">
+    <row r="581" spans="1:9">
       <c r="A581" s="2" t="s">
         <v>48</v>
       </c>
@@ -23318,7 +23355,7 @@
       <c r="H616" s="20"/>
       <c r="I616" s="20"/>
     </row>
-    <row r="617" hidden="1" spans="1:9">
+    <row r="617" spans="1:9">
       <c r="A617" s="2" t="s">
         <v>54</v>
       </c>
@@ -24074,7 +24111,7 @@
       <c r="H652" s="20"/>
       <c r="I652" s="20"/>
     </row>
-    <row r="653" hidden="1" spans="1:9">
+    <row r="653" spans="1:9">
       <c r="A653" s="2" t="s">
         <v>54</v>
       </c>
@@ -24830,7 +24867,7 @@
       <c r="H688" s="21"/>
       <c r="I688" s="21"/>
     </row>
-    <row r="689" hidden="1" spans="1:9">
+    <row r="689" spans="1:9">
       <c r="A689" s="2" t="s">
         <v>54</v>
       </c>
@@ -25586,7 +25623,7 @@
       <c r="H724" s="21"/>
       <c r="I724" s="21"/>
     </row>
-    <row r="725" hidden="1" spans="1:9">
+    <row r="725" spans="1:9">
       <c r="A725" s="2" t="s">
         <v>54</v>
       </c>
@@ -26342,7 +26379,7 @@
       <c r="H760" s="20"/>
       <c r="I760" s="20"/>
     </row>
-    <row r="761" hidden="1" spans="1:9">
+    <row r="761" spans="1:9">
       <c r="A761" s="2" t="s">
         <v>54</v>
       </c>
@@ -27098,7 +27135,7 @@
       <c r="H796" s="22"/>
       <c r="I796" s="22"/>
     </row>
-    <row r="797" hidden="1" spans="1:9">
+    <row r="797" spans="1:9">
       <c r="A797" s="2" t="s">
         <v>54</v>
       </c>
@@ -27854,7 +27891,7 @@
       <c r="H832" s="22"/>
       <c r="I832" s="22"/>
     </row>
-    <row r="833" hidden="1" spans="1:9">
+    <row r="833" spans="1:9">
       <c r="A833" s="2" t="s">
         <v>54</v>
       </c>
@@ -28610,7 +28647,7 @@
       <c r="H868" s="20"/>
       <c r="I868" s="20"/>
     </row>
-    <row r="869" hidden="1" spans="1:9">
+    <row r="869" spans="1:9">
       <c r="A869" s="2" t="s">
         <v>54</v>
       </c>
@@ -29366,7 +29403,7 @@
       <c r="H904" s="21"/>
       <c r="I904" s="21"/>
     </row>
-    <row r="905" hidden="1" spans="1:9">
+    <row r="905" spans="1:9">
       <c r="A905" s="2" t="s">
         <v>54</v>
       </c>
@@ -30122,7 +30159,7 @@
       <c r="H940" s="20"/>
       <c r="I940" s="20"/>
     </row>
-    <row r="941" hidden="1" spans="1:9">
+    <row r="941" spans="1:9">
       <c r="A941" s="2" t="s">
         <v>54</v>
       </c>
@@ -30878,7 +30915,7 @@
       <c r="H976" s="23"/>
       <c r="I976" s="23"/>
     </row>
-    <row r="977" hidden="1" spans="1:9">
+    <row r="977" spans="1:9">
       <c r="A977" s="2" t="s">
         <v>54</v>
       </c>
@@ -31634,7 +31671,7 @@
       <c r="H1012" s="23"/>
       <c r="I1012" s="23"/>
     </row>
-    <row r="1013" hidden="1" spans="1:9">
+    <row r="1013" spans="1:9">
       <c r="A1013" s="2" t="s">
         <v>55</v>
       </c>
@@ -32390,7 +32427,7 @@
       <c r="H1048" s="23"/>
       <c r="I1048" s="23"/>
     </row>
-    <row r="1049" hidden="1" spans="1:9">
+    <row r="1049" spans="1:9">
       <c r="A1049" s="2" t="s">
         <v>55</v>
       </c>
@@ -33146,7 +33183,7 @@
       <c r="H1084" s="23"/>
       <c r="I1084" s="23"/>
     </row>
-    <row r="1085" hidden="1" spans="1:9">
+    <row r="1085" spans="1:9">
       <c r="A1085" s="2" t="s">
         <v>55</v>
       </c>
@@ -33902,7 +33939,7 @@
       <c r="H1120" s="23"/>
       <c r="I1120" s="23"/>
     </row>
-    <row r="1121" hidden="1" spans="1:9">
+    <row r="1121" spans="1:9">
       <c r="A1121" s="2" t="s">
         <v>55</v>
       </c>
@@ -34658,7 +34695,7 @@
       <c r="H1156" s="23"/>
       <c r="I1156" s="23"/>
     </row>
-    <row r="1157" hidden="1" spans="1:9">
+    <row r="1157" spans="1:9">
       <c r="A1157" s="2" t="s">
         <v>55</v>
       </c>
@@ -35414,7 +35451,7 @@
       <c r="H1192" s="23"/>
       <c r="I1192" s="23"/>
     </row>
-    <row r="1193" hidden="1" spans="1:9">
+    <row r="1193" spans="1:9">
       <c r="A1193" s="2" t="s">
         <v>55</v>
       </c>
@@ -36170,7 +36207,7 @@
       <c r="H1228" s="23"/>
       <c r="I1228" s="23"/>
     </row>
-    <row r="1229" hidden="1" spans="1:9">
+    <row r="1229" spans="1:9">
       <c r="A1229" s="2" t="s">
         <v>55</v>
       </c>
@@ -36926,7 +36963,7 @@
       <c r="H1264" s="15"/>
       <c r="I1264" s="15"/>
     </row>
-    <row r="1265" hidden="1" spans="1:9">
+    <row r="1265" spans="1:9">
       <c r="A1265" s="2" t="s">
         <v>55</v>
       </c>
@@ -37682,7 +37719,7 @@
       <c r="H1300" s="15"/>
       <c r="I1300" s="15"/>
     </row>
-    <row r="1301" hidden="1" spans="1:9">
+    <row r="1301" spans="1:9">
       <c r="A1301" s="2" t="s">
         <v>55</v>
       </c>
@@ -38438,7 +38475,7 @@
       <c r="H1336" s="15"/>
       <c r="I1336" s="15"/>
     </row>
-    <row r="1337" hidden="1" spans="1:9">
+    <row r="1337" spans="1:9">
       <c r="A1337" s="2" t="s">
         <v>55</v>
       </c>
@@ -39194,7 +39231,7 @@
       <c r="H1372" s="15"/>
       <c r="I1372" s="15"/>
     </row>
-    <row r="1373" hidden="1" spans="1:9">
+    <row r="1373" spans="1:9">
       <c r="A1373" s="2" t="s">
         <v>55</v>
       </c>
@@ -39950,7 +39987,7 @@
       <c r="H1408" s="23"/>
       <c r="I1408" s="23"/>
     </row>
-    <row r="1409" hidden="1" spans="1:9">
+    <row r="1409" spans="1:9">
       <c r="A1409" s="2" t="s">
         <v>56</v>
       </c>
@@ -40706,7 +40743,7 @@
       <c r="H1444" s="15"/>
       <c r="I1444" s="15"/>
     </row>
-    <row r="1445" hidden="1" spans="1:9">
+    <row r="1445" spans="1:9">
       <c r="A1445" s="2" t="s">
         <v>56</v>
       </c>
@@ -41462,7 +41499,7 @@
       <c r="H1480" s="15"/>
       <c r="I1480" s="15"/>
     </row>
-    <row r="1481" hidden="1" spans="1:9">
+    <row r="1481" spans="1:9">
       <c r="A1481" s="2" t="s">
         <v>56</v>
       </c>
@@ -42218,7 +42255,7 @@
       <c r="H1516" s="15"/>
       <c r="I1516" s="15"/>
     </row>
-    <row r="1517" hidden="1" spans="1:9">
+    <row r="1517" spans="1:9">
       <c r="A1517" s="2" t="s">
         <v>56</v>
       </c>
@@ -42974,7 +43011,7 @@
       <c r="H1552" s="24"/>
       <c r="I1552" s="24"/>
     </row>
-    <row r="1553" hidden="1" spans="1:9">
+    <row r="1553" spans="1:9">
       <c r="A1553" s="2" t="s">
         <v>56</v>
       </c>
@@ -43730,7 +43767,7 @@
       <c r="H1588" s="24"/>
       <c r="I1588" s="24"/>
     </row>
-    <row r="1589" hidden="1" spans="1:9">
+    <row r="1589" spans="1:9">
       <c r="A1589" s="2" t="s">
         <v>56</v>
       </c>
@@ -44486,7 +44523,7 @@
       <c r="H1624" s="15"/>
       <c r="I1624" s="15"/>
     </row>
-    <row r="1625" hidden="1" spans="1:9">
+    <row r="1625" spans="1:9">
       <c r="A1625" s="2" t="s">
         <v>56</v>
       </c>
@@ -45242,7 +45279,7 @@
       <c r="H1660" s="15"/>
       <c r="I1660" s="15"/>
     </row>
-    <row r="1661" hidden="1" spans="1:9">
+    <row r="1661" spans="1:9">
       <c r="A1661" s="2" t="s">
         <v>56</v>
       </c>
@@ -45998,7 +46035,7 @@
       <c r="H1696" s="15"/>
       <c r="I1696" s="15"/>
     </row>
-    <row r="1697" hidden="1" spans="1:9">
+    <row r="1697" spans="1:9">
       <c r="A1697" s="2" t="s">
         <v>56</v>
       </c>
@@ -46754,7 +46791,7 @@
       <c r="H1732" s="15"/>
       <c r="I1732" s="15"/>
     </row>
-    <row r="1733" hidden="1" spans="1:9">
+    <row r="1733" spans="1:9">
       <c r="A1733" s="2" t="s">
         <v>56</v>
       </c>
@@ -47510,7 +47547,7 @@
       <c r="H1768" s="15"/>
       <c r="I1768" s="15"/>
     </row>
-    <row r="1769" hidden="1" spans="1:9">
+    <row r="1769" spans="1:9">
       <c r="A1769" s="2" t="s">
         <v>56</v>
       </c>
@@ -48245,7 +48282,7 @@
       <c r="H1803" s="15"/>
       <c r="I1803" s="15"/>
     </row>
-    <row r="1804" spans="1:9">
+    <row r="1804" hidden="1" spans="1:9">
       <c r="A1804" s="2" t="s">
         <v>57</v>
       </c>
@@ -48287,7 +48324,7 @@
       <c r="H1805" s="15"/>
       <c r="I1805" s="15"/>
     </row>
-    <row r="1806" spans="1:9">
+    <row r="1806" hidden="1" spans="1:9">
       <c r="A1806" s="2" t="s">
         <v>57</v>
       </c>
@@ -48308,7 +48345,7 @@
       <c r="H1806" s="15"/>
       <c r="I1806" s="15"/>
     </row>
-    <row r="1807" spans="1:9">
+    <row r="1807" hidden="1" spans="1:9">
       <c r="A1807" s="2" t="s">
         <v>57</v>
       </c>
@@ -48329,7 +48366,7 @@
       <c r="H1807" s="15"/>
       <c r="I1807" s="15"/>
     </row>
-    <row r="1808" spans="1:9">
+    <row r="1808" hidden="1" spans="1:9">
       <c r="A1808" s="2" t="s">
         <v>57</v>
       </c>
@@ -48350,7 +48387,7 @@
       <c r="H1808" s="15"/>
       <c r="I1808" s="15"/>
     </row>
-    <row r="1809" spans="1:9">
+    <row r="1809" hidden="1" spans="1:9">
       <c r="A1809" s="2" t="s">
         <v>57</v>
       </c>
@@ -48371,7 +48408,7 @@
       <c r="H1809" s="15"/>
       <c r="I1809" s="15"/>
     </row>
-    <row r="1810" spans="1:9">
+    <row r="1810" hidden="1" spans="1:9">
       <c r="A1810" s="2" t="s">
         <v>57</v>
       </c>
@@ -48392,7 +48429,7 @@
       <c r="H1810" s="15"/>
       <c r="I1810" s="15"/>
     </row>
-    <row r="1811" spans="1:9">
+    <row r="1811" hidden="1" spans="1:9">
       <c r="A1811" s="2" t="s">
         <v>57</v>
       </c>
@@ -48413,7 +48450,7 @@
       <c r="H1811" s="15"/>
       <c r="I1811" s="15"/>
     </row>
-    <row r="1812" spans="1:9">
+    <row r="1812" hidden="1" spans="1:9">
       <c r="A1812" s="2" t="s">
         <v>57</v>
       </c>
@@ -48434,7 +48471,7 @@
       <c r="H1812" s="15"/>
       <c r="I1812" s="15"/>
     </row>
-    <row r="1813" spans="1:9">
+    <row r="1813" hidden="1" spans="1:9">
       <c r="A1813" s="2" t="s">
         <v>57</v>
       </c>
@@ -48455,7 +48492,7 @@
       <c r="H1813" s="15"/>
       <c r="I1813" s="15"/>
     </row>
-    <row r="1814" spans="1:9">
+    <row r="1814" hidden="1" spans="1:9">
       <c r="A1814" s="2" t="s">
         <v>57</v>
       </c>
@@ -48476,7 +48513,7 @@
       <c r="H1814" s="15"/>
       <c r="I1814" s="15"/>
     </row>
-    <row r="1815" spans="1:9">
+    <row r="1815" hidden="1" spans="1:9">
       <c r="A1815" s="2" t="s">
         <v>57</v>
       </c>
@@ -48497,7 +48534,7 @@
       <c r="H1815" s="15"/>
       <c r="I1815" s="15"/>
     </row>
-    <row r="1816" spans="1:9">
+    <row r="1816" hidden="1" spans="1:9">
       <c r="A1816" s="2" t="s">
         <v>57</v>
       </c>
@@ -48518,7 +48555,7 @@
       <c r="H1816" s="15"/>
       <c r="I1816" s="15"/>
     </row>
-    <row r="1817" spans="1:9">
+    <row r="1817" hidden="1" spans="1:9">
       <c r="A1817" s="2" t="s">
         <v>57</v>
       </c>
@@ -48539,7 +48576,7 @@
       <c r="H1817" s="15"/>
       <c r="I1817" s="15"/>
     </row>
-    <row r="1818" spans="1:9">
+    <row r="1818" hidden="1" spans="1:9">
       <c r="A1818" s="2" t="s">
         <v>57</v>
       </c>
@@ -48560,7 +48597,7 @@
       <c r="H1818" s="15"/>
       <c r="I1818" s="15"/>
     </row>
-    <row r="1819" spans="1:9">
+    <row r="1819" hidden="1" spans="1:9">
       <c r="A1819" s="2" t="s">
         <v>57</v>
       </c>
@@ -48581,7 +48618,7 @@
       <c r="H1819" s="15"/>
       <c r="I1819" s="15"/>
     </row>
-    <row r="1820" spans="1:9">
+    <row r="1820" hidden="1" spans="1:9">
       <c r="A1820" s="2" t="s">
         <v>57</v>
       </c>
@@ -48602,7 +48639,7 @@
       <c r="H1820" s="15"/>
       <c r="I1820" s="15"/>
     </row>
-    <row r="1821" spans="1:9">
+    <row r="1821" hidden="1" spans="1:9">
       <c r="A1821" s="2" t="s">
         <v>57</v>
       </c>
@@ -48623,7 +48660,7 @@
       <c r="H1821" s="15"/>
       <c r="I1821" s="15"/>
     </row>
-    <row r="1822" spans="1:9">
+    <row r="1822" hidden="1" spans="1:9">
       <c r="A1822" s="2" t="s">
         <v>57</v>
       </c>
@@ -48644,7 +48681,7 @@
       <c r="H1822" s="15"/>
       <c r="I1822" s="15"/>
     </row>
-    <row r="1823" spans="1:9">
+    <row r="1823" hidden="1" spans="1:9">
       <c r="A1823" s="2" t="s">
         <v>57</v>
       </c>
@@ -48665,7 +48702,7 @@
       <c r="H1823" s="15"/>
       <c r="I1823" s="15"/>
     </row>
-    <row r="1824" spans="1:9">
+    <row r="1824" hidden="1" spans="1:9">
       <c r="A1824" s="2" t="s">
         <v>57</v>
       </c>
@@ -48686,7 +48723,7 @@
       <c r="H1824" s="15"/>
       <c r="I1824" s="15"/>
     </row>
-    <row r="1825" spans="1:9">
+    <row r="1825" hidden="1" spans="1:9">
       <c r="A1825" s="2" t="s">
         <v>57</v>
       </c>
@@ -48707,7 +48744,7 @@
       <c r="H1825" s="15"/>
       <c r="I1825" s="15"/>
     </row>
-    <row r="1826" spans="1:9">
+    <row r="1826" hidden="1" spans="1:9">
       <c r="A1826" s="2" t="s">
         <v>57</v>
       </c>
@@ -48728,7 +48765,7 @@
       <c r="H1826" s="15"/>
       <c r="I1826" s="15"/>
     </row>
-    <row r="1827" spans="1:9">
+    <row r="1827" hidden="1" spans="1:9">
       <c r="A1827" s="2" t="s">
         <v>57</v>
       </c>
@@ -48749,7 +48786,7 @@
       <c r="H1827" s="15"/>
       <c r="I1827" s="15"/>
     </row>
-    <row r="1828" spans="1:9">
+    <row r="1828" hidden="1" spans="1:9">
       <c r="A1828" s="2" t="s">
         <v>57</v>
       </c>
@@ -48770,7 +48807,7 @@
       <c r="H1828" s="15"/>
       <c r="I1828" s="15"/>
     </row>
-    <row r="1829" spans="1:9">
+    <row r="1829" hidden="1" spans="1:9">
       <c r="A1829" s="2" t="s">
         <v>57</v>
       </c>
@@ -48791,7 +48828,7 @@
       <c r="H1829" s="15"/>
       <c r="I1829" s="15"/>
     </row>
-    <row r="1830" spans="1:9">
+    <row r="1830" hidden="1" spans="1:9">
       <c r="A1830" s="2" t="s">
         <v>57</v>
       </c>
@@ -48812,7 +48849,7 @@
       <c r="H1830" s="15"/>
       <c r="I1830" s="15"/>
     </row>
-    <row r="1831" spans="1:9">
+    <row r="1831" hidden="1" spans="1:9">
       <c r="A1831" s="2" t="s">
         <v>57</v>
       </c>
@@ -48833,7 +48870,7 @@
       <c r="H1831" s="15"/>
       <c r="I1831" s="15"/>
     </row>
-    <row r="1832" spans="1:9">
+    <row r="1832" hidden="1" spans="1:9">
       <c r="A1832" s="2" t="s">
         <v>57</v>
       </c>
@@ -48854,7 +48891,7 @@
       <c r="H1832" s="15"/>
       <c r="I1832" s="15"/>
     </row>
-    <row r="1833" spans="1:9">
+    <row r="1833" hidden="1" spans="1:9">
       <c r="A1833" s="2" t="s">
         <v>57</v>
       </c>
@@ -48875,7 +48912,7 @@
       <c r="H1833" s="15"/>
       <c r="I1833" s="15"/>
     </row>
-    <row r="1834" spans="1:9">
+    <row r="1834" hidden="1" spans="1:9">
       <c r="A1834" s="2" t="s">
         <v>57</v>
       </c>
@@ -48896,7 +48933,7 @@
       <c r="H1834" s="15"/>
       <c r="I1834" s="15"/>
     </row>
-    <row r="1835" spans="1:9">
+    <row r="1835" hidden="1" spans="1:9">
       <c r="A1835" s="2" t="s">
         <v>57</v>
       </c>
@@ -48917,7 +48954,7 @@
       <c r="H1835" s="15"/>
       <c r="I1835" s="15"/>
     </row>
-    <row r="1836" spans="1:9">
+    <row r="1836" hidden="1" spans="1:9">
       <c r="A1836" s="2" t="s">
         <v>57</v>
       </c>
@@ -48938,7 +48975,7 @@
       <c r="H1836" s="15"/>
       <c r="I1836" s="15"/>
     </row>
-    <row r="1837" spans="1:9">
+    <row r="1837" hidden="1" spans="1:9">
       <c r="A1837" s="2" t="s">
         <v>57</v>
       </c>
@@ -48959,7 +48996,7 @@
       <c r="H1837" s="15"/>
       <c r="I1837" s="15"/>
     </row>
-    <row r="1838" spans="1:9">
+    <row r="1838" hidden="1" spans="1:9">
       <c r="A1838" s="2" t="s">
         <v>57</v>
       </c>
@@ -48980,7 +49017,7 @@
       <c r="H1838" s="15"/>
       <c r="I1838" s="15"/>
     </row>
-    <row r="1839" spans="1:9">
+    <row r="1839" hidden="1" spans="1:9">
       <c r="A1839" s="2" t="s">
         <v>57</v>
       </c>
@@ -49001,7 +49038,7 @@
       <c r="H1839" s="15"/>
       <c r="I1839" s="15"/>
     </row>
-    <row r="1840" spans="1:9">
+    <row r="1840" hidden="1" spans="1:9">
       <c r="A1840" s="2" t="s">
         <v>57</v>
       </c>
@@ -49037,7 +49074,7 @@
       </c>
       <c r="I1841" s="15"/>
     </row>
-    <row r="1842" spans="1:9">
+    <row r="1842" hidden="1" spans="1:9">
       <c r="A1842" s="2" t="s">
         <v>57</v>
       </c>
@@ -49055,7 +49092,7 @@
       </c>
       <c r="I1842" s="15"/>
     </row>
-    <row r="1843" spans="1:9">
+    <row r="1843" hidden="1" spans="1:9">
       <c r="A1843" s="2" t="s">
         <v>57</v>
       </c>
@@ -49073,7 +49110,7 @@
       </c>
       <c r="I1843" s="15"/>
     </row>
-    <row r="1844" spans="1:9">
+    <row r="1844" hidden="1" spans="1:9">
       <c r="A1844" s="2" t="s">
         <v>57</v>
       </c>
@@ -49091,7 +49128,7 @@
       </c>
       <c r="I1844" s="15"/>
     </row>
-    <row r="1845" spans="1:9">
+    <row r="1845" hidden="1" spans="1:9">
       <c r="A1845" s="2" t="s">
         <v>57</v>
       </c>
@@ -49109,7 +49146,7 @@
       </c>
       <c r="I1845" s="15"/>
     </row>
-    <row r="1846" spans="1:9">
+    <row r="1846" hidden="1" spans="1:9">
       <c r="A1846" s="2" t="s">
         <v>57</v>
       </c>
@@ -49127,7 +49164,7 @@
       </c>
       <c r="I1846" s="15"/>
     </row>
-    <row r="1847" spans="1:9">
+    <row r="1847" hidden="1" spans="1:9">
       <c r="A1847" s="2" t="s">
         <v>57</v>
       </c>
@@ -49145,7 +49182,7 @@
       </c>
       <c r="I1847" s="15"/>
     </row>
-    <row r="1848" spans="1:9">
+    <row r="1848" hidden="1" spans="1:9">
       <c r="A1848" s="2" t="s">
         <v>57</v>
       </c>
@@ -49163,7 +49200,7 @@
       </c>
       <c r="I1848" s="15"/>
     </row>
-    <row r="1849" spans="1:9">
+    <row r="1849" hidden="1" spans="1:9">
       <c r="A1849" s="2" t="s">
         <v>57</v>
       </c>
@@ -49181,7 +49218,7 @@
       </c>
       <c r="I1849" s="15"/>
     </row>
-    <row r="1850" spans="1:9">
+    <row r="1850" hidden="1" spans="1:9">
       <c r="A1850" s="2" t="s">
         <v>57</v>
       </c>
@@ -49199,7 +49236,7 @@
       </c>
       <c r="I1850" s="15"/>
     </row>
-    <row r="1851" spans="1:9">
+    <row r="1851" hidden="1" spans="1:9">
       <c r="A1851" s="2" t="s">
         <v>57</v>
       </c>
@@ -49217,7 +49254,7 @@
       </c>
       <c r="I1851" s="15"/>
     </row>
-    <row r="1852" spans="1:9">
+    <row r="1852" hidden="1" spans="1:9">
       <c r="A1852" s="2" t="s">
         <v>57</v>
       </c>
@@ -49235,7 +49272,7 @@
       </c>
       <c r="I1852" s="15"/>
     </row>
-    <row r="1853" spans="1:9">
+    <row r="1853" hidden="1" spans="1:9">
       <c r="A1853" s="2" t="s">
         <v>57</v>
       </c>
@@ -49253,7 +49290,7 @@
       </c>
       <c r="I1853" s="15"/>
     </row>
-    <row r="1854" spans="1:9">
+    <row r="1854" hidden="1" spans="1:9">
       <c r="A1854" s="2" t="s">
         <v>57</v>
       </c>
@@ -49271,7 +49308,7 @@
       </c>
       <c r="I1854" s="15"/>
     </row>
-    <row r="1855" spans="1:9">
+    <row r="1855" hidden="1" spans="1:9">
       <c r="A1855" s="2" t="s">
         <v>57</v>
       </c>
@@ -49289,7 +49326,7 @@
       </c>
       <c r="I1855" s="15"/>
     </row>
-    <row r="1856" spans="1:9">
+    <row r="1856" hidden="1" spans="1:9">
       <c r="A1856" s="2" t="s">
         <v>57</v>
       </c>
@@ -49307,7 +49344,7 @@
       </c>
       <c r="I1856" s="15"/>
     </row>
-    <row r="1857" spans="1:9">
+    <row r="1857" hidden="1" spans="1:9">
       <c r="A1857" s="2" t="s">
         <v>57</v>
       </c>
@@ -49325,7 +49362,7 @@
       </c>
       <c r="I1857" s="15"/>
     </row>
-    <row r="1858" spans="1:9">
+    <row r="1858" hidden="1" spans="1:9">
       <c r="A1858" s="2" t="s">
         <v>57</v>
       </c>
@@ -49343,7 +49380,7 @@
       </c>
       <c r="I1858" s="15"/>
     </row>
-    <row r="1859" spans="1:9">
+    <row r="1859" hidden="1" spans="1:9">
       <c r="A1859" s="2" t="s">
         <v>57</v>
       </c>
@@ -49361,7 +49398,7 @@
       </c>
       <c r="I1859" s="15"/>
     </row>
-    <row r="1860" spans="1:9">
+    <row r="1860" hidden="1" spans="1:9">
       <c r="A1860" s="2" t="s">
         <v>57</v>
       </c>
@@ -49379,7 +49416,7 @@
       </c>
       <c r="I1860" s="15"/>
     </row>
-    <row r="1861" spans="1:9">
+    <row r="1861" hidden="1" spans="1:9">
       <c r="A1861" s="2" t="s">
         <v>57</v>
       </c>
@@ -49397,7 +49434,7 @@
       </c>
       <c r="I1861" s="15"/>
     </row>
-    <row r="1862" spans="1:9">
+    <row r="1862" hidden="1" spans="1:9">
       <c r="A1862" s="2" t="s">
         <v>57</v>
       </c>
@@ -49415,7 +49452,7 @@
       </c>
       <c r="I1862" s="15"/>
     </row>
-    <row r="1863" spans="1:9">
+    <row r="1863" hidden="1" spans="1:9">
       <c r="A1863" s="2" t="s">
         <v>57</v>
       </c>
@@ -49433,7 +49470,7 @@
       </c>
       <c r="I1863" s="15"/>
     </row>
-    <row r="1864" spans="1:9">
+    <row r="1864" hidden="1" spans="1:9">
       <c r="A1864" s="2" t="s">
         <v>57</v>
       </c>
@@ -49451,7 +49488,7 @@
       </c>
       <c r="I1864" s="15"/>
     </row>
-    <row r="1865" spans="1:9">
+    <row r="1865" hidden="1" spans="1:9">
       <c r="A1865" s="2" t="s">
         <v>57</v>
       </c>
@@ -49469,7 +49506,7 @@
       </c>
       <c r="I1865" s="15"/>
     </row>
-    <row r="1866" spans="1:9">
+    <row r="1866" hidden="1" spans="1:9">
       <c r="A1866" s="2" t="s">
         <v>57</v>
       </c>
@@ -49487,7 +49524,7 @@
       </c>
       <c r="I1866" s="15"/>
     </row>
-    <row r="1867" spans="1:9">
+    <row r="1867" hidden="1" spans="1:9">
       <c r="A1867" s="2" t="s">
         <v>57</v>
       </c>
@@ -49505,7 +49542,7 @@
       </c>
       <c r="I1867" s="15"/>
     </row>
-    <row r="1868" spans="1:9">
+    <row r="1868" hidden="1" spans="1:9">
       <c r="A1868" s="2" t="s">
         <v>57</v>
       </c>
@@ -49523,7 +49560,7 @@
       </c>
       <c r="I1868" s="15"/>
     </row>
-    <row r="1869" spans="1:9">
+    <row r="1869" hidden="1" spans="1:9">
       <c r="A1869" s="2" t="s">
         <v>57</v>
       </c>
@@ -49541,7 +49578,7 @@
       </c>
       <c r="I1869" s="15"/>
     </row>
-    <row r="1870" spans="1:9">
+    <row r="1870" hidden="1" spans="1:9">
       <c r="A1870" s="2" t="s">
         <v>57</v>
       </c>
@@ -49559,7 +49596,7 @@
       </c>
       <c r="I1870" s="15"/>
     </row>
-    <row r="1871" spans="1:9">
+    <row r="1871" hidden="1" spans="1:9">
       <c r="A1871" s="2" t="s">
         <v>57</v>
       </c>
@@ -49577,7 +49614,7 @@
       </c>
       <c r="I1871" s="15"/>
     </row>
-    <row r="1872" spans="1:9">
+    <row r="1872" hidden="1" spans="1:9">
       <c r="A1872" s="2" t="s">
         <v>57</v>
       </c>
@@ -49595,7 +49632,7 @@
       </c>
       <c r="I1872" s="15"/>
     </row>
-    <row r="1873" spans="1:9">
+    <row r="1873" hidden="1" spans="1:9">
       <c r="A1873" s="2" t="s">
         <v>57</v>
       </c>
@@ -49613,7 +49650,7 @@
       </c>
       <c r="I1873" s="15"/>
     </row>
-    <row r="1874" spans="1:9">
+    <row r="1874" hidden="1" spans="1:9">
       <c r="A1874" s="2" t="s">
         <v>57</v>
       </c>
@@ -49631,7 +49668,7 @@
       </c>
       <c r="I1874" s="15"/>
     </row>
-    <row r="1875" spans="1:9">
+    <row r="1875" hidden="1" spans="1:9">
       <c r="A1875" s="2" t="s">
         <v>57</v>
       </c>
@@ -49649,7 +49686,7 @@
       </c>
       <c r="I1875" s="15"/>
     </row>
-    <row r="1876" spans="1:9">
+    <row r="1876" hidden="1" spans="1:9">
       <c r="A1876" s="2" t="s">
         <v>57</v>
       </c>
@@ -49665,9 +49702,6 @@
       <c r="E1876" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F1876" s="15"/>
-      <c r="G1876" s="15"/>
-      <c r="H1876" s="15"/>
       <c r="I1876" s="15"/>
     </row>
     <row r="1877" spans="1:9">
@@ -49686,12 +49720,9 @@
       <c r="E1877" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F1877" s="15"/>
-      <c r="G1877" s="15"/>
-      <c r="H1877" s="15"/>
       <c r="I1877" s="15"/>
     </row>
-    <row r="1878" spans="1:9">
+    <row r="1878" hidden="1" spans="1:9">
       <c r="A1878" s="2" t="s">
         <v>57</v>
       </c>
@@ -49707,12 +49738,9 @@
       <c r="E1878" s="15">
         <v>-9.2</v>
       </c>
-      <c r="F1878" s="15"/>
-      <c r="G1878" s="15"/>
-      <c r="H1878" s="15"/>
       <c r="I1878" s="15"/>
     </row>
-    <row r="1879" spans="1:9">
+    <row r="1879" hidden="1" spans="1:9">
       <c r="A1879" s="2" t="s">
         <v>57</v>
       </c>
@@ -49728,12 +49756,9 @@
       <c r="E1879" s="15">
         <v>-17.4</v>
       </c>
-      <c r="F1879" s="15"/>
-      <c r="G1879" s="15"/>
-      <c r="H1879" s="15"/>
       <c r="I1879" s="15"/>
     </row>
-    <row r="1880" spans="1:9">
+    <row r="1880" hidden="1" spans="1:9">
       <c r="A1880" s="2" t="s">
         <v>57</v>
       </c>
@@ -49749,12 +49774,9 @@
       <c r="E1880" s="15">
         <v>-5.6</v>
       </c>
-      <c r="F1880" s="15"/>
-      <c r="G1880" s="15"/>
-      <c r="H1880" s="15"/>
       <c r="I1880" s="15"/>
     </row>
-    <row r="1881" spans="1:9">
+    <row r="1881" hidden="1" spans="1:9">
       <c r="A1881" s="2" t="s">
         <v>57</v>
       </c>
@@ -49770,12 +49792,9 @@
       <c r="E1881" s="15">
         <v>-5.9</v>
       </c>
-      <c r="F1881" s="15"/>
-      <c r="G1881" s="15"/>
-      <c r="H1881" s="15"/>
       <c r="I1881" s="15"/>
     </row>
-    <row r="1882" spans="1:9">
+    <row r="1882" hidden="1" spans="1:9">
       <c r="A1882" s="2" t="s">
         <v>57</v>
       </c>
@@ -49791,12 +49810,9 @@
       <c r="E1882" s="15">
         <v>-4.5</v>
       </c>
-      <c r="F1882" s="15"/>
-      <c r="G1882" s="15"/>
-      <c r="H1882" s="15"/>
       <c r="I1882" s="15"/>
     </row>
-    <row r="1883" spans="1:9">
+    <row r="1883" hidden="1" spans="1:9">
       <c r="A1883" s="2" t="s">
         <v>57</v>
       </c>
@@ -49812,12 +49828,9 @@
       <c r="E1883" s="15">
         <v>-8.5</v>
       </c>
-      <c r="F1883" s="15"/>
-      <c r="G1883" s="15"/>
-      <c r="H1883" s="15"/>
       <c r="I1883" s="15"/>
     </row>
-    <row r="1884" spans="1:9">
+    <row r="1884" hidden="1" spans="1:9">
       <c r="A1884" s="2" t="s">
         <v>57</v>
       </c>
@@ -49833,12 +49846,9 @@
       <c r="E1884" s="15">
         <v>-21.2</v>
       </c>
-      <c r="F1884" s="15"/>
-      <c r="G1884" s="15"/>
-      <c r="H1884" s="15"/>
       <c r="I1884" s="15"/>
     </row>
-    <row r="1885" spans="1:9">
+    <row r="1885" hidden="1" spans="1:9">
       <c r="A1885" s="2" t="s">
         <v>57</v>
       </c>
@@ -49854,12 +49864,9 @@
       <c r="E1885" s="15">
         <v>-20.6</v>
       </c>
-      <c r="F1885" s="15"/>
-      <c r="G1885" s="15"/>
-      <c r="H1885" s="15"/>
       <c r="I1885" s="15"/>
     </row>
-    <row r="1886" spans="1:9">
+    <row r="1886" hidden="1" spans="1:9">
       <c r="A1886" s="2" t="s">
         <v>57</v>
       </c>
@@ -49875,12 +49882,9 @@
       <c r="E1886" s="15">
         <v>-19.1</v>
       </c>
-      <c r="F1886" s="15"/>
-      <c r="G1886" s="15"/>
-      <c r="H1886" s="15"/>
       <c r="I1886" s="15"/>
     </row>
-    <row r="1887" spans="1:9">
+    <row r="1887" hidden="1" spans="1:9">
       <c r="A1887" s="2" t="s">
         <v>57</v>
       </c>
@@ -49896,12 +49900,9 @@
       <c r="E1887" s="15">
         <v>-22.4</v>
       </c>
-      <c r="F1887" s="15"/>
-      <c r="G1887" s="15"/>
-      <c r="H1887" s="15"/>
       <c r="I1887" s="15"/>
     </row>
-    <row r="1888" spans="1:9">
+    <row r="1888" hidden="1" spans="1:9">
       <c r="A1888" s="2" t="s">
         <v>57</v>
       </c>
@@ -49917,12 +49918,9 @@
       <c r="E1888" s="15">
         <v>18.8</v>
       </c>
-      <c r="F1888" s="15"/>
-      <c r="G1888" s="15"/>
-      <c r="H1888" s="15"/>
       <c r="I1888" s="15"/>
     </row>
-    <row r="1889" spans="1:9">
+    <row r="1889" hidden="1" spans="1:9">
       <c r="A1889" s="2" t="s">
         <v>57</v>
       </c>
@@ -49938,12 +49936,9 @@
       <c r="E1889" s="15">
         <v>19.2</v>
       </c>
-      <c r="F1889" s="15"/>
-      <c r="G1889" s="15"/>
-      <c r="H1889" s="15"/>
       <c r="I1889" s="15"/>
     </row>
-    <row r="1890" spans="1:9">
+    <row r="1890" hidden="1" spans="1:9">
       <c r="A1890" s="2" t="s">
         <v>57</v>
       </c>
@@ -49959,12 +49954,9 @@
       <c r="E1890" s="15">
         <v>9.8</v>
       </c>
-      <c r="F1890" s="15"/>
-      <c r="G1890" s="15"/>
-      <c r="H1890" s="15"/>
       <c r="I1890" s="15"/>
     </row>
-    <row r="1891" spans="1:9">
+    <row r="1891" hidden="1" spans="1:9">
       <c r="A1891" s="2" t="s">
         <v>57</v>
       </c>
@@ -49980,12 +49972,9 @@
       <c r="E1891" s="15">
         <v>3.2</v>
       </c>
-      <c r="F1891" s="15"/>
-      <c r="G1891" s="15"/>
-      <c r="H1891" s="15"/>
       <c r="I1891" s="15"/>
     </row>
-    <row r="1892" spans="1:9">
+    <row r="1892" hidden="1" spans="1:9">
       <c r="A1892" s="2" t="s">
         <v>57</v>
       </c>
@@ -50001,12 +49990,9 @@
       <c r="E1892" s="17">
         <v>0</v>
       </c>
-      <c r="F1892" s="15"/>
-      <c r="G1892" s="15"/>
-      <c r="H1892" s="15"/>
       <c r="I1892" s="15"/>
     </row>
-    <row r="1893" spans="1:9">
+    <row r="1893" hidden="1" spans="1:9">
       <c r="A1893" s="2" t="s">
         <v>57</v>
       </c>
@@ -50022,12 +50008,9 @@
       <c r="E1893" s="17">
         <v>0</v>
       </c>
-      <c r="F1893" s="15"/>
-      <c r="G1893" s="15"/>
-      <c r="H1893" s="15"/>
       <c r="I1893" s="15"/>
     </row>
-    <row r="1894" spans="1:9">
+    <row r="1894" hidden="1" spans="1:9">
       <c r="A1894" s="2" t="s">
         <v>57</v>
       </c>
@@ -50043,12 +50026,9 @@
       <c r="E1894" s="15">
         <v>-0.4</v>
       </c>
-      <c r="F1894" s="15"/>
-      <c r="G1894" s="15"/>
-      <c r="H1894" s="15"/>
       <c r="I1894" s="15"/>
     </row>
-    <row r="1895" spans="1:9">
+    <row r="1895" hidden="1" spans="1:9">
       <c r="A1895" s="2" t="s">
         <v>57</v>
       </c>
@@ -50064,12 +50044,9 @@
       <c r="E1895" s="15">
         <v>2.7</v>
       </c>
-      <c r="F1895" s="15"/>
-      <c r="G1895" s="15"/>
-      <c r="H1895" s="15"/>
       <c r="I1895" s="15"/>
     </row>
-    <row r="1896" spans="1:9">
+    <row r="1896" hidden="1" spans="1:9">
       <c r="A1896" s="2" t="s">
         <v>57</v>
       </c>
@@ -50085,12 +50062,9 @@
       <c r="E1896" s="15">
         <v>-14.9</v>
       </c>
-      <c r="F1896" s="15"/>
-      <c r="G1896" s="15"/>
-      <c r="H1896" s="15"/>
       <c r="I1896" s="15"/>
     </row>
-    <row r="1897" spans="1:9">
+    <row r="1897" hidden="1" spans="1:9">
       <c r="A1897" s="2" t="s">
         <v>57</v>
       </c>
@@ -50106,12 +50080,9 @@
       <c r="E1897" s="15">
         <v>-21.2</v>
       </c>
-      <c r="F1897" s="15"/>
-      <c r="G1897" s="15"/>
-      <c r="H1897" s="15"/>
       <c r="I1897" s="15"/>
     </row>
-    <row r="1898" spans="1:9">
+    <row r="1898" hidden="1" spans="1:9">
       <c r="A1898" s="2" t="s">
         <v>57</v>
       </c>
@@ -50127,12 +50098,9 @@
       <c r="E1898" s="15">
         <v>8.8</v>
       </c>
-      <c r="F1898" s="15"/>
-      <c r="G1898" s="15"/>
-      <c r="H1898" s="15"/>
       <c r="I1898" s="15"/>
     </row>
-    <row r="1899" spans="1:9">
+    <row r="1899" hidden="1" spans="1:9">
       <c r="A1899" s="2" t="s">
         <v>57</v>
       </c>
@@ -50148,12 +50116,9 @@
       <c r="E1899" s="15">
         <v>11.8</v>
       </c>
-      <c r="F1899" s="15"/>
-      <c r="G1899" s="15"/>
-      <c r="H1899" s="15"/>
       <c r="I1899" s="15"/>
     </row>
-    <row r="1900" spans="1:9">
+    <row r="1900" hidden="1" spans="1:9">
       <c r="A1900" s="2" t="s">
         <v>57</v>
       </c>
@@ -50169,12 +50134,9 @@
       <c r="E1900" s="15">
         <v>-10.5</v>
       </c>
-      <c r="F1900" s="15"/>
-      <c r="G1900" s="15"/>
-      <c r="H1900" s="15"/>
       <c r="I1900" s="15"/>
     </row>
-    <row r="1901" spans="1:9">
+    <row r="1901" hidden="1" spans="1:9">
       <c r="A1901" s="2" t="s">
         <v>57</v>
       </c>
@@ -50190,12 +50152,9 @@
       <c r="E1901" s="15">
         <v>-16</v>
       </c>
-      <c r="F1901" s="15"/>
-      <c r="G1901" s="15"/>
-      <c r="H1901" s="15"/>
       <c r="I1901" s="15"/>
     </row>
-    <row r="1902" spans="1:9">
+    <row r="1902" hidden="1" spans="1:9">
       <c r="A1902" s="2" t="s">
         <v>57</v>
       </c>
@@ -50211,12 +50170,9 @@
       <c r="E1902" s="15">
         <v>15.7</v>
       </c>
-      <c r="F1902" s="15"/>
-      <c r="G1902" s="15"/>
-      <c r="H1902" s="15"/>
       <c r="I1902" s="15"/>
     </row>
-    <row r="1903" spans="1:9">
+    <row r="1903" hidden="1" spans="1:9">
       <c r="A1903" s="2" t="s">
         <v>57</v>
       </c>
@@ -50232,12 +50188,9 @@
       <c r="E1903" s="15">
         <v>15.4</v>
       </c>
-      <c r="F1903" s="15"/>
-      <c r="G1903" s="15"/>
-      <c r="H1903" s="15"/>
       <c r="I1903" s="15"/>
     </row>
-    <row r="1904" spans="1:9">
+    <row r="1904" hidden="1" spans="1:9">
       <c r="A1904" s="2" t="s">
         <v>57</v>
       </c>
@@ -50253,12 +50206,9 @@
       <c r="E1904" s="15">
         <v>23.7</v>
       </c>
-      <c r="F1904" s="15"/>
-      <c r="G1904" s="15"/>
-      <c r="H1904" s="15"/>
       <c r="I1904" s="15"/>
     </row>
-    <row r="1905" spans="1:9">
+    <row r="1905" hidden="1" spans="1:9">
       <c r="A1905" s="2" t="s">
         <v>57</v>
       </c>
@@ -50274,12 +50224,9 @@
       <c r="E1905" s="15">
         <v>13.6</v>
       </c>
-      <c r="F1905" s="15"/>
-      <c r="G1905" s="15"/>
-      <c r="H1905" s="15"/>
       <c r="I1905" s="15"/>
     </row>
-    <row r="1906" spans="1:9">
+    <row r="1906" hidden="1" spans="1:9">
       <c r="A1906" s="2" t="s">
         <v>57</v>
       </c>
@@ -50295,12 +50242,9 @@
       <c r="E1906" s="15">
         <v>-6.4</v>
       </c>
-      <c r="F1906" s="15"/>
-      <c r="G1906" s="15"/>
-      <c r="H1906" s="15"/>
       <c r="I1906" s="15"/>
     </row>
-    <row r="1907" spans="1:9">
+    <row r="1907" hidden="1" spans="1:9">
       <c r="A1907" s="2" t="s">
         <v>57</v>
       </c>
@@ -50316,12 +50260,9 @@
       <c r="E1907" s="15">
         <v>-10</v>
       </c>
-      <c r="F1907" s="15"/>
-      <c r="G1907" s="15"/>
-      <c r="H1907" s="15"/>
       <c r="I1907" s="15"/>
     </row>
-    <row r="1908" spans="1:9">
+    <row r="1908" hidden="1" spans="1:9">
       <c r="A1908" s="2" t="s">
         <v>57</v>
       </c>
@@ -50337,12 +50278,9 @@
       <c r="E1908" s="15">
         <v>-69.6</v>
       </c>
-      <c r="F1908" s="15"/>
-      <c r="G1908" s="15"/>
-      <c r="H1908" s="15"/>
       <c r="I1908" s="15"/>
     </row>
-    <row r="1909" spans="1:9">
+    <row r="1909" hidden="1" spans="1:9">
       <c r="A1909" s="2" t="s">
         <v>57</v>
       </c>
@@ -50358,12 +50296,9 @@
       <c r="E1909" s="15">
         <v>-19.4</v>
       </c>
-      <c r="F1909" s="15"/>
-      <c r="G1909" s="15"/>
-      <c r="H1909" s="15"/>
       <c r="I1909" s="15"/>
     </row>
-    <row r="1910" spans="1:9">
+    <row r="1910" hidden="1" spans="1:9">
       <c r="A1910" s="2" t="s">
         <v>57</v>
       </c>
@@ -50379,12 +50314,9 @@
       <c r="E1910" s="15">
         <v>4</v>
       </c>
-      <c r="F1910" s="15"/>
-      <c r="G1910" s="15"/>
-      <c r="H1910" s="15"/>
       <c r="I1910" s="15"/>
     </row>
-    <row r="1911" spans="1:9">
+    <row r="1911" hidden="1" spans="1:9">
       <c r="A1911" s="2" t="s">
         <v>57</v>
       </c>
@@ -50400,337 +50332,766 @@
       <c r="E1911" s="15">
         <v>2.5</v>
       </c>
-      <c r="F1911" s="15"/>
-      <c r="G1911" s="15"/>
-      <c r="H1911" s="15"/>
       <c r="I1911" s="15"/>
     </row>
-    <row r="1912" spans="3:9">
-      <c r="C1912" s="25"/>
-      <c r="D1912" s="15"/>
-      <c r="E1912" s="15"/>
+    <row r="1912" hidden="1" spans="1:9">
+      <c r="A1912" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1912" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1912" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1912" s="25">
+        <v>45701</v>
+      </c>
+      <c r="E1912" s="26">
+        <v>-7.2</v>
+      </c>
       <c r="F1912" s="15"/>
       <c r="G1912" s="15"/>
       <c r="H1912" s="15"/>
       <c r="I1912" s="15"/>
     </row>
-    <row r="1913" spans="3:9">
-      <c r="C1913" s="25"/>
-      <c r="D1913" s="15"/>
-      <c r="E1913" s="15"/>
+    <row r="1913" spans="1:9">
+      <c r="A1913" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1913" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1913" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1913" s="25">
+        <v>34809</v>
+      </c>
+      <c r="E1913" s="26">
+        <v>-6.4</v>
+      </c>
       <c r="F1913" s="15"/>
       <c r="G1913" s="15"/>
       <c r="H1913" s="15"/>
       <c r="I1913" s="15"/>
     </row>
-    <row r="1914" spans="3:9">
-      <c r="C1914" s="25"/>
-      <c r="D1914" s="15"/>
-      <c r="E1914" s="15"/>
+    <row r="1914" hidden="1" spans="1:9">
+      <c r="A1914" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1914" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1914" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1914" s="25">
+        <v>1825</v>
+      </c>
+      <c r="E1914" s="26">
+        <v>-6</v>
+      </c>
       <c r="F1914" s="15"/>
       <c r="G1914" s="15"/>
       <c r="H1914" s="15"/>
       <c r="I1914" s="15"/>
     </row>
-    <row r="1915" spans="3:9">
-      <c r="C1915" s="25"/>
-      <c r="D1915" s="15"/>
-      <c r="E1915" s="15"/>
+    <row r="1915" hidden="1" spans="1:9">
+      <c r="A1915" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1915" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1915" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1915" s="25">
+        <v>3261</v>
+      </c>
+      <c r="E1915" s="26">
+        <v>-18.2</v>
+      </c>
       <c r="F1915" s="15"/>
       <c r="G1915" s="15"/>
       <c r="H1915" s="15"/>
       <c r="I1915" s="15"/>
     </row>
-    <row r="1916" spans="3:9">
-      <c r="C1916" s="25"/>
-      <c r="D1916" s="15"/>
-      <c r="E1916" s="15"/>
+    <row r="1916" hidden="1" spans="1:9">
+      <c r="A1916" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1916" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1916" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1916" s="25">
+        <v>779506</v>
+      </c>
+      <c r="E1916" s="26">
+        <v>-6.2</v>
+      </c>
       <c r="F1916" s="15"/>
       <c r="G1916" s="15"/>
       <c r="H1916" s="15"/>
       <c r="I1916" s="15"/>
     </row>
-    <row r="1917" spans="3:9">
-      <c r="C1917" s="25"/>
-      <c r="D1917" s="15"/>
-      <c r="E1917" s="15"/>
+    <row r="1917" hidden="1" spans="1:9">
+      <c r="A1917" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1917" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1917" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1917" s="25">
+        <v>548475</v>
+      </c>
+      <c r="E1917" s="26">
+        <v>-6.5</v>
+      </c>
       <c r="F1917" s="15"/>
       <c r="G1917" s="15"/>
       <c r="H1917" s="15"/>
       <c r="I1917" s="15"/>
     </row>
-    <row r="1918" spans="3:9">
-      <c r="C1918" s="25"/>
-      <c r="D1918" s="15"/>
-      <c r="E1918" s="15"/>
+    <row r="1918" hidden="1" spans="1:9">
+      <c r="A1918" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1918" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1918" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1918" s="25">
+        <v>31306</v>
+      </c>
+      <c r="E1918" s="26">
+        <v>-4.5</v>
+      </c>
       <c r="F1918" s="15"/>
       <c r="G1918" s="15"/>
       <c r="H1918" s="15"/>
       <c r="I1918" s="15"/>
     </row>
-    <row r="1919" spans="3:9">
-      <c r="C1919" s="25"/>
-      <c r="D1919" s="15"/>
-      <c r="E1919" s="15"/>
+    <row r="1919" hidden="1" spans="1:9">
+      <c r="A1919" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1919" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1919" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1919" s="25">
+        <v>68321</v>
+      </c>
+      <c r="E1919" s="26">
+        <v>-8.9</v>
+      </c>
       <c r="F1919" s="15"/>
       <c r="G1919" s="15"/>
       <c r="H1919" s="15"/>
       <c r="I1919" s="15"/>
     </row>
-    <row r="1920" spans="3:9">
-      <c r="C1920" s="25"/>
-      <c r="D1920" s="15"/>
-      <c r="E1920" s="15"/>
+    <row r="1920" hidden="1" spans="1:9">
+      <c r="A1920" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1920" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1920" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1920" s="25">
+        <v>39723</v>
+      </c>
+      <c r="E1920" s="26">
+        <v>-22.6</v>
+      </c>
       <c r="F1920" s="15"/>
       <c r="G1920" s="15"/>
       <c r="H1920" s="15"/>
       <c r="I1920" s="15"/>
     </row>
-    <row r="1921" spans="3:9">
-      <c r="C1921" s="25"/>
-      <c r="D1921" s="15"/>
-      <c r="E1921" s="15"/>
+    <row r="1921" hidden="1" spans="1:9">
+      <c r="A1921" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1921" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1921" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1921" s="25">
+        <v>29010</v>
+      </c>
+      <c r="E1921" s="26">
+        <v>-22.7</v>
+      </c>
       <c r="F1921" s="15"/>
       <c r="G1921" s="15"/>
       <c r="H1921" s="15"/>
       <c r="I1921" s="15"/>
     </row>
-    <row r="1922" spans="3:9">
-      <c r="C1922" s="25"/>
-      <c r="D1922" s="15"/>
-      <c r="E1922" s="15"/>
+    <row r="1922" hidden="1" spans="1:9">
+      <c r="A1922" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1922" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1922" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1922" s="25">
+        <v>1094</v>
+      </c>
+      <c r="E1922" s="26">
+        <v>-16</v>
+      </c>
       <c r="F1922" s="15"/>
       <c r="G1922" s="15"/>
       <c r="H1922" s="15"/>
       <c r="I1922" s="15"/>
     </row>
-    <row r="1923" spans="3:9">
-      <c r="C1923" s="25"/>
-      <c r="D1923" s="15"/>
-      <c r="E1923" s="15"/>
+    <row r="1923" hidden="1" spans="1:9">
+      <c r="A1923" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1923" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1923" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1923" s="25">
+        <v>2631</v>
+      </c>
+      <c r="E1923" s="26">
+        <v>-25.2</v>
+      </c>
       <c r="F1923" s="15"/>
       <c r="G1923" s="15"/>
       <c r="H1923" s="15"/>
       <c r="I1923" s="15"/>
     </row>
-    <row r="1924" spans="3:9">
-      <c r="C1924" s="25"/>
-      <c r="D1924" s="15"/>
-      <c r="E1924" s="15"/>
+    <row r="1924" hidden="1" spans="1:9">
+      <c r="A1924" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1924" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1924" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1924" s="25">
+        <v>27826</v>
+      </c>
+      <c r="E1924" s="26">
+        <v>19.6</v>
+      </c>
       <c r="F1924" s="15"/>
       <c r="G1924" s="15"/>
       <c r="H1924" s="15"/>
       <c r="I1924" s="15"/>
     </row>
-    <row r="1925" spans="3:9">
-      <c r="C1925" s="25"/>
-      <c r="D1925" s="15"/>
-      <c r="E1925" s="15"/>
+    <row r="1925" hidden="1" spans="1:9">
+      <c r="A1925" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1925" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1925" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1925" s="25">
+        <v>20194</v>
+      </c>
+      <c r="E1925" s="26">
+        <v>19</v>
+      </c>
       <c r="F1925" s="15"/>
       <c r="G1925" s="15"/>
       <c r="H1925" s="15"/>
       <c r="I1925" s="15"/>
     </row>
-    <row r="1926" spans="3:9">
-      <c r="C1926" s="25"/>
-      <c r="D1926" s="15"/>
-      <c r="E1926" s="15"/>
+    <row r="1926" hidden="1" spans="1:9">
+      <c r="A1926" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1926" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1926" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1926" s="25">
+        <v>883</v>
+      </c>
+      <c r="E1926" s="26">
+        <v>31.4</v>
+      </c>
       <c r="F1926" s="15"/>
       <c r="G1926" s="15"/>
       <c r="H1926" s="15"/>
       <c r="I1926" s="15"/>
     </row>
-    <row r="1927" spans="3:9">
-      <c r="C1927" s="25"/>
-      <c r="D1927" s="15"/>
-      <c r="E1927" s="15"/>
+    <row r="1927" hidden="1" spans="1:9">
+      <c r="A1927" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1927" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1927" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1927" s="25">
+        <v>2080</v>
+      </c>
+      <c r="E1927" s="26">
+        <v>3.7</v>
+      </c>
       <c r="F1927" s="15"/>
       <c r="G1927" s="15"/>
       <c r="H1927" s="15"/>
       <c r="I1927" s="15"/>
     </row>
-    <row r="1928" spans="3:9">
-      <c r="C1928" s="25"/>
-      <c r="D1928" s="15"/>
-      <c r="E1928" s="15"/>
+    <row r="1928" hidden="1" spans="1:9">
+      <c r="A1928" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1928" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1928" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1928" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1928" s="17">
+        <v>0</v>
+      </c>
       <c r="F1928" s="15"/>
       <c r="G1928" s="15"/>
       <c r="H1928" s="15"/>
       <c r="I1928" s="15"/>
     </row>
-    <row r="1929" spans="3:9">
-      <c r="C1929" s="25"/>
-      <c r="D1929" s="15"/>
-      <c r="E1929" s="15"/>
+    <row r="1929" hidden="1" spans="1:9">
+      <c r="A1929" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1929" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1929" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1929" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1929" s="17">
+        <v>0</v>
+      </c>
       <c r="F1929" s="15"/>
       <c r="G1929" s="15"/>
       <c r="H1929" s="15"/>
       <c r="I1929" s="15"/>
     </row>
-    <row r="1930" spans="3:9">
-      <c r="C1930" s="25"/>
-      <c r="D1930" s="15"/>
-      <c r="E1930" s="15"/>
+    <row r="1930" hidden="1" spans="1:9">
+      <c r="A1930" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1930" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1930" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1930" s="25">
+        <v>46440</v>
+      </c>
+      <c r="E1930" s="26">
+        <v>-0.9</v>
+      </c>
       <c r="F1930" s="15"/>
       <c r="G1930" s="15"/>
       <c r="H1930" s="15"/>
       <c r="I1930" s="15"/>
     </row>
-    <row r="1931" spans="3:9">
-      <c r="C1931" s="25"/>
-      <c r="D1931" s="15"/>
-      <c r="E1931" s="15"/>
+    <row r="1931" hidden="1" spans="1:9">
+      <c r="A1931" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1931" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1931" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1931" s="25">
+        <v>40663</v>
+      </c>
+      <c r="E1931" s="26">
+        <v>2.3</v>
+      </c>
       <c r="F1931" s="15"/>
       <c r="G1931" s="15"/>
       <c r="H1931" s="15"/>
       <c r="I1931" s="15"/>
     </row>
-    <row r="1932" spans="3:9">
-      <c r="C1932" s="25"/>
-      <c r="D1932" s="15"/>
-      <c r="E1932" s="15"/>
+    <row r="1932" hidden="1" spans="1:9">
+      <c r="A1932" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1932" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1932" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1932" s="25">
+        <v>911</v>
+      </c>
+      <c r="E1932" s="26">
+        <v>-17</v>
+      </c>
       <c r="F1932" s="15"/>
       <c r="G1932" s="15"/>
       <c r="H1932" s="15"/>
       <c r="I1932" s="15"/>
     </row>
-    <row r="1933" spans="3:9">
-      <c r="C1933" s="25"/>
-      <c r="D1933" s="15"/>
-      <c r="E1933" s="15"/>
+    <row r="1933" hidden="1" spans="1:9">
+      <c r="A1933" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1933" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1933" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1933" s="25">
+        <v>2178</v>
+      </c>
+      <c r="E1933" s="26">
+        <v>-21.8</v>
+      </c>
       <c r="F1933" s="15"/>
       <c r="G1933" s="15"/>
       <c r="H1933" s="15"/>
       <c r="I1933" s="15"/>
     </row>
-    <row r="1934" spans="3:9">
-      <c r="C1934" s="25"/>
-      <c r="D1934" s="15"/>
-      <c r="E1934" s="15"/>
+    <row r="1934" hidden="1" spans="1:9">
+      <c r="A1934" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1934" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1934" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1934" s="25">
+        <v>49787</v>
+      </c>
+      <c r="E1934" s="26">
+        <v>8.4</v>
+      </c>
       <c r="F1934" s="15"/>
       <c r="G1934" s="15"/>
       <c r="H1934" s="15"/>
       <c r="I1934" s="15"/>
     </row>
-    <row r="1935" spans="3:9">
-      <c r="C1935" s="25"/>
-      <c r="D1935" s="15"/>
-      <c r="E1935" s="15"/>
+    <row r="1935" hidden="1" spans="1:9">
+      <c r="A1935" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1935" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1935" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1935" s="25">
+        <v>45132</v>
+      </c>
+      <c r="E1935" s="26">
+        <v>11.9</v>
+      </c>
       <c r="F1935" s="15"/>
       <c r="G1935" s="15"/>
       <c r="H1935" s="15"/>
       <c r="I1935" s="15"/>
     </row>
-    <row r="1936" spans="3:9">
-      <c r="C1936" s="25"/>
-      <c r="D1936" s="15"/>
-      <c r="E1936" s="15"/>
+    <row r="1936" hidden="1" spans="1:9">
+      <c r="A1936" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1936" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1936" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1936" s="25">
+        <v>1224</v>
+      </c>
+      <c r="E1936" s="26">
+        <v>-17.4</v>
+      </c>
       <c r="F1936" s="15"/>
       <c r="G1936" s="15"/>
       <c r="H1936" s="15"/>
       <c r="I1936" s="15"/>
     </row>
-    <row r="1937" spans="3:9">
-      <c r="C1937" s="25"/>
-      <c r="D1937" s="15"/>
-      <c r="E1937" s="15"/>
+    <row r="1937" hidden="1" spans="1:9">
+      <c r="A1937" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1937" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1937" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1937" s="25">
+        <v>2293</v>
+      </c>
+      <c r="E1937" s="26">
+        <v>-18.2</v>
+      </c>
       <c r="F1937" s="15"/>
       <c r="G1937" s="15"/>
       <c r="H1937" s="15"/>
       <c r="I1937" s="15"/>
     </row>
-    <row r="1938" spans="3:9">
-      <c r="C1938" s="25"/>
-      <c r="D1938" s="15"/>
-      <c r="E1938" s="15"/>
+    <row r="1938" hidden="1" spans="1:9">
+      <c r="A1938" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1938" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1938" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1938" s="25">
+        <v>64120</v>
+      </c>
+      <c r="E1938" s="26">
+        <v>15.7</v>
+      </c>
       <c r="F1938" s="15"/>
       <c r="G1938" s="15"/>
       <c r="H1938" s="15"/>
       <c r="I1938" s="15"/>
     </row>
-    <row r="1939" spans="3:9">
-      <c r="C1939" s="25"/>
-      <c r="D1939" s="15"/>
-      <c r="E1939" s="15"/>
+    <row r="1939" hidden="1" spans="1:9">
+      <c r="A1939" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1939" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1939" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1939" s="25">
+        <v>31048</v>
+      </c>
+      <c r="E1939" s="26">
+        <v>15.9</v>
+      </c>
       <c r="F1939" s="15"/>
       <c r="G1939" s="15"/>
       <c r="H1939" s="15"/>
       <c r="I1939" s="15"/>
     </row>
-    <row r="1940" spans="3:9">
-      <c r="C1940" s="25"/>
-      <c r="D1940" s="15"/>
-      <c r="E1940" s="15"/>
+    <row r="1940" hidden="1" spans="1:9">
+      <c r="A1940" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1940" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1940" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1940" s="25">
+        <v>4768</v>
+      </c>
+      <c r="E1940" s="26">
+        <v>22.6</v>
+      </c>
       <c r="F1940" s="15"/>
       <c r="G1940" s="15"/>
       <c r="H1940" s="15"/>
       <c r="I1940" s="15"/>
     </row>
-    <row r="1941" spans="3:9">
-      <c r="C1941" s="25"/>
-      <c r="D1941" s="15"/>
-      <c r="E1941" s="15"/>
+    <row r="1941" hidden="1" spans="1:9">
+      <c r="A1941" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1941" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1941" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1941" s="25">
+        <v>14029</v>
+      </c>
+      <c r="E1941" s="26">
+        <v>12.9</v>
+      </c>
       <c r="F1941" s="15"/>
       <c r="G1941" s="15"/>
       <c r="H1941" s="15"/>
       <c r="I1941" s="15"/>
     </row>
-    <row r="1942" spans="3:9">
-      <c r="C1942" s="25"/>
-      <c r="D1942" s="15"/>
-      <c r="E1942" s="15"/>
+    <row r="1942" hidden="1" spans="1:9">
+      <c r="A1942" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1942" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1942" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1942" s="25">
+        <v>55958</v>
+      </c>
+      <c r="E1942" s="26">
+        <v>-6.6</v>
+      </c>
       <c r="F1942" s="15"/>
       <c r="G1942" s="15"/>
       <c r="H1942" s="15"/>
       <c r="I1942" s="15"/>
     </row>
-    <row r="1943" spans="3:9">
-      <c r="C1943" s="25"/>
-      <c r="D1943" s="15"/>
-      <c r="E1943" s="15"/>
+    <row r="1943" hidden="1" spans="1:9">
+      <c r="A1943" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1943" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1943" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1943" s="25">
+        <v>7175</v>
+      </c>
+      <c r="E1943" s="26">
+        <v>-10.5</v>
+      </c>
       <c r="F1943" s="15"/>
       <c r="G1943" s="15"/>
       <c r="H1943" s="15"/>
       <c r="I1943" s="15"/>
     </row>
-    <row r="1944" spans="3:9">
-      <c r="C1944" s="25"/>
-      <c r="D1944" s="15"/>
-      <c r="E1944" s="15"/>
+    <row r="1944" hidden="1" spans="1:9">
+      <c r="A1944" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1944" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1944" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1944" s="25">
+        <v>13</v>
+      </c>
+      <c r="E1944" s="26">
+        <v>-73.5</v>
+      </c>
       <c r="F1944" s="15"/>
       <c r="G1944" s="15"/>
       <c r="H1944" s="15"/>
       <c r="I1944" s="15"/>
     </row>
-    <row r="1945" spans="3:9">
-      <c r="C1945" s="25"/>
-      <c r="D1945" s="15"/>
-      <c r="E1945" s="15"/>
+    <row r="1945" hidden="1" spans="1:9">
+      <c r="A1945" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1945" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1945" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1945" s="25">
+        <v>16267</v>
+      </c>
+      <c r="E1945" s="26">
+        <v>-21.6</v>
+      </c>
       <c r="F1945" s="15"/>
       <c r="G1945" s="15"/>
       <c r="H1945" s="15"/>
       <c r="I1945" s="15"/>
     </row>
-    <row r="1946" spans="3:9">
-      <c r="C1946" s="25"/>
-      <c r="D1946" s="15"/>
-      <c r="E1946" s="15"/>
+    <row r="1946" hidden="1" spans="1:9">
+      <c r="A1946" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1946" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1946" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1946" s="25">
+        <v>19878</v>
+      </c>
+      <c r="E1946" s="26">
+        <v>4.4</v>
+      </c>
       <c r="F1946" s="15"/>
       <c r="G1946" s="15"/>
       <c r="H1946" s="15"/>
       <c r="I1946" s="15"/>
     </row>
-    <row r="1947" spans="3:9">
-      <c r="C1947" s="25"/>
-      <c r="D1947" s="15"/>
-      <c r="E1947" s="15"/>
+    <row r="1947" hidden="1" spans="1:9">
+      <c r="A1947" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1947" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1947" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1947" s="27">
+        <v>10354</v>
+      </c>
+      <c r="E1947" s="29">
+        <v>6.5</v>
+      </c>
       <c r="F1947" s="15"/>
       <c r="G1947" s="15"/>
       <c r="H1947" s="15"/>
       <c r="I1947" s="15"/>
     </row>
     <row r="1948" spans="3:9">
-      <c r="C1948" s="25"/>
+      <c r="C1948" s="28"/>
       <c r="D1948" s="15"/>
       <c r="E1948" s="15"/>
       <c r="F1948" s="15"/>
@@ -50739,7 +51100,7 @@
       <c r="I1948" s="15"/>
     </row>
     <row r="1949" spans="3:9">
-      <c r="C1949" s="25"/>
+      <c r="C1949" s="28"/>
       <c r="D1949" s="15"/>
       <c r="E1949" s="15"/>
       <c r="F1949" s="15"/>
@@ -50748,7 +51109,7 @@
       <c r="I1949" s="15"/>
     </row>
     <row r="1950" spans="3:9">
-      <c r="C1950" s="25"/>
+      <c r="C1950" s="28"/>
       <c r="D1950" s="15"/>
       <c r="E1950" s="15"/>
       <c r="F1950" s="15"/>
@@ -50757,7 +51118,7 @@
       <c r="I1950" s="15"/>
     </row>
     <row r="1951" spans="3:9">
-      <c r="C1951" s="25"/>
+      <c r="C1951" s="28"/>
       <c r="D1951" s="15"/>
       <c r="E1951" s="15"/>
       <c r="F1951" s="15"/>
@@ -50766,7 +51127,7 @@
       <c r="I1951" s="15"/>
     </row>
     <row r="1952" spans="3:9">
-      <c r="C1952" s="25"/>
+      <c r="C1952" s="28"/>
       <c r="D1952" s="15"/>
       <c r="E1952" s="15"/>
       <c r="F1952" s="15"/>
@@ -50775,7 +51136,7 @@
       <c r="I1952" s="15"/>
     </row>
     <row r="1953" spans="3:9">
-      <c r="C1953" s="25"/>
+      <c r="C1953" s="28"/>
       <c r="D1953" s="15"/>
       <c r="E1953" s="15"/>
       <c r="F1953" s="15"/>
@@ -50784,7 +51145,7 @@
       <c r="I1953" s="15"/>
     </row>
     <row r="1954" spans="3:9">
-      <c r="C1954" s="25"/>
+      <c r="C1954" s="28"/>
       <c r="D1954" s="15"/>
       <c r="E1954" s="15"/>
       <c r="F1954" s="15"/>
@@ -50793,7 +51154,7 @@
       <c r="I1954" s="15"/>
     </row>
     <row r="1955" spans="3:9">
-      <c r="C1955" s="25"/>
+      <c r="C1955" s="28"/>
       <c r="D1955" s="15"/>
       <c r="E1955" s="15"/>
       <c r="F1955" s="15"/>
@@ -50802,7 +51163,7 @@
       <c r="I1955" s="15"/>
     </row>
     <row r="1956" spans="3:9">
-      <c r="C1956" s="25"/>
+      <c r="C1956" s="28"/>
       <c r="D1956" s="15"/>
       <c r="E1956" s="15"/>
       <c r="F1956" s="15"/>
@@ -50811,7 +51172,7 @@
       <c r="I1956" s="15"/>
     </row>
     <row r="1957" spans="3:9">
-      <c r="C1957" s="25"/>
+      <c r="C1957" s="28"/>
       <c r="D1957" s="15"/>
       <c r="E1957" s="15"/>
       <c r="F1957" s="15"/>
@@ -50820,7 +51181,7 @@
       <c r="I1957" s="15"/>
     </row>
     <row r="1958" spans="3:9">
-      <c r="C1958" s="25"/>
+      <c r="C1958" s="28"/>
       <c r="D1958" s="15"/>
       <c r="E1958" s="15"/>
       <c r="F1958" s="15"/>
@@ -50829,7 +51190,7 @@
       <c r="I1958" s="15"/>
     </row>
     <row r="1959" spans="3:9">
-      <c r="C1959" s="25"/>
+      <c r="C1959" s="28"/>
       <c r="D1959" s="15"/>
       <c r="E1959" s="15"/>
       <c r="F1959" s="15"/>
@@ -50838,7 +51199,7 @@
       <c r="I1959" s="15"/>
     </row>
     <row r="1960" spans="3:9">
-      <c r="C1960" s="25"/>
+      <c r="C1960" s="28"/>
       <c r="D1960" s="15"/>
       <c r="E1960" s="15"/>
       <c r="F1960" s="15"/>
@@ -50847,7 +51208,7 @@
       <c r="I1960" s="15"/>
     </row>
     <row r="1961" spans="3:9">
-      <c r="C1961" s="25"/>
+      <c r="C1961" s="28"/>
       <c r="D1961" s="15"/>
       <c r="E1961" s="15"/>
       <c r="F1961" s="15"/>
@@ -50856,7 +51217,7 @@
       <c r="I1961" s="15"/>
     </row>
     <row r="1962" spans="3:9">
-      <c r="C1962" s="25"/>
+      <c r="C1962" s="28"/>
       <c r="D1962" s="15"/>
       <c r="E1962" s="15"/>
       <c r="F1962" s="15"/>
@@ -50865,7 +51226,7 @@
       <c r="I1962" s="15"/>
     </row>
     <row r="1963" spans="3:9">
-      <c r="C1963" s="25"/>
+      <c r="C1963" s="28"/>
       <c r="D1963" s="15"/>
       <c r="E1963" s="15"/>
       <c r="F1963" s="15"/>
@@ -50874,7 +51235,7 @@
       <c r="I1963" s="15"/>
     </row>
     <row r="1964" spans="3:9">
-      <c r="C1964" s="25"/>
+      <c r="C1964" s="28"/>
       <c r="D1964" s="15"/>
       <c r="E1964" s="15"/>
       <c r="F1964" s="15"/>
@@ -50883,7 +51244,7 @@
       <c r="I1964" s="15"/>
     </row>
     <row r="1965" spans="3:9">
-      <c r="C1965" s="25"/>
+      <c r="C1965" s="28"/>
       <c r="D1965" s="15"/>
       <c r="E1965" s="15"/>
       <c r="F1965" s="15"/>
@@ -50892,7 +51253,7 @@
       <c r="I1965" s="15"/>
     </row>
     <row r="1966" spans="3:9">
-      <c r="C1966" s="25"/>
+      <c r="C1966" s="28"/>
       <c r="D1966" s="15"/>
       <c r="E1966" s="15"/>
       <c r="F1966" s="15"/>
@@ -50901,7 +51262,7 @@
       <c r="I1966" s="15"/>
     </row>
     <row r="1967" spans="3:9">
-      <c r="C1967" s="25"/>
+      <c r="C1967" s="28"/>
       <c r="D1967" s="15"/>
       <c r="E1967" s="15"/>
       <c r="F1967" s="15"/>
@@ -50910,7 +51271,7 @@
       <c r="I1967" s="15"/>
     </row>
     <row r="1968" spans="3:9">
-      <c r="C1968" s="25"/>
+      <c r="C1968" s="28"/>
       <c r="D1968" s="15"/>
       <c r="E1968" s="15"/>
       <c r="F1968" s="15"/>
@@ -50919,7 +51280,7 @@
       <c r="I1968" s="15"/>
     </row>
     <row r="1969" spans="3:9">
-      <c r="C1969" s="25"/>
+      <c r="C1969" s="28"/>
       <c r="D1969" s="15"/>
       <c r="E1969" s="15"/>
       <c r="F1969" s="15"/>
@@ -50928,7 +51289,7 @@
       <c r="I1969" s="15"/>
     </row>
     <row r="1970" spans="3:9">
-      <c r="C1970" s="25"/>
+      <c r="C1970" s="28"/>
       <c r="D1970" s="15"/>
       <c r="E1970" s="15"/>
       <c r="F1970" s="15"/>
@@ -50937,7 +51298,7 @@
       <c r="I1970" s="15"/>
     </row>
     <row r="1971" spans="3:9">
-      <c r="C1971" s="25"/>
+      <c r="C1971" s="28"/>
       <c r="D1971" s="15"/>
       <c r="E1971" s="15"/>
       <c r="F1971" s="15"/>
@@ -50946,7 +51307,7 @@
       <c r="I1971" s="15"/>
     </row>
     <row r="1972" spans="3:9">
-      <c r="C1972" s="25"/>
+      <c r="C1972" s="28"/>
       <c r="D1972" s="15"/>
       <c r="E1972" s="15"/>
       <c r="F1972" s="15"/>
@@ -50955,7 +51316,7 @@
       <c r="I1972" s="15"/>
     </row>
     <row r="1973" spans="3:9">
-      <c r="C1973" s="25"/>
+      <c r="C1973" s="28"/>
       <c r="D1973" s="15"/>
       <c r="E1973" s="15"/>
       <c r="F1973" s="15"/>
@@ -50964,7 +51325,7 @@
       <c r="I1973" s="15"/>
     </row>
     <row r="1974" spans="3:9">
-      <c r="C1974" s="25"/>
+      <c r="C1974" s="28"/>
       <c r="D1974" s="15"/>
       <c r="E1974" s="15"/>
       <c r="F1974" s="15"/>
@@ -50973,7 +51334,7 @@
       <c r="I1974" s="15"/>
     </row>
     <row r="1975" spans="3:9">
-      <c r="C1975" s="25"/>
+      <c r="C1975" s="28"/>
       <c r="D1975" s="15"/>
       <c r="E1975" s="15"/>
       <c r="F1975" s="15"/>
@@ -50982,7 +51343,7 @@
       <c r="I1975" s="15"/>
     </row>
     <row r="1976" spans="3:9">
-      <c r="C1976" s="25"/>
+      <c r="C1976" s="28"/>
       <c r="D1976" s="15"/>
       <c r="E1976" s="15"/>
       <c r="F1976" s="15"/>
@@ -50991,7 +51352,7 @@
       <c r="I1976" s="15"/>
     </row>
     <row r="1977" spans="3:9">
-      <c r="C1977" s="25"/>
+      <c r="C1977" s="28"/>
       <c r="D1977" s="15"/>
       <c r="E1977" s="15"/>
       <c r="F1977" s="15"/>
@@ -51000,7 +51361,7 @@
       <c r="I1977" s="15"/>
     </row>
     <row r="1978" spans="3:9">
-      <c r="C1978" s="25"/>
+      <c r="C1978" s="28"/>
       <c r="D1978" s="15"/>
       <c r="E1978" s="15"/>
       <c r="F1978" s="15"/>
@@ -51009,7 +51370,7 @@
       <c r="I1978" s="15"/>
     </row>
     <row r="1979" spans="3:9">
-      <c r="C1979" s="25"/>
+      <c r="C1979" s="28"/>
       <c r="D1979" s="15"/>
       <c r="E1979" s="15"/>
       <c r="F1979" s="15"/>
@@ -51018,7 +51379,7 @@
       <c r="I1979" s="15"/>
     </row>
     <row r="1980" spans="3:9">
-      <c r="C1980" s="25"/>
+      <c r="C1980" s="28"/>
       <c r="D1980" s="15"/>
       <c r="E1980" s="15"/>
       <c r="F1980" s="15"/>
@@ -51027,7 +51388,7 @@
       <c r="I1980" s="15"/>
     </row>
     <row r="1981" spans="3:9">
-      <c r="C1981" s="25"/>
+      <c r="C1981" s="28"/>
       <c r="D1981" s="15"/>
       <c r="E1981" s="15"/>
       <c r="F1981" s="15"/>
@@ -51036,7 +51397,7 @@
       <c r="I1981" s="15"/>
     </row>
     <row r="1982" spans="3:9">
-      <c r="C1982" s="25"/>
+      <c r="C1982" s="28"/>
       <c r="D1982" s="15"/>
       <c r="E1982" s="15"/>
       <c r="F1982" s="15"/>
@@ -51045,7 +51406,7 @@
       <c r="I1982" s="15"/>
     </row>
     <row r="1983" spans="3:9">
-      <c r="C1983" s="25"/>
+      <c r="C1983" s="28"/>
       <c r="D1983" s="15"/>
       <c r="E1983" s="15"/>
       <c r="F1983" s="15"/>
@@ -51054,7 +51415,7 @@
       <c r="I1983" s="15"/>
     </row>
     <row r="1984" spans="3:9">
-      <c r="C1984" s="25"/>
+      <c r="C1984" s="28"/>
       <c r="D1984" s="15"/>
       <c r="E1984" s="15"/>
       <c r="F1984" s="15"/>
@@ -51063,7 +51424,7 @@
       <c r="I1984" s="15"/>
     </row>
     <row r="1985" spans="3:9">
-      <c r="C1985" s="25"/>
+      <c r="C1985" s="28"/>
       <c r="D1985" s="15"/>
       <c r="E1985" s="15"/>
       <c r="F1985" s="15"/>
@@ -51072,7 +51433,7 @@
       <c r="I1985" s="15"/>
     </row>
     <row r="1986" spans="3:9">
-      <c r="C1986" s="25"/>
+      <c r="C1986" s="28"/>
       <c r="D1986" s="15"/>
       <c r="E1986" s="15"/>
       <c r="F1986" s="15"/>
@@ -51081,7 +51442,7 @@
       <c r="I1986" s="15"/>
     </row>
     <row r="1987" spans="3:9">
-      <c r="C1987" s="25"/>
+      <c r="C1987" s="28"/>
       <c r="D1987" s="15"/>
       <c r="E1987" s="15"/>
       <c r="F1987" s="15"/>
@@ -51090,7 +51451,7 @@
       <c r="I1987" s="15"/>
     </row>
     <row r="1988" spans="3:9">
-      <c r="C1988" s="25"/>
+      <c r="C1988" s="28"/>
       <c r="D1988" s="15"/>
       <c r="E1988" s="15"/>
       <c r="F1988" s="15"/>
@@ -51099,7 +51460,7 @@
       <c r="I1988" s="15"/>
     </row>
     <row r="1989" spans="3:9">
-      <c r="C1989" s="25"/>
+      <c r="C1989" s="28"/>
       <c r="D1989" s="15"/>
       <c r="E1989" s="15"/>
       <c r="F1989" s="15"/>
@@ -51108,7 +51469,7 @@
       <c r="I1989" s="15"/>
     </row>
     <row r="1990" spans="3:9">
-      <c r="C1990" s="25"/>
+      <c r="C1990" s="28"/>
       <c r="D1990" s="15"/>
       <c r="E1990" s="15"/>
       <c r="F1990" s="15"/>
@@ -51117,7 +51478,7 @@
       <c r="I1990" s="15"/>
     </row>
     <row r="1991" spans="3:9">
-      <c r="C1991" s="25"/>
+      <c r="C1991" s="28"/>
       <c r="D1991" s="15"/>
       <c r="E1991" s="15"/>
       <c r="F1991" s="15"/>
@@ -51126,7 +51487,7 @@
       <c r="I1991" s="15"/>
     </row>
     <row r="1992" spans="3:9">
-      <c r="C1992" s="25"/>
+      <c r="C1992" s="28"/>
       <c r="D1992" s="15"/>
       <c r="E1992" s="15"/>
       <c r="F1992" s="15"/>
@@ -51135,7 +51496,7 @@
       <c r="I1992" s="15"/>
     </row>
     <row r="1993" spans="3:9">
-      <c r="C1993" s="25"/>
+      <c r="C1993" s="28"/>
       <c r="D1993" s="15"/>
       <c r="E1993" s="15"/>
       <c r="F1993" s="15"/>
@@ -51144,7 +51505,7 @@
       <c r="I1993" s="15"/>
     </row>
     <row r="1994" spans="3:9">
-      <c r="C1994" s="25"/>
+      <c r="C1994" s="28"/>
       <c r="D1994" s="15"/>
       <c r="E1994" s="15"/>
       <c r="F1994" s="15"/>
@@ -51153,7 +51514,7 @@
       <c r="I1994" s="15"/>
     </row>
     <row r="1995" spans="3:9">
-      <c r="C1995" s="25"/>
+      <c r="C1995" s="28"/>
       <c r="D1995" s="15"/>
       <c r="E1995" s="15"/>
       <c r="F1995" s="15"/>
@@ -51162,7 +51523,7 @@
       <c r="I1995" s="15"/>
     </row>
     <row r="1996" spans="3:9">
-      <c r="C1996" s="25"/>
+      <c r="C1996" s="28"/>
       <c r="D1996" s="15"/>
       <c r="E1996" s="15"/>
       <c r="F1996" s="15"/>
@@ -51171,7 +51532,7 @@
       <c r="I1996" s="15"/>
     </row>
     <row r="1997" spans="3:9">
-      <c r="C1997" s="25"/>
+      <c r="C1997" s="28"/>
       <c r="D1997" s="15"/>
       <c r="E1997" s="15"/>
       <c r="F1997" s="15"/>
@@ -51180,7 +51541,7 @@
       <c r="I1997" s="15"/>
     </row>
     <row r="1998" spans="3:9">
-      <c r="C1998" s="25"/>
+      <c r="C1998" s="28"/>
       <c r="D1998" s="15"/>
       <c r="E1998" s="15"/>
       <c r="F1998" s="15"/>
@@ -51189,7 +51550,7 @@
       <c r="I1998" s="15"/>
     </row>
     <row r="1999" spans="3:9">
-      <c r="C1999" s="25"/>
+      <c r="C1999" s="28"/>
       <c r="D1999" s="15"/>
       <c r="E1999" s="15"/>
       <c r="F1999" s="15"/>
@@ -51198,7 +51559,7 @@
       <c r="I1999" s="15"/>
     </row>
     <row r="2000" spans="3:9">
-      <c r="C2000" s="25"/>
+      <c r="C2000" s="28"/>
       <c r="D2000" s="15"/>
       <c r="E2000" s="15"/>
       <c r="F2000" s="15"/>
@@ -51207,7 +51568,7 @@
       <c r="I2000" s="15"/>
     </row>
     <row r="2001" spans="3:9">
-      <c r="C2001" s="25"/>
+      <c r="C2001" s="28"/>
       <c r="D2001" s="15"/>
       <c r="E2001" s="15"/>
       <c r="F2001" s="15"/>
@@ -51216,7 +51577,7 @@
       <c r="I2001" s="15"/>
     </row>
     <row r="2002" spans="3:9">
-      <c r="C2002" s="25"/>
+      <c r="C2002" s="28"/>
       <c r="D2002" s="15"/>
       <c r="E2002" s="15"/>
       <c r="F2002" s="15"/>
@@ -51225,7 +51586,7 @@
       <c r="I2002" s="15"/>
     </row>
     <row r="2003" spans="3:9">
-      <c r="C2003" s="25"/>
+      <c r="C2003" s="28"/>
       <c r="D2003" s="15"/>
       <c r="E2003" s="15"/>
       <c r="F2003" s="15"/>
@@ -51234,7 +51595,7 @@
       <c r="I2003" s="15"/>
     </row>
     <row r="2004" spans="3:9">
-      <c r="C2004" s="25"/>
+      <c r="C2004" s="28"/>
       <c r="D2004" s="15"/>
       <c r="E2004" s="15"/>
       <c r="F2004" s="15"/>
@@ -51243,7 +51604,7 @@
       <c r="I2004" s="15"/>
     </row>
     <row r="2005" spans="3:9">
-      <c r="C2005" s="25"/>
+      <c r="C2005" s="28"/>
       <c r="D2005" s="15"/>
       <c r="E2005" s="15"/>
       <c r="F2005" s="15"/>
@@ -51252,7 +51613,7 @@
       <c r="I2005" s="15"/>
     </row>
     <row r="2006" spans="3:9">
-      <c r="C2006" s="25"/>
+      <c r="C2006" s="28"/>
       <c r="D2006" s="15"/>
       <c r="E2006" s="15"/>
       <c r="F2006" s="15"/>
@@ -51261,7 +51622,7 @@
       <c r="I2006" s="15"/>
     </row>
     <row r="2007" spans="3:9">
-      <c r="C2007" s="25"/>
+      <c r="C2007" s="28"/>
       <c r="D2007" s="15"/>
       <c r="E2007" s="15"/>
       <c r="F2007" s="15"/>
@@ -51270,7 +51631,7 @@
       <c r="I2007" s="15"/>
     </row>
     <row r="2008" spans="3:9">
-      <c r="C2008" s="25"/>
+      <c r="C2008" s="28"/>
       <c r="D2008" s="15"/>
       <c r="E2008" s="15"/>
       <c r="F2008" s="15"/>
@@ -51279,7 +51640,7 @@
       <c r="I2008" s="15"/>
     </row>
     <row r="2009" spans="3:9">
-      <c r="C2009" s="25"/>
+      <c r="C2009" s="28"/>
       <c r="D2009" s="15"/>
       <c r="E2009" s="15"/>
       <c r="F2009" s="15"/>
@@ -51288,7 +51649,7 @@
       <c r="I2009" s="15"/>
     </row>
     <row r="2010" spans="3:9">
-      <c r="C2010" s="25"/>
+      <c r="C2010" s="28"/>
       <c r="D2010" s="15"/>
       <c r="E2010" s="15"/>
       <c r="F2010" s="15"/>
@@ -51297,7 +51658,7 @@
       <c r="I2010" s="15"/>
     </row>
     <row r="2011" spans="3:9">
-      <c r="C2011" s="25"/>
+      <c r="C2011" s="28"/>
       <c r="D2011" s="15"/>
       <c r="E2011" s="15"/>
       <c r="F2011" s="15"/>
@@ -51306,7 +51667,7 @@
       <c r="I2011" s="15"/>
     </row>
     <row r="2012" spans="3:9">
-      <c r="C2012" s="25"/>
+      <c r="C2012" s="28"/>
       <c r="D2012" s="15"/>
       <c r="E2012" s="15"/>
       <c r="F2012" s="15"/>
@@ -51315,7 +51676,7 @@
       <c r="I2012" s="15"/>
     </row>
     <row r="2013" spans="3:9">
-      <c r="C2013" s="25"/>
+      <c r="C2013" s="28"/>
       <c r="D2013" s="15"/>
       <c r="E2013" s="15"/>
       <c r="F2013" s="15"/>
@@ -51324,7 +51685,7 @@
       <c r="I2013" s="15"/>
     </row>
     <row r="2014" spans="3:9">
-      <c r="C2014" s="25"/>
+      <c r="C2014" s="28"/>
       <c r="D2014" s="15"/>
       <c r="E2014" s="15"/>
       <c r="F2014" s="15"/>
@@ -51333,7 +51694,7 @@
       <c r="I2014" s="15"/>
     </row>
     <row r="2015" spans="3:9">
-      <c r="C2015" s="25"/>
+      <c r="C2015" s="28"/>
       <c r="D2015" s="15"/>
       <c r="E2015" s="15"/>
       <c r="F2015" s="15"/>
@@ -51342,7 +51703,7 @@
       <c r="I2015" s="15"/>
     </row>
     <row r="2016" spans="3:9">
-      <c r="C2016" s="25"/>
+      <c r="C2016" s="28"/>
       <c r="D2016" s="15"/>
       <c r="E2016" s="15"/>
       <c r="F2016" s="15"/>
@@ -51351,7 +51712,7 @@
       <c r="I2016" s="15"/>
     </row>
     <row r="2017" spans="3:9">
-      <c r="C2017" s="25"/>
+      <c r="C2017" s="28"/>
       <c r="D2017" s="15"/>
       <c r="E2017" s="15"/>
       <c r="F2017" s="15"/>
@@ -51360,7 +51721,7 @@
       <c r="I2017" s="15"/>
     </row>
     <row r="2018" spans="3:9">
-      <c r="C2018" s="25"/>
+      <c r="C2018" s="28"/>
       <c r="D2018" s="15"/>
       <c r="E2018" s="15"/>
       <c r="F2018" s="15"/>
@@ -51369,7 +51730,7 @@
       <c r="I2018" s="15"/>
     </row>
     <row r="2019" spans="3:9">
-      <c r="C2019" s="25"/>
+      <c r="C2019" s="28"/>
       <c r="D2019" s="15"/>
       <c r="E2019" s="15"/>
       <c r="F2019" s="15"/>
@@ -51378,7 +51739,7 @@
       <c r="I2019" s="15"/>
     </row>
     <row r="2020" spans="3:9">
-      <c r="C2020" s="25"/>
+      <c r="C2020" s="28"/>
       <c r="D2020" s="15"/>
       <c r="E2020" s="15"/>
       <c r="F2020" s="15"/>
@@ -51387,7 +51748,7 @@
       <c r="I2020" s="15"/>
     </row>
     <row r="2021" spans="3:9">
-      <c r="C2021" s="25"/>
+      <c r="C2021" s="28"/>
       <c r="D2021" s="15"/>
       <c r="E2021" s="15"/>
       <c r="F2021" s="15"/>
@@ -51396,7 +51757,7 @@
       <c r="I2021" s="15"/>
     </row>
     <row r="2022" spans="3:9">
-      <c r="C2022" s="25"/>
+      <c r="C2022" s="28"/>
       <c r="D2022" s="15"/>
       <c r="E2022" s="15"/>
       <c r="F2022" s="15"/>
@@ -51405,7 +51766,7 @@
       <c r="I2022" s="15"/>
     </row>
     <row r="2023" spans="3:9">
-      <c r="C2023" s="25"/>
+      <c r="C2023" s="28"/>
       <c r="D2023" s="15"/>
       <c r="E2023" s="15"/>
       <c r="F2023" s="15"/>
@@ -51414,7 +51775,7 @@
       <c r="I2023" s="15"/>
     </row>
     <row r="2024" spans="3:9">
-      <c r="C2024" s="25"/>
+      <c r="C2024" s="28"/>
       <c r="D2024" s="15"/>
       <c r="E2024" s="15"/>
       <c r="F2024" s="15"/>
@@ -51423,7 +51784,7 @@
       <c r="I2024" s="15"/>
     </row>
     <row r="2025" spans="3:9">
-      <c r="C2025" s="25"/>
+      <c r="C2025" s="28"/>
       <c r="D2025" s="15"/>
       <c r="E2025" s="15"/>
       <c r="F2025" s="15"/>
@@ -51432,7 +51793,7 @@
       <c r="I2025" s="15"/>
     </row>
     <row r="2026" spans="3:9">
-      <c r="C2026" s="25"/>
+      <c r="C2026" s="28"/>
       <c r="D2026" s="15"/>
       <c r="E2026" s="15"/>
       <c r="F2026" s="15"/>
@@ -51441,7 +51802,7 @@
       <c r="I2026" s="15"/>
     </row>
     <row r="2027" spans="3:9">
-      <c r="C2027" s="25"/>
+      <c r="C2027" s="28"/>
       <c r="D2027" s="15"/>
       <c r="E2027" s="15"/>
       <c r="F2027" s="15"/>
@@ -51450,7 +51811,7 @@
       <c r="I2027" s="15"/>
     </row>
     <row r="2028" spans="3:9">
-      <c r="C2028" s="25"/>
+      <c r="C2028" s="28"/>
       <c r="D2028" s="15"/>
       <c r="E2028" s="15"/>
       <c r="F2028" s="15"/>
@@ -51459,7 +51820,7 @@
       <c r="I2028" s="15"/>
     </row>
     <row r="2029" spans="3:9">
-      <c r="C2029" s="25"/>
+      <c r="C2029" s="28"/>
       <c r="D2029" s="15"/>
       <c r="E2029" s="15"/>
       <c r="F2029" s="15"/>
@@ -51468,7 +51829,7 @@
       <c r="I2029" s="15"/>
     </row>
     <row r="2030" spans="3:9">
-      <c r="C2030" s="25"/>
+      <c r="C2030" s="28"/>
       <c r="D2030" s="15"/>
       <c r="E2030" s="15"/>
       <c r="F2030" s="15"/>
@@ -51477,7 +51838,7 @@
       <c r="I2030" s="15"/>
     </row>
     <row r="2031" spans="3:9">
-      <c r="C2031" s="25"/>
+      <c r="C2031" s="28"/>
       <c r="D2031" s="15"/>
       <c r="E2031" s="15"/>
       <c r="F2031" s="15"/>
@@ -51486,7 +51847,7 @@
       <c r="I2031" s="15"/>
     </row>
     <row r="2032" spans="3:9">
-      <c r="C2032" s="25"/>
+      <c r="C2032" s="28"/>
       <c r="D2032" s="15"/>
       <c r="E2032" s="15"/>
       <c r="F2032" s="15"/>
@@ -51495,7 +51856,7 @@
       <c r="I2032" s="15"/>
     </row>
     <row r="2033" spans="3:9">
-      <c r="C2033" s="25"/>
+      <c r="C2033" s="28"/>
       <c r="D2033" s="15"/>
       <c r="E2033" s="15"/>
       <c r="F2033" s="15"/>
@@ -51504,7 +51865,7 @@
       <c r="I2033" s="15"/>
     </row>
     <row r="2034" spans="3:9">
-      <c r="C2034" s="25"/>
+      <c r="C2034" s="28"/>
       <c r="D2034" s="15"/>
       <c r="E2034" s="15"/>
       <c r="F2034" s="15"/>
@@ -51513,7 +51874,7 @@
       <c r="I2034" s="15"/>
     </row>
     <row r="2035" spans="3:9">
-      <c r="C2035" s="25"/>
+      <c r="C2035" s="28"/>
       <c r="D2035" s="15"/>
       <c r="E2035" s="15"/>
       <c r="F2035" s="15"/>
@@ -51522,7 +51883,7 @@
       <c r="I2035" s="15"/>
     </row>
     <row r="2036" spans="3:9">
-      <c r="C2036" s="25"/>
+      <c r="C2036" s="28"/>
       <c r="D2036" s="15"/>
       <c r="E2036" s="15"/>
       <c r="F2036" s="15"/>
@@ -51531,7 +51892,7 @@
       <c r="I2036" s="15"/>
     </row>
     <row r="2037" spans="3:9">
-      <c r="C2037" s="25"/>
+      <c r="C2037" s="28"/>
       <c r="D2037" s="15"/>
       <c r="E2037" s="15"/>
       <c r="F2037" s="15"/>
@@ -51540,7 +51901,7 @@
       <c r="I2037" s="15"/>
     </row>
     <row r="2038" spans="3:9">
-      <c r="C2038" s="25"/>
+      <c r="C2038" s="28"/>
       <c r="D2038" s="15"/>
       <c r="E2038" s="15"/>
       <c r="F2038" s="15"/>
@@ -51549,7 +51910,7 @@
       <c r="I2038" s="15"/>
     </row>
     <row r="2039" spans="3:9">
-      <c r="C2039" s="25"/>
+      <c r="C2039" s="28"/>
       <c r="D2039" s="15"/>
       <c r="E2039" s="15"/>
       <c r="F2039" s="15"/>
@@ -51558,7 +51919,7 @@
       <c r="I2039" s="15"/>
     </row>
     <row r="2040" spans="3:9">
-      <c r="C2040" s="25"/>
+      <c r="C2040" s="28"/>
       <c r="D2040" s="15"/>
       <c r="E2040" s="15"/>
       <c r="F2040" s="15"/>
@@ -51567,7 +51928,7 @@
       <c r="I2040" s="15"/>
     </row>
     <row r="2041" spans="3:9">
-      <c r="C2041" s="25"/>
+      <c r="C2041" s="28"/>
       <c r="D2041" s="15"/>
       <c r="E2041" s="15"/>
       <c r="F2041" s="15"/>
@@ -51576,7 +51937,7 @@
       <c r="I2041" s="15"/>
     </row>
     <row r="2042" spans="3:9">
-      <c r="C2042" s="25"/>
+      <c r="C2042" s="28"/>
       <c r="D2042" s="15"/>
       <c r="E2042" s="15"/>
       <c r="F2042" s="15"/>
@@ -51585,7 +51946,7 @@
       <c r="I2042" s="15"/>
     </row>
     <row r="2043" spans="3:9">
-      <c r="C2043" s="25"/>
+      <c r="C2043" s="28"/>
       <c r="D2043" s="15"/>
       <c r="E2043" s="15"/>
       <c r="F2043" s="15"/>
@@ -51594,7 +51955,7 @@
       <c r="I2043" s="15"/>
     </row>
     <row r="2044" spans="3:9">
-      <c r="C2044" s="25"/>
+      <c r="C2044" s="28"/>
       <c r="D2044" s="15"/>
       <c r="E2044" s="15"/>
       <c r="F2044" s="15"/>
@@ -51603,7 +51964,7 @@
       <c r="I2044" s="15"/>
     </row>
     <row r="2045" spans="3:9">
-      <c r="C2045" s="25"/>
+      <c r="C2045" s="28"/>
       <c r="D2045" s="15"/>
       <c r="E2045" s="15"/>
       <c r="F2045" s="15"/>
@@ -51612,7 +51973,7 @@
       <c r="I2045" s="15"/>
     </row>
     <row r="2046" spans="3:9">
-      <c r="C2046" s="25"/>
+      <c r="C2046" s="28"/>
       <c r="D2046" s="15"/>
       <c r="E2046" s="15"/>
       <c r="F2046" s="15"/>
@@ -51621,7 +51982,7 @@
       <c r="I2046" s="15"/>
     </row>
     <row r="2047" spans="3:9">
-      <c r="C2047" s="25"/>
+      <c r="C2047" s="28"/>
       <c r="D2047" s="15"/>
       <c r="E2047" s="15"/>
       <c r="F2047" s="15"/>
@@ -51630,7 +51991,7 @@
       <c r="I2047" s="15"/>
     </row>
     <row r="2048" spans="3:9">
-      <c r="C2048" s="25"/>
+      <c r="C2048" s="28"/>
       <c r="D2048" s="15"/>
       <c r="E2048" s="15"/>
       <c r="F2048" s="15"/>
@@ -51639,7 +52000,7 @@
       <c r="I2048" s="15"/>
     </row>
     <row r="2049" spans="3:9">
-      <c r="C2049" s="25"/>
+      <c r="C2049" s="28"/>
       <c r="D2049" s="15"/>
       <c r="E2049" s="15"/>
       <c r="F2049" s="15"/>
@@ -51648,7 +52009,7 @@
       <c r="I2049" s="15"/>
     </row>
     <row r="2050" spans="3:9">
-      <c r="C2050" s="25"/>
+      <c r="C2050" s="28"/>
       <c r="D2050" s="15"/>
       <c r="E2050" s="15"/>
       <c r="F2050" s="15"/>
@@ -51657,7 +52018,7 @@
       <c r="I2050" s="15"/>
     </row>
     <row r="2051" spans="3:9">
-      <c r="C2051" s="25"/>
+      <c r="C2051" s="28"/>
       <c r="D2051" s="15"/>
       <c r="E2051" s="15"/>
       <c r="F2051" s="15"/>
@@ -51666,7 +52027,7 @@
       <c r="I2051" s="15"/>
     </row>
     <row r="2052" spans="3:9">
-      <c r="C2052" s="25"/>
+      <c r="C2052" s="28"/>
       <c r="D2052" s="15"/>
       <c r="E2052" s="15"/>
       <c r="F2052" s="15"/>
@@ -51675,7 +52036,7 @@
       <c r="I2052" s="15"/>
     </row>
     <row r="2053" spans="3:9">
-      <c r="C2053" s="25"/>
+      <c r="C2053" s="28"/>
       <c r="D2053" s="15"/>
       <c r="E2053" s="15"/>
       <c r="F2053" s="15"/>
@@ -51684,7 +52045,7 @@
       <c r="I2053" s="15"/>
     </row>
     <row r="2054" spans="3:9">
-      <c r="C2054" s="25"/>
+      <c r="C2054" s="28"/>
       <c r="D2054" s="15"/>
       <c r="E2054" s="15"/>
       <c r="F2054" s="15"/>
@@ -51693,7 +52054,7 @@
       <c r="I2054" s="15"/>
     </row>
     <row r="2055" spans="3:9">
-      <c r="C2055" s="25"/>
+      <c r="C2055" s="28"/>
       <c r="D2055" s="15"/>
       <c r="E2055" s="15"/>
       <c r="F2055" s="15"/>
@@ -51702,7 +52063,7 @@
       <c r="I2055" s="15"/>
     </row>
     <row r="2056" spans="3:9">
-      <c r="C2056" s="25"/>
+      <c r="C2056" s="28"/>
       <c r="D2056" s="15"/>
       <c r="E2056" s="15"/>
       <c r="F2056" s="15"/>
@@ -51711,7 +52072,7 @@
       <c r="I2056" s="15"/>
     </row>
     <row r="2057" spans="3:9">
-      <c r="C2057" s="25"/>
+      <c r="C2057" s="28"/>
       <c r="D2057" s="15"/>
       <c r="E2057" s="15"/>
       <c r="F2057" s="15"/>
@@ -51720,7 +52081,7 @@
       <c r="I2057" s="15"/>
     </row>
     <row r="2058" spans="3:9">
-      <c r="C2058" s="25"/>
+      <c r="C2058" s="28"/>
       <c r="D2058" s="15"/>
       <c r="E2058" s="15"/>
       <c r="F2058" s="15"/>
@@ -51729,7 +52090,7 @@
       <c r="I2058" s="15"/>
     </row>
     <row r="2059" spans="3:9">
-      <c r="C2059" s="25"/>
+      <c r="C2059" s="28"/>
       <c r="D2059" s="15"/>
       <c r="E2059" s="15"/>
       <c r="F2059" s="15"/>
@@ -51738,7 +52099,7 @@
       <c r="I2059" s="15"/>
     </row>
     <row r="2060" spans="3:9">
-      <c r="C2060" s="25"/>
+      <c r="C2060" s="28"/>
       <c r="D2060" s="15"/>
       <c r="E2060" s="15"/>
       <c r="F2060" s="15"/>
@@ -51747,7 +52108,7 @@
       <c r="I2060" s="15"/>
     </row>
     <row r="2061" spans="3:9">
-      <c r="C2061" s="25"/>
+      <c r="C2061" s="28"/>
       <c r="D2061" s="15"/>
       <c r="E2061" s="15"/>
       <c r="F2061" s="15"/>
@@ -51756,7 +52117,7 @@
       <c r="I2061" s="15"/>
     </row>
     <row r="2062" spans="3:9">
-      <c r="C2062" s="25"/>
+      <c r="C2062" s="28"/>
       <c r="D2062" s="15"/>
       <c r="E2062" s="15"/>
       <c r="F2062" s="15"/>
@@ -51765,7 +52126,7 @@
       <c r="I2062" s="15"/>
     </row>
     <row r="2063" spans="3:9">
-      <c r="C2063" s="25"/>
+      <c r="C2063" s="28"/>
       <c r="D2063" s="15"/>
       <c r="E2063" s="15"/>
       <c r="F2063" s="15"/>
@@ -51774,7 +52135,7 @@
       <c r="I2063" s="15"/>
     </row>
     <row r="2064" spans="3:9">
-      <c r="C2064" s="25"/>
+      <c r="C2064" s="28"/>
       <c r="D2064" s="15"/>
       <c r="E2064" s="15"/>
       <c r="F2064" s="15"/>
@@ -51783,7 +52144,7 @@
       <c r="I2064" s="15"/>
     </row>
     <row r="2065" spans="3:9">
-      <c r="C2065" s="25"/>
+      <c r="C2065" s="28"/>
       <c r="D2065" s="15"/>
       <c r="E2065" s="15"/>
       <c r="F2065" s="15"/>
@@ -51792,7 +52153,7 @@
       <c r="I2065" s="15"/>
     </row>
     <row r="2066" spans="3:9">
-      <c r="C2066" s="25"/>
+      <c r="C2066" s="28"/>
       <c r="D2066" s="15"/>
       <c r="E2066" s="15"/>
       <c r="F2066" s="15"/>
@@ -51801,7 +52162,7 @@
       <c r="I2066" s="15"/>
     </row>
     <row r="2067" spans="3:9">
-      <c r="C2067" s="25"/>
+      <c r="C2067" s="28"/>
       <c r="D2067" s="15"/>
       <c r="E2067" s="15"/>
       <c r="F2067" s="15"/>
@@ -51810,7 +52171,7 @@
       <c r="I2067" s="15"/>
     </row>
     <row r="2068" spans="3:9">
-      <c r="C2068" s="25"/>
+      <c r="C2068" s="28"/>
       <c r="D2068" s="15"/>
       <c r="E2068" s="15"/>
       <c r="F2068" s="15"/>
@@ -51819,7 +52180,7 @@
       <c r="I2068" s="15"/>
     </row>
     <row r="2069" spans="3:9">
-      <c r="C2069" s="25"/>
+      <c r="C2069" s="28"/>
       <c r="D2069" s="15"/>
       <c r="E2069" s="15"/>
       <c r="F2069" s="15"/>
@@ -51828,7 +52189,7 @@
       <c r="I2069" s="15"/>
     </row>
     <row r="2070" spans="3:9">
-      <c r="C2070" s="25"/>
+      <c r="C2070" s="28"/>
       <c r="D2070" s="15"/>
       <c r="E2070" s="15"/>
       <c r="F2070" s="15"/>
@@ -51837,7 +52198,7 @@
       <c r="I2070" s="15"/>
     </row>
     <row r="2071" spans="3:9">
-      <c r="C2071" s="25"/>
+      <c r="C2071" s="28"/>
       <c r="D2071" s="15"/>
       <c r="E2071" s="15"/>
       <c r="F2071" s="15"/>
@@ -51846,7 +52207,7 @@
       <c r="I2071" s="15"/>
     </row>
     <row r="2072" spans="3:9">
-      <c r="C2072" s="25"/>
+      <c r="C2072" s="28"/>
       <c r="D2072" s="15"/>
       <c r="E2072" s="15"/>
       <c r="F2072" s="15"/>
@@ -51855,7 +52216,7 @@
       <c r="I2072" s="15"/>
     </row>
     <row r="2073" spans="3:9">
-      <c r="C2073" s="25"/>
+      <c r="C2073" s="28"/>
       <c r="D2073" s="15"/>
       <c r="E2073" s="15"/>
       <c r="F2073" s="15"/>
@@ -51864,7 +52225,7 @@
       <c r="I2073" s="15"/>
     </row>
     <row r="2074" spans="3:9">
-      <c r="C2074" s="25"/>
+      <c r="C2074" s="28"/>
       <c r="D2074" s="15"/>
       <c r="E2074" s="15"/>
       <c r="F2074" s="15"/>
@@ -51873,7 +52234,7 @@
       <c r="I2074" s="15"/>
     </row>
     <row r="2075" spans="3:9">
-      <c r="C2075" s="25"/>
+      <c r="C2075" s="28"/>
       <c r="D2075" s="15"/>
       <c r="E2075" s="15"/>
       <c r="F2075" s="15"/>
@@ -51882,7 +52243,7 @@
       <c r="I2075" s="15"/>
     </row>
     <row r="2076" spans="3:9">
-      <c r="C2076" s="25"/>
+      <c r="C2076" s="28"/>
       <c r="D2076" s="15"/>
       <c r="E2076" s="15"/>
       <c r="F2076" s="15"/>
@@ -51891,7 +52252,7 @@
       <c r="I2076" s="15"/>
     </row>
     <row r="2077" spans="3:9">
-      <c r="C2077" s="25"/>
+      <c r="C2077" s="28"/>
       <c r="D2077" s="15"/>
       <c r="E2077" s="15"/>
       <c r="F2077" s="15"/>
@@ -51900,7 +52261,7 @@
       <c r="I2077" s="15"/>
     </row>
     <row r="2078" spans="3:9">
-      <c r="C2078" s="25"/>
+      <c r="C2078" s="28"/>
       <c r="D2078" s="15"/>
       <c r="E2078" s="15"/>
       <c r="F2078" s="15"/>
@@ -51909,7 +52270,7 @@
       <c r="I2078" s="15"/>
     </row>
     <row r="2079" spans="3:9">
-      <c r="C2079" s="25"/>
+      <c r="C2079" s="28"/>
       <c r="D2079" s="15"/>
       <c r="E2079" s="15"/>
       <c r="F2079" s="15"/>
@@ -51918,7 +52279,7 @@
       <c r="I2079" s="15"/>
     </row>
     <row r="2080" spans="3:9">
-      <c r="C2080" s="25"/>
+      <c r="C2080" s="28"/>
       <c r="D2080" s="15"/>
       <c r="E2080" s="15"/>
       <c r="F2080" s="15"/>
@@ -51927,7 +52288,7 @@
       <c r="I2080" s="15"/>
     </row>
     <row r="2081" spans="3:9">
-      <c r="C2081" s="25"/>
+      <c r="C2081" s="28"/>
       <c r="D2081" s="15"/>
       <c r="E2081" s="15"/>
       <c r="F2081" s="15"/>
@@ -51936,7 +52297,7 @@
       <c r="I2081" s="15"/>
     </row>
     <row r="2082" spans="3:9">
-      <c r="C2082" s="25"/>
+      <c r="C2082" s="28"/>
       <c r="D2082" s="15"/>
       <c r="E2082" s="15"/>
       <c r="F2082" s="15"/>
@@ -51945,7 +52306,7 @@
       <c r="I2082" s="15"/>
     </row>
     <row r="2083" spans="3:9">
-      <c r="C2083" s="25"/>
+      <c r="C2083" s="28"/>
       <c r="D2083" s="15"/>
       <c r="E2083" s="15"/>
       <c r="F2083" s="15"/>
@@ -51954,7 +52315,7 @@
       <c r="I2083" s="15"/>
     </row>
     <row r="2084" spans="3:9">
-      <c r="C2084" s="25"/>
+      <c r="C2084" s="28"/>
       <c r="D2084" s="15"/>
       <c r="E2084" s="15"/>
       <c r="F2084" s="15"/>
@@ -51963,7 +52324,7 @@
       <c r="I2084" s="15"/>
     </row>
     <row r="2085" spans="3:9">
-      <c r="C2085" s="25"/>
+      <c r="C2085" s="28"/>
       <c r="D2085" s="15"/>
       <c r="E2085" s="15"/>
       <c r="F2085" s="15"/>
@@ -51972,7 +52333,7 @@
       <c r="I2085" s="15"/>
     </row>
     <row r="2086" spans="3:9">
-      <c r="C2086" s="25"/>
+      <c r="C2086" s="28"/>
       <c r="D2086" s="15"/>
       <c r="E2086" s="15"/>
       <c r="F2086" s="15"/>
@@ -51981,7 +52342,7 @@
       <c r="I2086" s="15"/>
     </row>
     <row r="2087" spans="3:9">
-      <c r="C2087" s="25"/>
+      <c r="C2087" s="28"/>
       <c r="D2087" s="15"/>
       <c r="E2087" s="15"/>
       <c r="F2087" s="15"/>
@@ -51990,7 +52351,7 @@
       <c r="I2087" s="15"/>
     </row>
     <row r="2088" spans="3:9">
-      <c r="C2088" s="25"/>
+      <c r="C2088" s="28"/>
       <c r="D2088" s="15"/>
       <c r="E2088" s="15"/>
       <c r="F2088" s="15"/>
@@ -51999,7 +52360,7 @@
       <c r="I2088" s="15"/>
     </row>
     <row r="2089" spans="3:9">
-      <c r="C2089" s="25"/>
+      <c r="C2089" s="28"/>
       <c r="D2089" s="15"/>
       <c r="E2089" s="15"/>
       <c r="F2089" s="15"/>
@@ -52008,7 +52369,7 @@
       <c r="I2089" s="15"/>
     </row>
     <row r="2090" spans="3:9">
-      <c r="C2090" s="25"/>
+      <c r="C2090" s="28"/>
       <c r="D2090" s="15"/>
       <c r="E2090" s="15"/>
       <c r="F2090" s="15"/>
@@ -52017,7 +52378,7 @@
       <c r="I2090" s="15"/>
     </row>
     <row r="2091" spans="3:9">
-      <c r="C2091" s="25"/>
+      <c r="C2091" s="28"/>
       <c r="D2091" s="15"/>
       <c r="E2091" s="15"/>
       <c r="F2091" s="15"/>
@@ -52026,7 +52387,7 @@
       <c r="I2091" s="15"/>
     </row>
     <row r="2092" spans="3:9">
-      <c r="C2092" s="25"/>
+      <c r="C2092" s="28"/>
       <c r="D2092" s="15"/>
       <c r="E2092" s="15"/>
       <c r="F2092" s="15"/>
@@ -52035,7 +52396,7 @@
       <c r="I2092" s="15"/>
     </row>
     <row r="2093" spans="3:9">
-      <c r="C2093" s="25"/>
+      <c r="C2093" s="28"/>
       <c r="D2093" s="15"/>
       <c r="E2093" s="15"/>
       <c r="F2093" s="15"/>
@@ -52044,7 +52405,7 @@
       <c r="I2093" s="15"/>
     </row>
     <row r="2094" spans="3:9">
-      <c r="C2094" s="25"/>
+      <c r="C2094" s="28"/>
       <c r="D2094" s="15"/>
       <c r="E2094" s="15"/>
       <c r="F2094" s="15"/>
@@ -52053,7 +52414,7 @@
       <c r="I2094" s="15"/>
     </row>
     <row r="2095" spans="3:9">
-      <c r="C2095" s="25"/>
+      <c r="C2095" s="28"/>
       <c r="D2095" s="15"/>
       <c r="E2095" s="15"/>
       <c r="F2095" s="15"/>
@@ -52062,7 +52423,7 @@
       <c r="I2095" s="15"/>
     </row>
     <row r="2096" spans="3:9">
-      <c r="C2096" s="25"/>
+      <c r="C2096" s="28"/>
       <c r="D2096" s="15"/>
       <c r="E2096" s="15"/>
       <c r="F2096" s="15"/>
@@ -52071,7 +52432,7 @@
       <c r="I2096" s="15"/>
     </row>
     <row r="2097" spans="3:9">
-      <c r="C2097" s="25"/>
+      <c r="C2097" s="28"/>
       <c r="D2097" s="15"/>
       <c r="E2097" s="15"/>
       <c r="F2097" s="15"/>
@@ -52080,7 +52441,7 @@
       <c r="I2097" s="15"/>
     </row>
     <row r="2098" spans="3:9">
-      <c r="C2098" s="25"/>
+      <c r="C2098" s="28"/>
       <c r="D2098" s="15"/>
       <c r="E2098" s="15"/>
       <c r="F2098" s="15"/>
@@ -52089,7 +52450,7 @@
       <c r="I2098" s="15"/>
     </row>
     <row r="2099" spans="3:9">
-      <c r="C2099" s="26"/>
+      <c r="C2099" s="30"/>
       <c r="D2099" s="23"/>
       <c r="E2099" s="23"/>
       <c r="F2099" s="23"/>
@@ -52098,7 +52459,7 @@
       <c r="I2099" s="23"/>
     </row>
     <row r="2100" spans="3:9">
-      <c r="C2100" s="26"/>
+      <c r="C2100" s="30"/>
       <c r="D2100" s="23"/>
       <c r="E2100" s="23"/>
       <c r="F2100" s="23"/>
@@ -52107,7 +52468,7 @@
       <c r="I2100" s="23"/>
     </row>
     <row r="2101" spans="3:9">
-      <c r="C2101" s="26"/>
+      <c r="C2101" s="30"/>
       <c r="D2101" s="23"/>
       <c r="E2101" s="23"/>
       <c r="F2101" s="23"/>
@@ -52116,7 +52477,7 @@
       <c r="I2101" s="23"/>
     </row>
     <row r="2102" spans="3:9">
-      <c r="C2102" s="26"/>
+      <c r="C2102" s="30"/>
       <c r="D2102" s="23"/>
       <c r="E2102" s="23"/>
       <c r="F2102" s="23"/>
@@ -52125,7 +52486,7 @@
       <c r="I2102" s="23"/>
     </row>
     <row r="2103" spans="3:9">
-      <c r="C2103" s="26"/>
+      <c r="C2103" s="30"/>
       <c r="D2103" s="23"/>
       <c r="E2103" s="23"/>
       <c r="F2103" s="23"/>
@@ -52134,7 +52495,7 @@
       <c r="I2103" s="23"/>
     </row>
     <row r="2104" spans="3:9">
-      <c r="C2104" s="26"/>
+      <c r="C2104" s="30"/>
       <c r="D2104" s="23"/>
       <c r="E2104" s="23"/>
       <c r="F2104" s="23"/>
@@ -52143,7 +52504,7 @@
       <c r="I2104" s="23"/>
     </row>
     <row r="2105" spans="3:9">
-      <c r="C2105" s="26"/>
+      <c r="C2105" s="30"/>
       <c r="D2105" s="23"/>
       <c r="E2105" s="23"/>
       <c r="F2105" s="23"/>
@@ -52152,7 +52513,7 @@
       <c r="I2105" s="23"/>
     </row>
     <row r="2106" spans="3:9">
-      <c r="C2106" s="26"/>
+      <c r="C2106" s="30"/>
       <c r="D2106" s="23"/>
       <c r="E2106" s="23"/>
       <c r="F2106" s="23"/>
@@ -52161,7 +52522,7 @@
       <c r="I2106" s="23"/>
     </row>
     <row r="2107" spans="3:9">
-      <c r="C2107" s="26"/>
+      <c r="C2107" s="30"/>
       <c r="D2107" s="23"/>
       <c r="E2107" s="23"/>
       <c r="F2107" s="23"/>
@@ -52170,7 +52531,7 @@
       <c r="I2107" s="23"/>
     </row>
     <row r="2108" spans="3:9">
-      <c r="C2108" s="26"/>
+      <c r="C2108" s="30"/>
       <c r="D2108" s="23"/>
       <c r="E2108" s="23"/>
       <c r="F2108" s="23"/>
@@ -52179,7 +52540,7 @@
       <c r="I2108" s="23"/>
     </row>
     <row r="2109" spans="3:9">
-      <c r="C2109" s="26"/>
+      <c r="C2109" s="30"/>
       <c r="D2109" s="23"/>
       <c r="E2109" s="23"/>
       <c r="F2109" s="23"/>
@@ -52188,7 +52549,7 @@
       <c r="I2109" s="23"/>
     </row>
     <row r="2110" spans="3:9">
-      <c r="C2110" s="26"/>
+      <c r="C2110" s="30"/>
       <c r="D2110" s="23"/>
       <c r="E2110" s="23"/>
       <c r="F2110" s="23"/>
@@ -52197,7 +52558,7 @@
       <c r="I2110" s="23"/>
     </row>
     <row r="2111" spans="3:9">
-      <c r="C2111" s="26"/>
+      <c r="C2111" s="30"/>
       <c r="D2111" s="23"/>
       <c r="E2111" s="23"/>
       <c r="F2111" s="23"/>
@@ -52206,7 +52567,7 @@
       <c r="I2111" s="23"/>
     </row>
     <row r="2112" spans="3:9">
-      <c r="C2112" s="26"/>
+      <c r="C2112" s="30"/>
       <c r="D2112" s="23"/>
       <c r="E2112" s="23"/>
       <c r="F2112" s="23"/>
@@ -52215,7 +52576,7 @@
       <c r="I2112" s="23"/>
     </row>
     <row r="2113" spans="3:9">
-      <c r="C2113" s="26"/>
+      <c r="C2113" s="30"/>
       <c r="D2113" s="23"/>
       <c r="E2113" s="23"/>
       <c r="F2113" s="23"/>
@@ -52224,7 +52585,7 @@
       <c r="I2113" s="23"/>
     </row>
     <row r="2114" spans="3:9">
-      <c r="C2114" s="26"/>
+      <c r="C2114" s="30"/>
       <c r="D2114" s="23"/>
       <c r="E2114" s="23"/>
       <c r="F2114" s="23"/>
@@ -52233,7 +52594,7 @@
       <c r="I2114" s="23"/>
     </row>
     <row r="2115" spans="3:9">
-      <c r="C2115" s="26"/>
+      <c r="C2115" s="30"/>
       <c r="D2115" s="23"/>
       <c r="E2115" s="23"/>
       <c r="F2115" s="23"/>
@@ -52242,7 +52603,7 @@
       <c r="I2115" s="23"/>
     </row>
     <row r="2116" spans="3:9">
-      <c r="C2116" s="26"/>
+      <c r="C2116" s="30"/>
       <c r="D2116" s="23"/>
       <c r="E2116" s="23"/>
       <c r="F2116" s="23"/>
@@ -52251,7 +52612,7 @@
       <c r="I2116" s="23"/>
     </row>
     <row r="2117" spans="3:9">
-      <c r="C2117" s="26"/>
+      <c r="C2117" s="30"/>
       <c r="D2117" s="23"/>
       <c r="E2117" s="23"/>
       <c r="F2117" s="23"/>
@@ -52260,7 +52621,7 @@
       <c r="I2117" s="23"/>
     </row>
     <row r="2118" spans="3:9">
-      <c r="C2118" s="26"/>
+      <c r="C2118" s="30"/>
       <c r="D2118" s="23"/>
       <c r="E2118" s="23"/>
       <c r="F2118" s="23"/>
@@ -52269,7 +52630,7 @@
       <c r="I2118" s="23"/>
     </row>
     <row r="2119" spans="3:9">
-      <c r="C2119" s="26"/>
+      <c r="C2119" s="30"/>
       <c r="D2119" s="23"/>
       <c r="E2119" s="23"/>
       <c r="F2119" s="23"/>
@@ -52278,7 +52639,7 @@
       <c r="I2119" s="23"/>
     </row>
     <row r="2120" spans="3:9">
-      <c r="C2120" s="26"/>
+      <c r="C2120" s="30"/>
       <c r="D2120" s="23"/>
       <c r="E2120" s="23"/>
       <c r="F2120" s="23"/>
@@ -52287,7 +52648,7 @@
       <c r="I2120" s="23"/>
     </row>
     <row r="2121" spans="3:9">
-      <c r="C2121" s="26"/>
+      <c r="C2121" s="30"/>
       <c r="D2121" s="23"/>
       <c r="E2121" s="23"/>
       <c r="F2121" s="23"/>
@@ -52296,7 +52657,7 @@
       <c r="I2121" s="23"/>
     </row>
     <row r="2122" spans="3:9">
-      <c r="C2122" s="26"/>
+      <c r="C2122" s="30"/>
       <c r="D2122" s="23"/>
       <c r="E2122" s="23"/>
       <c r="F2122" s="23"/>
@@ -52305,7 +52666,7 @@
       <c r="I2122" s="23"/>
     </row>
     <row r="2123" spans="3:9">
-      <c r="C2123" s="26"/>
+      <c r="C2123" s="30"/>
       <c r="D2123" s="23"/>
       <c r="E2123" s="23"/>
       <c r="F2123" s="23"/>
@@ -52314,7 +52675,7 @@
       <c r="I2123" s="23"/>
     </row>
     <row r="2124" spans="3:9">
-      <c r="C2124" s="26"/>
+      <c r="C2124" s="30"/>
       <c r="D2124" s="23"/>
       <c r="E2124" s="23"/>
       <c r="F2124" s="23"/>
@@ -52323,7 +52684,7 @@
       <c r="I2124" s="23"/>
     </row>
     <row r="2125" spans="3:9">
-      <c r="C2125" s="26"/>
+      <c r="C2125" s="30"/>
       <c r="D2125" s="23"/>
       <c r="E2125" s="23"/>
       <c r="F2125" s="23"/>
@@ -52332,7 +52693,7 @@
       <c r="I2125" s="23"/>
     </row>
     <row r="2126" spans="3:9">
-      <c r="C2126" s="26"/>
+      <c r="C2126" s="30"/>
       <c r="D2126" s="23"/>
       <c r="E2126" s="23"/>
       <c r="F2126" s="23"/>
@@ -52341,7 +52702,7 @@
       <c r="I2126" s="23"/>
     </row>
     <row r="2127" spans="3:9">
-      <c r="C2127" s="26"/>
+      <c r="C2127" s="30"/>
       <c r="D2127" s="23"/>
       <c r="E2127" s="23"/>
       <c r="F2127" s="23"/>
@@ -52350,7 +52711,7 @@
       <c r="I2127" s="23"/>
     </row>
     <row r="2128" spans="3:9">
-      <c r="C2128" s="26"/>
+      <c r="C2128" s="30"/>
       <c r="D2128" s="23"/>
       <c r="E2128" s="23"/>
       <c r="F2128" s="23"/>
@@ -52359,7 +52720,7 @@
       <c r="I2128" s="23"/>
     </row>
     <row r="2129" spans="3:9">
-      <c r="C2129" s="26"/>
+      <c r="C2129" s="30"/>
       <c r="D2129" s="23"/>
       <c r="E2129" s="23"/>
       <c r="F2129" s="23"/>
@@ -52368,7 +52729,7 @@
       <c r="I2129" s="23"/>
     </row>
     <row r="2130" spans="3:9">
-      <c r="C2130" s="26"/>
+      <c r="C2130" s="30"/>
       <c r="D2130" s="23"/>
       <c r="E2130" s="23"/>
       <c r="F2130" s="23"/>
@@ -52377,7 +52738,7 @@
       <c r="I2130" s="23"/>
     </row>
     <row r="2131" spans="3:9">
-      <c r="C2131" s="26"/>
+      <c r="C2131" s="30"/>
       <c r="D2131" s="23"/>
       <c r="E2131" s="23"/>
       <c r="F2131" s="23"/>
@@ -52386,7 +52747,7 @@
       <c r="I2131" s="23"/>
     </row>
     <row r="2132" spans="3:9">
-      <c r="C2132" s="26"/>
+      <c r="C2132" s="30"/>
       <c r="D2132" s="23"/>
       <c r="E2132" s="23"/>
       <c r="F2132" s="23"/>
@@ -52395,7 +52756,7 @@
       <c r="I2132" s="23"/>
     </row>
     <row r="2133" spans="3:9">
-      <c r="C2133" s="26"/>
+      <c r="C2133" s="30"/>
       <c r="D2133" s="23"/>
       <c r="E2133" s="23"/>
       <c r="F2133" s="23"/>
@@ -52404,7 +52765,7 @@
       <c r="I2133" s="23"/>
     </row>
     <row r="2134" spans="3:9">
-      <c r="C2134" s="26"/>
+      <c r="C2134" s="30"/>
       <c r="D2134" s="23"/>
       <c r="E2134" s="23"/>
       <c r="F2134" s="23"/>
@@ -52413,7 +52774,7 @@
       <c r="I2134" s="23"/>
     </row>
     <row r="2135" spans="3:9">
-      <c r="C2135" s="26"/>
+      <c r="C2135" s="30"/>
       <c r="D2135" s="23"/>
       <c r="E2135" s="23"/>
       <c r="F2135" s="23"/>
@@ -52422,7 +52783,7 @@
       <c r="I2135" s="23"/>
     </row>
     <row r="2136" spans="3:9">
-      <c r="C2136" s="26"/>
+      <c r="C2136" s="30"/>
       <c r="D2136" s="23"/>
       <c r="E2136" s="23"/>
       <c r="F2136" s="23"/>
@@ -52431,7 +52792,7 @@
       <c r="I2136" s="23"/>
     </row>
     <row r="2137" spans="3:9">
-      <c r="C2137" s="26"/>
+      <c r="C2137" s="30"/>
       <c r="D2137" s="23"/>
       <c r="E2137" s="23"/>
       <c r="F2137" s="23"/>
@@ -52440,7 +52801,7 @@
       <c r="I2137" s="23"/>
     </row>
     <row r="2138" spans="3:9">
-      <c r="C2138" s="26"/>
+      <c r="C2138" s="30"/>
       <c r="D2138" s="23"/>
       <c r="E2138" s="23"/>
       <c r="F2138" s="23"/>
@@ -52449,7 +52810,7 @@
       <c r="I2138" s="23"/>
     </row>
     <row r="2139" spans="3:9">
-      <c r="C2139" s="26"/>
+      <c r="C2139" s="30"/>
       <c r="D2139" s="23"/>
       <c r="E2139" s="23"/>
       <c r="F2139" s="23"/>
@@ -52458,7 +52819,7 @@
       <c r="I2139" s="23"/>
     </row>
     <row r="2140" spans="3:9">
-      <c r="C2140" s="26"/>
+      <c r="C2140" s="30"/>
       <c r="D2140" s="23"/>
       <c r="E2140" s="23"/>
       <c r="F2140" s="23"/>
@@ -52467,7 +52828,7 @@
       <c r="I2140" s="23"/>
     </row>
     <row r="2141" spans="3:9">
-      <c r="C2141" s="25"/>
+      <c r="C2141" s="28"/>
       <c r="D2141" s="15"/>
       <c r="E2141" s="15"/>
       <c r="F2141" s="15"/>
@@ -52476,7 +52837,7 @@
       <c r="I2141" s="15"/>
     </row>
     <row r="2142" spans="3:9">
-      <c r="C2142" s="25"/>
+      <c r="C2142" s="28"/>
       <c r="D2142" s="15"/>
       <c r="E2142" s="15"/>
       <c r="F2142" s="15"/>
@@ -52485,7 +52846,7 @@
       <c r="I2142" s="15"/>
     </row>
     <row r="2143" spans="3:9">
-      <c r="C2143" s="25"/>
+      <c r="C2143" s="28"/>
       <c r="D2143" s="15"/>
       <c r="E2143" s="15"/>
       <c r="F2143" s="15"/>
@@ -52494,7 +52855,7 @@
       <c r="I2143" s="15"/>
     </row>
     <row r="2144" spans="3:9">
-      <c r="C2144" s="25"/>
+      <c r="C2144" s="28"/>
       <c r="D2144" s="15"/>
       <c r="E2144" s="15"/>
       <c r="F2144" s="15"/>
@@ -52503,7 +52864,7 @@
       <c r="I2144" s="15"/>
     </row>
     <row r="2145" spans="3:9">
-      <c r="C2145" s="25"/>
+      <c r="C2145" s="28"/>
       <c r="D2145" s="15"/>
       <c r="E2145" s="15"/>
       <c r="F2145" s="15"/>
@@ -52512,7 +52873,7 @@
       <c r="I2145" s="15"/>
     </row>
     <row r="2146" spans="3:9">
-      <c r="C2146" s="25"/>
+      <c r="C2146" s="28"/>
       <c r="D2146" s="15"/>
       <c r="E2146" s="15"/>
       <c r="F2146" s="15"/>
@@ -52521,7 +52882,7 @@
       <c r="I2146" s="15"/>
     </row>
     <row r="2147" spans="3:9">
-      <c r="C2147" s="25"/>
+      <c r="C2147" s="28"/>
       <c r="D2147" s="15"/>
       <c r="E2147" s="15"/>
       <c r="F2147" s="15"/>
@@ -52530,7 +52891,7 @@
       <c r="I2147" s="15"/>
     </row>
     <row r="2148" spans="3:9">
-      <c r="C2148" s="25"/>
+      <c r="C2148" s="28"/>
       <c r="D2148" s="15"/>
       <c r="E2148" s="15"/>
       <c r="F2148" s="15"/>
@@ -52539,7 +52900,7 @@
       <c r="I2148" s="15"/>
     </row>
     <row r="2149" spans="3:9">
-      <c r="C2149" s="25"/>
+      <c r="C2149" s="28"/>
       <c r="D2149" s="15"/>
       <c r="E2149" s="15"/>
       <c r="F2149" s="15"/>
@@ -52548,7 +52909,7 @@
       <c r="I2149" s="15"/>
     </row>
     <row r="2150" spans="3:9">
-      <c r="C2150" s="25"/>
+      <c r="C2150" s="28"/>
       <c r="D2150" s="15"/>
       <c r="E2150" s="15"/>
       <c r="F2150" s="15"/>
@@ -52557,7 +52918,7 @@
       <c r="I2150" s="15"/>
     </row>
     <row r="2151" spans="3:9">
-      <c r="C2151" s="25"/>
+      <c r="C2151" s="28"/>
       <c r="D2151" s="15"/>
       <c r="E2151" s="15"/>
       <c r="F2151" s="15"/>
@@ -52566,7 +52927,7 @@
       <c r="I2151" s="15"/>
     </row>
     <row r="2152" spans="3:9">
-      <c r="C2152" s="25"/>
+      <c r="C2152" s="28"/>
       <c r="D2152" s="15"/>
       <c r="E2152" s="15"/>
       <c r="F2152" s="15"/>
@@ -52575,7 +52936,7 @@
       <c r="I2152" s="15"/>
     </row>
     <row r="2153" spans="3:9">
-      <c r="C2153" s="25"/>
+      <c r="C2153" s="28"/>
       <c r="D2153" s="15"/>
       <c r="E2153" s="15"/>
       <c r="F2153" s="15"/>
@@ -52584,7 +52945,7 @@
       <c r="I2153" s="15"/>
     </row>
     <row r="2154" spans="3:9">
-      <c r="C2154" s="25"/>
+      <c r="C2154" s="28"/>
       <c r="D2154" s="15"/>
       <c r="E2154" s="15"/>
       <c r="F2154" s="15"/>
@@ -52593,7 +52954,7 @@
       <c r="I2154" s="15"/>
     </row>
     <row r="2155" spans="3:9">
-      <c r="C2155" s="25"/>
+      <c r="C2155" s="28"/>
       <c r="D2155" s="15"/>
       <c r="E2155" s="15"/>
       <c r="F2155" s="15"/>
@@ -52602,7 +52963,7 @@
       <c r="I2155" s="15"/>
     </row>
     <row r="2156" spans="3:9">
-      <c r="C2156" s="25"/>
+      <c r="C2156" s="28"/>
       <c r="D2156" s="15"/>
       <c r="E2156" s="15"/>
       <c r="F2156" s="15"/>
@@ -52611,7 +52972,7 @@
       <c r="I2156" s="15"/>
     </row>
     <row r="2157" spans="3:9">
-      <c r="C2157" s="25"/>
+      <c r="C2157" s="28"/>
       <c r="D2157" s="15"/>
       <c r="E2157" s="15"/>
       <c r="F2157" s="15"/>
@@ -52620,7 +52981,7 @@
       <c r="I2157" s="15"/>
     </row>
     <row r="2158" spans="3:9">
-      <c r="C2158" s="25"/>
+      <c r="C2158" s="28"/>
       <c r="D2158" s="15"/>
       <c r="E2158" s="15"/>
       <c r="F2158" s="15"/>
@@ -52629,7 +52990,7 @@
       <c r="I2158" s="15"/>
     </row>
     <row r="2159" spans="3:9">
-      <c r="C2159" s="25"/>
+      <c r="C2159" s="28"/>
       <c r="D2159" s="15"/>
       <c r="E2159" s="15"/>
       <c r="F2159" s="15"/>
@@ -52638,7 +52999,7 @@
       <c r="I2159" s="15"/>
     </row>
     <row r="2160" spans="3:9">
-      <c r="C2160" s="25"/>
+      <c r="C2160" s="28"/>
       <c r="D2160" s="15"/>
       <c r="E2160" s="15"/>
       <c r="F2160" s="15"/>
@@ -52647,7 +53008,7 @@
       <c r="I2160" s="15"/>
     </row>
     <row r="2161" spans="3:9">
-      <c r="C2161" s="25"/>
+      <c r="C2161" s="28"/>
       <c r="D2161" s="15"/>
       <c r="E2161" s="15"/>
       <c r="F2161" s="15"/>
@@ -52656,7 +53017,7 @@
       <c r="I2161" s="15"/>
     </row>
     <row r="2162" spans="3:9">
-      <c r="C2162" s="25"/>
+      <c r="C2162" s="28"/>
       <c r="D2162" s="15"/>
       <c r="E2162" s="15"/>
       <c r="F2162" s="15"/>
@@ -52665,7 +53026,7 @@
       <c r="I2162" s="15"/>
     </row>
     <row r="2163" spans="3:9">
-      <c r="C2163" s="25"/>
+      <c r="C2163" s="28"/>
       <c r="D2163" s="15"/>
       <c r="E2163" s="15"/>
       <c r="F2163" s="15"/>
@@ -52674,7 +53035,7 @@
       <c r="I2163" s="15"/>
     </row>
     <row r="2164" spans="3:9">
-      <c r="C2164" s="25"/>
+      <c r="C2164" s="28"/>
       <c r="D2164" s="15"/>
       <c r="E2164" s="15"/>
       <c r="F2164" s="15"/>
@@ -52683,7 +53044,7 @@
       <c r="I2164" s="15"/>
     </row>
     <row r="2165" spans="3:9">
-      <c r="C2165" s="25"/>
+      <c r="C2165" s="28"/>
       <c r="D2165" s="15"/>
       <c r="E2165" s="15"/>
       <c r="F2165" s="15"/>
@@ -52692,7 +53053,7 @@
       <c r="I2165" s="15"/>
     </row>
     <row r="2166" spans="3:9">
-      <c r="C2166" s="25"/>
+      <c r="C2166" s="28"/>
       <c r="D2166" s="15"/>
       <c r="E2166" s="15"/>
       <c r="F2166" s="15"/>
@@ -52701,7 +53062,7 @@
       <c r="I2166" s="15"/>
     </row>
     <row r="2167" spans="3:9">
-      <c r="C2167" s="25"/>
+      <c r="C2167" s="28"/>
       <c r="D2167" s="15"/>
       <c r="E2167" s="15"/>
       <c r="F2167" s="15"/>
@@ -52710,7 +53071,7 @@
       <c r="I2167" s="15"/>
     </row>
     <row r="2168" spans="3:9">
-      <c r="C2168" s="25"/>
+      <c r="C2168" s="28"/>
       <c r="D2168" s="15"/>
       <c r="E2168" s="15"/>
       <c r="F2168" s="15"/>
@@ -52719,7 +53080,7 @@
       <c r="I2168" s="15"/>
     </row>
     <row r="2169" spans="3:9">
-      <c r="C2169" s="25"/>
+      <c r="C2169" s="28"/>
       <c r="D2169" s="15"/>
       <c r="E2169" s="15"/>
       <c r="F2169" s="15"/>
@@ -52728,7 +53089,7 @@
       <c r="I2169" s="15"/>
     </row>
     <row r="2170" spans="3:9">
-      <c r="C2170" s="25"/>
+      <c r="C2170" s="28"/>
       <c r="D2170" s="15"/>
       <c r="E2170" s="15"/>
       <c r="F2170" s="15"/>
@@ -52737,7 +53098,7 @@
       <c r="I2170" s="15"/>
     </row>
     <row r="2171" spans="3:9">
-      <c r="C2171" s="25"/>
+      <c r="C2171" s="28"/>
       <c r="D2171" s="15"/>
       <c r="E2171" s="15"/>
       <c r="F2171" s="15"/>
@@ -52746,7 +53107,7 @@
       <c r="I2171" s="15"/>
     </row>
     <row r="2172" spans="3:9">
-      <c r="C2172" s="25"/>
+      <c r="C2172" s="28"/>
       <c r="D2172" s="15"/>
       <c r="E2172" s="15"/>
       <c r="F2172" s="15"/>
@@ -52755,7 +53116,7 @@
       <c r="I2172" s="15"/>
     </row>
     <row r="2173" spans="3:9">
-      <c r="C2173" s="25"/>
+      <c r="C2173" s="28"/>
       <c r="D2173" s="15"/>
       <c r="E2173" s="15"/>
       <c r="F2173" s="15"/>
@@ -52764,7 +53125,7 @@
       <c r="I2173" s="15"/>
     </row>
     <row r="2174" spans="3:9">
-      <c r="C2174" s="25"/>
+      <c r="C2174" s="28"/>
       <c r="D2174" s="15"/>
       <c r="E2174" s="15"/>
       <c r="F2174" s="15"/>
@@ -52773,7 +53134,7 @@
       <c r="I2174" s="15"/>
     </row>
     <row r="2175" spans="3:9">
-      <c r="C2175" s="25"/>
+      <c r="C2175" s="28"/>
       <c r="D2175" s="15"/>
       <c r="E2175" s="15"/>
       <c r="F2175" s="15"/>
@@ -52782,7 +53143,7 @@
       <c r="I2175" s="15"/>
     </row>
     <row r="2176" spans="3:9">
-      <c r="C2176" s="25"/>
+      <c r="C2176" s="28"/>
       <c r="D2176" s="15"/>
       <c r="E2176" s="15"/>
       <c r="F2176" s="15"/>
@@ -52791,7 +53152,7 @@
       <c r="I2176" s="15"/>
     </row>
     <row r="2177" spans="3:9">
-      <c r="C2177" s="25"/>
+      <c r="C2177" s="28"/>
       <c r="D2177" s="15"/>
       <c r="E2177" s="15"/>
       <c r="F2177" s="15"/>
@@ -52800,7 +53161,7 @@
       <c r="I2177" s="15"/>
     </row>
     <row r="2178" spans="3:9">
-      <c r="C2178" s="25"/>
+      <c r="C2178" s="28"/>
       <c r="D2178" s="15"/>
       <c r="E2178" s="15"/>
       <c r="F2178" s="15"/>
@@ -52809,7 +53170,7 @@
       <c r="I2178" s="15"/>
     </row>
     <row r="2179" spans="3:9">
-      <c r="C2179" s="25"/>
+      <c r="C2179" s="28"/>
       <c r="D2179" s="15"/>
       <c r="E2179" s="15"/>
       <c r="F2179" s="15"/>
@@ -52818,7 +53179,7 @@
       <c r="I2179" s="15"/>
     </row>
     <row r="2180" spans="3:9">
-      <c r="C2180" s="25"/>
+      <c r="C2180" s="28"/>
       <c r="D2180" s="15"/>
       <c r="E2180" s="15"/>
       <c r="F2180" s="15"/>
@@ -52827,7 +53188,7 @@
       <c r="I2180" s="15"/>
     </row>
     <row r="2181" spans="3:9">
-      <c r="C2181" s="25"/>
+      <c r="C2181" s="28"/>
       <c r="D2181" s="15"/>
       <c r="E2181" s="15"/>
       <c r="F2181" s="15"/>
@@ -52836,7 +53197,7 @@
       <c r="I2181" s="15"/>
     </row>
     <row r="2182" spans="3:9">
-      <c r="C2182" s="25"/>
+      <c r="C2182" s="28"/>
       <c r="D2182" s="15"/>
       <c r="E2182" s="15"/>
       <c r="F2182" s="15"/>
@@ -52845,7 +53206,7 @@
       <c r="I2182" s="15"/>
     </row>
     <row r="2183" spans="3:9">
-      <c r="C2183" s="25"/>
+      <c r="C2183" s="28"/>
       <c r="D2183" s="15"/>
       <c r="E2183" s="15"/>
       <c r="F2183" s="15"/>
@@ -52854,7 +53215,7 @@
       <c r="I2183" s="15"/>
     </row>
     <row r="2184" spans="3:9">
-      <c r="C2184" s="25"/>
+      <c r="C2184" s="28"/>
       <c r="D2184" s="15"/>
       <c r="E2184" s="15"/>
       <c r="F2184" s="15"/>
@@ -52863,7 +53224,7 @@
       <c r="I2184" s="15"/>
     </row>
     <row r="2185" spans="3:9">
-      <c r="C2185" s="25"/>
+      <c r="C2185" s="28"/>
       <c r="D2185" s="15"/>
       <c r="E2185" s="15"/>
       <c r="F2185" s="15"/>
@@ -52872,7 +53233,7 @@
       <c r="I2185" s="15"/>
     </row>
     <row r="2186" spans="3:9">
-      <c r="C2186" s="25"/>
+      <c r="C2186" s="28"/>
       <c r="D2186" s="15"/>
       <c r="E2186" s="15"/>
       <c r="F2186" s="15"/>
@@ -52881,7 +53242,7 @@
       <c r="I2186" s="15"/>
     </row>
     <row r="2187" spans="3:9">
-      <c r="C2187" s="25"/>
+      <c r="C2187" s="28"/>
       <c r="D2187" s="15"/>
       <c r="E2187" s="15"/>
       <c r="F2187" s="15"/>
@@ -52890,7 +53251,7 @@
       <c r="I2187" s="15"/>
     </row>
     <row r="2188" spans="3:9">
-      <c r="C2188" s="25"/>
+      <c r="C2188" s="28"/>
       <c r="D2188" s="15"/>
       <c r="E2188" s="15"/>
       <c r="F2188" s="15"/>
@@ -52899,7 +53260,7 @@
       <c r="I2188" s="15"/>
     </row>
     <row r="2189" spans="3:9">
-      <c r="C2189" s="25"/>
+      <c r="C2189" s="28"/>
       <c r="D2189" s="15"/>
       <c r="E2189" s="15"/>
       <c r="F2189" s="15"/>
@@ -52908,7 +53269,7 @@
       <c r="I2189" s="15"/>
     </row>
     <row r="2190" spans="3:9">
-      <c r="C2190" s="25"/>
+      <c r="C2190" s="28"/>
       <c r="D2190" s="15"/>
       <c r="E2190" s="15"/>
       <c r="F2190" s="15"/>
@@ -52917,7 +53278,7 @@
       <c r="I2190" s="15"/>
     </row>
     <row r="2191" spans="3:9">
-      <c r="C2191" s="25"/>
+      <c r="C2191" s="28"/>
       <c r="D2191" s="15"/>
       <c r="E2191" s="15"/>
       <c r="F2191" s="15"/>
@@ -52926,7 +53287,7 @@
       <c r="I2191" s="15"/>
     </row>
     <row r="2192" spans="3:9">
-      <c r="C2192" s="25"/>
+      <c r="C2192" s="28"/>
       <c r="D2192" s="15"/>
       <c r="E2192" s="15"/>
       <c r="F2192" s="15"/>
@@ -52935,7 +53296,7 @@
       <c r="I2192" s="15"/>
     </row>
     <row r="2193" spans="3:9">
-      <c r="C2193" s="25"/>
+      <c r="C2193" s="28"/>
       <c r="D2193" s="15"/>
       <c r="E2193" s="15"/>
       <c r="F2193" s="15"/>
@@ -52944,7 +53305,7 @@
       <c r="I2193" s="15"/>
     </row>
     <row r="2194" spans="3:9">
-      <c r="C2194" s="25"/>
+      <c r="C2194" s="28"/>
       <c r="D2194" s="15"/>
       <c r="E2194" s="15"/>
       <c r="F2194" s="15"/>
@@ -52953,7 +53314,7 @@
       <c r="I2194" s="15"/>
     </row>
     <row r="2195" spans="3:9">
-      <c r="C2195" s="25"/>
+      <c r="C2195" s="28"/>
       <c r="D2195" s="15"/>
       <c r="E2195" s="15"/>
       <c r="F2195" s="15"/>
@@ -52962,7 +53323,7 @@
       <c r="I2195" s="15"/>
     </row>
     <row r="2196" spans="3:9">
-      <c r="C2196" s="25"/>
+      <c r="C2196" s="28"/>
       <c r="D2196" s="15"/>
       <c r="E2196" s="15"/>
       <c r="F2196" s="15"/>
@@ -52971,7 +53332,7 @@
       <c r="I2196" s="15"/>
     </row>
     <row r="2197" spans="3:9">
-      <c r="C2197" s="25"/>
+      <c r="C2197" s="28"/>
       <c r="D2197" s="15"/>
       <c r="E2197" s="15"/>
       <c r="F2197" s="15"/>
@@ -52980,7 +53341,7 @@
       <c r="I2197" s="15"/>
     </row>
     <row r="2198" spans="3:9">
-      <c r="C2198" s="25"/>
+      <c r="C2198" s="28"/>
       <c r="D2198" s="15"/>
       <c r="E2198" s="15"/>
       <c r="F2198" s="15"/>
@@ -52989,7 +53350,7 @@
       <c r="I2198" s="15"/>
     </row>
     <row r="2199" spans="3:9">
-      <c r="C2199" s="25"/>
+      <c r="C2199" s="28"/>
       <c r="D2199" s="15"/>
       <c r="E2199" s="15"/>
       <c r="F2199" s="15"/>
@@ -52998,7 +53359,7 @@
       <c r="I2199" s="15"/>
     </row>
     <row r="2200" spans="3:9">
-      <c r="C2200" s="25"/>
+      <c r="C2200" s="28"/>
       <c r="D2200" s="15"/>
       <c r="E2200" s="15"/>
       <c r="F2200" s="15"/>
@@ -53007,7 +53368,7 @@
       <c r="I2200" s="15"/>
     </row>
     <row r="2201" spans="3:9">
-      <c r="C2201" s="25"/>
+      <c r="C2201" s="28"/>
       <c r="D2201" s="15"/>
       <c r="E2201" s="15"/>
       <c r="F2201" s="15"/>
@@ -53016,7 +53377,7 @@
       <c r="I2201" s="15"/>
     </row>
     <row r="2202" spans="3:9">
-      <c r="C2202" s="25"/>
+      <c r="C2202" s="28"/>
       <c r="D2202" s="15"/>
       <c r="E2202" s="15"/>
       <c r="F2202" s="15"/>
@@ -53025,7 +53386,7 @@
       <c r="I2202" s="15"/>
     </row>
     <row r="2203" spans="3:9">
-      <c r="C2203" s="25"/>
+      <c r="C2203" s="28"/>
       <c r="D2203" s="15"/>
       <c r="E2203" s="15"/>
       <c r="F2203" s="15"/>
@@ -53034,7 +53395,7 @@
       <c r="I2203" s="15"/>
     </row>
     <row r="2204" spans="3:9">
-      <c r="C2204" s="25"/>
+      <c r="C2204" s="28"/>
       <c r="D2204" s="15"/>
       <c r="E2204" s="15"/>
       <c r="F2204" s="15"/>
@@ -53043,7 +53404,7 @@
       <c r="I2204" s="15"/>
     </row>
     <row r="2205" spans="3:9">
-      <c r="C2205" s="25"/>
+      <c r="C2205" s="28"/>
       <c r="D2205" s="15"/>
       <c r="E2205" s="15"/>
       <c r="F2205" s="15"/>
@@ -53052,7 +53413,7 @@
       <c r="I2205" s="15"/>
     </row>
     <row r="2206" spans="3:9">
-      <c r="C2206" s="25"/>
+      <c r="C2206" s="28"/>
       <c r="D2206" s="15"/>
       <c r="E2206" s="15"/>
       <c r="F2206" s="15"/>
@@ -53061,7 +53422,7 @@
       <c r="I2206" s="15"/>
     </row>
     <row r="2207" spans="3:9">
-      <c r="C2207" s="25"/>
+      <c r="C2207" s="28"/>
       <c r="D2207" s="15"/>
       <c r="E2207" s="15"/>
       <c r="F2207" s="15"/>
@@ -53070,7 +53431,7 @@
       <c r="I2207" s="15"/>
     </row>
     <row r="2208" spans="3:9">
-      <c r="C2208" s="25"/>
+      <c r="C2208" s="28"/>
       <c r="D2208" s="15"/>
       <c r="E2208" s="15"/>
       <c r="F2208" s="15"/>
@@ -53079,7 +53440,7 @@
       <c r="I2208" s="15"/>
     </row>
     <row r="2209" spans="3:9">
-      <c r="C2209" s="25"/>
+      <c r="C2209" s="28"/>
       <c r="D2209" s="15"/>
       <c r="E2209" s="15"/>
       <c r="F2209" s="15"/>
@@ -53088,7 +53449,7 @@
       <c r="I2209" s="15"/>
     </row>
     <row r="2210" spans="3:9">
-      <c r="C2210" s="25"/>
+      <c r="C2210" s="28"/>
       <c r="D2210" s="15"/>
       <c r="E2210" s="15"/>
       <c r="F2210" s="15"/>
@@ -53097,7 +53458,7 @@
       <c r="I2210" s="15"/>
     </row>
     <row r="2211" spans="3:9">
-      <c r="C2211" s="25"/>
+      <c r="C2211" s="28"/>
       <c r="D2211" s="15"/>
       <c r="E2211" s="15"/>
       <c r="F2211" s="15"/>
@@ -53106,7 +53467,7 @@
       <c r="I2211" s="15"/>
     </row>
     <row r="2212" spans="3:9">
-      <c r="C2212" s="25"/>
+      <c r="C2212" s="28"/>
       <c r="D2212" s="15"/>
       <c r="E2212" s="15"/>
       <c r="F2212" s="15"/>
@@ -53115,7 +53476,7 @@
       <c r="I2212" s="15"/>
     </row>
     <row r="2213" spans="3:9">
-      <c r="C2213" s="25"/>
+      <c r="C2213" s="28"/>
       <c r="D2213" s="15"/>
       <c r="E2213" s="15"/>
       <c r="F2213" s="15"/>
@@ -53124,7 +53485,7 @@
       <c r="I2213" s="15"/>
     </row>
     <row r="2214" spans="3:9">
-      <c r="C2214" s="25"/>
+      <c r="C2214" s="28"/>
       <c r="D2214" s="15"/>
       <c r="E2214" s="15"/>
       <c r="F2214" s="15"/>
@@ -53133,7 +53494,7 @@
       <c r="I2214" s="15"/>
     </row>
     <row r="2215" spans="3:9">
-      <c r="C2215" s="25"/>
+      <c r="C2215" s="28"/>
       <c r="D2215" s="15"/>
       <c r="E2215" s="15"/>
       <c r="F2215" s="15"/>
@@ -53142,7 +53503,7 @@
       <c r="I2215" s="15"/>
     </row>
     <row r="2216" spans="3:9">
-      <c r="C2216" s="25"/>
+      <c r="C2216" s="28"/>
       <c r="D2216" s="15"/>
       <c r="E2216" s="15"/>
       <c r="F2216" s="15"/>
@@ -53151,7 +53512,7 @@
       <c r="I2216" s="15"/>
     </row>
     <row r="2217" spans="3:9">
-      <c r="C2217" s="25"/>
+      <c r="C2217" s="28"/>
       <c r="D2217" s="15"/>
       <c r="E2217" s="15"/>
       <c r="F2217" s="15"/>
@@ -53160,7 +53521,7 @@
       <c r="I2217" s="15"/>
     </row>
     <row r="2218" spans="3:9">
-      <c r="C2218" s="25"/>
+      <c r="C2218" s="28"/>
       <c r="D2218" s="15"/>
       <c r="E2218" s="15"/>
       <c r="F2218" s="15"/>
@@ -53169,7 +53530,7 @@
       <c r="I2218" s="15"/>
     </row>
     <row r="2219" spans="3:9">
-      <c r="C2219" s="25"/>
+      <c r="C2219" s="28"/>
       <c r="D2219" s="15"/>
       <c r="E2219" s="15"/>
       <c r="F2219" s="15"/>
@@ -53178,7 +53539,7 @@
       <c r="I2219" s="15"/>
     </row>
     <row r="2220" spans="3:9">
-      <c r="C2220" s="25"/>
+      <c r="C2220" s="28"/>
       <c r="D2220" s="15"/>
       <c r="E2220" s="15"/>
       <c r="F2220" s="15"/>
@@ -53187,7 +53548,7 @@
       <c r="I2220" s="15"/>
     </row>
     <row r="2221" spans="3:9">
-      <c r="C2221" s="25"/>
+      <c r="C2221" s="28"/>
       <c r="D2221" s="15"/>
       <c r="E2221" s="15"/>
       <c r="F2221" s="15"/>
@@ -53196,7 +53557,7 @@
       <c r="I2221" s="15"/>
     </row>
     <row r="2222" spans="3:9">
-      <c r="C2222" s="25"/>
+      <c r="C2222" s="28"/>
       <c r="D2222" s="15"/>
       <c r="E2222" s="15"/>
       <c r="F2222" s="15"/>
@@ -53205,7 +53566,7 @@
       <c r="I2222" s="15"/>
     </row>
     <row r="2223" spans="3:9">
-      <c r="C2223" s="25"/>
+      <c r="C2223" s="28"/>
       <c r="D2223" s="15"/>
       <c r="E2223" s="15"/>
       <c r="F2223" s="15"/>
@@ -53214,7 +53575,7 @@
       <c r="I2223" s="15"/>
     </row>
     <row r="2224" spans="3:9">
-      <c r="C2224" s="25"/>
+      <c r="C2224" s="28"/>
       <c r="D2224" s="15"/>
       <c r="E2224" s="15"/>
       <c r="F2224" s="15"/>
@@ -53223,385 +53584,385 @@
       <c r="I2224" s="15"/>
     </row>
     <row r="2225" spans="3:9">
-      <c r="C2225" s="25"/>
-      <c r="D2225" s="27"/>
-      <c r="E2225" s="27"/>
-      <c r="F2225" s="27"/>
-      <c r="G2225" s="27"/>
-      <c r="H2225" s="27"/>
-      <c r="I2225" s="27"/>
+      <c r="C2225" s="28"/>
+      <c r="D2225" s="31"/>
+      <c r="E2225" s="31"/>
+      <c r="F2225" s="31"/>
+      <c r="G2225" s="31"/>
+      <c r="H2225" s="31"/>
+      <c r="I2225" s="31"/>
     </row>
     <row r="2226" spans="3:9">
-      <c r="C2226" s="25"/>
-      <c r="D2226" s="27"/>
-      <c r="E2226" s="27"/>
-      <c r="F2226" s="27"/>
-      <c r="G2226" s="27"/>
-      <c r="H2226" s="27"/>
-      <c r="I2226" s="27"/>
+      <c r="C2226" s="28"/>
+      <c r="D2226" s="31"/>
+      <c r="E2226" s="31"/>
+      <c r="F2226" s="31"/>
+      <c r="G2226" s="31"/>
+      <c r="H2226" s="31"/>
+      <c r="I2226" s="31"/>
     </row>
     <row r="2227" spans="3:9">
-      <c r="C2227" s="25"/>
-      <c r="D2227" s="27"/>
-      <c r="E2227" s="27"/>
-      <c r="F2227" s="27"/>
-      <c r="G2227" s="27"/>
-      <c r="H2227" s="27"/>
-      <c r="I2227" s="27"/>
+      <c r="C2227" s="28"/>
+      <c r="D2227" s="31"/>
+      <c r="E2227" s="31"/>
+      <c r="F2227" s="31"/>
+      <c r="G2227" s="31"/>
+      <c r="H2227" s="31"/>
+      <c r="I2227" s="31"/>
     </row>
     <row r="2228" spans="3:9">
-      <c r="C2228" s="25"/>
-      <c r="D2228" s="27"/>
-      <c r="E2228" s="27"/>
-      <c r="F2228" s="27"/>
-      <c r="G2228" s="27"/>
-      <c r="H2228" s="27"/>
-      <c r="I2228" s="27"/>
+      <c r="C2228" s="28"/>
+      <c r="D2228" s="31"/>
+      <c r="E2228" s="31"/>
+      <c r="F2228" s="31"/>
+      <c r="G2228" s="31"/>
+      <c r="H2228" s="31"/>
+      <c r="I2228" s="31"/>
     </row>
     <row r="2229" spans="3:9">
-      <c r="C2229" s="25"/>
-      <c r="D2229" s="27"/>
-      <c r="E2229" s="27"/>
-      <c r="F2229" s="27"/>
-      <c r="G2229" s="27"/>
-      <c r="H2229" s="27"/>
-      <c r="I2229" s="27"/>
+      <c r="C2229" s="28"/>
+      <c r="D2229" s="31"/>
+      <c r="E2229" s="31"/>
+      <c r="F2229" s="31"/>
+      <c r="G2229" s="31"/>
+      <c r="H2229" s="31"/>
+      <c r="I2229" s="31"/>
     </row>
     <row r="2230" spans="3:9">
-      <c r="C2230" s="25"/>
-      <c r="D2230" s="27"/>
-      <c r="E2230" s="27"/>
-      <c r="F2230" s="27"/>
-      <c r="G2230" s="27"/>
-      <c r="H2230" s="27"/>
-      <c r="I2230" s="27"/>
+      <c r="C2230" s="28"/>
+      <c r="D2230" s="31"/>
+      <c r="E2230" s="31"/>
+      <c r="F2230" s="31"/>
+      <c r="G2230" s="31"/>
+      <c r="H2230" s="31"/>
+      <c r="I2230" s="31"/>
     </row>
     <row r="2231" spans="3:9">
-      <c r="C2231" s="25"/>
-      <c r="D2231" s="27"/>
-      <c r="E2231" s="27"/>
-      <c r="F2231" s="27"/>
-      <c r="G2231" s="27"/>
-      <c r="H2231" s="27"/>
-      <c r="I2231" s="27"/>
+      <c r="C2231" s="28"/>
+      <c r="D2231" s="31"/>
+      <c r="E2231" s="31"/>
+      <c r="F2231" s="31"/>
+      <c r="G2231" s="31"/>
+      <c r="H2231" s="31"/>
+      <c r="I2231" s="31"/>
     </row>
     <row r="2232" spans="3:9">
-      <c r="C2232" s="25"/>
-      <c r="D2232" s="27"/>
-      <c r="E2232" s="27"/>
-      <c r="F2232" s="27"/>
-      <c r="G2232" s="27"/>
-      <c r="H2232" s="27"/>
-      <c r="I2232" s="27"/>
+      <c r="C2232" s="28"/>
+      <c r="D2232" s="31"/>
+      <c r="E2232" s="31"/>
+      <c r="F2232" s="31"/>
+      <c r="G2232" s="31"/>
+      <c r="H2232" s="31"/>
+      <c r="I2232" s="31"/>
     </row>
     <row r="2233" spans="3:9">
-      <c r="C2233" s="25"/>
-      <c r="D2233" s="27"/>
-      <c r="E2233" s="27"/>
-      <c r="F2233" s="27"/>
-      <c r="G2233" s="27"/>
-      <c r="H2233" s="27"/>
-      <c r="I2233" s="27"/>
+      <c r="C2233" s="28"/>
+      <c r="D2233" s="31"/>
+      <c r="E2233" s="31"/>
+      <c r="F2233" s="31"/>
+      <c r="G2233" s="31"/>
+      <c r="H2233" s="31"/>
+      <c r="I2233" s="31"/>
     </row>
     <row r="2234" spans="3:9">
-      <c r="C2234" s="25"/>
-      <c r="D2234" s="27"/>
-      <c r="E2234" s="27"/>
-      <c r="F2234" s="27"/>
-      <c r="G2234" s="27"/>
-      <c r="H2234" s="27"/>
-      <c r="I2234" s="27"/>
+      <c r="C2234" s="28"/>
+      <c r="D2234" s="31"/>
+      <c r="E2234" s="31"/>
+      <c r="F2234" s="31"/>
+      <c r="G2234" s="31"/>
+      <c r="H2234" s="31"/>
+      <c r="I2234" s="31"/>
     </row>
     <row r="2235" spans="3:9">
-      <c r="C2235" s="25"/>
-      <c r="D2235" s="27"/>
-      <c r="E2235" s="27"/>
-      <c r="F2235" s="27"/>
-      <c r="G2235" s="27"/>
-      <c r="H2235" s="27"/>
-      <c r="I2235" s="27"/>
+      <c r="C2235" s="28"/>
+      <c r="D2235" s="31"/>
+      <c r="E2235" s="31"/>
+      <c r="F2235" s="31"/>
+      <c r="G2235" s="31"/>
+      <c r="H2235" s="31"/>
+      <c r="I2235" s="31"/>
     </row>
     <row r="2236" spans="3:9">
-      <c r="C2236" s="25"/>
-      <c r="D2236" s="27"/>
-      <c r="E2236" s="27"/>
-      <c r="F2236" s="27"/>
-      <c r="G2236" s="27"/>
-      <c r="H2236" s="27"/>
-      <c r="I2236" s="27"/>
+      <c r="C2236" s="28"/>
+      <c r="D2236" s="31"/>
+      <c r="E2236" s="31"/>
+      <c r="F2236" s="31"/>
+      <c r="G2236" s="31"/>
+      <c r="H2236" s="31"/>
+      <c r="I2236" s="31"/>
     </row>
     <row r="2237" spans="3:9">
-      <c r="C2237" s="25"/>
-      <c r="D2237" s="27"/>
-      <c r="E2237" s="27"/>
-      <c r="F2237" s="27"/>
-      <c r="G2237" s="27"/>
-      <c r="H2237" s="27"/>
-      <c r="I2237" s="27"/>
+      <c r="C2237" s="28"/>
+      <c r="D2237" s="31"/>
+      <c r="E2237" s="31"/>
+      <c r="F2237" s="31"/>
+      <c r="G2237" s="31"/>
+      <c r="H2237" s="31"/>
+      <c r="I2237" s="31"/>
     </row>
     <row r="2238" spans="3:9">
-      <c r="C2238" s="25"/>
-      <c r="D2238" s="27"/>
-      <c r="E2238" s="27"/>
-      <c r="F2238" s="27"/>
-      <c r="G2238" s="27"/>
-      <c r="H2238" s="27"/>
-      <c r="I2238" s="27"/>
+      <c r="C2238" s="28"/>
+      <c r="D2238" s="31"/>
+      <c r="E2238" s="31"/>
+      <c r="F2238" s="31"/>
+      <c r="G2238" s="31"/>
+      <c r="H2238" s="31"/>
+      <c r="I2238" s="31"/>
     </row>
     <row r="2239" spans="3:9">
-      <c r="C2239" s="25"/>
-      <c r="D2239" s="27"/>
-      <c r="E2239" s="27"/>
-      <c r="F2239" s="27"/>
-      <c r="G2239" s="27"/>
-      <c r="H2239" s="27"/>
-      <c r="I2239" s="27"/>
+      <c r="C2239" s="28"/>
+      <c r="D2239" s="31"/>
+      <c r="E2239" s="31"/>
+      <c r="F2239" s="31"/>
+      <c r="G2239" s="31"/>
+      <c r="H2239" s="31"/>
+      <c r="I2239" s="31"/>
     </row>
     <row r="2240" spans="3:9">
-      <c r="C2240" s="25"/>
-      <c r="D2240" s="27"/>
-      <c r="E2240" s="27"/>
-      <c r="F2240" s="27"/>
-      <c r="G2240" s="27"/>
-      <c r="H2240" s="27"/>
-      <c r="I2240" s="27"/>
+      <c r="C2240" s="28"/>
+      <c r="D2240" s="31"/>
+      <c r="E2240" s="31"/>
+      <c r="F2240" s="31"/>
+      <c r="G2240" s="31"/>
+      <c r="H2240" s="31"/>
+      <c r="I2240" s="31"/>
     </row>
     <row r="2241" spans="3:9">
-      <c r="C2241" s="25"/>
-      <c r="D2241" s="27"/>
-      <c r="E2241" s="27"/>
-      <c r="F2241" s="27"/>
-      <c r="G2241" s="27"/>
-      <c r="H2241" s="27"/>
-      <c r="I2241" s="27"/>
+      <c r="C2241" s="28"/>
+      <c r="D2241" s="31"/>
+      <c r="E2241" s="31"/>
+      <c r="F2241" s="31"/>
+      <c r="G2241" s="31"/>
+      <c r="H2241" s="31"/>
+      <c r="I2241" s="31"/>
     </row>
     <row r="2242" spans="3:9">
-      <c r="C2242" s="25"/>
-      <c r="D2242" s="27"/>
-      <c r="E2242" s="27"/>
-      <c r="F2242" s="27"/>
-      <c r="G2242" s="27"/>
-      <c r="H2242" s="27"/>
-      <c r="I2242" s="27"/>
+      <c r="C2242" s="28"/>
+      <c r="D2242" s="31"/>
+      <c r="E2242" s="31"/>
+      <c r="F2242" s="31"/>
+      <c r="G2242" s="31"/>
+      <c r="H2242" s="31"/>
+      <c r="I2242" s="31"/>
     </row>
     <row r="2243" spans="3:9">
-      <c r="C2243" s="25"/>
-      <c r="D2243" s="27"/>
-      <c r="E2243" s="27"/>
-      <c r="F2243" s="27"/>
-      <c r="G2243" s="27"/>
-      <c r="H2243" s="27"/>
-      <c r="I2243" s="27"/>
+      <c r="C2243" s="28"/>
+      <c r="D2243" s="31"/>
+      <c r="E2243" s="31"/>
+      <c r="F2243" s="31"/>
+      <c r="G2243" s="31"/>
+      <c r="H2243" s="31"/>
+      <c r="I2243" s="31"/>
     </row>
     <row r="2244" spans="3:9">
-      <c r="C2244" s="25"/>
-      <c r="D2244" s="27"/>
-      <c r="E2244" s="27"/>
-      <c r="F2244" s="27"/>
-      <c r="G2244" s="27"/>
-      <c r="H2244" s="27"/>
-      <c r="I2244" s="27"/>
+      <c r="C2244" s="28"/>
+      <c r="D2244" s="31"/>
+      <c r="E2244" s="31"/>
+      <c r="F2244" s="31"/>
+      <c r="G2244" s="31"/>
+      <c r="H2244" s="31"/>
+      <c r="I2244" s="31"/>
     </row>
     <row r="2245" spans="3:9">
-      <c r="C2245" s="25"/>
-      <c r="D2245" s="27"/>
-      <c r="E2245" s="27"/>
-      <c r="F2245" s="27"/>
-      <c r="G2245" s="27"/>
-      <c r="H2245" s="27"/>
-      <c r="I2245" s="27"/>
+      <c r="C2245" s="28"/>
+      <c r="D2245" s="31"/>
+      <c r="E2245" s="31"/>
+      <c r="F2245" s="31"/>
+      <c r="G2245" s="31"/>
+      <c r="H2245" s="31"/>
+      <c r="I2245" s="31"/>
     </row>
     <row r="2246" spans="3:9">
-      <c r="C2246" s="25"/>
-      <c r="D2246" s="27"/>
-      <c r="E2246" s="27"/>
-      <c r="F2246" s="27"/>
-      <c r="G2246" s="27"/>
-      <c r="H2246" s="27"/>
-      <c r="I2246" s="27"/>
+      <c r="C2246" s="28"/>
+      <c r="D2246" s="31"/>
+      <c r="E2246" s="31"/>
+      <c r="F2246" s="31"/>
+      <c r="G2246" s="31"/>
+      <c r="H2246" s="31"/>
+      <c r="I2246" s="31"/>
     </row>
     <row r="2247" spans="3:9">
-      <c r="C2247" s="25"/>
-      <c r="D2247" s="27"/>
-      <c r="E2247" s="27"/>
-      <c r="F2247" s="27"/>
-      <c r="G2247" s="27"/>
-      <c r="H2247" s="27"/>
-      <c r="I2247" s="27"/>
+      <c r="C2247" s="28"/>
+      <c r="D2247" s="31"/>
+      <c r="E2247" s="31"/>
+      <c r="F2247" s="31"/>
+      <c r="G2247" s="31"/>
+      <c r="H2247" s="31"/>
+      <c r="I2247" s="31"/>
     </row>
     <row r="2248" spans="3:9">
-      <c r="C2248" s="25"/>
-      <c r="D2248" s="27"/>
-      <c r="E2248" s="27"/>
-      <c r="F2248" s="27"/>
-      <c r="G2248" s="27"/>
-      <c r="H2248" s="27"/>
-      <c r="I2248" s="27"/>
+      <c r="C2248" s="28"/>
+      <c r="D2248" s="31"/>
+      <c r="E2248" s="31"/>
+      <c r="F2248" s="31"/>
+      <c r="G2248" s="31"/>
+      <c r="H2248" s="31"/>
+      <c r="I2248" s="31"/>
     </row>
     <row r="2249" spans="3:9">
-      <c r="C2249" s="25"/>
-      <c r="D2249" s="27"/>
-      <c r="E2249" s="27"/>
-      <c r="F2249" s="27"/>
-      <c r="G2249" s="27"/>
-      <c r="H2249" s="27"/>
-      <c r="I2249" s="27"/>
+      <c r="C2249" s="28"/>
+      <c r="D2249" s="31"/>
+      <c r="E2249" s="31"/>
+      <c r="F2249" s="31"/>
+      <c r="G2249" s="31"/>
+      <c r="H2249" s="31"/>
+      <c r="I2249" s="31"/>
     </row>
     <row r="2250" spans="3:9">
-      <c r="C2250" s="25"/>
-      <c r="D2250" s="27"/>
-      <c r="E2250" s="27"/>
-      <c r="F2250" s="27"/>
-      <c r="G2250" s="27"/>
-      <c r="H2250" s="27"/>
-      <c r="I2250" s="27"/>
+      <c r="C2250" s="28"/>
+      <c r="D2250" s="31"/>
+      <c r="E2250" s="31"/>
+      <c r="F2250" s="31"/>
+      <c r="G2250" s="31"/>
+      <c r="H2250" s="31"/>
+      <c r="I2250" s="31"/>
     </row>
     <row r="2251" spans="3:9">
-      <c r="C2251" s="25"/>
-      <c r="D2251" s="27"/>
-      <c r="E2251" s="27"/>
-      <c r="F2251" s="27"/>
-      <c r="G2251" s="27"/>
-      <c r="H2251" s="27"/>
-      <c r="I2251" s="27"/>
+      <c r="C2251" s="28"/>
+      <c r="D2251" s="31"/>
+      <c r="E2251" s="31"/>
+      <c r="F2251" s="31"/>
+      <c r="G2251" s="31"/>
+      <c r="H2251" s="31"/>
+      <c r="I2251" s="31"/>
     </row>
     <row r="2252" spans="3:9">
-      <c r="C2252" s="25"/>
-      <c r="D2252" s="27"/>
-      <c r="E2252" s="27"/>
-      <c r="F2252" s="27"/>
-      <c r="G2252" s="27"/>
-      <c r="H2252" s="27"/>
-      <c r="I2252" s="27"/>
+      <c r="C2252" s="28"/>
+      <c r="D2252" s="31"/>
+      <c r="E2252" s="31"/>
+      <c r="F2252" s="31"/>
+      <c r="G2252" s="31"/>
+      <c r="H2252" s="31"/>
+      <c r="I2252" s="31"/>
     </row>
     <row r="2253" spans="3:9">
-      <c r="C2253" s="25"/>
-      <c r="D2253" s="27"/>
-      <c r="E2253" s="27"/>
-      <c r="F2253" s="27"/>
-      <c r="G2253" s="27"/>
-      <c r="H2253" s="27"/>
-      <c r="I2253" s="27"/>
+      <c r="C2253" s="28"/>
+      <c r="D2253" s="31"/>
+      <c r="E2253" s="31"/>
+      <c r="F2253" s="31"/>
+      <c r="G2253" s="31"/>
+      <c r="H2253" s="31"/>
+      <c r="I2253" s="31"/>
     </row>
     <row r="2254" spans="3:9">
-      <c r="C2254" s="25"/>
-      <c r="D2254" s="27"/>
-      <c r="E2254" s="27"/>
-      <c r="F2254" s="27"/>
-      <c r="G2254" s="27"/>
-      <c r="H2254" s="27"/>
-      <c r="I2254" s="27"/>
+      <c r="C2254" s="28"/>
+      <c r="D2254" s="31"/>
+      <c r="E2254" s="31"/>
+      <c r="F2254" s="31"/>
+      <c r="G2254" s="31"/>
+      <c r="H2254" s="31"/>
+      <c r="I2254" s="31"/>
     </row>
     <row r="2255" spans="3:9">
-      <c r="C2255" s="25"/>
-      <c r="D2255" s="27"/>
-      <c r="E2255" s="27"/>
-      <c r="F2255" s="27"/>
-      <c r="G2255" s="27"/>
-      <c r="H2255" s="27"/>
-      <c r="I2255" s="27"/>
+      <c r="C2255" s="28"/>
+      <c r="D2255" s="31"/>
+      <c r="E2255" s="31"/>
+      <c r="F2255" s="31"/>
+      <c r="G2255" s="31"/>
+      <c r="H2255" s="31"/>
+      <c r="I2255" s="31"/>
     </row>
     <row r="2256" spans="3:9">
-      <c r="C2256" s="25"/>
-      <c r="D2256" s="27"/>
-      <c r="E2256" s="27"/>
-      <c r="F2256" s="27"/>
-      <c r="G2256" s="27"/>
-      <c r="H2256" s="27"/>
-      <c r="I2256" s="27"/>
+      <c r="C2256" s="28"/>
+      <c r="D2256" s="31"/>
+      <c r="E2256" s="31"/>
+      <c r="F2256" s="31"/>
+      <c r="G2256" s="31"/>
+      <c r="H2256" s="31"/>
+      <c r="I2256" s="31"/>
     </row>
     <row r="2257" spans="3:9">
-      <c r="C2257" s="25"/>
-      <c r="D2257" s="27"/>
-      <c r="E2257" s="27"/>
-      <c r="F2257" s="27"/>
-      <c r="G2257" s="27"/>
-      <c r="H2257" s="27"/>
-      <c r="I2257" s="27"/>
+      <c r="C2257" s="28"/>
+      <c r="D2257" s="31"/>
+      <c r="E2257" s="31"/>
+      <c r="F2257" s="31"/>
+      <c r="G2257" s="31"/>
+      <c r="H2257" s="31"/>
+      <c r="I2257" s="31"/>
     </row>
     <row r="2258" spans="3:9">
-      <c r="C2258" s="25"/>
-      <c r="D2258" s="27"/>
-      <c r="E2258" s="27"/>
-      <c r="F2258" s="27"/>
-      <c r="G2258" s="27"/>
-      <c r="H2258" s="27"/>
-      <c r="I2258" s="27"/>
+      <c r="C2258" s="28"/>
+      <c r="D2258" s="31"/>
+      <c r="E2258" s="31"/>
+      <c r="F2258" s="31"/>
+      <c r="G2258" s="31"/>
+      <c r="H2258" s="31"/>
+      <c r="I2258" s="31"/>
     </row>
     <row r="2259" spans="3:9">
-      <c r="C2259" s="25"/>
-      <c r="D2259" s="27"/>
-      <c r="E2259" s="27"/>
-      <c r="F2259" s="27"/>
-      <c r="G2259" s="27"/>
-      <c r="H2259" s="27"/>
-      <c r="I2259" s="27"/>
+      <c r="C2259" s="28"/>
+      <c r="D2259" s="31"/>
+      <c r="E2259" s="31"/>
+      <c r="F2259" s="31"/>
+      <c r="G2259" s="31"/>
+      <c r="H2259" s="31"/>
+      <c r="I2259" s="31"/>
     </row>
     <row r="2260" spans="3:9">
-      <c r="C2260" s="25"/>
-      <c r="D2260" s="27"/>
-      <c r="E2260" s="27"/>
-      <c r="F2260" s="27"/>
-      <c r="G2260" s="27"/>
-      <c r="H2260" s="27"/>
-      <c r="I2260" s="27"/>
+      <c r="C2260" s="28"/>
+      <c r="D2260" s="31"/>
+      <c r="E2260" s="31"/>
+      <c r="F2260" s="31"/>
+      <c r="G2260" s="31"/>
+      <c r="H2260" s="31"/>
+      <c r="I2260" s="31"/>
     </row>
     <row r="2261" spans="3:9">
-      <c r="C2261" s="25"/>
-      <c r="D2261" s="27"/>
-      <c r="E2261" s="27"/>
-      <c r="F2261" s="27"/>
-      <c r="G2261" s="27"/>
-      <c r="H2261" s="27"/>
-      <c r="I2261" s="27"/>
+      <c r="C2261" s="28"/>
+      <c r="D2261" s="31"/>
+      <c r="E2261" s="31"/>
+      <c r="F2261" s="31"/>
+      <c r="G2261" s="31"/>
+      <c r="H2261" s="31"/>
+      <c r="I2261" s="31"/>
     </row>
     <row r="2262" spans="3:9">
-      <c r="C2262" s="25"/>
-      <c r="D2262" s="27"/>
-      <c r="E2262" s="27"/>
-      <c r="F2262" s="27"/>
-      <c r="G2262" s="27"/>
-      <c r="H2262" s="27"/>
-      <c r="I2262" s="27"/>
+      <c r="C2262" s="28"/>
+      <c r="D2262" s="31"/>
+      <c r="E2262" s="31"/>
+      <c r="F2262" s="31"/>
+      <c r="G2262" s="31"/>
+      <c r="H2262" s="31"/>
+      <c r="I2262" s="31"/>
     </row>
     <row r="2263" spans="3:9">
-      <c r="C2263" s="25"/>
-      <c r="D2263" s="27"/>
-      <c r="E2263" s="27"/>
-      <c r="F2263" s="27"/>
-      <c r="G2263" s="27"/>
-      <c r="H2263" s="27"/>
-      <c r="I2263" s="27"/>
+      <c r="C2263" s="28"/>
+      <c r="D2263" s="31"/>
+      <c r="E2263" s="31"/>
+      <c r="F2263" s="31"/>
+      <c r="G2263" s="31"/>
+      <c r="H2263" s="31"/>
+      <c r="I2263" s="31"/>
     </row>
     <row r="2264" spans="3:9">
-      <c r="C2264" s="25"/>
-      <c r="D2264" s="27"/>
-      <c r="E2264" s="27"/>
-      <c r="F2264" s="27"/>
-      <c r="G2264" s="27"/>
-      <c r="H2264" s="27"/>
-      <c r="I2264" s="27"/>
+      <c r="C2264" s="28"/>
+      <c r="D2264" s="31"/>
+      <c r="E2264" s="31"/>
+      <c r="F2264" s="31"/>
+      <c r="G2264" s="31"/>
+      <c r="H2264" s="31"/>
+      <c r="I2264" s="31"/>
     </row>
     <row r="2265" spans="3:9">
-      <c r="C2265" s="25"/>
-      <c r="D2265" s="27"/>
-      <c r="E2265" s="27"/>
-      <c r="F2265" s="27"/>
-      <c r="G2265" s="27"/>
-      <c r="H2265" s="27"/>
-      <c r="I2265" s="27"/>
+      <c r="C2265" s="28"/>
+      <c r="D2265" s="31"/>
+      <c r="E2265" s="31"/>
+      <c r="F2265" s="31"/>
+      <c r="G2265" s="31"/>
+      <c r="H2265" s="31"/>
+      <c r="I2265" s="31"/>
     </row>
     <row r="2266" spans="3:9">
-      <c r="C2266" s="25"/>
-      <c r="D2266" s="27"/>
-      <c r="E2266" s="27"/>
-      <c r="F2266" s="27"/>
-      <c r="G2266" s="27"/>
-      <c r="H2266" s="27"/>
-      <c r="I2266" s="27"/>
+      <c r="C2266" s="28"/>
+      <c r="D2266" s="31"/>
+      <c r="E2266" s="31"/>
+      <c r="F2266" s="31"/>
+      <c r="G2266" s="31"/>
+      <c r="H2266" s="31"/>
+      <c r="I2266" s="31"/>
     </row>
     <row r="2267" spans="3:9">
-      <c r="C2267" s="26"/>
+      <c r="C2267" s="30"/>
       <c r="D2267" s="23"/>
       <c r="E2267" s="23"/>
       <c r="F2267" s="23"/>
@@ -53610,7 +53971,7 @@
       <c r="I2267" s="23"/>
     </row>
     <row r="2268" spans="3:9">
-      <c r="C2268" s="26"/>
+      <c r="C2268" s="30"/>
       <c r="D2268" s="23"/>
       <c r="E2268" s="23"/>
       <c r="F2268" s="23"/>
@@ -53619,7 +53980,7 @@
       <c r="I2268" s="23"/>
     </row>
     <row r="2269" spans="3:9">
-      <c r="C2269" s="26"/>
+      <c r="C2269" s="30"/>
       <c r="D2269" s="23"/>
       <c r="E2269" s="23"/>
       <c r="F2269" s="23"/>
@@ -53628,7 +53989,7 @@
       <c r="I2269" s="23"/>
     </row>
     <row r="2270" spans="3:9">
-      <c r="C2270" s="26"/>
+      <c r="C2270" s="30"/>
       <c r="D2270" s="23"/>
       <c r="E2270" s="23"/>
       <c r="F2270" s="23"/>
@@ -53637,7 +53998,7 @@
       <c r="I2270" s="23"/>
     </row>
     <row r="2271" spans="3:9">
-      <c r="C2271" s="26"/>
+      <c r="C2271" s="30"/>
       <c r="D2271" s="23"/>
       <c r="E2271" s="23"/>
       <c r="F2271" s="23"/>
@@ -53646,7 +54007,7 @@
       <c r="I2271" s="23"/>
     </row>
     <row r="2272" spans="3:9">
-      <c r="C2272" s="26"/>
+      <c r="C2272" s="30"/>
       <c r="D2272" s="23"/>
       <c r="E2272" s="23"/>
       <c r="F2272" s="23"/>
@@ -53655,7 +54016,7 @@
       <c r="I2272" s="23"/>
     </row>
     <row r="2273" spans="3:9">
-      <c r="C2273" s="26"/>
+      <c r="C2273" s="30"/>
       <c r="D2273" s="23"/>
       <c r="E2273" s="23"/>
       <c r="F2273" s="23"/>
@@ -53664,7 +54025,7 @@
       <c r="I2273" s="23"/>
     </row>
     <row r="2274" spans="3:9">
-      <c r="C2274" s="26"/>
+      <c r="C2274" s="30"/>
       <c r="D2274" s="23"/>
       <c r="E2274" s="23"/>
       <c r="F2274" s="23"/>
@@ -53673,7 +54034,7 @@
       <c r="I2274" s="23"/>
     </row>
     <row r="2275" spans="3:9">
-      <c r="C2275" s="26"/>
+      <c r="C2275" s="30"/>
       <c r="D2275" s="23"/>
       <c r="E2275" s="23"/>
       <c r="F2275" s="23"/>
@@ -53682,7 +54043,7 @@
       <c r="I2275" s="23"/>
     </row>
     <row r="2276" spans="3:9">
-      <c r="C2276" s="26"/>
+      <c r="C2276" s="30"/>
       <c r="D2276" s="23"/>
       <c r="E2276" s="23"/>
       <c r="F2276" s="23"/>
@@ -53691,7 +54052,7 @@
       <c r="I2276" s="23"/>
     </row>
     <row r="2277" spans="3:9">
-      <c r="C2277" s="26"/>
+      <c r="C2277" s="30"/>
       <c r="D2277" s="23"/>
       <c r="E2277" s="23"/>
       <c r="F2277" s="23"/>
@@ -53700,7 +54061,7 @@
       <c r="I2277" s="23"/>
     </row>
     <row r="2278" spans="3:9">
-      <c r="C2278" s="26"/>
+      <c r="C2278" s="30"/>
       <c r="D2278" s="23"/>
       <c r="E2278" s="23"/>
       <c r="F2278" s="23"/>
@@ -53709,7 +54070,7 @@
       <c r="I2278" s="23"/>
     </row>
     <row r="2279" spans="3:9">
-      <c r="C2279" s="26"/>
+      <c r="C2279" s="30"/>
       <c r="D2279" s="23"/>
       <c r="E2279" s="23"/>
       <c r="F2279" s="23"/>
@@ -53718,7 +54079,7 @@
       <c r="I2279" s="23"/>
     </row>
     <row r="2280" spans="3:9">
-      <c r="C2280" s="26"/>
+      <c r="C2280" s="30"/>
       <c r="D2280" s="23"/>
       <c r="E2280" s="23"/>
       <c r="F2280" s="23"/>
@@ -53727,7 +54088,7 @@
       <c r="I2280" s="23"/>
     </row>
     <row r="2281" spans="3:9">
-      <c r="C2281" s="26"/>
+      <c r="C2281" s="30"/>
       <c r="D2281" s="23"/>
       <c r="E2281" s="23"/>
       <c r="F2281" s="23"/>
@@ -53736,7 +54097,7 @@
       <c r="I2281" s="23"/>
     </row>
     <row r="2282" spans="3:9">
-      <c r="C2282" s="26"/>
+      <c r="C2282" s="30"/>
       <c r="D2282" s="23"/>
       <c r="E2282" s="23"/>
       <c r="F2282" s="23"/>
@@ -53745,7 +54106,7 @@
       <c r="I2282" s="23"/>
     </row>
     <row r="2283" spans="3:9">
-      <c r="C2283" s="26"/>
+      <c r="C2283" s="30"/>
       <c r="D2283" s="23"/>
       <c r="E2283" s="23"/>
       <c r="F2283" s="23"/>
@@ -53754,7 +54115,7 @@
       <c r="I2283" s="23"/>
     </row>
     <row r="2284" spans="3:9">
-      <c r="C2284" s="26"/>
+      <c r="C2284" s="30"/>
       <c r="D2284" s="23"/>
       <c r="E2284" s="23"/>
       <c r="F2284" s="23"/>
@@ -53763,7 +54124,7 @@
       <c r="I2284" s="23"/>
     </row>
     <row r="2285" spans="3:9">
-      <c r="C2285" s="26"/>
+      <c r="C2285" s="30"/>
       <c r="D2285" s="23"/>
       <c r="E2285" s="23"/>
       <c r="F2285" s="23"/>
@@ -53772,7 +54133,7 @@
       <c r="I2285" s="23"/>
     </row>
     <row r="2286" spans="3:9">
-      <c r="C2286" s="26"/>
+      <c r="C2286" s="30"/>
       <c r="D2286" s="23"/>
       <c r="E2286" s="23"/>
       <c r="F2286" s="23"/>
@@ -53781,7 +54142,7 @@
       <c r="I2286" s="23"/>
     </row>
     <row r="2287" spans="3:9">
-      <c r="C2287" s="26"/>
+      <c r="C2287" s="30"/>
       <c r="D2287" s="23"/>
       <c r="E2287" s="23"/>
       <c r="F2287" s="23"/>
@@ -53790,7 +54151,7 @@
       <c r="I2287" s="23"/>
     </row>
     <row r="2288" spans="3:9">
-      <c r="C2288" s="26"/>
+      <c r="C2288" s="30"/>
       <c r="D2288" s="23"/>
       <c r="E2288" s="23"/>
       <c r="F2288" s="23"/>
@@ -53799,7 +54160,7 @@
       <c r="I2288" s="23"/>
     </row>
     <row r="2289" spans="3:9">
-      <c r="C2289" s="26"/>
+      <c r="C2289" s="30"/>
       <c r="D2289" s="23"/>
       <c r="E2289" s="23"/>
       <c r="F2289" s="23"/>
@@ -53808,7 +54169,7 @@
       <c r="I2289" s="23"/>
     </row>
     <row r="2290" spans="3:9">
-      <c r="C2290" s="26"/>
+      <c r="C2290" s="30"/>
       <c r="D2290" s="23"/>
       <c r="E2290" s="23"/>
       <c r="F2290" s="23"/>
@@ -53817,7 +54178,7 @@
       <c r="I2290" s="23"/>
     </row>
     <row r="2291" spans="3:9">
-      <c r="C2291" s="26"/>
+      <c r="C2291" s="30"/>
       <c r="D2291" s="23"/>
       <c r="E2291" s="23"/>
       <c r="F2291" s="23"/>
@@ -53826,7 +54187,7 @@
       <c r="I2291" s="23"/>
     </row>
     <row r="2292" spans="3:9">
-      <c r="C2292" s="26"/>
+      <c r="C2292" s="30"/>
       <c r="D2292" s="23"/>
       <c r="E2292" s="23"/>
       <c r="F2292" s="23"/>
@@ -53835,7 +54196,7 @@
       <c r="I2292" s="23"/>
     </row>
     <row r="2293" spans="3:9">
-      <c r="C2293" s="26"/>
+      <c r="C2293" s="30"/>
       <c r="D2293" s="23"/>
       <c r="E2293" s="23"/>
       <c r="F2293" s="23"/>
@@ -53844,7 +54205,7 @@
       <c r="I2293" s="23"/>
     </row>
     <row r="2294" spans="3:9">
-      <c r="C2294" s="26"/>
+      <c r="C2294" s="30"/>
       <c r="D2294" s="23"/>
       <c r="E2294" s="23"/>
       <c r="F2294" s="23"/>
@@ -53853,7 +54214,7 @@
       <c r="I2294" s="23"/>
     </row>
     <row r="2295" spans="3:9">
-      <c r="C2295" s="26"/>
+      <c r="C2295" s="30"/>
       <c r="D2295" s="23"/>
       <c r="E2295" s="23"/>
       <c r="F2295" s="23"/>
@@ -53862,7 +54223,7 @@
       <c r="I2295" s="23"/>
     </row>
     <row r="2296" spans="3:9">
-      <c r="C2296" s="26"/>
+      <c r="C2296" s="30"/>
       <c r="D2296" s="23"/>
       <c r="E2296" s="23"/>
       <c r="F2296" s="23"/>
@@ -53871,7 +54232,7 @@
       <c r="I2296" s="23"/>
     </row>
     <row r="2297" spans="3:9">
-      <c r="C2297" s="26"/>
+      <c r="C2297" s="30"/>
       <c r="D2297" s="23"/>
       <c r="E2297" s="23"/>
       <c r="F2297" s="23"/>
@@ -53880,7 +54241,7 @@
       <c r="I2297" s="23"/>
     </row>
     <row r="2298" spans="3:9">
-      <c r="C2298" s="26"/>
+      <c r="C2298" s="30"/>
       <c r="D2298" s="23"/>
       <c r="E2298" s="23"/>
       <c r="F2298" s="23"/>
@@ -53889,7 +54250,7 @@
       <c r="I2298" s="23"/>
     </row>
     <row r="2299" spans="3:9">
-      <c r="C2299" s="26"/>
+      <c r="C2299" s="30"/>
       <c r="D2299" s="23"/>
       <c r="E2299" s="23"/>
       <c r="F2299" s="23"/>
@@ -53898,7 +54259,7 @@
       <c r="I2299" s="23"/>
     </row>
     <row r="2300" spans="3:9">
-      <c r="C2300" s="26"/>
+      <c r="C2300" s="30"/>
       <c r="D2300" s="23"/>
       <c r="E2300" s="23"/>
       <c r="F2300" s="23"/>
@@ -53907,7 +54268,7 @@
       <c r="I2300" s="23"/>
     </row>
     <row r="2301" spans="3:9">
-      <c r="C2301" s="26"/>
+      <c r="C2301" s="30"/>
       <c r="D2301" s="23"/>
       <c r="E2301" s="23"/>
       <c r="F2301" s="23"/>
@@ -53916,7 +54277,7 @@
       <c r="I2301" s="23"/>
     </row>
     <row r="2302" spans="3:9">
-      <c r="C2302" s="26"/>
+      <c r="C2302" s="30"/>
       <c r="D2302" s="23"/>
       <c r="E2302" s="23"/>
       <c r="F2302" s="23"/>
@@ -53925,7 +54286,7 @@
       <c r="I2302" s="23"/>
     </row>
     <row r="2303" spans="3:9">
-      <c r="C2303" s="26"/>
+      <c r="C2303" s="30"/>
       <c r="D2303" s="23"/>
       <c r="E2303" s="23"/>
       <c r="F2303" s="23"/>
@@ -53934,7 +54295,7 @@
       <c r="I2303" s="23"/>
     </row>
     <row r="2304" spans="3:9">
-      <c r="C2304" s="26"/>
+      <c r="C2304" s="30"/>
       <c r="D2304" s="23"/>
       <c r="E2304" s="23"/>
       <c r="F2304" s="23"/>
@@ -53943,7 +54304,7 @@
       <c r="I2304" s="23"/>
     </row>
     <row r="2305" spans="3:9">
-      <c r="C2305" s="26"/>
+      <c r="C2305" s="30"/>
       <c r="D2305" s="23"/>
       <c r="E2305" s="23"/>
       <c r="F2305" s="23"/>
@@ -53952,7 +54313,7 @@
       <c r="I2305" s="23"/>
     </row>
     <row r="2306" spans="3:9">
-      <c r="C2306" s="26"/>
+      <c r="C2306" s="30"/>
       <c r="D2306" s="23"/>
       <c r="E2306" s="23"/>
       <c r="F2306" s="23"/>
@@ -53961,7 +54322,7 @@
       <c r="I2306" s="23"/>
     </row>
     <row r="2307" spans="3:9">
-      <c r="C2307" s="26"/>
+      <c r="C2307" s="30"/>
       <c r="D2307" s="23"/>
       <c r="E2307" s="23"/>
       <c r="F2307" s="23"/>
@@ -53970,7 +54331,7 @@
       <c r="I2307" s="23"/>
     </row>
     <row r="2308" spans="3:9">
-      <c r="C2308" s="26"/>
+      <c r="C2308" s="30"/>
       <c r="D2308" s="23"/>
       <c r="E2308" s="23"/>
       <c r="F2308" s="23"/>
@@ -53979,7 +54340,7 @@
       <c r="I2308" s="23"/>
     </row>
     <row r="2309" spans="3:9">
-      <c r="C2309" s="26"/>
+      <c r="C2309" s="30"/>
       <c r="D2309" s="24"/>
       <c r="E2309" s="24"/>
       <c r="F2309" s="24"/>
@@ -53988,7 +54349,7 @@
       <c r="I2309" s="24"/>
     </row>
     <row r="2310" spans="3:9">
-      <c r="C2310" s="26"/>
+      <c r="C2310" s="30"/>
       <c r="D2310" s="24"/>
       <c r="E2310" s="24"/>
       <c r="F2310" s="24"/>
@@ -53997,7 +54358,7 @@
       <c r="I2310" s="24"/>
     </row>
     <row r="2311" spans="3:9">
-      <c r="C2311" s="26"/>
+      <c r="C2311" s="30"/>
       <c r="D2311" s="24"/>
       <c r="E2311" s="24"/>
       <c r="F2311" s="24"/>
@@ -54006,7 +54367,7 @@
       <c r="I2311" s="24"/>
     </row>
     <row r="2312" spans="3:9">
-      <c r="C2312" s="26"/>
+      <c r="C2312" s="30"/>
       <c r="D2312" s="24"/>
       <c r="E2312" s="24"/>
       <c r="F2312" s="24"/>
@@ -54015,7 +54376,7 @@
       <c r="I2312" s="24"/>
     </row>
     <row r="2313" spans="3:9">
-      <c r="C2313" s="26"/>
+      <c r="C2313" s="30"/>
       <c r="D2313" s="24"/>
       <c r="E2313" s="24"/>
       <c r="F2313" s="24"/>
@@ -54024,7 +54385,7 @@
       <c r="I2313" s="24"/>
     </row>
     <row r="2314" spans="3:9">
-      <c r="C2314" s="26"/>
+      <c r="C2314" s="30"/>
       <c r="D2314" s="24"/>
       <c r="E2314" s="24"/>
       <c r="F2314" s="24"/>
@@ -54033,7 +54394,7 @@
       <c r="I2314" s="24"/>
     </row>
     <row r="2315" spans="3:9">
-      <c r="C2315" s="26"/>
+      <c r="C2315" s="30"/>
       <c r="D2315" s="24"/>
       <c r="E2315" s="24"/>
       <c r="F2315" s="24"/>
@@ -54042,7 +54403,7 @@
       <c r="I2315" s="24"/>
     </row>
     <row r="2316" spans="3:9">
-      <c r="C2316" s="26"/>
+      <c r="C2316" s="30"/>
       <c r="D2316" s="24"/>
       <c r="E2316" s="24"/>
       <c r="F2316" s="24"/>
@@ -54051,7 +54412,7 @@
       <c r="I2316" s="24"/>
     </row>
     <row r="2317" spans="3:9">
-      <c r="C2317" s="26"/>
+      <c r="C2317" s="30"/>
       <c r="D2317" s="24"/>
       <c r="E2317" s="24"/>
       <c r="F2317" s="24"/>
@@ -54060,7 +54421,7 @@
       <c r="I2317" s="24"/>
     </row>
     <row r="2318" spans="3:9">
-      <c r="C2318" s="26"/>
+      <c r="C2318" s="30"/>
       <c r="D2318" s="24"/>
       <c r="E2318" s="24"/>
       <c r="F2318" s="24"/>
@@ -54069,7 +54430,7 @@
       <c r="I2318" s="24"/>
     </row>
     <row r="2319" spans="3:9">
-      <c r="C2319" s="26"/>
+      <c r="C2319" s="30"/>
       <c r="D2319" s="24"/>
       <c r="E2319" s="24"/>
       <c r="F2319" s="24"/>
@@ -54078,7 +54439,7 @@
       <c r="I2319" s="24"/>
     </row>
     <row r="2320" spans="3:9">
-      <c r="C2320" s="26"/>
+      <c r="C2320" s="30"/>
       <c r="D2320" s="24"/>
       <c r="E2320" s="24"/>
       <c r="F2320" s="24"/>
@@ -54087,7 +54448,7 @@
       <c r="I2320" s="24"/>
     </row>
     <row r="2321" spans="3:9">
-      <c r="C2321" s="26"/>
+      <c r="C2321" s="30"/>
       <c r="D2321" s="24"/>
       <c r="E2321" s="24"/>
       <c r="F2321" s="24"/>
@@ -54096,7 +54457,7 @@
       <c r="I2321" s="24"/>
     </row>
     <row r="2322" spans="3:9">
-      <c r="C2322" s="26"/>
+      <c r="C2322" s="30"/>
       <c r="D2322" s="24"/>
       <c r="E2322" s="24"/>
       <c r="F2322" s="24"/>
@@ -54105,7 +54466,7 @@
       <c r="I2322" s="24"/>
     </row>
     <row r="2323" spans="3:9">
-      <c r="C2323" s="26"/>
+      <c r="C2323" s="30"/>
       <c r="D2323" s="24"/>
       <c r="E2323" s="24"/>
       <c r="F2323" s="24"/>
@@ -54114,7 +54475,7 @@
       <c r="I2323" s="24"/>
     </row>
     <row r="2324" spans="3:9">
-      <c r="C2324" s="26"/>
+      <c r="C2324" s="30"/>
       <c r="D2324" s="24"/>
       <c r="E2324" s="24"/>
       <c r="F2324" s="24"/>
@@ -54123,7 +54484,7 @@
       <c r="I2324" s="24"/>
     </row>
     <row r="2325" spans="3:9">
-      <c r="C2325" s="26"/>
+      <c r="C2325" s="30"/>
       <c r="D2325" s="24"/>
       <c r="E2325" s="24"/>
       <c r="F2325" s="24"/>
@@ -54132,7 +54493,7 @@
       <c r="I2325" s="24"/>
     </row>
     <row r="2326" spans="3:9">
-      <c r="C2326" s="26"/>
+      <c r="C2326" s="30"/>
       <c r="D2326" s="24"/>
       <c r="E2326" s="24"/>
       <c r="F2326" s="24"/>
@@ -54141,7 +54502,7 @@
       <c r="I2326" s="24"/>
     </row>
     <row r="2327" spans="3:9">
-      <c r="C2327" s="26"/>
+      <c r="C2327" s="30"/>
       <c r="D2327" s="24"/>
       <c r="E2327" s="24"/>
       <c r="F2327" s="24"/>
@@ -54150,7 +54511,7 @@
       <c r="I2327" s="24"/>
     </row>
     <row r="2328" spans="3:9">
-      <c r="C2328" s="26"/>
+      <c r="C2328" s="30"/>
       <c r="D2328" s="24"/>
       <c r="E2328" s="24"/>
       <c r="F2328" s="24"/>
@@ -54159,7 +54520,7 @@
       <c r="I2328" s="24"/>
     </row>
     <row r="2329" spans="3:9">
-      <c r="C2329" s="26"/>
+      <c r="C2329" s="30"/>
       <c r="D2329" s="24"/>
       <c r="E2329" s="24"/>
       <c r="F2329" s="24"/>
@@ -54168,7 +54529,7 @@
       <c r="I2329" s="24"/>
     </row>
     <row r="2330" spans="3:9">
-      <c r="C2330" s="26"/>
+      <c r="C2330" s="30"/>
       <c r="D2330" s="24"/>
       <c r="E2330" s="24"/>
       <c r="F2330" s="24"/>
@@ -54177,7 +54538,7 @@
       <c r="I2330" s="24"/>
     </row>
     <row r="2331" spans="3:9">
-      <c r="C2331" s="26"/>
+      <c r="C2331" s="30"/>
       <c r="D2331" s="24"/>
       <c r="E2331" s="24"/>
       <c r="F2331" s="24"/>
@@ -54186,7 +54547,7 @@
       <c r="I2331" s="24"/>
     </row>
     <row r="2332" spans="3:9">
-      <c r="C2332" s="26"/>
+      <c r="C2332" s="30"/>
       <c r="D2332" s="24"/>
       <c r="E2332" s="24"/>
       <c r="F2332" s="24"/>
@@ -54195,7 +54556,7 @@
       <c r="I2332" s="24"/>
     </row>
     <row r="2333" spans="3:9">
-      <c r="C2333" s="26"/>
+      <c r="C2333" s="30"/>
       <c r="D2333" s="24"/>
       <c r="E2333" s="24"/>
       <c r="F2333" s="24"/>
@@ -54204,7 +54565,7 @@
       <c r="I2333" s="24"/>
     </row>
     <row r="2334" spans="3:9">
-      <c r="C2334" s="26"/>
+      <c r="C2334" s="30"/>
       <c r="D2334" s="24"/>
       <c r="E2334" s="24"/>
       <c r="F2334" s="24"/>
@@ -54213,7 +54574,7 @@
       <c r="I2334" s="24"/>
     </row>
     <row r="2335" spans="3:9">
-      <c r="C2335" s="26"/>
+      <c r="C2335" s="30"/>
       <c r="D2335" s="24"/>
       <c r="E2335" s="24"/>
       <c r="F2335" s="24"/>
@@ -54222,7 +54583,7 @@
       <c r="I2335" s="24"/>
     </row>
     <row r="2336" spans="3:9">
-      <c r="C2336" s="26"/>
+      <c r="C2336" s="30"/>
       <c r="D2336" s="24"/>
       <c r="E2336" s="24"/>
       <c r="F2336" s="24"/>
@@ -54231,7 +54592,7 @@
       <c r="I2336" s="24"/>
     </row>
     <row r="2337" spans="3:9">
-      <c r="C2337" s="26"/>
+      <c r="C2337" s="30"/>
       <c r="D2337" s="24"/>
       <c r="E2337" s="24"/>
       <c r="F2337" s="24"/>
@@ -54240,7 +54601,7 @@
       <c r="I2337" s="24"/>
     </row>
     <row r="2338" spans="3:9">
-      <c r="C2338" s="26"/>
+      <c r="C2338" s="30"/>
       <c r="D2338" s="24"/>
       <c r="E2338" s="24"/>
       <c r="F2338" s="24"/>
@@ -54249,7 +54610,7 @@
       <c r="I2338" s="24"/>
     </row>
     <row r="2339" spans="3:9">
-      <c r="C2339" s="26"/>
+      <c r="C2339" s="30"/>
       <c r="D2339" s="24"/>
       <c r="E2339" s="24"/>
       <c r="F2339" s="24"/>
@@ -54258,7 +54619,7 @@
       <c r="I2339" s="24"/>
     </row>
     <row r="2340" spans="3:9">
-      <c r="C2340" s="26"/>
+      <c r="C2340" s="30"/>
       <c r="D2340" s="24"/>
       <c r="E2340" s="24"/>
       <c r="F2340" s="24"/>
@@ -54267,7 +54628,7 @@
       <c r="I2340" s="24"/>
     </row>
     <row r="2341" spans="3:9">
-      <c r="C2341" s="26"/>
+      <c r="C2341" s="30"/>
       <c r="D2341" s="24"/>
       <c r="E2341" s="24"/>
       <c r="F2341" s="24"/>
@@ -54276,7 +54637,7 @@
       <c r="I2341" s="24"/>
     </row>
     <row r="2342" spans="3:9">
-      <c r="C2342" s="26"/>
+      <c r="C2342" s="30"/>
       <c r="D2342" s="24"/>
       <c r="E2342" s="24"/>
       <c r="F2342" s="24"/>
@@ -54285,7 +54646,7 @@
       <c r="I2342" s="24"/>
     </row>
     <row r="2343" spans="3:9">
-      <c r="C2343" s="26"/>
+      <c r="C2343" s="30"/>
       <c r="D2343" s="24"/>
       <c r="E2343" s="24"/>
       <c r="F2343" s="24"/>
@@ -54294,7 +54655,7 @@
       <c r="I2343" s="24"/>
     </row>
     <row r="2344" spans="3:9">
-      <c r="C2344" s="26"/>
+      <c r="C2344" s="30"/>
       <c r="D2344" s="24"/>
       <c r="E2344" s="24"/>
       <c r="F2344" s="24"/>
@@ -54303,7 +54664,7 @@
       <c r="I2344" s="24"/>
     </row>
     <row r="2345" spans="3:9">
-      <c r="C2345" s="26"/>
+      <c r="C2345" s="30"/>
       <c r="D2345" s="24"/>
       <c r="E2345" s="24"/>
       <c r="F2345" s="24"/>
@@ -54312,7 +54673,7 @@
       <c r="I2345" s="24"/>
     </row>
     <row r="2346" spans="3:9">
-      <c r="C2346" s="26"/>
+      <c r="C2346" s="30"/>
       <c r="D2346" s="24"/>
       <c r="E2346" s="24"/>
       <c r="F2346" s="24"/>
@@ -54321,7 +54682,7 @@
       <c r="I2346" s="24"/>
     </row>
     <row r="2347" spans="3:9">
-      <c r="C2347" s="26"/>
+      <c r="C2347" s="30"/>
       <c r="D2347" s="24"/>
       <c r="E2347" s="24"/>
       <c r="F2347" s="24"/>
@@ -54330,7 +54691,7 @@
       <c r="I2347" s="24"/>
     </row>
     <row r="2348" spans="3:9">
-      <c r="C2348" s="26"/>
+      <c r="C2348" s="30"/>
       <c r="D2348" s="24"/>
       <c r="E2348" s="24"/>
       <c r="F2348" s="24"/>
@@ -54339,7 +54700,7 @@
       <c r="I2348" s="24"/>
     </row>
     <row r="2349" spans="3:9">
-      <c r="C2349" s="26"/>
+      <c r="C2349" s="30"/>
       <c r="D2349" s="24"/>
       <c r="E2349" s="24"/>
       <c r="F2349" s="24"/>
@@ -54348,7 +54709,7 @@
       <c r="I2349" s="24"/>
     </row>
     <row r="2350" spans="3:9">
-      <c r="C2350" s="26"/>
+      <c r="C2350" s="30"/>
       <c r="D2350" s="24"/>
       <c r="E2350" s="24"/>
       <c r="F2350" s="24"/>
@@ -54357,7 +54718,7 @@
       <c r="I2350" s="24"/>
     </row>
     <row r="2351" spans="3:9">
-      <c r="C2351" s="25"/>
+      <c r="C2351" s="28"/>
       <c r="D2351" s="15"/>
       <c r="E2351" s="15"/>
       <c r="F2351" s="15"/>
@@ -54366,7 +54727,7 @@
       <c r="I2351" s="15"/>
     </row>
     <row r="2352" spans="3:9">
-      <c r="C2352" s="25"/>
+      <c r="C2352" s="28"/>
       <c r="D2352" s="15"/>
       <c r="E2352" s="15"/>
       <c r="F2352" s="15"/>
@@ -54375,7 +54736,7 @@
       <c r="I2352" s="15"/>
     </row>
     <row r="2353" spans="3:9">
-      <c r="C2353" s="25"/>
+      <c r="C2353" s="28"/>
       <c r="D2353" s="15"/>
       <c r="E2353" s="15"/>
       <c r="F2353" s="15"/>
@@ -54384,7 +54745,7 @@
       <c r="I2353" s="15"/>
     </row>
     <row r="2354" spans="3:9">
-      <c r="C2354" s="25"/>
+      <c r="C2354" s="28"/>
       <c r="D2354" s="15"/>
       <c r="E2354" s="15"/>
       <c r="F2354" s="15"/>
@@ -54393,7 +54754,7 @@
       <c r="I2354" s="15"/>
     </row>
     <row r="2355" spans="3:9">
-      <c r="C2355" s="25"/>
+      <c r="C2355" s="28"/>
       <c r="D2355" s="15"/>
       <c r="E2355" s="15"/>
       <c r="F2355" s="15"/>
@@ -54402,7 +54763,7 @@
       <c r="I2355" s="15"/>
     </row>
     <row r="2356" spans="3:9">
-      <c r="C2356" s="25"/>
+      <c r="C2356" s="28"/>
       <c r="D2356" s="15"/>
       <c r="E2356" s="15"/>
       <c r="F2356" s="15"/>
@@ -54411,7 +54772,7 @@
       <c r="I2356" s="15"/>
     </row>
     <row r="2357" spans="3:9">
-      <c r="C2357" s="25"/>
+      <c r="C2357" s="28"/>
       <c r="D2357" s="15"/>
       <c r="E2357" s="15"/>
       <c r="F2357" s="15"/>
@@ -54420,7 +54781,7 @@
       <c r="I2357" s="15"/>
     </row>
     <row r="2358" spans="3:9">
-      <c r="C2358" s="25"/>
+      <c r="C2358" s="28"/>
       <c r="D2358" s="15"/>
       <c r="E2358" s="15"/>
       <c r="F2358" s="15"/>
@@ -54429,7 +54790,7 @@
       <c r="I2358" s="15"/>
     </row>
     <row r="2359" spans="3:9">
-      <c r="C2359" s="25"/>
+      <c r="C2359" s="28"/>
       <c r="D2359" s="15"/>
       <c r="E2359" s="15"/>
       <c r="F2359" s="15"/>
@@ -54438,7 +54799,7 @@
       <c r="I2359" s="15"/>
     </row>
     <row r="2360" spans="3:9">
-      <c r="C2360" s="25"/>
+      <c r="C2360" s="28"/>
       <c r="D2360" s="15"/>
       <c r="E2360" s="15"/>
       <c r="F2360" s="15"/>
@@ -54447,7 +54808,7 @@
       <c r="I2360" s="15"/>
     </row>
     <row r="2361" spans="3:9">
-      <c r="C2361" s="25"/>
+      <c r="C2361" s="28"/>
       <c r="D2361" s="15"/>
       <c r="E2361" s="15"/>
       <c r="F2361" s="15"/>
@@ -54456,7 +54817,7 @@
       <c r="I2361" s="15"/>
     </row>
     <row r="2362" spans="3:9">
-      <c r="C2362" s="25"/>
+      <c r="C2362" s="28"/>
       <c r="D2362" s="15"/>
       <c r="E2362" s="15"/>
       <c r="F2362" s="15"/>
@@ -54465,7 +54826,7 @@
       <c r="I2362" s="15"/>
     </row>
     <row r="2363" spans="3:9">
-      <c r="C2363" s="25"/>
+      <c r="C2363" s="28"/>
       <c r="D2363" s="15"/>
       <c r="E2363" s="15"/>
       <c r="F2363" s="15"/>
@@ -54474,7 +54835,7 @@
       <c r="I2363" s="15"/>
     </row>
     <row r="2364" spans="3:9">
-      <c r="C2364" s="25"/>
+      <c r="C2364" s="28"/>
       <c r="D2364" s="15"/>
       <c r="E2364" s="15"/>
       <c r="F2364" s="15"/>
@@ -54483,7 +54844,7 @@
       <c r="I2364" s="15"/>
     </row>
     <row r="2365" spans="3:9">
-      <c r="C2365" s="25"/>
+      <c r="C2365" s="28"/>
       <c r="D2365" s="15"/>
       <c r="E2365" s="15"/>
       <c r="F2365" s="15"/>
@@ -54492,7 +54853,7 @@
       <c r="I2365" s="15"/>
     </row>
     <row r="2366" spans="3:9">
-      <c r="C2366" s="25"/>
+      <c r="C2366" s="28"/>
       <c r="D2366" s="15"/>
       <c r="E2366" s="15"/>
       <c r="F2366" s="15"/>
@@ -54501,7 +54862,7 @@
       <c r="I2366" s="15"/>
     </row>
     <row r="2367" spans="3:9">
-      <c r="C2367" s="25"/>
+      <c r="C2367" s="28"/>
       <c r="D2367" s="15"/>
       <c r="E2367" s="15"/>
       <c r="F2367" s="15"/>
@@ -54510,7 +54871,7 @@
       <c r="I2367" s="15"/>
     </row>
     <row r="2368" spans="3:9">
-      <c r="C2368" s="25"/>
+      <c r="C2368" s="28"/>
       <c r="D2368" s="15"/>
       <c r="E2368" s="15"/>
       <c r="F2368" s="15"/>
@@ -54519,7 +54880,7 @@
       <c r="I2368" s="15"/>
     </row>
     <row r="2369" spans="3:9">
-      <c r="C2369" s="25"/>
+      <c r="C2369" s="28"/>
       <c r="D2369" s="15"/>
       <c r="E2369" s="15"/>
       <c r="F2369" s="15"/>
@@ -54528,7 +54889,7 @@
       <c r="I2369" s="15"/>
     </row>
     <row r="2370" spans="3:9">
-      <c r="C2370" s="25"/>
+      <c r="C2370" s="28"/>
       <c r="D2370" s="15"/>
       <c r="E2370" s="15"/>
       <c r="F2370" s="15"/>
@@ -54537,7 +54898,7 @@
       <c r="I2370" s="15"/>
     </row>
     <row r="2371" spans="3:9">
-      <c r="C2371" s="25"/>
+      <c r="C2371" s="28"/>
       <c r="D2371" s="15"/>
       <c r="E2371" s="15"/>
       <c r="F2371" s="15"/>
@@ -54546,7 +54907,7 @@
       <c r="I2371" s="15"/>
     </row>
     <row r="2372" spans="3:9">
-      <c r="C2372" s="25"/>
+      <c r="C2372" s="28"/>
       <c r="D2372" s="15"/>
       <c r="E2372" s="15"/>
       <c r="F2372" s="15"/>
@@ -54555,7 +54916,7 @@
       <c r="I2372" s="15"/>
     </row>
     <row r="2373" spans="3:9">
-      <c r="C2373" s="25"/>
+      <c r="C2373" s="28"/>
       <c r="D2373" s="15"/>
       <c r="E2373" s="15"/>
       <c r="F2373" s="15"/>
@@ -54564,7 +54925,7 @@
       <c r="I2373" s="15"/>
     </row>
     <row r="2374" spans="3:9">
-      <c r="C2374" s="25"/>
+      <c r="C2374" s="28"/>
       <c r="D2374" s="15"/>
       <c r="E2374" s="15"/>
       <c r="F2374" s="15"/>
@@ -54573,7 +54934,7 @@
       <c r="I2374" s="15"/>
     </row>
     <row r="2375" spans="3:9">
-      <c r="C2375" s="25"/>
+      <c r="C2375" s="28"/>
       <c r="D2375" s="15"/>
       <c r="E2375" s="15"/>
       <c r="F2375" s="15"/>
@@ -54582,7 +54943,7 @@
       <c r="I2375" s="15"/>
     </row>
     <row r="2376" spans="3:9">
-      <c r="C2376" s="25"/>
+      <c r="C2376" s="28"/>
       <c r="D2376" s="15"/>
       <c r="E2376" s="15"/>
       <c r="F2376" s="15"/>
@@ -54591,7 +54952,7 @@
       <c r="I2376" s="15"/>
     </row>
     <row r="2377" spans="3:9">
-      <c r="C2377" s="25"/>
+      <c r="C2377" s="28"/>
       <c r="D2377" s="15"/>
       <c r="E2377" s="15"/>
       <c r="F2377" s="15"/>
@@ -54600,7 +54961,7 @@
       <c r="I2377" s="15"/>
     </row>
     <row r="2378" spans="3:9">
-      <c r="C2378" s="25"/>
+      <c r="C2378" s="28"/>
       <c r="D2378" s="15"/>
       <c r="E2378" s="15"/>
       <c r="F2378" s="15"/>
@@ -54609,7 +54970,7 @@
       <c r="I2378" s="15"/>
     </row>
     <row r="2379" spans="3:9">
-      <c r="C2379" s="25"/>
+      <c r="C2379" s="28"/>
       <c r="D2379" s="15"/>
       <c r="E2379" s="15"/>
       <c r="F2379" s="15"/>
@@ -54618,7 +54979,7 @@
       <c r="I2379" s="15"/>
     </row>
     <row r="2380" spans="3:9">
-      <c r="C2380" s="25"/>
+      <c r="C2380" s="28"/>
       <c r="D2380" s="15"/>
       <c r="E2380" s="15"/>
       <c r="F2380" s="15"/>
@@ -54627,7 +54988,7 @@
       <c r="I2380" s="15"/>
     </row>
     <row r="2381" spans="3:9">
-      <c r="C2381" s="25"/>
+      <c r="C2381" s="28"/>
       <c r="D2381" s="15"/>
       <c r="E2381" s="15"/>
       <c r="F2381" s="15"/>
@@ -54636,7 +54997,7 @@
       <c r="I2381" s="15"/>
     </row>
     <row r="2382" spans="3:9">
-      <c r="C2382" s="25"/>
+      <c r="C2382" s="28"/>
       <c r="D2382" s="15"/>
       <c r="E2382" s="15"/>
       <c r="F2382" s="15"/>
@@ -54645,7 +55006,7 @@
       <c r="I2382" s="15"/>
     </row>
     <row r="2383" spans="3:9">
-      <c r="C2383" s="25"/>
+      <c r="C2383" s="28"/>
       <c r="D2383" s="15"/>
       <c r="E2383" s="15"/>
       <c r="F2383" s="15"/>
@@ -54654,7 +55015,7 @@
       <c r="I2383" s="15"/>
     </row>
     <row r="2384" spans="3:9">
-      <c r="C2384" s="25"/>
+      <c r="C2384" s="28"/>
       <c r="D2384" s="15"/>
       <c r="E2384" s="15"/>
       <c r="F2384" s="15"/>
@@ -54663,7 +55024,7 @@
       <c r="I2384" s="15"/>
     </row>
     <row r="2385" spans="3:9">
-      <c r="C2385" s="25"/>
+      <c r="C2385" s="28"/>
       <c r="D2385" s="15"/>
       <c r="E2385" s="15"/>
       <c r="F2385" s="15"/>
@@ -54672,7 +55033,7 @@
       <c r="I2385" s="15"/>
     </row>
     <row r="2386" spans="3:9">
-      <c r="C2386" s="25"/>
+      <c r="C2386" s="28"/>
       <c r="D2386" s="15"/>
       <c r="E2386" s="15"/>
       <c r="F2386" s="15"/>
@@ -54681,7 +55042,7 @@
       <c r="I2386" s="15"/>
     </row>
     <row r="2387" spans="3:9">
-      <c r="C2387" s="25"/>
+      <c r="C2387" s="28"/>
       <c r="D2387" s="15"/>
       <c r="E2387" s="15"/>
       <c r="F2387" s="15"/>
@@ -54690,7 +55051,7 @@
       <c r="I2387" s="15"/>
     </row>
     <row r="2388" spans="3:9">
-      <c r="C2388" s="25"/>
+      <c r="C2388" s="28"/>
       <c r="D2388" s="15"/>
       <c r="E2388" s="15"/>
       <c r="F2388" s="15"/>
@@ -54699,7 +55060,7 @@
       <c r="I2388" s="15"/>
     </row>
     <row r="2389" spans="3:9">
-      <c r="C2389" s="25"/>
+      <c r="C2389" s="28"/>
       <c r="D2389" s="15"/>
       <c r="E2389" s="15"/>
       <c r="F2389" s="15"/>
@@ -54708,7 +55069,7 @@
       <c r="I2389" s="15"/>
     </row>
     <row r="2390" spans="3:9">
-      <c r="C2390" s="25"/>
+      <c r="C2390" s="28"/>
       <c r="D2390" s="15"/>
       <c r="E2390" s="15"/>
       <c r="F2390" s="15"/>
@@ -54717,7 +55078,7 @@
       <c r="I2390" s="15"/>
     </row>
     <row r="2391" spans="3:9">
-      <c r="C2391" s="25"/>
+      <c r="C2391" s="28"/>
       <c r="D2391" s="15"/>
       <c r="E2391" s="15"/>
       <c r="F2391" s="15"/>
@@ -54726,7 +55087,7 @@
       <c r="I2391" s="15"/>
     </row>
     <row r="2392" spans="3:9">
-      <c r="C2392" s="25"/>
+      <c r="C2392" s="28"/>
       <c r="D2392" s="15"/>
       <c r="E2392" s="15"/>
       <c r="F2392" s="15"/>
@@ -54735,10 +55096,10 @@
       <c r="I2392" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E1911">
-    <filterColumn colId="0">
+  <autoFilter ref="A3:E1947">
+    <filterColumn colId="2">
       <customFilters>
-        <customFilter operator="equal" val="2023"/>
+        <customFilter operator="equal" val="　住宅-开发投资（亿元）"/>
       </customFilters>
     </filterColumn>
     <extLst/>
@@ -54751,7 +55112,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D1876:D1877 E1876:E1877 D1880" numberStoredAsText="1"/>
+    <ignoredError sqref="D1880 E1876:E1877 D1876:D1877" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -54761,8 +55122,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -54970,7 +55331,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="2:13">
+    <row r="7" ht="12.75" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
@@ -55002,6 +55363,12 @@
       </c>
       <c r="M7" s="13">
         <v>-25.8</v>
+      </c>
+      <c r="N7" s="1">
+        <v>55958</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-6.6</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:13">
@@ -55460,8 +55827,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -55669,7 +56036,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="2:13">
+    <row r="7" ht="12.75" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
@@ -55701,6 +56068,12 @@
       </c>
       <c r="M7" s="13">
         <v>-34.5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>45132</v>
+      </c>
+      <c r="O7" s="1">
+        <v>11.9</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:13">
@@ -56159,8 +56532,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -56368,7 +56741,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="2:13">
+    <row r="7" ht="12.75" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
@@ -56400,6 +56773,12 @@
       </c>
       <c r="M7" s="13">
         <v>-28.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>40663</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.3</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:13">
@@ -56858,8 +57237,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -57067,7 +57446,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="2:13">
+    <row r="7" ht="12.75" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
@@ -57099,6 +57478,12 @@
       </c>
       <c r="M7" s="13">
         <v>-1.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>548475</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-6.5</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:13">
@@ -57557,8 +57942,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -57766,7 +58151,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="2:13">
+    <row r="7" ht="12.75" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
@@ -57798,6 +58183,12 @@
       </c>
       <c r="M7" s="13">
         <v>15</v>
+      </c>
+      <c r="N7" s="1">
+        <v>31048</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15.9</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:13">
@@ -58256,8 +58647,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
@@ -58465,7 +58856,7 @@
         <v>-4.9</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="2:13">
+    <row r="7" ht="12.75" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
@@ -58497,6 +58888,12 @@
       </c>
       <c r="M7" s="13">
         <v>-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>34809</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-6.4</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:13">

--- a/docs/macro/real-estate/全国房地产投资-2018-2023.xlsx
+++ b/docs/macro/real-estate/全国房地产投资-2018-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26780" windowHeight="14420" tabRatio="923"/>
+    <workbookView windowWidth="26860" windowHeight="14360" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="全国房地产投资" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="住宅开发投资" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全国房地产投资!$A$3:$E$1983</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全国房地产投资!$A$3:$E$2019</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6208" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6316" uniqueCount="71">
   <si>
     <t>统计年度</t>
   </si>
@@ -280,12 +280,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -347,22 +347,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,11 +378,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,47 +411,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,9 +441,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,16 +463,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,19 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,151 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,11 +730,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,26 +778,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +810,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -803,182 +827,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,7 +988,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1060,8 +1060,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1072,55 +1084,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_新闻稿附表 8" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_新闻稿附表 8" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1815,6 +1827,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,6 +2747,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,6 +3670,9 @@
                 <c:pt idx="4">
                   <c:v>51592</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>57623</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4569,6 +4590,9 @@
                 <c:pt idx="4">
                   <c:v>557083</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>563026</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5486,6 +5510,9 @@
                 <c:pt idx="4">
                   <c:v>31006</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>31239</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6402,6 +6429,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9992,7 +10022,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="665480" y="3490595"/>
+        <a:off x="665480" y="3500120"/>
         <a:ext cx="11827510" cy="5467985"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10167,7 +10197,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="665480" y="3490595"/>
+        <a:off x="665480" y="3500120"/>
         <a:ext cx="11477625" cy="5467985"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10442,9 +10472,9 @@
   <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1322" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A1981" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D1989" sqref="D1989:E1989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -51112,9 +51142,6 @@
       <c r="E1948" s="14">
         <v>-7.9</v>
       </c>
-      <c r="F1948" s="16"/>
-      <c r="G1948" s="16"/>
-      <c r="H1948" s="16"/>
       <c r="I1948" s="16"/>
     </row>
     <row r="1949" ht="17" spans="1:9">
@@ -51133,9 +51160,6 @@
       <c r="E1949" s="14">
         <v>-7.3</v>
       </c>
-      <c r="F1949" s="16"/>
-      <c r="G1949" s="16"/>
-      <c r="H1949" s="16"/>
       <c r="I1949" s="16"/>
     </row>
     <row r="1950" ht="17" spans="1:9">
@@ -51154,9 +51178,6 @@
       <c r="E1950" s="16">
         <v>-7.6</v>
       </c>
-      <c r="F1950" s="16"/>
-      <c r="G1950" s="16"/>
-      <c r="H1950" s="16"/>
       <c r="I1950" s="16"/>
     </row>
     <row r="1951" ht="17" spans="1:9">
@@ -51175,9 +51196,6 @@
       <c r="E1951" s="16">
         <v>-17.4</v>
       </c>
-      <c r="F1951" s="16"/>
-      <c r="G1951" s="16"/>
-      <c r="H1951" s="16"/>
       <c r="I1951" s="16"/>
     </row>
     <row r="1952" ht="17" spans="1:9">
@@ -51196,9 +51214,6 @@
       <c r="E1952" s="16">
         <v>-6.6</v>
       </c>
-      <c r="F1952" s="16"/>
-      <c r="G1952" s="16"/>
-      <c r="H1952" s="16"/>
       <c r="I1952" s="16"/>
     </row>
     <row r="1953" ht="17" spans="1:9">
@@ -51217,9 +51232,6 @@
       <c r="E1953" s="16">
         <v>-6.9</v>
       </c>
-      <c r="F1953" s="16"/>
-      <c r="G1953" s="16"/>
-      <c r="H1953" s="16"/>
       <c r="I1953" s="16"/>
     </row>
     <row r="1954" ht="17" spans="1:9">
@@ -51238,9 +51250,6 @@
       <c r="E1954" s="16">
         <v>-5.6</v>
       </c>
-      <c r="F1954" s="16"/>
-      <c r="G1954" s="16"/>
-      <c r="H1954" s="16"/>
       <c r="I1954" s="16"/>
     </row>
     <row r="1955" ht="17" spans="1:9">
@@ -51259,9 +51268,6 @@
       <c r="E1955" s="16">
         <v>-9.2</v>
       </c>
-      <c r="F1955" s="16"/>
-      <c r="G1955" s="16"/>
-      <c r="H1955" s="16"/>
       <c r="I1955" s="16"/>
     </row>
     <row r="1956" ht="17" spans="1:9">
@@ -51280,9 +51286,6 @@
       <c r="E1956" s="16">
         <v>-24.3</v>
       </c>
-      <c r="F1956" s="16"/>
-      <c r="G1956" s="16"/>
-      <c r="H1956" s="16"/>
       <c r="I1956" s="16"/>
     </row>
     <row r="1957" ht="17" spans="1:9">
@@ -51301,9 +51304,6 @@
       <c r="E1957" s="16">
         <v>-24.9</v>
       </c>
-      <c r="F1957" s="16"/>
-      <c r="G1957" s="16"/>
-      <c r="H1957" s="16"/>
       <c r="I1957" s="16"/>
     </row>
     <row r="1958" ht="17" spans="1:9">
@@ -51322,9 +51322,6 @@
       <c r="E1958" s="16">
         <v>-20.2</v>
       </c>
-      <c r="F1958" s="16"/>
-      <c r="G1958" s="16"/>
-      <c r="H1958" s="16"/>
       <c r="I1958" s="16"/>
     </row>
     <row r="1959" ht="17" spans="1:9">
@@ -51343,9 +51340,6 @@
       <c r="E1959" s="16">
         <v>-24.6</v>
       </c>
-      <c r="F1959" s="16"/>
-      <c r="G1959" s="16"/>
-      <c r="H1959" s="16"/>
       <c r="I1959" s="16"/>
     </row>
     <row r="1960" ht="17" spans="1:9">
@@ -51364,9 +51358,6 @@
       <c r="E1960" s="16">
         <v>19</v>
       </c>
-      <c r="F1960" s="16"/>
-      <c r="G1960" s="16"/>
-      <c r="H1960" s="16"/>
       <c r="I1960" s="16"/>
     </row>
     <row r="1961" ht="17" spans="1:9">
@@ -51385,9 +51376,6 @@
       <c r="E1961" s="16">
         <v>18.5</v>
       </c>
-      <c r="F1961" s="16"/>
-      <c r="G1961" s="16"/>
-      <c r="H1961" s="16"/>
       <c r="I1961" s="16"/>
     </row>
     <row r="1962" ht="17" spans="1:9">
@@ -51406,9 +51394,6 @@
       <c r="E1962" s="16">
         <v>16.9</v>
       </c>
-      <c r="F1962" s="16"/>
-      <c r="G1962" s="16"/>
-      <c r="H1962" s="16"/>
       <c r="I1962" s="16"/>
     </row>
     <row r="1963" ht="17" spans="1:9">
@@ -51427,9 +51412,6 @@
       <c r="E1963" s="16">
         <v>5.2</v>
       </c>
-      <c r="F1963" s="16"/>
-      <c r="G1963" s="16"/>
-      <c r="H1963" s="16"/>
       <c r="I1963" s="16"/>
     </row>
     <row r="1964" ht="17" spans="1:9">
@@ -51448,9 +51430,6 @@
       <c r="E1964" s="18">
         <v>0</v>
       </c>
-      <c r="F1964" s="16"/>
-      <c r="G1964" s="16"/>
-      <c r="H1964" s="16"/>
       <c r="I1964" s="16"/>
     </row>
     <row r="1965" ht="17" spans="1:9">
@@ -51469,9 +51448,6 @@
       <c r="E1965" s="18">
         <v>0</v>
       </c>
-      <c r="F1965" s="16"/>
-      <c r="G1965" s="16"/>
-      <c r="H1965" s="16"/>
       <c r="I1965" s="16"/>
     </row>
     <row r="1966" ht="17" spans="1:9">
@@ -51490,9 +51466,6 @@
       <c r="E1966" s="16">
         <v>-5.3</v>
       </c>
-      <c r="F1966" s="16"/>
-      <c r="G1966" s="16"/>
-      <c r="H1966" s="16"/>
       <c r="I1966" s="16"/>
     </row>
     <row r="1967" ht="17" spans="1:9">
@@ -51511,9 +51484,6 @@
       <c r="E1967" s="16">
         <v>-2.8</v>
       </c>
-      <c r="F1967" s="16"/>
-      <c r="G1967" s="16"/>
-      <c r="H1967" s="16"/>
       <c r="I1967" s="16"/>
     </row>
     <row r="1968" ht="17" spans="1:9">
@@ -51532,9 +51502,6 @@
       <c r="E1968" s="16">
         <v>-18.8</v>
       </c>
-      <c r="F1968" s="16"/>
-      <c r="G1968" s="16"/>
-      <c r="H1968" s="16"/>
       <c r="I1968" s="16"/>
     </row>
     <row r="1969" ht="17" spans="1:9">
@@ -51553,9 +51520,6 @@
       <c r="E1969" s="16">
         <v>-20.5</v>
       </c>
-      <c r="F1969" s="16"/>
-      <c r="G1969" s="16"/>
-      <c r="H1969" s="16"/>
       <c r="I1969" s="16"/>
     </row>
     <row r="1970" ht="17" spans="1:9">
@@ -51574,9 +51538,6 @@
       <c r="E1970" s="16">
         <v>1.1</v>
       </c>
-      <c r="F1970" s="16"/>
-      <c r="G1970" s="16"/>
-      <c r="H1970" s="16"/>
       <c r="I1970" s="16"/>
     </row>
     <row r="1971" ht="17" spans="1:9">
@@ -51595,9 +51556,6 @@
       <c r="E1971" s="16">
         <v>3.7</v>
       </c>
-      <c r="F1971" s="16"/>
-      <c r="G1971" s="16"/>
-      <c r="H1971" s="16"/>
       <c r="I1971" s="16"/>
     </row>
     <row r="1972" ht="17" spans="1:9">
@@ -51616,9 +51574,6 @@
       <c r="E1972" s="16">
         <v>-18.6</v>
       </c>
-      <c r="F1972" s="16"/>
-      <c r="G1972" s="16"/>
-      <c r="H1972" s="16"/>
       <c r="I1972" s="16"/>
     </row>
     <row r="1973" ht="17" spans="1:9">
@@ -51637,9 +51592,6 @@
       <c r="E1973" s="16">
         <v>-17.7</v>
       </c>
-      <c r="F1973" s="16"/>
-      <c r="G1973" s="16"/>
-      <c r="H1973" s="16"/>
       <c r="I1973" s="16"/>
     </row>
     <row r="1974" ht="17" spans="1:9">
@@ -51658,9 +51610,6 @@
       <c r="E1974" s="16">
         <v>17</v>
       </c>
-      <c r="F1974" s="16"/>
-      <c r="G1974" s="16"/>
-      <c r="H1974" s="16"/>
       <c r="I1974" s="16"/>
     </row>
     <row r="1975" ht="17" spans="1:9">
@@ -51679,9 +51628,6 @@
       <c r="E1975" s="16">
         <v>18</v>
       </c>
-      <c r="F1975" s="16"/>
-      <c r="G1975" s="16"/>
-      <c r="H1975" s="16"/>
       <c r="I1975" s="16"/>
     </row>
     <row r="1976" ht="17" spans="1:9">
@@ -51700,9 +51646,6 @@
       <c r="E1976" s="16">
         <v>22.5</v>
       </c>
-      <c r="F1976" s="16"/>
-      <c r="G1976" s="16"/>
-      <c r="H1976" s="16"/>
       <c r="I1976" s="16"/>
     </row>
     <row r="1977" ht="17" spans="1:9">
@@ -51721,9 +51664,6 @@
       <c r="E1977" s="16">
         <v>13.2</v>
       </c>
-      <c r="F1977" s="16"/>
-      <c r="G1977" s="16"/>
-      <c r="H1977" s="16"/>
       <c r="I1977" s="16"/>
     </row>
     <row r="1978" ht="17" spans="1:9">
@@ -51742,9 +51682,6 @@
       <c r="E1978" s="16">
         <v>-9.8</v>
       </c>
-      <c r="F1978" s="16"/>
-      <c r="G1978" s="16"/>
-      <c r="H1978" s="16"/>
       <c r="I1978" s="16"/>
     </row>
     <row r="1979" ht="17" spans="1:9">
@@ -51763,9 +51700,6 @@
       <c r="E1979" s="16">
         <v>-11.1</v>
       </c>
-      <c r="F1979" s="16"/>
-      <c r="G1979" s="16"/>
-      <c r="H1979" s="16"/>
       <c r="I1979" s="16"/>
     </row>
     <row r="1980" ht="17" spans="1:9">
@@ -51784,12 +51718,9 @@
       <c r="E1980" s="16">
         <v>-49.1</v>
       </c>
-      <c r="F1980" s="16"/>
-      <c r="G1980" s="16"/>
-      <c r="H1980" s="16"/>
       <c r="I1980" s="16"/>
     </row>
-    <row r="1981" ht="17" spans="1:9">
+    <row r="1981" ht="17.75" spans="1:9">
       <c r="A1981" s="2" t="s">
         <v>57</v>
       </c>
@@ -51805,12 +51736,9 @@
       <c r="E1981" s="16">
         <v>-23.4</v>
       </c>
-      <c r="F1981" s="16"/>
-      <c r="G1981" s="16"/>
-      <c r="H1981" s="16"/>
       <c r="I1981" s="16"/>
     </row>
-    <row r="1982" ht="17" spans="1:9">
+    <row r="1982" ht="17.75" spans="1:9">
       <c r="A1982" s="2" t="s">
         <v>57</v>
       </c>
@@ -51826,9 +51754,6 @@
       <c r="E1982" s="16">
         <v>-0.9</v>
       </c>
-      <c r="F1982" s="16"/>
-      <c r="G1982" s="16"/>
-      <c r="H1982" s="16"/>
       <c r="I1982" s="16"/>
     </row>
     <row r="1983" ht="17" spans="1:9">
@@ -51847,337 +51772,766 @@
       <c r="E1983" s="16">
         <v>2.7</v>
       </c>
-      <c r="F1983" s="16"/>
-      <c r="G1983" s="16"/>
-      <c r="H1983" s="16"/>
       <c r="I1983" s="16"/>
     </row>
-    <row r="1984" spans="3:9">
-      <c r="C1984" s="27"/>
-      <c r="D1984" s="16"/>
-      <c r="E1984" s="16"/>
+    <row r="1984" ht="17" spans="1:9">
+      <c r="A1984" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1984" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1984" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1984" s="27">
+        <v>67717</v>
+      </c>
+      <c r="E1984" s="28">
+        <v>-8.5</v>
+      </c>
       <c r="F1984" s="16"/>
       <c r="G1984" s="16"/>
       <c r="H1984" s="16"/>
       <c r="I1984" s="16"/>
     </row>
-    <row r="1985" spans="3:9">
-      <c r="C1985" s="27"/>
-      <c r="D1985" s="16"/>
-      <c r="E1985" s="16"/>
+    <row r="1985" ht="17" spans="1:9">
+      <c r="A1985" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1985" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1985" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1985" s="27">
+        <v>51485</v>
+      </c>
+      <c r="E1985" s="28">
+        <v>-7.6</v>
+      </c>
       <c r="F1985" s="16"/>
       <c r="G1985" s="16"/>
       <c r="H1985" s="16"/>
       <c r="I1985" s="16"/>
     </row>
-    <row r="1986" spans="3:9">
-      <c r="C1986" s="27"/>
-      <c r="D1986" s="16"/>
-      <c r="E1986" s="16"/>
+    <row r="1986" ht="17" spans="1:9">
+      <c r="A1986" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1986" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1986" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1986" s="27">
+        <v>2689</v>
+      </c>
+      <c r="E1986" s="28">
+        <v>-8.1</v>
+      </c>
       <c r="F1986" s="16"/>
       <c r="G1986" s="16"/>
       <c r="H1986" s="16"/>
       <c r="I1986" s="16"/>
     </row>
-    <row r="1987" spans="3:9">
-      <c r="C1987" s="27"/>
-      <c r="D1987" s="16"/>
-      <c r="E1987" s="16"/>
+    <row r="1987" ht="17" spans="1:9">
+      <c r="A1987" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1987" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1987" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1987" s="27">
+        <v>4837</v>
+      </c>
+      <c r="E1987" s="28">
+        <v>-18.3</v>
+      </c>
       <c r="F1987" s="16"/>
       <c r="G1987" s="16"/>
       <c r="H1987" s="16"/>
       <c r="I1987" s="16"/>
     </row>
-    <row r="1988" spans="3:9">
-      <c r="C1988" s="27"/>
-      <c r="D1988" s="16"/>
-      <c r="E1988" s="16"/>
+    <row r="1988" ht="17" spans="1:9">
+      <c r="A1988" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1988" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1988" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1988" s="27">
+        <v>799682</v>
+      </c>
+      <c r="E1988" s="28">
+        <v>-6.8</v>
+      </c>
       <c r="F1988" s="16"/>
       <c r="G1988" s="16"/>
       <c r="H1988" s="16"/>
       <c r="I1988" s="16"/>
     </row>
-    <row r="1989" spans="3:9">
-      <c r="C1989" s="27"/>
-      <c r="D1989" s="16"/>
-      <c r="E1989" s="16"/>
+    <row r="1989" ht="17" spans="1:9">
+      <c r="A1989" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1989" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1989" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1989" s="27">
+        <v>563026</v>
+      </c>
+      <c r="E1989" s="28">
+        <v>-7.1</v>
+      </c>
       <c r="F1989" s="16"/>
       <c r="G1989" s="16"/>
       <c r="H1989" s="16"/>
       <c r="I1989" s="16"/>
     </row>
-    <row r="1990" spans="3:9">
-      <c r="C1990" s="27"/>
-      <c r="D1990" s="16"/>
-      <c r="E1990" s="16"/>
+    <row r="1990" ht="17" spans="1:9">
+      <c r="A1990" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1990" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1990" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1990" s="27">
+        <v>31754</v>
+      </c>
+      <c r="E1990" s="28">
+        <v>-5.7</v>
+      </c>
       <c r="F1990" s="16"/>
       <c r="G1990" s="16"/>
       <c r="H1990" s="16"/>
       <c r="I1990" s="16"/>
     </row>
-    <row r="1991" spans="3:9">
-      <c r="C1991" s="27"/>
-      <c r="D1991" s="16"/>
-      <c r="E1991" s="16"/>
+    <row r="1991" ht="17" spans="1:9">
+      <c r="A1991" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1991" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1991" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1991" s="27">
+        <v>69684</v>
+      </c>
+      <c r="E1991" s="28">
+        <v>-9.4</v>
+      </c>
       <c r="F1991" s="16"/>
       <c r="G1991" s="16"/>
       <c r="H1991" s="16"/>
       <c r="I1991" s="16"/>
     </row>
-    <row r="1992" spans="3:9">
-      <c r="C1992" s="27"/>
-      <c r="D1992" s="16"/>
-      <c r="E1992" s="16"/>
+    <row r="1992" ht="17" spans="1:9">
+      <c r="A1992" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1992" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1992" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1992" s="27">
+        <v>56969</v>
+      </c>
+      <c r="E1992" s="28">
+        <v>-24.5</v>
+      </c>
       <c r="F1992" s="16"/>
       <c r="G1992" s="16"/>
       <c r="H1992" s="16"/>
       <c r="I1992" s="16"/>
     </row>
-    <row r="1993" spans="3:9">
-      <c r="C1993" s="27"/>
-      <c r="D1993" s="16"/>
-      <c r="E1993" s="16"/>
+    <row r="1993" ht="17" spans="1:9">
+      <c r="A1993" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1993" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1993" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1993" s="27">
+        <v>41546</v>
+      </c>
+      <c r="E1993" s="28">
+        <v>-25</v>
+      </c>
       <c r="F1993" s="16"/>
       <c r="G1993" s="16"/>
       <c r="H1993" s="16"/>
       <c r="I1993" s="16"/>
     </row>
-    <row r="1994" spans="3:9">
-      <c r="C1994" s="27"/>
-      <c r="D1994" s="16"/>
-      <c r="E1994" s="16"/>
+    <row r="1994" ht="17" spans="1:9">
+      <c r="A1994" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1994" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1994" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1994" s="27">
+        <v>1515</v>
+      </c>
+      <c r="E1994" s="28">
+        <v>-20.1</v>
+      </c>
       <c r="F1994" s="16"/>
       <c r="G1994" s="16"/>
       <c r="H1994" s="16"/>
       <c r="I1994" s="16"/>
     </row>
-    <row r="1995" spans="3:9">
-      <c r="C1995" s="27"/>
-      <c r="D1995" s="16"/>
-      <c r="E1995" s="16"/>
+    <row r="1995" ht="17" spans="1:9">
+      <c r="A1995" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1995" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1995" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1995" s="27">
+        <v>3849</v>
+      </c>
+      <c r="E1995" s="28">
+        <v>-25</v>
+      </c>
       <c r="F1995" s="16"/>
       <c r="G1995" s="16"/>
       <c r="H1995" s="16"/>
       <c r="I1995" s="16"/>
     </row>
-    <row r="1996" spans="3:9">
-      <c r="C1996" s="27"/>
-      <c r="D1996" s="16"/>
-      <c r="E1996" s="16"/>
+    <row r="1996" ht="17" spans="1:9">
+      <c r="A1996" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1996" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1996" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1996" s="27">
+        <v>38405</v>
+      </c>
+      <c r="E1996" s="28">
+        <v>20.5</v>
+      </c>
       <c r="F1996" s="16"/>
       <c r="G1996" s="16"/>
       <c r="H1996" s="16"/>
       <c r="I1996" s="16"/>
     </row>
-    <row r="1997" spans="3:9">
-      <c r="C1997" s="27"/>
-      <c r="D1997" s="16"/>
-      <c r="E1997" s="16"/>
+    <row r="1997" ht="17" spans="1:9">
+      <c r="A1997" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1997" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1997" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1997" s="27">
+        <v>27954</v>
+      </c>
+      <c r="E1997" s="28">
+        <v>20.8</v>
+      </c>
       <c r="F1997" s="16"/>
       <c r="G1997" s="16"/>
       <c r="H1997" s="16"/>
       <c r="I1997" s="16"/>
     </row>
-    <row r="1998" spans="3:9">
-      <c r="C1998" s="27"/>
-      <c r="D1998" s="16"/>
-      <c r="E1998" s="16"/>
+    <row r="1998" ht="17" spans="1:9">
+      <c r="A1998" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1998" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1998" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1998" s="27">
+        <v>1164</v>
+      </c>
+      <c r="E1998" s="28">
+        <v>22.2</v>
+      </c>
       <c r="F1998" s="16"/>
       <c r="G1998" s="16"/>
       <c r="H1998" s="16"/>
       <c r="I1998" s="16"/>
     </row>
-    <row r="1999" spans="3:9">
-      <c r="C1999" s="27"/>
-      <c r="D1999" s="16"/>
-      <c r="E1999" s="16"/>
+    <row r="1999" ht="17" spans="1:9">
+      <c r="A1999" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1999" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1999" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1999" s="27">
+        <v>2806</v>
+      </c>
+      <c r="E1999" s="28">
+        <v>5.7</v>
+      </c>
       <c r="F1999" s="16"/>
       <c r="G1999" s="16"/>
       <c r="H1999" s="16"/>
       <c r="I1999" s="16"/>
     </row>
-    <row r="2000" spans="3:9">
-      <c r="C2000" s="27"/>
-      <c r="D2000" s="16"/>
-      <c r="E2000" s="16"/>
+    <row r="2000" ht="17" spans="1:9">
+      <c r="A2000" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2000" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2000" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2000" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2000" s="18">
+        <v>0</v>
+      </c>
       <c r="F2000" s="16"/>
       <c r="G2000" s="16"/>
       <c r="H2000" s="16"/>
       <c r="I2000" s="16"/>
     </row>
-    <row r="2001" spans="3:9">
-      <c r="C2001" s="27"/>
-      <c r="D2001" s="16"/>
-      <c r="E2001" s="16"/>
+    <row r="2001" ht="17" spans="1:9">
+      <c r="A2001" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2001" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2001" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2001" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2001" s="18">
+        <v>0</v>
+      </c>
       <c r="F2001" s="16"/>
       <c r="G2001" s="16"/>
       <c r="H2001" s="16"/>
       <c r="I2001" s="16"/>
     </row>
-    <row r="2002" spans="3:9">
-      <c r="C2002" s="27"/>
-      <c r="D2002" s="16"/>
-      <c r="E2002" s="16"/>
+    <row r="2002" ht="17" spans="1:9">
+      <c r="A2002" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2002" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2002" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2002" s="27">
+        <v>66563</v>
+      </c>
+      <c r="E2002" s="28">
+        <v>-6.5</v>
+      </c>
       <c r="F2002" s="16"/>
       <c r="G2002" s="16"/>
       <c r="H2002" s="16"/>
       <c r="I2002" s="16"/>
     </row>
-    <row r="2003" spans="3:9">
-      <c r="C2003" s="27"/>
-      <c r="D2003" s="16"/>
-      <c r="E2003" s="16"/>
+    <row r="2003" ht="17" spans="1:9">
+      <c r="A2003" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2003" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2003" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2003" s="27">
+        <v>57623</v>
+      </c>
+      <c r="E2003" s="28">
+        <v>-4.3</v>
+      </c>
       <c r="F2003" s="16"/>
       <c r="G2003" s="16"/>
       <c r="H2003" s="16"/>
       <c r="I2003" s="16"/>
     </row>
-    <row r="2004" spans="3:9">
-      <c r="C2004" s="27"/>
-      <c r="D2004" s="16"/>
-      <c r="E2004" s="16"/>
+    <row r="2004" ht="17" spans="1:9">
+      <c r="A2004" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2004" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2004" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2004" s="27">
+        <v>1430</v>
+      </c>
+      <c r="E2004" s="28">
+        <v>-18.3</v>
+      </c>
       <c r="F2004" s="16"/>
       <c r="G2004" s="16"/>
       <c r="H2004" s="16"/>
       <c r="I2004" s="16"/>
     </row>
-    <row r="2005" spans="3:9">
-      <c r="C2005" s="27"/>
-      <c r="D2005" s="16"/>
-      <c r="E2005" s="16"/>
+    <row r="2005" ht="17" spans="1:9">
+      <c r="A2005" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2005" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2005" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2005" s="27">
+        <v>3418</v>
+      </c>
+      <c r="E2005" s="28">
+        <v>-19.8</v>
+      </c>
       <c r="F2005" s="16"/>
       <c r="G2005" s="16"/>
       <c r="H2005" s="16"/>
       <c r="I2005" s="16"/>
     </row>
-    <row r="2006" spans="3:9">
-      <c r="C2006" s="27"/>
-      <c r="D2006" s="16"/>
-      <c r="E2006" s="16"/>
+    <row r="2006" ht="17" spans="1:9">
+      <c r="A2006" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2006" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2006" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2006" s="27">
+        <v>70450</v>
+      </c>
+      <c r="E2006" s="28">
+        <v>-1.5</v>
+      </c>
       <c r="F2006" s="16"/>
       <c r="G2006" s="16"/>
       <c r="H2006" s="16"/>
       <c r="I2006" s="16"/>
     </row>
-    <row r="2007" spans="3:9">
-      <c r="C2007" s="27"/>
-      <c r="D2007" s="16"/>
-      <c r="E2007" s="16"/>
+    <row r="2007" ht="17" spans="1:9">
+      <c r="A2007" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2007" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2007" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2007" s="27">
+        <v>63184</v>
+      </c>
+      <c r="E2007" s="28">
+        <v>0.7</v>
+      </c>
       <c r="F2007" s="16"/>
       <c r="G2007" s="16"/>
       <c r="H2007" s="16"/>
       <c r="I2007" s="16"/>
     </row>
-    <row r="2008" spans="3:9">
-      <c r="C2008" s="27"/>
-      <c r="D2008" s="16"/>
-      <c r="E2008" s="16"/>
+    <row r="2008" ht="17" spans="1:9">
+      <c r="A2008" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2008" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2008" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2008" s="27">
+        <v>1922</v>
+      </c>
+      <c r="E2008" s="28">
+        <v>-20.2</v>
+      </c>
       <c r="F2008" s="16"/>
       <c r="G2008" s="16"/>
       <c r="H2008" s="16"/>
       <c r="I2008" s="16"/>
     </row>
-    <row r="2009" spans="3:9">
-      <c r="C2009" s="27"/>
-      <c r="D2009" s="16"/>
-      <c r="E2009" s="16"/>
+    <row r="2009" ht="17" spans="1:9">
+      <c r="A2009" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2009" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2009" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2009" s="27">
+        <v>3616</v>
+      </c>
+      <c r="E2009" s="28">
+        <v>-17</v>
+      </c>
       <c r="F2009" s="16"/>
       <c r="G2009" s="16"/>
       <c r="H2009" s="16"/>
       <c r="I2009" s="16"/>
     </row>
-    <row r="2010" spans="3:9">
-      <c r="C2010" s="27"/>
-      <c r="D2010" s="16"/>
-      <c r="E2010" s="16"/>
+    <row r="2010" ht="17" spans="1:9">
+      <c r="A2010" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2010" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2010" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2010" s="27">
+        <v>64564</v>
+      </c>
+      <c r="E2010" s="28">
+        <v>17.9</v>
+      </c>
       <c r="F2010" s="16"/>
       <c r="G2010" s="16"/>
       <c r="H2010" s="16"/>
       <c r="I2010" s="16"/>
     </row>
-    <row r="2011" spans="3:9">
-      <c r="C2011" s="27"/>
-      <c r="D2011" s="16"/>
-      <c r="E2011" s="16"/>
+    <row r="2011" ht="17" spans="1:9">
+      <c r="A2011" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2011" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2011" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2011" s="27">
+        <v>31239</v>
+      </c>
+      <c r="E2011" s="28">
+        <v>19.5</v>
+      </c>
       <c r="F2011" s="16"/>
       <c r="G2011" s="16"/>
       <c r="H2011" s="16"/>
       <c r="I2011" s="16"/>
     </row>
-    <row r="2012" spans="3:9">
-      <c r="C2012" s="27"/>
-      <c r="D2012" s="16"/>
-      <c r="E2012" s="16"/>
+    <row r="2012" ht="17" spans="1:9">
+      <c r="A2012" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2012" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2012" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2012" s="27">
+        <v>4760</v>
+      </c>
+      <c r="E2012" s="28">
+        <v>21.9</v>
+      </c>
       <c r="F2012" s="16"/>
       <c r="G2012" s="16"/>
       <c r="H2012" s="16"/>
       <c r="I2012" s="16"/>
     </row>
-    <row r="2013" spans="3:9">
-      <c r="C2013" s="27"/>
-      <c r="D2013" s="16"/>
-      <c r="E2013" s="16"/>
+    <row r="2013" ht="17" spans="1:9">
+      <c r="A2013" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2013" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2013" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2013" s="27">
+        <v>14073</v>
+      </c>
+      <c r="E2013" s="28">
+        <v>13.7</v>
+      </c>
       <c r="F2013" s="16"/>
       <c r="G2013" s="16"/>
       <c r="H2013" s="16"/>
       <c r="I2013" s="16"/>
     </row>
-    <row r="2014" spans="3:9">
-      <c r="C2014" s="27"/>
-      <c r="D2014" s="16"/>
-      <c r="E2014" s="16"/>
+    <row r="2014" ht="17" spans="1:9">
+      <c r="A2014" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2014" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2014" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2014" s="27">
+        <v>78217</v>
+      </c>
+      <c r="E2014" s="28">
+        <v>-11.2</v>
+      </c>
       <c r="F2014" s="16"/>
       <c r="G2014" s="16"/>
       <c r="H2014" s="16"/>
       <c r="I2014" s="16"/>
     </row>
-    <row r="2015" spans="3:9">
-      <c r="C2015" s="27"/>
-      <c r="D2015" s="16"/>
-      <c r="E2015" s="16"/>
+    <row r="2015" ht="17" spans="1:9">
+      <c r="A2015" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2015" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2015" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2015" s="27">
+        <v>9732</v>
+      </c>
+      <c r="E2015" s="28">
+        <v>-11.5</v>
+      </c>
       <c r="F2015" s="16"/>
       <c r="G2015" s="16"/>
       <c r="H2015" s="16"/>
       <c r="I2015" s="16"/>
     </row>
-    <row r="2016" spans="3:9">
-      <c r="C2016" s="27"/>
-      <c r="D2016" s="16"/>
-      <c r="E2016" s="16"/>
+    <row r="2016" ht="17" spans="1:9">
+      <c r="A2016" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2016" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2016" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2016" s="27">
+        <v>30</v>
+      </c>
+      <c r="E2016" s="28">
+        <v>-43</v>
+      </c>
       <c r="F2016" s="16"/>
       <c r="G2016" s="16"/>
       <c r="H2016" s="16"/>
       <c r="I2016" s="16"/>
     </row>
-    <row r="2017" spans="3:9">
-      <c r="C2017" s="27"/>
-      <c r="D2017" s="16"/>
-      <c r="E2017" s="16"/>
+    <row r="2017" ht="17" spans="1:9">
+      <c r="A2017" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2017" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2017" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2017" s="27">
+        <v>23916</v>
+      </c>
+      <c r="E2017" s="28">
+        <v>-23</v>
+      </c>
       <c r="F2017" s="16"/>
       <c r="G2017" s="16"/>
       <c r="H2017" s="16"/>
       <c r="I2017" s="16"/>
     </row>
-    <row r="2018" spans="3:9">
-      <c r="C2018" s="27"/>
-      <c r="D2018" s="16"/>
-      <c r="E2018" s="16"/>
+    <row r="2018" ht="17" spans="1:9">
+      <c r="A2018" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2018" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2018" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2018" s="27">
+        <v>27377</v>
+      </c>
+      <c r="E2018" s="28">
+        <v>-3.8</v>
+      </c>
       <c r="F2018" s="16"/>
       <c r="G2018" s="16"/>
       <c r="H2018" s="16"/>
       <c r="I2018" s="16"/>
     </row>
-    <row r="2019" spans="3:9">
-      <c r="C2019" s="27"/>
-      <c r="D2019" s="16"/>
-      <c r="E2019" s="16"/>
+    <row r="2019" ht="17" spans="1:9">
+      <c r="A2019" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2019" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2019" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2019" s="29">
+        <v>13950</v>
+      </c>
+      <c r="E2019" s="31">
+        <v>-1</v>
+      </c>
       <c r="F2019" s="16"/>
       <c r="G2019" s="16"/>
       <c r="H2019" s="16"/>
       <c r="I2019" s="16"/>
     </row>
     <row r="2020" spans="3:9">
-      <c r="C2020" s="27"/>
+      <c r="C2020" s="30"/>
       <c r="D2020" s="16"/>
       <c r="E2020" s="16"/>
       <c r="F2020" s="16"/>
@@ -52186,7 +52540,7 @@
       <c r="I2020" s="16"/>
     </row>
     <row r="2021" spans="3:9">
-      <c r="C2021" s="27"/>
+      <c r="C2021" s="30"/>
       <c r="D2021" s="16"/>
       <c r="E2021" s="16"/>
       <c r="F2021" s="16"/>
@@ -52195,7 +52549,7 @@
       <c r="I2021" s="16"/>
     </row>
     <row r="2022" spans="3:9">
-      <c r="C2022" s="27"/>
+      <c r="C2022" s="30"/>
       <c r="D2022" s="16"/>
       <c r="E2022" s="16"/>
       <c r="F2022" s="16"/>
@@ -52204,7 +52558,7 @@
       <c r="I2022" s="16"/>
     </row>
     <row r="2023" spans="3:9">
-      <c r="C2023" s="27"/>
+      <c r="C2023" s="30"/>
       <c r="D2023" s="16"/>
       <c r="E2023" s="16"/>
       <c r="F2023" s="16"/>
@@ -52213,7 +52567,7 @@
       <c r="I2023" s="16"/>
     </row>
     <row r="2024" spans="3:9">
-      <c r="C2024" s="27"/>
+      <c r="C2024" s="30"/>
       <c r="D2024" s="16"/>
       <c r="E2024" s="16"/>
       <c r="F2024" s="16"/>
@@ -52222,7 +52576,7 @@
       <c r="I2024" s="16"/>
     </row>
     <row r="2025" spans="3:9">
-      <c r="C2025" s="27"/>
+      <c r="C2025" s="30"/>
       <c r="D2025" s="16"/>
       <c r="E2025" s="16"/>
       <c r="F2025" s="16"/>
@@ -52231,7 +52585,7 @@
       <c r="I2025" s="16"/>
     </row>
     <row r="2026" spans="3:9">
-      <c r="C2026" s="27"/>
+      <c r="C2026" s="30"/>
       <c r="D2026" s="16"/>
       <c r="E2026" s="16"/>
       <c r="F2026" s="16"/>
@@ -52240,7 +52594,7 @@
       <c r="I2026" s="16"/>
     </row>
     <row r="2027" spans="3:9">
-      <c r="C2027" s="27"/>
+      <c r="C2027" s="30"/>
       <c r="D2027" s="16"/>
       <c r="E2027" s="16"/>
       <c r="F2027" s="16"/>
@@ -52249,7 +52603,7 @@
       <c r="I2027" s="16"/>
     </row>
     <row r="2028" spans="3:9">
-      <c r="C2028" s="27"/>
+      <c r="C2028" s="30"/>
       <c r="D2028" s="16"/>
       <c r="E2028" s="16"/>
       <c r="F2028" s="16"/>
@@ -52258,7 +52612,7 @@
       <c r="I2028" s="16"/>
     </row>
     <row r="2029" spans="3:9">
-      <c r="C2029" s="27"/>
+      <c r="C2029" s="30"/>
       <c r="D2029" s="16"/>
       <c r="E2029" s="16"/>
       <c r="F2029" s="16"/>
@@ -52267,7 +52621,7 @@
       <c r="I2029" s="16"/>
     </row>
     <row r="2030" spans="3:9">
-      <c r="C2030" s="27"/>
+      <c r="C2030" s="30"/>
       <c r="D2030" s="16"/>
       <c r="E2030" s="16"/>
       <c r="F2030" s="16"/>
@@ -52276,7 +52630,7 @@
       <c r="I2030" s="16"/>
     </row>
     <row r="2031" spans="3:9">
-      <c r="C2031" s="27"/>
+      <c r="C2031" s="30"/>
       <c r="D2031" s="16"/>
       <c r="E2031" s="16"/>
       <c r="F2031" s="16"/>
@@ -52285,7 +52639,7 @@
       <c r="I2031" s="16"/>
     </row>
     <row r="2032" spans="3:9">
-      <c r="C2032" s="27"/>
+      <c r="C2032" s="30"/>
       <c r="D2032" s="16"/>
       <c r="E2032" s="16"/>
       <c r="F2032" s="16"/>
@@ -52294,7 +52648,7 @@
       <c r="I2032" s="16"/>
     </row>
     <row r="2033" spans="3:9">
-      <c r="C2033" s="27"/>
+      <c r="C2033" s="30"/>
       <c r="D2033" s="16"/>
       <c r="E2033" s="16"/>
       <c r="F2033" s="16"/>
@@ -52303,7 +52657,7 @@
       <c r="I2033" s="16"/>
     </row>
     <row r="2034" spans="3:9">
-      <c r="C2034" s="27"/>
+      <c r="C2034" s="30"/>
       <c r="D2034" s="16"/>
       <c r="E2034" s="16"/>
       <c r="F2034" s="16"/>
@@ -52312,7 +52666,7 @@
       <c r="I2034" s="16"/>
     </row>
     <row r="2035" spans="3:9">
-      <c r="C2035" s="27"/>
+      <c r="C2035" s="30"/>
       <c r="D2035" s="16"/>
       <c r="E2035" s="16"/>
       <c r="F2035" s="16"/>
@@ -52321,7 +52675,7 @@
       <c r="I2035" s="16"/>
     </row>
     <row r="2036" spans="3:9">
-      <c r="C2036" s="27"/>
+      <c r="C2036" s="30"/>
       <c r="D2036" s="16"/>
       <c r="E2036" s="16"/>
       <c r="F2036" s="16"/>
@@ -52330,7 +52684,7 @@
       <c r="I2036" s="16"/>
     </row>
     <row r="2037" spans="3:9">
-      <c r="C2037" s="27"/>
+      <c r="C2037" s="30"/>
       <c r="D2037" s="16"/>
       <c r="E2037" s="16"/>
       <c r="F2037" s="16"/>
@@ -52339,7 +52693,7 @@
       <c r="I2037" s="16"/>
     </row>
     <row r="2038" spans="3:9">
-      <c r="C2038" s="27"/>
+      <c r="C2038" s="30"/>
       <c r="D2038" s="16"/>
       <c r="E2038" s="16"/>
       <c r="F2038" s="16"/>
@@ -52348,7 +52702,7 @@
       <c r="I2038" s="16"/>
     </row>
     <row r="2039" spans="3:9">
-      <c r="C2039" s="27"/>
+      <c r="C2039" s="30"/>
       <c r="D2039" s="16"/>
       <c r="E2039" s="16"/>
       <c r="F2039" s="16"/>
@@ -52357,7 +52711,7 @@
       <c r="I2039" s="16"/>
     </row>
     <row r="2040" spans="3:9">
-      <c r="C2040" s="27"/>
+      <c r="C2040" s="30"/>
       <c r="D2040" s="16"/>
       <c r="E2040" s="16"/>
       <c r="F2040" s="16"/>
@@ -52366,7 +52720,7 @@
       <c r="I2040" s="16"/>
     </row>
     <row r="2041" spans="3:9">
-      <c r="C2041" s="27"/>
+      <c r="C2041" s="30"/>
       <c r="D2041" s="16"/>
       <c r="E2041" s="16"/>
       <c r="F2041" s="16"/>
@@ -52375,7 +52729,7 @@
       <c r="I2041" s="16"/>
     </row>
     <row r="2042" spans="3:9">
-      <c r="C2042" s="27"/>
+      <c r="C2042" s="30"/>
       <c r="D2042" s="16"/>
       <c r="E2042" s="16"/>
       <c r="F2042" s="16"/>
@@ -52384,7 +52738,7 @@
       <c r="I2042" s="16"/>
     </row>
     <row r="2043" spans="3:9">
-      <c r="C2043" s="27"/>
+      <c r="C2043" s="30"/>
       <c r="D2043" s="16"/>
       <c r="E2043" s="16"/>
       <c r="F2043" s="16"/>
@@ -52393,7 +52747,7 @@
       <c r="I2043" s="16"/>
     </row>
     <row r="2044" spans="3:9">
-      <c r="C2044" s="27"/>
+      <c r="C2044" s="30"/>
       <c r="D2044" s="16"/>
       <c r="E2044" s="16"/>
       <c r="F2044" s="16"/>
@@ -52402,7 +52756,7 @@
       <c r="I2044" s="16"/>
     </row>
     <row r="2045" spans="3:9">
-      <c r="C2045" s="27"/>
+      <c r="C2045" s="30"/>
       <c r="D2045" s="16"/>
       <c r="E2045" s="16"/>
       <c r="F2045" s="16"/>
@@ -52411,7 +52765,7 @@
       <c r="I2045" s="16"/>
     </row>
     <row r="2046" spans="3:9">
-      <c r="C2046" s="27"/>
+      <c r="C2046" s="30"/>
       <c r="D2046" s="16"/>
       <c r="E2046" s="16"/>
       <c r="F2046" s="16"/>
@@ -52420,7 +52774,7 @@
       <c r="I2046" s="16"/>
     </row>
     <row r="2047" spans="3:9">
-      <c r="C2047" s="27"/>
+      <c r="C2047" s="30"/>
       <c r="D2047" s="16"/>
       <c r="E2047" s="16"/>
       <c r="F2047" s="16"/>
@@ -52429,7 +52783,7 @@
       <c r="I2047" s="16"/>
     </row>
     <row r="2048" spans="3:9">
-      <c r="C2048" s="27"/>
+      <c r="C2048" s="30"/>
       <c r="D2048" s="16"/>
       <c r="E2048" s="16"/>
       <c r="F2048" s="16"/>
@@ -52438,7 +52792,7 @@
       <c r="I2048" s="16"/>
     </row>
     <row r="2049" spans="3:9">
-      <c r="C2049" s="27"/>
+      <c r="C2049" s="30"/>
       <c r="D2049" s="16"/>
       <c r="E2049" s="16"/>
       <c r="F2049" s="16"/>
@@ -52447,7 +52801,7 @@
       <c r="I2049" s="16"/>
     </row>
     <row r="2050" spans="3:9">
-      <c r="C2050" s="27"/>
+      <c r="C2050" s="30"/>
       <c r="D2050" s="16"/>
       <c r="E2050" s="16"/>
       <c r="F2050" s="16"/>
@@ -52456,7 +52810,7 @@
       <c r="I2050" s="16"/>
     </row>
     <row r="2051" spans="3:9">
-      <c r="C2051" s="27"/>
+      <c r="C2051" s="30"/>
       <c r="D2051" s="16"/>
       <c r="E2051" s="16"/>
       <c r="F2051" s="16"/>
@@ -52465,7 +52819,7 @@
       <c r="I2051" s="16"/>
     </row>
     <row r="2052" spans="3:9">
-      <c r="C2052" s="27"/>
+      <c r="C2052" s="30"/>
       <c r="D2052" s="16"/>
       <c r="E2052" s="16"/>
       <c r="F2052" s="16"/>
@@ -52474,7 +52828,7 @@
       <c r="I2052" s="16"/>
     </row>
     <row r="2053" spans="3:9">
-      <c r="C2053" s="27"/>
+      <c r="C2053" s="30"/>
       <c r="D2053" s="16"/>
       <c r="E2053" s="16"/>
       <c r="F2053" s="16"/>
@@ -52483,7 +52837,7 @@
       <c r="I2053" s="16"/>
     </row>
     <row r="2054" spans="3:9">
-      <c r="C2054" s="27"/>
+      <c r="C2054" s="30"/>
       <c r="D2054" s="16"/>
       <c r="E2054" s="16"/>
       <c r="F2054" s="16"/>
@@ -52492,7 +52846,7 @@
       <c r="I2054" s="16"/>
     </row>
     <row r="2055" spans="3:9">
-      <c r="C2055" s="27"/>
+      <c r="C2055" s="30"/>
       <c r="D2055" s="16"/>
       <c r="E2055" s="16"/>
       <c r="F2055" s="16"/>
@@ -52501,7 +52855,7 @@
       <c r="I2055" s="16"/>
     </row>
     <row r="2056" spans="3:9">
-      <c r="C2056" s="27"/>
+      <c r="C2056" s="30"/>
       <c r="D2056" s="16"/>
       <c r="E2056" s="16"/>
       <c r="F2056" s="16"/>
@@ -52510,7 +52864,7 @@
       <c r="I2056" s="16"/>
     </row>
     <row r="2057" spans="3:9">
-      <c r="C2057" s="27"/>
+      <c r="C2057" s="30"/>
       <c r="D2057" s="16"/>
       <c r="E2057" s="16"/>
       <c r="F2057" s="16"/>
@@ -52519,7 +52873,7 @@
       <c r="I2057" s="16"/>
     </row>
     <row r="2058" spans="3:9">
-      <c r="C2058" s="27"/>
+      <c r="C2058" s="30"/>
       <c r="D2058" s="16"/>
       <c r="E2058" s="16"/>
       <c r="F2058" s="16"/>
@@ -52528,7 +52882,7 @@
       <c r="I2058" s="16"/>
     </row>
     <row r="2059" spans="3:9">
-      <c r="C2059" s="27"/>
+      <c r="C2059" s="30"/>
       <c r="D2059" s="16"/>
       <c r="E2059" s="16"/>
       <c r="F2059" s="16"/>
@@ -52537,7 +52891,7 @@
       <c r="I2059" s="16"/>
     </row>
     <row r="2060" spans="3:9">
-      <c r="C2060" s="27"/>
+      <c r="C2060" s="30"/>
       <c r="D2060" s="16"/>
       <c r="E2060" s="16"/>
       <c r="F2060" s="16"/>
@@ -52546,7 +52900,7 @@
       <c r="I2060" s="16"/>
     </row>
     <row r="2061" spans="3:9">
-      <c r="C2061" s="27"/>
+      <c r="C2061" s="30"/>
       <c r="D2061" s="16"/>
       <c r="E2061" s="16"/>
       <c r="F2061" s="16"/>
@@ -52555,7 +52909,7 @@
       <c r="I2061" s="16"/>
     </row>
     <row r="2062" spans="3:9">
-      <c r="C2062" s="27"/>
+      <c r="C2062" s="30"/>
       <c r="D2062" s="16"/>
       <c r="E2062" s="16"/>
       <c r="F2062" s="16"/>
@@ -52564,7 +52918,7 @@
       <c r="I2062" s="16"/>
     </row>
     <row r="2063" spans="3:9">
-      <c r="C2063" s="27"/>
+      <c r="C2063" s="30"/>
       <c r="D2063" s="16"/>
       <c r="E2063" s="16"/>
       <c r="F2063" s="16"/>
@@ -52573,7 +52927,7 @@
       <c r="I2063" s="16"/>
     </row>
     <row r="2064" spans="3:9">
-      <c r="C2064" s="27"/>
+      <c r="C2064" s="30"/>
       <c r="D2064" s="16"/>
       <c r="E2064" s="16"/>
       <c r="F2064" s="16"/>
@@ -52582,7 +52936,7 @@
       <c r="I2064" s="16"/>
     </row>
     <row r="2065" spans="3:9">
-      <c r="C2065" s="27"/>
+      <c r="C2065" s="30"/>
       <c r="D2065" s="16"/>
       <c r="E2065" s="16"/>
       <c r="F2065" s="16"/>
@@ -52591,7 +52945,7 @@
       <c r="I2065" s="16"/>
     </row>
     <row r="2066" spans="3:9">
-      <c r="C2066" s="27"/>
+      <c r="C2066" s="30"/>
       <c r="D2066" s="16"/>
       <c r="E2066" s="16"/>
       <c r="F2066" s="16"/>
@@ -52600,7 +52954,7 @@
       <c r="I2066" s="16"/>
     </row>
     <row r="2067" spans="3:9">
-      <c r="C2067" s="27"/>
+      <c r="C2067" s="30"/>
       <c r="D2067" s="16"/>
       <c r="E2067" s="16"/>
       <c r="F2067" s="16"/>
@@ -52609,7 +52963,7 @@
       <c r="I2067" s="16"/>
     </row>
     <row r="2068" spans="3:9">
-      <c r="C2068" s="27"/>
+      <c r="C2068" s="30"/>
       <c r="D2068" s="16"/>
       <c r="E2068" s="16"/>
       <c r="F2068" s="16"/>
@@ -52618,7 +52972,7 @@
       <c r="I2068" s="16"/>
     </row>
     <row r="2069" spans="3:9">
-      <c r="C2069" s="27"/>
+      <c r="C2069" s="30"/>
       <c r="D2069" s="16"/>
       <c r="E2069" s="16"/>
       <c r="F2069" s="16"/>
@@ -52627,7 +52981,7 @@
       <c r="I2069" s="16"/>
     </row>
     <row r="2070" spans="3:9">
-      <c r="C2070" s="27"/>
+      <c r="C2070" s="30"/>
       <c r="D2070" s="16"/>
       <c r="E2070" s="16"/>
       <c r="F2070" s="16"/>
@@ -52636,7 +52990,7 @@
       <c r="I2070" s="16"/>
     </row>
     <row r="2071" spans="3:9">
-      <c r="C2071" s="27"/>
+      <c r="C2071" s="30"/>
       <c r="D2071" s="16"/>
       <c r="E2071" s="16"/>
       <c r="F2071" s="16"/>
@@ -52645,7 +52999,7 @@
       <c r="I2071" s="16"/>
     </row>
     <row r="2072" spans="3:9">
-      <c r="C2072" s="27"/>
+      <c r="C2072" s="30"/>
       <c r="D2072" s="16"/>
       <c r="E2072" s="16"/>
       <c r="F2072" s="16"/>
@@ -52654,7 +53008,7 @@
       <c r="I2072" s="16"/>
     </row>
     <row r="2073" spans="3:9">
-      <c r="C2073" s="27"/>
+      <c r="C2073" s="30"/>
       <c r="D2073" s="16"/>
       <c r="E2073" s="16"/>
       <c r="F2073" s="16"/>
@@ -52663,7 +53017,7 @@
       <c r="I2073" s="16"/>
     </row>
     <row r="2074" spans="3:9">
-      <c r="C2074" s="27"/>
+      <c r="C2074" s="30"/>
       <c r="D2074" s="16"/>
       <c r="E2074" s="16"/>
       <c r="F2074" s="16"/>
@@ -52672,7 +53026,7 @@
       <c r="I2074" s="16"/>
     </row>
     <row r="2075" spans="3:9">
-      <c r="C2075" s="27"/>
+      <c r="C2075" s="30"/>
       <c r="D2075" s="16"/>
       <c r="E2075" s="16"/>
       <c r="F2075" s="16"/>
@@ -52681,7 +53035,7 @@
       <c r="I2075" s="16"/>
     </row>
     <row r="2076" spans="3:9">
-      <c r="C2076" s="27"/>
+      <c r="C2076" s="30"/>
       <c r="D2076" s="16"/>
       <c r="E2076" s="16"/>
       <c r="F2076" s="16"/>
@@ -52690,7 +53044,7 @@
       <c r="I2076" s="16"/>
     </row>
     <row r="2077" spans="3:9">
-      <c r="C2077" s="27"/>
+      <c r="C2077" s="30"/>
       <c r="D2077" s="16"/>
       <c r="E2077" s="16"/>
       <c r="F2077" s="16"/>
@@ -52699,7 +53053,7 @@
       <c r="I2077" s="16"/>
     </row>
     <row r="2078" spans="3:9">
-      <c r="C2078" s="27"/>
+      <c r="C2078" s="30"/>
       <c r="D2078" s="16"/>
       <c r="E2078" s="16"/>
       <c r="F2078" s="16"/>
@@ -52708,7 +53062,7 @@
       <c r="I2078" s="16"/>
     </row>
     <row r="2079" spans="3:9">
-      <c r="C2079" s="27"/>
+      <c r="C2079" s="30"/>
       <c r="D2079" s="16"/>
       <c r="E2079" s="16"/>
       <c r="F2079" s="16"/>
@@ -52717,7 +53071,7 @@
       <c r="I2079" s="16"/>
     </row>
     <row r="2080" spans="3:9">
-      <c r="C2080" s="27"/>
+      <c r="C2080" s="30"/>
       <c r="D2080" s="16"/>
       <c r="E2080" s="16"/>
       <c r="F2080" s="16"/>
@@ -52726,7 +53080,7 @@
       <c r="I2080" s="16"/>
     </row>
     <row r="2081" spans="3:9">
-      <c r="C2081" s="27"/>
+      <c r="C2081" s="30"/>
       <c r="D2081" s="16"/>
       <c r="E2081" s="16"/>
       <c r="F2081" s="16"/>
@@ -52735,7 +53089,7 @@
       <c r="I2081" s="16"/>
     </row>
     <row r="2082" spans="3:9">
-      <c r="C2082" s="27"/>
+      <c r="C2082" s="30"/>
       <c r="D2082" s="16"/>
       <c r="E2082" s="16"/>
       <c r="F2082" s="16"/>
@@ -52744,7 +53098,7 @@
       <c r="I2082" s="16"/>
     </row>
     <row r="2083" spans="3:9">
-      <c r="C2083" s="27"/>
+      <c r="C2083" s="30"/>
       <c r="D2083" s="16"/>
       <c r="E2083" s="16"/>
       <c r="F2083" s="16"/>
@@ -52753,7 +53107,7 @@
       <c r="I2083" s="16"/>
     </row>
     <row r="2084" spans="3:9">
-      <c r="C2084" s="27"/>
+      <c r="C2084" s="30"/>
       <c r="D2084" s="16"/>
       <c r="E2084" s="16"/>
       <c r="F2084" s="16"/>
@@ -52762,7 +53116,7 @@
       <c r="I2084" s="16"/>
     </row>
     <row r="2085" spans="3:9">
-      <c r="C2085" s="27"/>
+      <c r="C2085" s="30"/>
       <c r="D2085" s="16"/>
       <c r="E2085" s="16"/>
       <c r="F2085" s="16"/>
@@ -52771,7 +53125,7 @@
       <c r="I2085" s="16"/>
     </row>
     <row r="2086" spans="3:9">
-      <c r="C2086" s="27"/>
+      <c r="C2086" s="30"/>
       <c r="D2086" s="16"/>
       <c r="E2086" s="16"/>
       <c r="F2086" s="16"/>
@@ -52780,7 +53134,7 @@
       <c r="I2086" s="16"/>
     </row>
     <row r="2087" spans="3:9">
-      <c r="C2087" s="27"/>
+      <c r="C2087" s="30"/>
       <c r="D2087" s="16"/>
       <c r="E2087" s="16"/>
       <c r="F2087" s="16"/>
@@ -52789,7 +53143,7 @@
       <c r="I2087" s="16"/>
     </row>
     <row r="2088" spans="3:9">
-      <c r="C2088" s="27"/>
+      <c r="C2088" s="30"/>
       <c r="D2088" s="16"/>
       <c r="E2088" s="16"/>
       <c r="F2088" s="16"/>
@@ -52798,7 +53152,7 @@
       <c r="I2088" s="16"/>
     </row>
     <row r="2089" spans="3:9">
-      <c r="C2089" s="27"/>
+      <c r="C2089" s="30"/>
       <c r="D2089" s="16"/>
       <c r="E2089" s="16"/>
       <c r="F2089" s="16"/>
@@ -52807,7 +53161,7 @@
       <c r="I2089" s="16"/>
     </row>
     <row r="2090" spans="3:9">
-      <c r="C2090" s="27"/>
+      <c r="C2090" s="30"/>
       <c r="D2090" s="16"/>
       <c r="E2090" s="16"/>
       <c r="F2090" s="16"/>
@@ -52816,7 +53170,7 @@
       <c r="I2090" s="16"/>
     </row>
     <row r="2091" spans="3:9">
-      <c r="C2091" s="27"/>
+      <c r="C2091" s="30"/>
       <c r="D2091" s="16"/>
       <c r="E2091" s="16"/>
       <c r="F2091" s="16"/>
@@ -52825,7 +53179,7 @@
       <c r="I2091" s="16"/>
     </row>
     <row r="2092" spans="3:9">
-      <c r="C2092" s="27"/>
+      <c r="C2092" s="30"/>
       <c r="D2092" s="16"/>
       <c r="E2092" s="16"/>
       <c r="F2092" s="16"/>
@@ -52834,7 +53188,7 @@
       <c r="I2092" s="16"/>
     </row>
     <row r="2093" spans="3:9">
-      <c r="C2093" s="27"/>
+      <c r="C2093" s="30"/>
       <c r="D2093" s="16"/>
       <c r="E2093" s="16"/>
       <c r="F2093" s="16"/>
@@ -52843,7 +53197,7 @@
       <c r="I2093" s="16"/>
     </row>
     <row r="2094" spans="3:9">
-      <c r="C2094" s="27"/>
+      <c r="C2094" s="30"/>
       <c r="D2094" s="16"/>
       <c r="E2094" s="16"/>
       <c r="F2094" s="16"/>
@@ -52852,7 +53206,7 @@
       <c r="I2094" s="16"/>
     </row>
     <row r="2095" spans="3:9">
-      <c r="C2095" s="27"/>
+      <c r="C2095" s="30"/>
       <c r="D2095" s="16"/>
       <c r="E2095" s="16"/>
       <c r="F2095" s="16"/>
@@ -52861,7 +53215,7 @@
       <c r="I2095" s="16"/>
     </row>
     <row r="2096" spans="3:9">
-      <c r="C2096" s="27"/>
+      <c r="C2096" s="30"/>
       <c r="D2096" s="16"/>
       <c r="E2096" s="16"/>
       <c r="F2096" s="16"/>
@@ -52870,7 +53224,7 @@
       <c r="I2096" s="16"/>
     </row>
     <row r="2097" spans="3:9">
-      <c r="C2097" s="27"/>
+      <c r="C2097" s="30"/>
       <c r="D2097" s="16"/>
       <c r="E2097" s="16"/>
       <c r="F2097" s="16"/>
@@ -52879,7 +53233,7 @@
       <c r="I2097" s="16"/>
     </row>
     <row r="2098" spans="3:9">
-      <c r="C2098" s="27"/>
+      <c r="C2098" s="30"/>
       <c r="D2098" s="16"/>
       <c r="E2098" s="16"/>
       <c r="F2098" s="16"/>
@@ -52888,7 +53242,7 @@
       <c r="I2098" s="16"/>
     </row>
     <row r="2099" spans="3:9">
-      <c r="C2099" s="28"/>
+      <c r="C2099" s="32"/>
       <c r="D2099" s="24"/>
       <c r="E2099" s="24"/>
       <c r="F2099" s="24"/>
@@ -52897,7 +53251,7 @@
       <c r="I2099" s="24"/>
     </row>
     <row r="2100" spans="3:9">
-      <c r="C2100" s="28"/>
+      <c r="C2100" s="32"/>
       <c r="D2100" s="24"/>
       <c r="E2100" s="24"/>
       <c r="F2100" s="24"/>
@@ -52906,7 +53260,7 @@
       <c r="I2100" s="24"/>
     </row>
     <row r="2101" spans="3:9">
-      <c r="C2101" s="28"/>
+      <c r="C2101" s="32"/>
       <c r="D2101" s="24"/>
       <c r="E2101" s="24"/>
       <c r="F2101" s="24"/>
@@ -52915,7 +53269,7 @@
       <c r="I2101" s="24"/>
     </row>
     <row r="2102" spans="3:9">
-      <c r="C2102" s="28"/>
+      <c r="C2102" s="32"/>
       <c r="D2102" s="24"/>
       <c r="E2102" s="24"/>
       <c r="F2102" s="24"/>
@@ -52924,7 +53278,7 @@
       <c r="I2102" s="24"/>
     </row>
     <row r="2103" spans="3:9">
-      <c r="C2103" s="28"/>
+      <c r="C2103" s="32"/>
       <c r="D2103" s="24"/>
       <c r="E2103" s="24"/>
       <c r="F2103" s="24"/>
@@ -52933,7 +53287,7 @@
       <c r="I2103" s="24"/>
     </row>
     <row r="2104" spans="3:9">
-      <c r="C2104" s="28"/>
+      <c r="C2104" s="32"/>
       <c r="D2104" s="24"/>
       <c r="E2104" s="24"/>
       <c r="F2104" s="24"/>
@@ -52942,7 +53296,7 @@
       <c r="I2104" s="24"/>
     </row>
     <row r="2105" spans="3:9">
-      <c r="C2105" s="28"/>
+      <c r="C2105" s="32"/>
       <c r="D2105" s="24"/>
       <c r="E2105" s="24"/>
       <c r="F2105" s="24"/>
@@ -52951,7 +53305,7 @@
       <c r="I2105" s="24"/>
     </row>
     <row r="2106" spans="3:9">
-      <c r="C2106" s="28"/>
+      <c r="C2106" s="32"/>
       <c r="D2106" s="24"/>
       <c r="E2106" s="24"/>
       <c r="F2106" s="24"/>
@@ -52960,7 +53314,7 @@
       <c r="I2106" s="24"/>
     </row>
     <row r="2107" spans="3:9">
-      <c r="C2107" s="28"/>
+      <c r="C2107" s="32"/>
       <c r="D2107" s="24"/>
       <c r="E2107" s="24"/>
       <c r="F2107" s="24"/>
@@ -52969,7 +53323,7 @@
       <c r="I2107" s="24"/>
     </row>
     <row r="2108" spans="3:9">
-      <c r="C2108" s="28"/>
+      <c r="C2108" s="32"/>
       <c r="D2108" s="24"/>
       <c r="E2108" s="24"/>
       <c r="F2108" s="24"/>
@@ -52978,7 +53332,7 @@
       <c r="I2108" s="24"/>
     </row>
     <row r="2109" spans="3:9">
-      <c r="C2109" s="28"/>
+      <c r="C2109" s="32"/>
       <c r="D2109" s="24"/>
       <c r="E2109" s="24"/>
       <c r="F2109" s="24"/>
@@ -52987,7 +53341,7 @@
       <c r="I2109" s="24"/>
     </row>
     <row r="2110" spans="3:9">
-      <c r="C2110" s="28"/>
+      <c r="C2110" s="32"/>
       <c r="D2110" s="24"/>
       <c r="E2110" s="24"/>
       <c r="F2110" s="24"/>
@@ -52996,7 +53350,7 @@
       <c r="I2110" s="24"/>
     </row>
     <row r="2111" spans="3:9">
-      <c r="C2111" s="28"/>
+      <c r="C2111" s="32"/>
       <c r="D2111" s="24"/>
       <c r="E2111" s="24"/>
       <c r="F2111" s="24"/>
@@ -53005,7 +53359,7 @@
       <c r="I2111" s="24"/>
     </row>
     <row r="2112" spans="3:9">
-      <c r="C2112" s="28"/>
+      <c r="C2112" s="32"/>
       <c r="D2112" s="24"/>
       <c r="E2112" s="24"/>
       <c r="F2112" s="24"/>
@@ -53014,7 +53368,7 @@
       <c r="I2112" s="24"/>
     </row>
     <row r="2113" spans="3:9">
-      <c r="C2113" s="28"/>
+      <c r="C2113" s="32"/>
       <c r="D2113" s="24"/>
       <c r="E2113" s="24"/>
       <c r="F2113" s="24"/>
@@ -53023,7 +53377,7 @@
       <c r="I2113" s="24"/>
     </row>
     <row r="2114" spans="3:9">
-      <c r="C2114" s="28"/>
+      <c r="C2114" s="32"/>
       <c r="D2114" s="24"/>
       <c r="E2114" s="24"/>
       <c r="F2114" s="24"/>
@@ -53032,7 +53386,7 @@
       <c r="I2114" s="24"/>
     </row>
     <row r="2115" spans="3:9">
-      <c r="C2115" s="28"/>
+      <c r="C2115" s="32"/>
       <c r="D2115" s="24"/>
       <c r="E2115" s="24"/>
       <c r="F2115" s="24"/>
@@ -53041,7 +53395,7 @@
       <c r="I2115" s="24"/>
     </row>
     <row r="2116" spans="3:9">
-      <c r="C2116" s="28"/>
+      <c r="C2116" s="32"/>
       <c r="D2116" s="24"/>
       <c r="E2116" s="24"/>
       <c r="F2116" s="24"/>
@@ -53050,7 +53404,7 @@
       <c r="I2116" s="24"/>
     </row>
     <row r="2117" spans="3:9">
-      <c r="C2117" s="28"/>
+      <c r="C2117" s="32"/>
       <c r="D2117" s="24"/>
       <c r="E2117" s="24"/>
       <c r="F2117" s="24"/>
@@ -53059,7 +53413,7 @@
       <c r="I2117" s="24"/>
     </row>
     <row r="2118" spans="3:9">
-      <c r="C2118" s="28"/>
+      <c r="C2118" s="32"/>
       <c r="D2118" s="24"/>
       <c r="E2118" s="24"/>
       <c r="F2118" s="24"/>
@@ -53068,7 +53422,7 @@
       <c r="I2118" s="24"/>
     </row>
     <row r="2119" spans="3:9">
-      <c r="C2119" s="28"/>
+      <c r="C2119" s="32"/>
       <c r="D2119" s="24"/>
       <c r="E2119" s="24"/>
       <c r="F2119" s="24"/>
@@ -53077,7 +53431,7 @@
       <c r="I2119" s="24"/>
     </row>
     <row r="2120" spans="3:9">
-      <c r="C2120" s="28"/>
+      <c r="C2120" s="32"/>
       <c r="D2120" s="24"/>
       <c r="E2120" s="24"/>
       <c r="F2120" s="24"/>
@@ -53086,7 +53440,7 @@
       <c r="I2120" s="24"/>
     </row>
     <row r="2121" spans="3:9">
-      <c r="C2121" s="28"/>
+      <c r="C2121" s="32"/>
       <c r="D2121" s="24"/>
       <c r="E2121" s="24"/>
       <c r="F2121" s="24"/>
@@ -53095,7 +53449,7 @@
       <c r="I2121" s="24"/>
     </row>
     <row r="2122" spans="3:9">
-      <c r="C2122" s="28"/>
+      <c r="C2122" s="32"/>
       <c r="D2122" s="24"/>
       <c r="E2122" s="24"/>
       <c r="F2122" s="24"/>
@@ -53104,7 +53458,7 @@
       <c r="I2122" s="24"/>
     </row>
     <row r="2123" spans="3:9">
-      <c r="C2123" s="28"/>
+      <c r="C2123" s="32"/>
       <c r="D2123" s="24"/>
       <c r="E2123" s="24"/>
       <c r="F2123" s="24"/>
@@ -53113,7 +53467,7 @@
       <c r="I2123" s="24"/>
     </row>
     <row r="2124" spans="3:9">
-      <c r="C2124" s="28"/>
+      <c r="C2124" s="32"/>
       <c r="D2124" s="24"/>
       <c r="E2124" s="24"/>
       <c r="F2124" s="24"/>
@@ -53122,7 +53476,7 @@
       <c r="I2124" s="24"/>
     </row>
     <row r="2125" spans="3:9">
-      <c r="C2125" s="28"/>
+      <c r="C2125" s="32"/>
       <c r="D2125" s="24"/>
       <c r="E2125" s="24"/>
       <c r="F2125" s="24"/>
@@ -53131,7 +53485,7 @@
       <c r="I2125" s="24"/>
     </row>
     <row r="2126" spans="3:9">
-      <c r="C2126" s="28"/>
+      <c r="C2126" s="32"/>
       <c r="D2126" s="24"/>
       <c r="E2126" s="24"/>
       <c r="F2126" s="24"/>
@@ -53140,7 +53494,7 @@
       <c r="I2126" s="24"/>
     </row>
     <row r="2127" spans="3:9">
-      <c r="C2127" s="28"/>
+      <c r="C2127" s="32"/>
       <c r="D2127" s="24"/>
       <c r="E2127" s="24"/>
       <c r="F2127" s="24"/>
@@ -53149,7 +53503,7 @@
       <c r="I2127" s="24"/>
     </row>
     <row r="2128" spans="3:9">
-      <c r="C2128" s="28"/>
+      <c r="C2128" s="32"/>
       <c r="D2128" s="24"/>
       <c r="E2128" s="24"/>
       <c r="F2128" s="24"/>
@@ -53158,7 +53512,7 @@
       <c r="I2128" s="24"/>
     </row>
     <row r="2129" spans="3:9">
-      <c r="C2129" s="28"/>
+      <c r="C2129" s="32"/>
       <c r="D2129" s="24"/>
       <c r="E2129" s="24"/>
       <c r="F2129" s="24"/>
@@ -53167,7 +53521,7 @@
       <c r="I2129" s="24"/>
     </row>
     <row r="2130" spans="3:9">
-      <c r="C2130" s="28"/>
+      <c r="C2130" s="32"/>
       <c r="D2130" s="24"/>
       <c r="E2130" s="24"/>
       <c r="F2130" s="24"/>
@@ -53176,7 +53530,7 @@
       <c r="I2130" s="24"/>
     </row>
     <row r="2131" spans="3:9">
-      <c r="C2131" s="28"/>
+      <c r="C2131" s="32"/>
       <c r="D2131" s="24"/>
       <c r="E2131" s="24"/>
       <c r="F2131" s="24"/>
@@ -53185,7 +53539,7 @@
       <c r="I2131" s="24"/>
     </row>
     <row r="2132" spans="3:9">
-      <c r="C2132" s="28"/>
+      <c r="C2132" s="32"/>
       <c r="D2132" s="24"/>
       <c r="E2132" s="24"/>
       <c r="F2132" s="24"/>
@@ -53194,7 +53548,7 @@
       <c r="I2132" s="24"/>
     </row>
     <row r="2133" spans="3:9">
-      <c r="C2133" s="28"/>
+      <c r="C2133" s="32"/>
       <c r="D2133" s="24"/>
       <c r="E2133" s="24"/>
       <c r="F2133" s="24"/>
@@ -53203,7 +53557,7 @@
       <c r="I2133" s="24"/>
     </row>
     <row r="2134" spans="3:9">
-      <c r="C2134" s="28"/>
+      <c r="C2134" s="32"/>
       <c r="D2134" s="24"/>
       <c r="E2134" s="24"/>
       <c r="F2134" s="24"/>
@@ -53212,7 +53566,7 @@
       <c r="I2134" s="24"/>
     </row>
     <row r="2135" spans="3:9">
-      <c r="C2135" s="28"/>
+      <c r="C2135" s="32"/>
       <c r="D2135" s="24"/>
       <c r="E2135" s="24"/>
       <c r="F2135" s="24"/>
@@ -53221,7 +53575,7 @@
       <c r="I2135" s="24"/>
     </row>
     <row r="2136" spans="3:9">
-      <c r="C2136" s="28"/>
+      <c r="C2136" s="32"/>
       <c r="D2136" s="24"/>
       <c r="E2136" s="24"/>
       <c r="F2136" s="24"/>
@@ -53230,7 +53584,7 @@
       <c r="I2136" s="24"/>
     </row>
     <row r="2137" spans="3:9">
-      <c r="C2137" s="28"/>
+      <c r="C2137" s="32"/>
       <c r="D2137" s="24"/>
       <c r="E2137" s="24"/>
       <c r="F2137" s="24"/>
@@ -53239,7 +53593,7 @@
       <c r="I2137" s="24"/>
     </row>
     <row r="2138" spans="3:9">
-      <c r="C2138" s="28"/>
+      <c r="C2138" s="32"/>
       <c r="D2138" s="24"/>
       <c r="E2138" s="24"/>
       <c r="F2138" s="24"/>
@@ -53248,7 +53602,7 @@
       <c r="I2138" s="24"/>
     </row>
     <row r="2139" spans="3:9">
-      <c r="C2139" s="28"/>
+      <c r="C2139" s="32"/>
       <c r="D2139" s="24"/>
       <c r="E2139" s="24"/>
       <c r="F2139" s="24"/>
@@ -53257,7 +53611,7 @@
       <c r="I2139" s="24"/>
     </row>
     <row r="2140" spans="3:9">
-      <c r="C2140" s="28"/>
+      <c r="C2140" s="32"/>
       <c r="D2140" s="24"/>
       <c r="E2140" s="24"/>
       <c r="F2140" s="24"/>
@@ -53266,7 +53620,7 @@
       <c r="I2140" s="24"/>
     </row>
     <row r="2141" spans="3:9">
-      <c r="C2141" s="27"/>
+      <c r="C2141" s="30"/>
       <c r="D2141" s="16"/>
       <c r="E2141" s="16"/>
       <c r="F2141" s="16"/>
@@ -53275,7 +53629,7 @@
       <c r="I2141" s="16"/>
     </row>
     <row r="2142" spans="3:9">
-      <c r="C2142" s="27"/>
+      <c r="C2142" s="30"/>
       <c r="D2142" s="16"/>
       <c r="E2142" s="16"/>
       <c r="F2142" s="16"/>
@@ -53284,7 +53638,7 @@
       <c r="I2142" s="16"/>
     </row>
     <row r="2143" spans="3:9">
-      <c r="C2143" s="27"/>
+      <c r="C2143" s="30"/>
       <c r="D2143" s="16"/>
       <c r="E2143" s="16"/>
       <c r="F2143" s="16"/>
@@ -53293,7 +53647,7 @@
       <c r="I2143" s="16"/>
     </row>
     <row r="2144" spans="3:9">
-      <c r="C2144" s="27"/>
+      <c r="C2144" s="30"/>
       <c r="D2144" s="16"/>
       <c r="E2144" s="16"/>
       <c r="F2144" s="16"/>
@@ -53302,7 +53656,7 @@
       <c r="I2144" s="16"/>
     </row>
     <row r="2145" spans="3:9">
-      <c r="C2145" s="27"/>
+      <c r="C2145" s="30"/>
       <c r="D2145" s="16"/>
       <c r="E2145" s="16"/>
       <c r="F2145" s="16"/>
@@ -53311,7 +53665,7 @@
       <c r="I2145" s="16"/>
     </row>
     <row r="2146" spans="3:9">
-      <c r="C2146" s="27"/>
+      <c r="C2146" s="30"/>
       <c r="D2146" s="16"/>
       <c r="E2146" s="16"/>
       <c r="F2146" s="16"/>
@@ -53320,7 +53674,7 @@
       <c r="I2146" s="16"/>
     </row>
     <row r="2147" spans="3:9">
-      <c r="C2147" s="27"/>
+      <c r="C2147" s="30"/>
       <c r="D2147" s="16"/>
       <c r="E2147" s="16"/>
       <c r="F2147" s="16"/>
@@ -53329,7 +53683,7 @@
       <c r="I2147" s="16"/>
     </row>
     <row r="2148" spans="3:9">
-      <c r="C2148" s="27"/>
+      <c r="C2148" s="30"/>
       <c r="D2148" s="16"/>
       <c r="E2148" s="16"/>
       <c r="F2148" s="16"/>
@@ -53338,7 +53692,7 @@
       <c r="I2148" s="16"/>
     </row>
     <row r="2149" spans="3:9">
-      <c r="C2149" s="27"/>
+      <c r="C2149" s="30"/>
       <c r="D2149" s="16"/>
       <c r="E2149" s="16"/>
       <c r="F2149" s="16"/>
@@ -53347,7 +53701,7 @@
       <c r="I2149" s="16"/>
     </row>
     <row r="2150" spans="3:9">
-      <c r="C2150" s="27"/>
+      <c r="C2150" s="30"/>
       <c r="D2150" s="16"/>
       <c r="E2150" s="16"/>
       <c r="F2150" s="16"/>
@@ -53356,7 +53710,7 @@
       <c r="I2150" s="16"/>
     </row>
     <row r="2151" spans="3:9">
-      <c r="C2151" s="27"/>
+      <c r="C2151" s="30"/>
       <c r="D2151" s="16"/>
       <c r="E2151" s="16"/>
       <c r="F2151" s="16"/>
@@ -53365,7 +53719,7 @@
       <c r="I2151" s="16"/>
     </row>
     <row r="2152" spans="3:9">
-      <c r="C2152" s="27"/>
+      <c r="C2152" s="30"/>
       <c r="D2152" s="16"/>
       <c r="E2152" s="16"/>
       <c r="F2152" s="16"/>
@@ -53374,7 +53728,7 @@
       <c r="I2152" s="16"/>
     </row>
     <row r="2153" spans="3:9">
-      <c r="C2153" s="27"/>
+      <c r="C2153" s="30"/>
       <c r="D2153" s="16"/>
       <c r="E2153" s="16"/>
       <c r="F2153" s="16"/>
@@ -53383,7 +53737,7 @@
       <c r="I2153" s="16"/>
     </row>
     <row r="2154" spans="3:9">
-      <c r="C2154" s="27"/>
+      <c r="C2154" s="30"/>
       <c r="D2154" s="16"/>
       <c r="E2154" s="16"/>
       <c r="F2154" s="16"/>
@@ -53392,7 +53746,7 @@
       <c r="I2154" s="16"/>
     </row>
     <row r="2155" spans="3:9">
-      <c r="C2155" s="27"/>
+      <c r="C2155" s="30"/>
       <c r="D2155" s="16"/>
       <c r="E2155" s="16"/>
       <c r="F2155" s="16"/>
@@ -53401,7 +53755,7 @@
       <c r="I2155" s="16"/>
     </row>
     <row r="2156" spans="3:9">
-      <c r="C2156" s="27"/>
+      <c r="C2156" s="30"/>
       <c r="D2156" s="16"/>
       <c r="E2156" s="16"/>
       <c r="F2156" s="16"/>
@@ -53410,7 +53764,7 @@
       <c r="I2156" s="16"/>
     </row>
     <row r="2157" spans="3:9">
-      <c r="C2157" s="27"/>
+      <c r="C2157" s="30"/>
       <c r="D2157" s="16"/>
       <c r="E2157" s="16"/>
       <c r="F2157" s="16"/>
@@ -53419,7 +53773,7 @@
       <c r="I2157" s="16"/>
     </row>
     <row r="2158" spans="3:9">
-      <c r="C2158" s="27"/>
+      <c r="C2158" s="30"/>
       <c r="D2158" s="16"/>
       <c r="E2158" s="16"/>
       <c r="F2158" s="16"/>
@@ -53428,7 +53782,7 @@
       <c r="I2158" s="16"/>
     </row>
     <row r="2159" spans="3:9">
-      <c r="C2159" s="27"/>
+      <c r="C2159" s="30"/>
       <c r="D2159" s="16"/>
       <c r="E2159" s="16"/>
       <c r="F2159" s="16"/>
@@ -53437,7 +53791,7 @@
       <c r="I2159" s="16"/>
     </row>
     <row r="2160" spans="3:9">
-      <c r="C2160" s="27"/>
+      <c r="C2160" s="30"/>
       <c r="D2160" s="16"/>
       <c r="E2160" s="16"/>
       <c r="F2160" s="16"/>
@@ -53446,7 +53800,7 @@
       <c r="I2160" s="16"/>
     </row>
     <row r="2161" spans="3:9">
-      <c r="C2161" s="27"/>
+      <c r="C2161" s="30"/>
       <c r="D2161" s="16"/>
       <c r="E2161" s="16"/>
       <c r="F2161" s="16"/>
@@ -53455,7 +53809,7 @@
       <c r="I2161" s="16"/>
     </row>
     <row r="2162" spans="3:9">
-      <c r="C2162" s="27"/>
+      <c r="C2162" s="30"/>
       <c r="D2162" s="16"/>
       <c r="E2162" s="16"/>
       <c r="F2162" s="16"/>
@@ -53464,7 +53818,7 @@
       <c r="I2162" s="16"/>
     </row>
     <row r="2163" spans="3:9">
-      <c r="C2163" s="27"/>
+      <c r="C2163" s="30"/>
       <c r="D2163" s="16"/>
       <c r="E2163" s="16"/>
       <c r="F2163" s="16"/>
@@ -53473,7 +53827,7 @@
       <c r="I2163" s="16"/>
     </row>
     <row r="2164" spans="3:9">
-      <c r="C2164" s="27"/>
+      <c r="C2164" s="30"/>
       <c r="D2164" s="16"/>
       <c r="E2164" s="16"/>
       <c r="F2164" s="16"/>
@@ -53482,7 +53836,7 @@
       <c r="I2164" s="16"/>
     </row>
     <row r="2165" spans="3:9">
-      <c r="C2165" s="27"/>
+      <c r="C2165" s="30"/>
       <c r="D2165" s="16"/>
       <c r="E2165" s="16"/>
       <c r="F2165" s="16"/>
@@ -53491,7 +53845,7 @@
       <c r="I2165" s="16"/>
     </row>
     <row r="2166" spans="3:9">
-      <c r="C2166" s="27"/>
+      <c r="C2166" s="30"/>
       <c r="D2166" s="16"/>
       <c r="E2166" s="16"/>
       <c r="F2166" s="16"/>
@@ -53500,7 +53854,7 @@
       <c r="I2166" s="16"/>
     </row>
     <row r="2167" spans="3:9">
-      <c r="C2167" s="27"/>
+      <c r="C2167" s="30"/>
       <c r="D2167" s="16"/>
       <c r="E2167" s="16"/>
       <c r="F2167" s="16"/>
@@ -53509,7 +53863,7 @@
       <c r="I2167" s="16"/>
     </row>
     <row r="2168" spans="3:9">
-      <c r="C2168" s="27"/>
+      <c r="C2168" s="30"/>
       <c r="D2168" s="16"/>
       <c r="E2168" s="16"/>
       <c r="F2168" s="16"/>
@@ -53518,7 +53872,7 @@
       <c r="I2168" s="16"/>
     </row>
     <row r="2169" spans="3:9">
-      <c r="C2169" s="27"/>
+      <c r="C2169" s="30"/>
       <c r="D2169" s="16"/>
       <c r="E2169" s="16"/>
       <c r="F2169" s="16"/>
@@ -53527,7 +53881,7 @@
       <c r="I2169" s="16"/>
     </row>
     <row r="2170" spans="3:9">
-      <c r="C2170" s="27"/>
+      <c r="C2170" s="30"/>
       <c r="D2170" s="16"/>
       <c r="E2170" s="16"/>
       <c r="F2170" s="16"/>
@@ -53536,7 +53890,7 @@
       <c r="I2170" s="16"/>
     </row>
     <row r="2171" spans="3:9">
-      <c r="C2171" s="27"/>
+      <c r="C2171" s="30"/>
       <c r="D2171" s="16"/>
       <c r="E2171" s="16"/>
       <c r="F2171" s="16"/>
@@ -53545,7 +53899,7 @@
       <c r="I2171" s="16"/>
     </row>
     <row r="2172" spans="3:9">
-      <c r="C2172" s="27"/>
+      <c r="C2172" s="30"/>
       <c r="D2172" s="16"/>
       <c r="E2172" s="16"/>
       <c r="F2172" s="16"/>
@@ -53554,7 +53908,7 @@
       <c r="I2172" s="16"/>
     </row>
     <row r="2173" spans="3:9">
-      <c r="C2173" s="27"/>
+      <c r="C2173" s="30"/>
       <c r="D2173" s="16"/>
       <c r="E2173" s="16"/>
       <c r="F2173" s="16"/>
@@ -53563,7 +53917,7 @@
       <c r="I2173" s="16"/>
     </row>
     <row r="2174" spans="3:9">
-      <c r="C2174" s="27"/>
+      <c r="C2174" s="30"/>
       <c r="D2174" s="16"/>
       <c r="E2174" s="16"/>
       <c r="F2174" s="16"/>
@@ -53572,7 +53926,7 @@
       <c r="I2174" s="16"/>
     </row>
     <row r="2175" spans="3:9">
-      <c r="C2175" s="27"/>
+      <c r="C2175" s="30"/>
       <c r="D2175" s="16"/>
       <c r="E2175" s="16"/>
       <c r="F2175" s="16"/>
@@ -53581,7 +53935,7 @@
       <c r="I2175" s="16"/>
     </row>
     <row r="2176" spans="3:9">
-      <c r="C2176" s="27"/>
+      <c r="C2176" s="30"/>
       <c r="D2176" s="16"/>
       <c r="E2176" s="16"/>
       <c r="F2176" s="16"/>
@@ -53590,7 +53944,7 @@
       <c r="I2176" s="16"/>
     </row>
     <row r="2177" spans="3:9">
-      <c r="C2177" s="27"/>
+      <c r="C2177" s="30"/>
       <c r="D2177" s="16"/>
       <c r="E2177" s="16"/>
       <c r="F2177" s="16"/>
@@ -53599,7 +53953,7 @@
       <c r="I2177" s="16"/>
     </row>
     <row r="2178" spans="3:9">
-      <c r="C2178" s="27"/>
+      <c r="C2178" s="30"/>
       <c r="D2178" s="16"/>
       <c r="E2178" s="16"/>
       <c r="F2178" s="16"/>
@@ -53608,7 +53962,7 @@
       <c r="I2178" s="16"/>
     </row>
     <row r="2179" spans="3:9">
-      <c r="C2179" s="27"/>
+      <c r="C2179" s="30"/>
       <c r="D2179" s="16"/>
       <c r="E2179" s="16"/>
       <c r="F2179" s="16"/>
@@ -53617,7 +53971,7 @@
       <c r="I2179" s="16"/>
     </row>
     <row r="2180" spans="3:9">
-      <c r="C2180" s="27"/>
+      <c r="C2180" s="30"/>
       <c r="D2180" s="16"/>
       <c r="E2180" s="16"/>
       <c r="F2180" s="16"/>
@@ -53626,7 +53980,7 @@
       <c r="I2180" s="16"/>
     </row>
     <row r="2181" spans="3:9">
-      <c r="C2181" s="27"/>
+      <c r="C2181" s="30"/>
       <c r="D2181" s="16"/>
       <c r="E2181" s="16"/>
       <c r="F2181" s="16"/>
@@ -53635,7 +53989,7 @@
       <c r="I2181" s="16"/>
     </row>
     <row r="2182" spans="3:9">
-      <c r="C2182" s="27"/>
+      <c r="C2182" s="30"/>
       <c r="D2182" s="16"/>
       <c r="E2182" s="16"/>
       <c r="F2182" s="16"/>
@@ -53644,7 +53998,7 @@
       <c r="I2182" s="16"/>
     </row>
     <row r="2183" spans="3:9">
-      <c r="C2183" s="27"/>
+      <c r="C2183" s="30"/>
       <c r="D2183" s="16"/>
       <c r="E2183" s="16"/>
       <c r="F2183" s="16"/>
@@ -53653,7 +54007,7 @@
       <c r="I2183" s="16"/>
     </row>
     <row r="2184" spans="3:9">
-      <c r="C2184" s="27"/>
+      <c r="C2184" s="30"/>
       <c r="D2184" s="16"/>
       <c r="E2184" s="16"/>
       <c r="F2184" s="16"/>
@@ -53662,7 +54016,7 @@
       <c r="I2184" s="16"/>
     </row>
     <row r="2185" spans="3:9">
-      <c r="C2185" s="27"/>
+      <c r="C2185" s="30"/>
       <c r="D2185" s="16"/>
       <c r="E2185" s="16"/>
       <c r="F2185" s="16"/>
@@ -53671,7 +54025,7 @@
       <c r="I2185" s="16"/>
     </row>
     <row r="2186" spans="3:9">
-      <c r="C2186" s="27"/>
+      <c r="C2186" s="30"/>
       <c r="D2186" s="16"/>
       <c r="E2186" s="16"/>
       <c r="F2186" s="16"/>
@@ -53680,7 +54034,7 @@
       <c r="I2186" s="16"/>
     </row>
     <row r="2187" spans="3:9">
-      <c r="C2187" s="27"/>
+      <c r="C2187" s="30"/>
       <c r="D2187" s="16"/>
       <c r="E2187" s="16"/>
       <c r="F2187" s="16"/>
@@ -53689,7 +54043,7 @@
       <c r="I2187" s="16"/>
     </row>
     <row r="2188" spans="3:9">
-      <c r="C2188" s="27"/>
+      <c r="C2188" s="30"/>
       <c r="D2188" s="16"/>
       <c r="E2188" s="16"/>
       <c r="F2188" s="16"/>
@@ -53698,7 +54052,7 @@
       <c r="I2188" s="16"/>
     </row>
     <row r="2189" spans="3:9">
-      <c r="C2189" s="27"/>
+      <c r="C2189" s="30"/>
       <c r="D2189" s="16"/>
       <c r="E2189" s="16"/>
       <c r="F2189" s="16"/>
@@ -53707,7 +54061,7 @@
       <c r="I2189" s="16"/>
     </row>
     <row r="2190" spans="3:9">
-      <c r="C2190" s="27"/>
+      <c r="C2190" s="30"/>
       <c r="D2190" s="16"/>
       <c r="E2190" s="16"/>
       <c r="F2190" s="16"/>
@@ -53716,7 +54070,7 @@
       <c r="I2190" s="16"/>
     </row>
     <row r="2191" spans="3:9">
-      <c r="C2191" s="27"/>
+      <c r="C2191" s="30"/>
       <c r="D2191" s="16"/>
       <c r="E2191" s="16"/>
       <c r="F2191" s="16"/>
@@ -53725,7 +54079,7 @@
       <c r="I2191" s="16"/>
     </row>
     <row r="2192" spans="3:9">
-      <c r="C2192" s="27"/>
+      <c r="C2192" s="30"/>
       <c r="D2192" s="16"/>
       <c r="E2192" s="16"/>
       <c r="F2192" s="16"/>
@@ -53734,7 +54088,7 @@
       <c r="I2192" s="16"/>
     </row>
     <row r="2193" spans="3:9">
-      <c r="C2193" s="27"/>
+      <c r="C2193" s="30"/>
       <c r="D2193" s="16"/>
       <c r="E2193" s="16"/>
       <c r="F2193" s="16"/>
@@ -53743,7 +54097,7 @@
       <c r="I2193" s="16"/>
     </row>
     <row r="2194" spans="3:9">
-      <c r="C2194" s="27"/>
+      <c r="C2194" s="30"/>
       <c r="D2194" s="16"/>
       <c r="E2194" s="16"/>
       <c r="F2194" s="16"/>
@@ -53752,7 +54106,7 @@
       <c r="I2194" s="16"/>
     </row>
     <row r="2195" spans="3:9">
-      <c r="C2195" s="27"/>
+      <c r="C2195" s="30"/>
       <c r="D2195" s="16"/>
       <c r="E2195" s="16"/>
       <c r="F2195" s="16"/>
@@ -53761,7 +54115,7 @@
       <c r="I2195" s="16"/>
     </row>
     <row r="2196" spans="3:9">
-      <c r="C2196" s="27"/>
+      <c r="C2196" s="30"/>
       <c r="D2196" s="16"/>
       <c r="E2196" s="16"/>
       <c r="F2196" s="16"/>
@@ -53770,7 +54124,7 @@
       <c r="I2196" s="16"/>
     </row>
     <row r="2197" spans="3:9">
-      <c r="C2197" s="27"/>
+      <c r="C2197" s="30"/>
       <c r="D2197" s="16"/>
       <c r="E2197" s="16"/>
       <c r="F2197" s="16"/>
@@ -53779,7 +54133,7 @@
       <c r="I2197" s="16"/>
     </row>
     <row r="2198" spans="3:9">
-      <c r="C2198" s="27"/>
+      <c r="C2198" s="30"/>
       <c r="D2198" s="16"/>
       <c r="E2198" s="16"/>
       <c r="F2198" s="16"/>
@@ -53788,7 +54142,7 @@
       <c r="I2198" s="16"/>
     </row>
     <row r="2199" spans="3:9">
-      <c r="C2199" s="27"/>
+      <c r="C2199" s="30"/>
       <c r="D2199" s="16"/>
       <c r="E2199" s="16"/>
       <c r="F2199" s="16"/>
@@ -53797,7 +54151,7 @@
       <c r="I2199" s="16"/>
     </row>
     <row r="2200" spans="3:9">
-      <c r="C2200" s="27"/>
+      <c r="C2200" s="30"/>
       <c r="D2200" s="16"/>
       <c r="E2200" s="16"/>
       <c r="F2200" s="16"/>
@@ -53806,7 +54160,7 @@
       <c r="I2200" s="16"/>
     </row>
     <row r="2201" spans="3:9">
-      <c r="C2201" s="27"/>
+      <c r="C2201" s="30"/>
       <c r="D2201" s="16"/>
       <c r="E2201" s="16"/>
       <c r="F2201" s="16"/>
@@ -53815,7 +54169,7 @@
       <c r="I2201" s="16"/>
     </row>
     <row r="2202" spans="3:9">
-      <c r="C2202" s="27"/>
+      <c r="C2202" s="30"/>
       <c r="D2202" s="16"/>
       <c r="E2202" s="16"/>
       <c r="F2202" s="16"/>
@@ -53824,7 +54178,7 @@
       <c r="I2202" s="16"/>
     </row>
     <row r="2203" spans="3:9">
-      <c r="C2203" s="27"/>
+      <c r="C2203" s="30"/>
       <c r="D2203" s="16"/>
       <c r="E2203" s="16"/>
       <c r="F2203" s="16"/>
@@ -53833,7 +54187,7 @@
       <c r="I2203" s="16"/>
     </row>
     <row r="2204" spans="3:9">
-      <c r="C2204" s="27"/>
+      <c r="C2204" s="30"/>
       <c r="D2204" s="16"/>
       <c r="E2204" s="16"/>
       <c r="F2204" s="16"/>
@@ -53842,7 +54196,7 @@
       <c r="I2204" s="16"/>
     </row>
     <row r="2205" spans="3:9">
-      <c r="C2205" s="27"/>
+      <c r="C2205" s="30"/>
       <c r="D2205" s="16"/>
       <c r="E2205" s="16"/>
       <c r="F2205" s="16"/>
@@ -53851,7 +54205,7 @@
       <c r="I2205" s="16"/>
     </row>
     <row r="2206" spans="3:9">
-      <c r="C2206" s="27"/>
+      <c r="C2206" s="30"/>
       <c r="D2206" s="16"/>
       <c r="E2206" s="16"/>
       <c r="F2206" s="16"/>
@@ -53860,7 +54214,7 @@
       <c r="I2206" s="16"/>
     </row>
     <row r="2207" spans="3:9">
-      <c r="C2207" s="27"/>
+      <c r="C2207" s="30"/>
       <c r="D2207" s="16"/>
       <c r="E2207" s="16"/>
       <c r="F2207" s="16"/>
@@ -53869,7 +54223,7 @@
       <c r="I2207" s="16"/>
     </row>
     <row r="2208" spans="3:9">
-      <c r="C2208" s="27"/>
+      <c r="C2208" s="30"/>
       <c r="D2208" s="16"/>
       <c r="E2208" s="16"/>
       <c r="F2208" s="16"/>
@@ -53878,7 +54232,7 @@
       <c r="I2208" s="16"/>
     </row>
     <row r="2209" spans="3:9">
-      <c r="C2209" s="27"/>
+      <c r="C2209" s="30"/>
       <c r="D2209" s="16"/>
       <c r="E2209" s="16"/>
       <c r="F2209" s="16"/>
@@ -53887,7 +54241,7 @@
       <c r="I2209" s="16"/>
     </row>
     <row r="2210" spans="3:9">
-      <c r="C2210" s="27"/>
+      <c r="C2210" s="30"/>
       <c r="D2210" s="16"/>
       <c r="E2210" s="16"/>
       <c r="F2210" s="16"/>
@@ -53896,7 +54250,7 @@
       <c r="I2210" s="16"/>
     </row>
     <row r="2211" spans="3:9">
-      <c r="C2211" s="27"/>
+      <c r="C2211" s="30"/>
       <c r="D2211" s="16"/>
       <c r="E2211" s="16"/>
       <c r="F2211" s="16"/>
@@ -53905,7 +54259,7 @@
       <c r="I2211" s="16"/>
     </row>
     <row r="2212" spans="3:9">
-      <c r="C2212" s="27"/>
+      <c r="C2212" s="30"/>
       <c r="D2212" s="16"/>
       <c r="E2212" s="16"/>
       <c r="F2212" s="16"/>
@@ -53914,7 +54268,7 @@
       <c r="I2212" s="16"/>
     </row>
     <row r="2213" spans="3:9">
-      <c r="C2213" s="27"/>
+      <c r="C2213" s="30"/>
       <c r="D2213" s="16"/>
       <c r="E2213" s="16"/>
       <c r="F2213" s="16"/>
@@ -53923,7 +54277,7 @@
       <c r="I2213" s="16"/>
     </row>
     <row r="2214" spans="3:9">
-      <c r="C2214" s="27"/>
+      <c r="C2214" s="30"/>
       <c r="D2214" s="16"/>
       <c r="E2214" s="16"/>
       <c r="F2214" s="16"/>
@@ -53932,7 +54286,7 @@
       <c r="I2214" s="16"/>
     </row>
     <row r="2215" spans="3:9">
-      <c r="C2215" s="27"/>
+      <c r="C2215" s="30"/>
       <c r="D2215" s="16"/>
       <c r="E2215" s="16"/>
       <c r="F2215" s="16"/>
@@ -53941,7 +54295,7 @@
       <c r="I2215" s="16"/>
     </row>
     <row r="2216" spans="3:9">
-      <c r="C2216" s="27"/>
+      <c r="C2216" s="30"/>
       <c r="D2216" s="16"/>
       <c r="E2216" s="16"/>
       <c r="F2216" s="16"/>
@@ -53950,7 +54304,7 @@
       <c r="I2216" s="16"/>
     </row>
     <row r="2217" spans="3:9">
-      <c r="C2217" s="27"/>
+      <c r="C2217" s="30"/>
       <c r="D2217" s="16"/>
       <c r="E2217" s="16"/>
       <c r="F2217" s="16"/>
@@ -53959,7 +54313,7 @@
       <c r="I2217" s="16"/>
     </row>
     <row r="2218" spans="3:9">
-      <c r="C2218" s="27"/>
+      <c r="C2218" s="30"/>
       <c r="D2218" s="16"/>
       <c r="E2218" s="16"/>
       <c r="F2218" s="16"/>
@@ -53968,7 +54322,7 @@
       <c r="I2218" s="16"/>
     </row>
     <row r="2219" spans="3:9">
-      <c r="C2219" s="27"/>
+      <c r="C2219" s="30"/>
       <c r="D2219" s="16"/>
       <c r="E2219" s="16"/>
       <c r="F2219" s="16"/>
@@ -53977,7 +54331,7 @@
       <c r="I2219" s="16"/>
     </row>
     <row r="2220" spans="3:9">
-      <c r="C2220" s="27"/>
+      <c r="C2220" s="30"/>
       <c r="D2220" s="16"/>
       <c r="E2220" s="16"/>
       <c r="F2220" s="16"/>
@@ -53986,7 +54340,7 @@
       <c r="I2220" s="16"/>
     </row>
     <row r="2221" spans="3:9">
-      <c r="C2221" s="27"/>
+      <c r="C2221" s="30"/>
       <c r="D2221" s="16"/>
       <c r="E2221" s="16"/>
       <c r="F2221" s="16"/>
@@ -53995,7 +54349,7 @@
       <c r="I2221" s="16"/>
     </row>
     <row r="2222" spans="3:9">
-      <c r="C2222" s="27"/>
+      <c r="C2222" s="30"/>
       <c r="D2222" s="16"/>
       <c r="E2222" s="16"/>
       <c r="F2222" s="16"/>
@@ -54004,7 +54358,7 @@
       <c r="I2222" s="16"/>
     </row>
     <row r="2223" spans="3:9">
-      <c r="C2223" s="27"/>
+      <c r="C2223" s="30"/>
       <c r="D2223" s="16"/>
       <c r="E2223" s="16"/>
       <c r="F2223" s="16"/>
@@ -54013,7 +54367,7 @@
       <c r="I2223" s="16"/>
     </row>
     <row r="2224" spans="3:9">
-      <c r="C2224" s="27"/>
+      <c r="C2224" s="30"/>
       <c r="D2224" s="16"/>
       <c r="E2224" s="16"/>
       <c r="F2224" s="16"/>
@@ -54022,385 +54376,385 @@
       <c r="I2224" s="16"/>
     </row>
     <row r="2225" spans="3:9">
-      <c r="C2225" s="27"/>
-      <c r="D2225" s="29"/>
-      <c r="E2225" s="29"/>
-      <c r="F2225" s="29"/>
-      <c r="G2225" s="29"/>
-      <c r="H2225" s="29"/>
-      <c r="I2225" s="29"/>
+      <c r="C2225" s="30"/>
+      <c r="D2225" s="33"/>
+      <c r="E2225" s="33"/>
+      <c r="F2225" s="33"/>
+      <c r="G2225" s="33"/>
+      <c r="H2225" s="33"/>
+      <c r="I2225" s="33"/>
     </row>
     <row r="2226" spans="3:9">
-      <c r="C2226" s="27"/>
-      <c r="D2226" s="29"/>
-      <c r="E2226" s="29"/>
-      <c r="F2226" s="29"/>
-      <c r="G2226" s="29"/>
-      <c r="H2226" s="29"/>
-      <c r="I2226" s="29"/>
+      <c r="C2226" s="30"/>
+      <c r="D2226" s="33"/>
+      <c r="E2226" s="33"/>
+      <c r="F2226" s="33"/>
+      <c r="G2226" s="33"/>
+      <c r="H2226" s="33"/>
+      <c r="I2226" s="33"/>
     </row>
     <row r="2227" spans="3:9">
-      <c r="C2227" s="27"/>
-      <c r="D2227" s="29"/>
-      <c r="E2227" s="29"/>
-      <c r="F2227" s="29"/>
-      <c r="G2227" s="29"/>
-      <c r="H2227" s="29"/>
-      <c r="I2227" s="29"/>
+      <c r="C2227" s="30"/>
+      <c r="D2227" s="33"/>
+      <c r="E2227" s="33"/>
+      <c r="F2227" s="33"/>
+      <c r="G2227" s="33"/>
+      <c r="H2227" s="33"/>
+      <c r="I2227" s="33"/>
     </row>
     <row r="2228" spans="3:9">
-      <c r="C2228" s="27"/>
-      <c r="D2228" s="29"/>
-      <c r="E2228" s="29"/>
-      <c r="F2228" s="29"/>
-      <c r="G2228" s="29"/>
-      <c r="H2228" s="29"/>
-      <c r="I2228" s="29"/>
+      <c r="C2228" s="30"/>
+      <c r="D2228" s="33"/>
+      <c r="E2228" s="33"/>
+      <c r="F2228" s="33"/>
+      <c r="G2228" s="33"/>
+      <c r="H2228" s="33"/>
+      <c r="I2228" s="33"/>
     </row>
     <row r="2229" spans="3:9">
-      <c r="C2229" s="27"/>
-      <c r="D2229" s="29"/>
-      <c r="E2229" s="29"/>
-      <c r="F2229" s="29"/>
-      <c r="G2229" s="29"/>
-      <c r="H2229" s="29"/>
-      <c r="I2229" s="29"/>
+      <c r="C2229" s="30"/>
+      <c r="D2229" s="33"/>
+      <c r="E2229" s="33"/>
+      <c r="F2229" s="33"/>
+      <c r="G2229" s="33"/>
+      <c r="H2229" s="33"/>
+      <c r="I2229" s="33"/>
     </row>
     <row r="2230" spans="3:9">
-      <c r="C2230" s="27"/>
-      <c r="D2230" s="29"/>
-      <c r="E2230" s="29"/>
-      <c r="F2230" s="29"/>
-      <c r="G2230" s="29"/>
-      <c r="H2230" s="29"/>
-      <c r="I2230" s="29"/>
+      <c r="C2230" s="30"/>
+      <c r="D2230" s="33"/>
+      <c r="E2230" s="33"/>
+      <c r="F2230" s="33"/>
+      <c r="G2230" s="33"/>
+      <c r="H2230" s="33"/>
+      <c r="I2230" s="33"/>
     </row>
     <row r="2231" spans="3:9">
-      <c r="C2231" s="27"/>
-      <c r="D2231" s="29"/>
-      <c r="E2231" s="29"/>
-      <c r="F2231" s="29"/>
-      <c r="G2231" s="29"/>
-      <c r="H2231" s="29"/>
-      <c r="I2231" s="29"/>
+      <c r="C2231" s="30"/>
+      <c r="D2231" s="33"/>
+      <c r="E2231" s="33"/>
+      <c r="F2231" s="33"/>
+      <c r="G2231" s="33"/>
+      <c r="H2231" s="33"/>
+      <c r="I2231" s="33"/>
     </row>
     <row r="2232" spans="3:9">
-      <c r="C2232" s="27"/>
-      <c r="D2232" s="29"/>
-      <c r="E2232" s="29"/>
-      <c r="F2232" s="29"/>
-      <c r="G2232" s="29"/>
-      <c r="H2232" s="29"/>
-      <c r="I2232" s="29"/>
+      <c r="C2232" s="30"/>
+      <c r="D2232" s="33"/>
+      <c r="E2232" s="33"/>
+      <c r="F2232" s="33"/>
+      <c r="G2232" s="33"/>
+      <c r="H2232" s="33"/>
+      <c r="I2232" s="33"/>
     </row>
     <row r="2233" spans="3:9">
-      <c r="C2233" s="27"/>
-      <c r="D2233" s="29"/>
-      <c r="E2233" s="29"/>
-      <c r="F2233" s="29"/>
-      <c r="G2233" s="29"/>
-      <c r="H2233" s="29"/>
-      <c r="I2233" s="29"/>
+      <c r="C2233" s="30"/>
+      <c r="D2233" s="33"/>
+      <c r="E2233" s="33"/>
+      <c r="F2233" s="33"/>
+      <c r="G2233" s="33"/>
+      <c r="H2233" s="33"/>
+      <c r="I2233" s="33"/>
     </row>
     <row r="2234" spans="3:9">
-      <c r="C2234" s="27"/>
-      <c r="D2234" s="29"/>
-      <c r="E2234" s="29"/>
-      <c r="F2234" s="29"/>
-      <c r="G2234" s="29"/>
-      <c r="H2234" s="29"/>
-      <c r="I2234" s="29"/>
+      <c r="C2234" s="30"/>
+      <c r="D2234" s="33"/>
+      <c r="E2234" s="33"/>
+      <c r="F2234" s="33"/>
+      <c r="G2234" s="33"/>
+      <c r="H2234" s="33"/>
+      <c r="I2234" s="33"/>
     </row>
     <row r="2235" spans="3:9">
-      <c r="C2235" s="27"/>
-      <c r="D2235" s="29"/>
-      <c r="E2235" s="29"/>
-      <c r="F2235" s="29"/>
-      <c r="G2235" s="29"/>
-      <c r="H2235" s="29"/>
-      <c r="I2235" s="29"/>
+      <c r="C2235" s="30"/>
+      <c r="D2235" s="33"/>
+      <c r="E2235" s="33"/>
+      <c r="F2235" s="33"/>
+      <c r="G2235" s="33"/>
+      <c r="H2235" s="33"/>
+      <c r="I2235" s="33"/>
     </row>
     <row r="2236" spans="3:9">
-      <c r="C2236" s="27"/>
-      <c r="D2236" s="29"/>
-      <c r="E2236" s="29"/>
-      <c r="F2236" s="29"/>
-      <c r="G2236" s="29"/>
-      <c r="H2236" s="29"/>
-      <c r="I2236" s="29"/>
+      <c r="C2236" s="30"/>
+      <c r="D2236" s="33"/>
+      <c r="E2236" s="33"/>
+      <c r="F2236" s="33"/>
+      <c r="G2236" s="33"/>
+      <c r="H2236" s="33"/>
+      <c r="I2236" s="33"/>
     </row>
     <row r="2237" spans="3:9">
-      <c r="C2237" s="27"/>
-      <c r="D2237" s="29"/>
-      <c r="E2237" s="29"/>
-      <c r="F2237" s="29"/>
-      <c r="G2237" s="29"/>
-      <c r="H2237" s="29"/>
-      <c r="I2237" s="29"/>
+      <c r="C2237" s="30"/>
+      <c r="D2237" s="33"/>
+      <c r="E2237" s="33"/>
+      <c r="F2237" s="33"/>
+      <c r="G2237" s="33"/>
+      <c r="H2237" s="33"/>
+      <c r="I2237" s="33"/>
     </row>
     <row r="2238" spans="3:9">
-      <c r="C2238" s="27"/>
-      <c r="D2238" s="29"/>
-      <c r="E2238" s="29"/>
-      <c r="F2238" s="29"/>
-      <c r="G2238" s="29"/>
-      <c r="H2238" s="29"/>
-      <c r="I2238" s="29"/>
+      <c r="C2238" s="30"/>
+      <c r="D2238" s="33"/>
+      <c r="E2238" s="33"/>
+      <c r="F2238" s="33"/>
+      <c r="G2238" s="33"/>
+      <c r="H2238" s="33"/>
+      <c r="I2238" s="33"/>
     </row>
     <row r="2239" spans="3:9">
-      <c r="C2239" s="27"/>
-      <c r="D2239" s="29"/>
-      <c r="E2239" s="29"/>
-      <c r="F2239" s="29"/>
-      <c r="G2239" s="29"/>
-      <c r="H2239" s="29"/>
-      <c r="I2239" s="29"/>
+      <c r="C2239" s="30"/>
+      <c r="D2239" s="33"/>
+      <c r="E2239" s="33"/>
+      <c r="F2239" s="33"/>
+      <c r="G2239" s="33"/>
+      <c r="H2239" s="33"/>
+      <c r="I2239" s="33"/>
     </row>
     <row r="2240" spans="3:9">
-      <c r="C2240" s="27"/>
-      <c r="D2240" s="29"/>
-      <c r="E2240" s="29"/>
-      <c r="F2240" s="29"/>
-      <c r="G2240" s="29"/>
-      <c r="H2240" s="29"/>
-      <c r="I2240" s="29"/>
+      <c r="C2240" s="30"/>
+      <c r="D2240" s="33"/>
+      <c r="E2240" s="33"/>
+      <c r="F2240" s="33"/>
+      <c r="G2240" s="33"/>
+      <c r="H2240" s="33"/>
+      <c r="I2240" s="33"/>
     </row>
     <row r="2241" spans="3:9">
-      <c r="C2241" s="27"/>
-      <c r="D2241" s="29"/>
-      <c r="E2241" s="29"/>
-      <c r="F2241" s="29"/>
-      <c r="G2241" s="29"/>
-      <c r="H2241" s="29"/>
-      <c r="I2241" s="29"/>
+      <c r="C2241" s="30"/>
+      <c r="D2241" s="33"/>
+      <c r="E2241" s="33"/>
+      <c r="F2241" s="33"/>
+      <c r="G2241" s="33"/>
+      <c r="H2241" s="33"/>
+      <c r="I2241" s="33"/>
     </row>
     <row r="2242" spans="3:9">
-      <c r="C2242" s="27"/>
-      <c r="D2242" s="29"/>
-      <c r="E2242" s="29"/>
-      <c r="F2242" s="29"/>
-      <c r="G2242" s="29"/>
-      <c r="H2242" s="29"/>
-      <c r="I2242" s="29"/>
+      <c r="C2242" s="30"/>
+      <c r="D2242" s="33"/>
+      <c r="E2242" s="33"/>
+      <c r="F2242" s="33"/>
+      <c r="G2242" s="33"/>
+      <c r="H2242" s="33"/>
+      <c r="I2242" s="33"/>
     </row>
     <row r="2243" spans="3:9">
-      <c r="C2243" s="27"/>
-      <c r="D2243" s="29"/>
-      <c r="E2243" s="29"/>
-      <c r="F2243" s="29"/>
-      <c r="G2243" s="29"/>
-      <c r="H2243" s="29"/>
-      <c r="I2243" s="29"/>
+      <c r="C2243" s="30"/>
+      <c r="D2243" s="33"/>
+      <c r="E2243" s="33"/>
+      <c r="F2243" s="33"/>
+      <c r="G2243" s="33"/>
+      <c r="H2243" s="33"/>
+      <c r="I2243" s="33"/>
     </row>
     <row r="2244" spans="3:9">
-      <c r="C2244" s="27"/>
-      <c r="D2244" s="29"/>
-      <c r="E2244" s="29"/>
-      <c r="F2244" s="29"/>
-      <c r="G2244" s="29"/>
-      <c r="H2244" s="29"/>
-      <c r="I2244" s="29"/>
+      <c r="C2244" s="30"/>
+      <c r="D2244" s="33"/>
+      <c r="E2244" s="33"/>
+      <c r="F2244" s="33"/>
+      <c r="G2244" s="33"/>
+      <c r="H2244" s="33"/>
+      <c r="I2244" s="33"/>
     </row>
     <row r="2245" spans="3:9">
-      <c r="C2245" s="27"/>
-      <c r="D2245" s="29"/>
-      <c r="E2245" s="29"/>
-      <c r="F2245" s="29"/>
-      <c r="G2245" s="29"/>
-      <c r="H2245" s="29"/>
-      <c r="I2245" s="29"/>
+      <c r="C2245" s="30"/>
+      <c r="D2245" s="33"/>
+      <c r="E2245" s="33"/>
+      <c r="F2245" s="33"/>
+      <c r="G2245" s="33"/>
+      <c r="H2245" s="33"/>
+      <c r="I2245" s="33"/>
     </row>
     <row r="2246" spans="3:9">
-      <c r="C2246" s="27"/>
-      <c r="D2246" s="29"/>
-      <c r="E2246" s="29"/>
-      <c r="F2246" s="29"/>
-      <c r="G2246" s="29"/>
-      <c r="H2246" s="29"/>
-      <c r="I2246" s="29"/>
+      <c r="C2246" s="30"/>
+      <c r="D2246" s="33"/>
+      <c r="E2246" s="33"/>
+      <c r="F2246" s="33"/>
+      <c r="G2246" s="33"/>
+      <c r="H2246" s="33"/>
+      <c r="I2246" s="33"/>
     </row>
     <row r="2247" spans="3:9">
-      <c r="C2247" s="27"/>
-      <c r="D2247" s="29"/>
-      <c r="E2247" s="29"/>
-      <c r="F2247" s="29"/>
-      <c r="G2247" s="29"/>
-      <c r="H2247" s="29"/>
-      <c r="I2247" s="29"/>
+      <c r="C2247" s="30"/>
+      <c r="D2247" s="33"/>
+      <c r="E2247" s="33"/>
+      <c r="F2247" s="33"/>
+      <c r="G2247" s="33"/>
+      <c r="H2247" s="33"/>
+      <c r="I2247" s="33"/>
     </row>
     <row r="2248" spans="3:9">
-      <c r="C2248" s="27"/>
-      <c r="D2248" s="29"/>
-      <c r="E2248" s="29"/>
-      <c r="F2248" s="29"/>
-      <c r="G2248" s="29"/>
-      <c r="H2248" s="29"/>
-      <c r="I2248" s="29"/>
+      <c r="C2248" s="30"/>
+      <c r="D2248" s="33"/>
+      <c r="E2248" s="33"/>
+      <c r="F2248" s="33"/>
+      <c r="G2248" s="33"/>
+      <c r="H2248" s="33"/>
+      <c r="I2248" s="33"/>
     </row>
     <row r="2249" spans="3:9">
-      <c r="C2249" s="27"/>
-      <c r="D2249" s="29"/>
-      <c r="E2249" s="29"/>
-      <c r="F2249" s="29"/>
-      <c r="G2249" s="29"/>
-      <c r="H2249" s="29"/>
-      <c r="I2249" s="29"/>
+      <c r="C2249" s="30"/>
+      <c r="D2249" s="33"/>
+      <c r="E2249" s="33"/>
+      <c r="F2249" s="33"/>
+      <c r="G2249" s="33"/>
+      <c r="H2249" s="33"/>
+      <c r="I2249" s="33"/>
     </row>
     <row r="2250" spans="3:9">
-      <c r="C2250" s="27"/>
-      <c r="D2250" s="29"/>
-      <c r="E2250" s="29"/>
-      <c r="F2250" s="29"/>
-      <c r="G2250" s="29"/>
-      <c r="H2250" s="29"/>
-      <c r="I2250" s="29"/>
+      <c r="C2250" s="30"/>
+      <c r="D2250" s="33"/>
+      <c r="E2250" s="33"/>
+      <c r="F2250" s="33"/>
+      <c r="G2250" s="33"/>
+      <c r="H2250" s="33"/>
+      <c r="I2250" s="33"/>
     </row>
     <row r="2251" spans="3:9">
-      <c r="C2251" s="27"/>
-      <c r="D2251" s="29"/>
-      <c r="E2251" s="29"/>
-      <c r="F2251" s="29"/>
-      <c r="G2251" s="29"/>
-      <c r="H2251" s="29"/>
-      <c r="I2251" s="29"/>
+      <c r="C2251" s="30"/>
+      <c r="D2251" s="33"/>
+      <c r="E2251" s="33"/>
+      <c r="F2251" s="33"/>
+      <c r="G2251" s="33"/>
+      <c r="H2251" s="33"/>
+      <c r="I2251" s="33"/>
     </row>
     <row r="2252" spans="3:9">
-      <c r="C2252" s="27"/>
-      <c r="D2252" s="29"/>
-      <c r="E2252" s="29"/>
-      <c r="F2252" s="29"/>
-      <c r="G2252" s="29"/>
-      <c r="H2252" s="29"/>
-      <c r="I2252" s="29"/>
+      <c r="C2252" s="30"/>
+      <c r="D2252" s="33"/>
+      <c r="E2252" s="33"/>
+      <c r="F2252" s="33"/>
+      <c r="G2252" s="33"/>
+      <c r="H2252" s="33"/>
+      <c r="I2252" s="33"/>
     </row>
     <row r="2253" spans="3:9">
-      <c r="C2253" s="27"/>
-      <c r="D2253" s="29"/>
-      <c r="E2253" s="29"/>
-      <c r="F2253" s="29"/>
-      <c r="G2253" s="29"/>
-      <c r="H2253" s="29"/>
-      <c r="I2253" s="29"/>
+      <c r="C2253" s="30"/>
+      <c r="D2253" s="33"/>
+      <c r="E2253" s="33"/>
+      <c r="F2253" s="33"/>
+      <c r="G2253" s="33"/>
+      <c r="H2253" s="33"/>
+      <c r="I2253" s="33"/>
     </row>
     <row r="2254" spans="3:9">
-      <c r="C2254" s="27"/>
-      <c r="D2254" s="29"/>
-      <c r="E2254" s="29"/>
-      <c r="F2254" s="29"/>
-      <c r="G2254" s="29"/>
-      <c r="H2254" s="29"/>
-      <c r="I2254" s="29"/>
+      <c r="C2254" s="30"/>
+      <c r="D2254" s="33"/>
+      <c r="E2254" s="33"/>
+      <c r="F2254" s="33"/>
+      <c r="G2254" s="33"/>
+      <c r="H2254" s="33"/>
+      <c r="I2254" s="33"/>
     </row>
     <row r="2255" spans="3:9">
-      <c r="C2255" s="27"/>
-      <c r="D2255" s="29"/>
-      <c r="E2255" s="29"/>
-      <c r="F2255" s="29"/>
-      <c r="G2255" s="29"/>
-      <c r="H2255" s="29"/>
-      <c r="I2255" s="29"/>
+      <c r="C2255" s="30"/>
+      <c r="D2255" s="33"/>
+      <c r="E2255" s="33"/>
+      <c r="F2255" s="33"/>
+      <c r="G2255" s="33"/>
+      <c r="H2255" s="33"/>
+      <c r="I2255" s="33"/>
     </row>
     <row r="2256" spans="3:9">
-      <c r="C2256" s="27"/>
-      <c r="D2256" s="29"/>
-      <c r="E2256" s="29"/>
-      <c r="F2256" s="29"/>
-      <c r="G2256" s="29"/>
-      <c r="H2256" s="29"/>
-      <c r="I2256" s="29"/>
+      <c r="C2256" s="30"/>
+      <c r="D2256" s="33"/>
+      <c r="E2256" s="33"/>
+      <c r="F2256" s="33"/>
+      <c r="G2256" s="33"/>
+      <c r="H2256" s="33"/>
+      <c r="I2256" s="33"/>
     </row>
     <row r="2257" spans="3:9">
-      <c r="C2257" s="27"/>
-      <c r="D2257" s="29"/>
-      <c r="E2257" s="29"/>
-      <c r="F2257" s="29"/>
-      <c r="G2257" s="29"/>
-      <c r="H2257" s="29"/>
-      <c r="I2257" s="29"/>
+      <c r="C2257" s="30"/>
+      <c r="D2257" s="33"/>
+      <c r="E2257" s="33"/>
+      <c r="F2257" s="33"/>
+      <c r="G2257" s="33"/>
+      <c r="H2257" s="33"/>
+      <c r="I2257" s="33"/>
     </row>
     <row r="2258" spans="3:9">
-      <c r="C2258" s="27"/>
-      <c r="D2258" s="29"/>
-      <c r="E2258" s="29"/>
-      <c r="F2258" s="29"/>
-      <c r="G2258" s="29"/>
-      <c r="H2258" s="29"/>
-      <c r="I2258" s="29"/>
+      <c r="C2258" s="30"/>
+      <c r="D2258" s="33"/>
+      <c r="E2258" s="33"/>
+      <c r="F2258" s="33"/>
+      <c r="G2258" s="33"/>
+      <c r="H2258" s="33"/>
+      <c r="I2258" s="33"/>
     </row>
     <row r="2259" spans="3:9">
-      <c r="C2259" s="27"/>
-      <c r="D2259" s="29"/>
-      <c r="E2259" s="29"/>
-      <c r="F2259" s="29"/>
-      <c r="G2259" s="29"/>
-      <c r="H2259" s="29"/>
-      <c r="I2259" s="29"/>
+      <c r="C2259" s="30"/>
+      <c r="D2259" s="33"/>
+      <c r="E2259" s="33"/>
+      <c r="F2259" s="33"/>
+      <c r="G2259" s="33"/>
+      <c r="H2259" s="33"/>
+      <c r="I2259" s="33"/>
     </row>
     <row r="2260" spans="3:9">
-      <c r="C2260" s="27"/>
-      <c r="D2260" s="29"/>
-      <c r="E2260" s="29"/>
-      <c r="F2260" s="29"/>
-      <c r="G2260" s="29"/>
-      <c r="H2260" s="29"/>
-      <c r="I2260" s="29"/>
+      <c r="C2260" s="30"/>
+      <c r="D2260" s="33"/>
+      <c r="E2260" s="33"/>
+      <c r="F2260" s="33"/>
+      <c r="G2260" s="33"/>
+      <c r="H2260" s="33"/>
+      <c r="I2260" s="33"/>
     </row>
     <row r="2261" spans="3:9">
-      <c r="C2261" s="27"/>
-      <c r="D2261" s="29"/>
-      <c r="E2261" s="29"/>
-      <c r="F2261" s="29"/>
-      <c r="G2261" s="29"/>
-      <c r="H2261" s="29"/>
-      <c r="I2261" s="29"/>
+      <c r="C2261" s="30"/>
+      <c r="D2261" s="33"/>
+      <c r="E2261" s="33"/>
+      <c r="F2261" s="33"/>
+      <c r="G2261" s="33"/>
+      <c r="H2261" s="33"/>
+      <c r="I2261" s="33"/>
     </row>
     <row r="2262" spans="3:9">
-      <c r="C2262" s="27"/>
-      <c r="D2262" s="29"/>
-      <c r="E2262" s="29"/>
-      <c r="F2262" s="29"/>
-      <c r="G2262" s="29"/>
-      <c r="H2262" s="29"/>
-      <c r="I2262" s="29"/>
+      <c r="C2262" s="30"/>
+      <c r="D2262" s="33"/>
+      <c r="E2262" s="33"/>
+      <c r="F2262" s="33"/>
+      <c r="G2262" s="33"/>
+      <c r="H2262" s="33"/>
+      <c r="I2262" s="33"/>
     </row>
     <row r="2263" spans="3:9">
-      <c r="C2263" s="27"/>
-      <c r="D2263" s="29"/>
-      <c r="E2263" s="29"/>
-      <c r="F2263" s="29"/>
-      <c r="G2263" s="29"/>
-      <c r="H2263" s="29"/>
-      <c r="I2263" s="29"/>
+      <c r="C2263" s="30"/>
+      <c r="D2263" s="33"/>
+      <c r="E2263" s="33"/>
+      <c r="F2263" s="33"/>
+      <c r="G2263" s="33"/>
+      <c r="H2263" s="33"/>
+      <c r="I2263" s="33"/>
     </row>
     <row r="2264" spans="3:9">
-      <c r="C2264" s="27"/>
-      <c r="D2264" s="29"/>
-      <c r="E2264" s="29"/>
-      <c r="F2264" s="29"/>
-      <c r="G2264" s="29"/>
-      <c r="H2264" s="29"/>
-      <c r="I2264" s="29"/>
+      <c r="C2264" s="30"/>
+      <c r="D2264" s="33"/>
+      <c r="E2264" s="33"/>
+      <c r="F2264" s="33"/>
+      <c r="G2264" s="33"/>
+      <c r="H2264" s="33"/>
+      <c r="I2264" s="33"/>
     </row>
     <row r="2265" spans="3:9">
-      <c r="C2265" s="27"/>
-      <c r="D2265" s="29"/>
-      <c r="E2265" s="29"/>
-      <c r="F2265" s="29"/>
-      <c r="G2265" s="29"/>
-      <c r="H2265" s="29"/>
-      <c r="I2265" s="29"/>
+      <c r="C2265" s="30"/>
+      <c r="D2265" s="33"/>
+      <c r="E2265" s="33"/>
+      <c r="F2265" s="33"/>
+      <c r="G2265" s="33"/>
+      <c r="H2265" s="33"/>
+      <c r="I2265" s="33"/>
     </row>
     <row r="2266" spans="3:9">
-      <c r="C2266" s="27"/>
-      <c r="D2266" s="29"/>
-      <c r="E2266" s="29"/>
-      <c r="F2266" s="29"/>
-      <c r="G2266" s="29"/>
-      <c r="H2266" s="29"/>
-      <c r="I2266" s="29"/>
+      <c r="C2266" s="30"/>
+      <c r="D2266" s="33"/>
+      <c r="E2266" s="33"/>
+      <c r="F2266" s="33"/>
+      <c r="G2266" s="33"/>
+      <c r="H2266" s="33"/>
+      <c r="I2266" s="33"/>
     </row>
     <row r="2267" spans="3:9">
-      <c r="C2267" s="28"/>
+      <c r="C2267" s="32"/>
       <c r="D2267" s="24"/>
       <c r="E2267" s="24"/>
       <c r="F2267" s="24"/>
@@ -54409,7 +54763,7 @@
       <c r="I2267" s="24"/>
     </row>
     <row r="2268" spans="3:9">
-      <c r="C2268" s="28"/>
+      <c r="C2268" s="32"/>
       <c r="D2268" s="24"/>
       <c r="E2268" s="24"/>
       <c r="F2268" s="24"/>
@@ -54418,7 +54772,7 @@
       <c r="I2268" s="24"/>
     </row>
     <row r="2269" spans="3:9">
-      <c r="C2269" s="28"/>
+      <c r="C2269" s="32"/>
       <c r="D2269" s="24"/>
       <c r="E2269" s="24"/>
       <c r="F2269" s="24"/>
@@ -54427,7 +54781,7 @@
       <c r="I2269" s="24"/>
     </row>
     <row r="2270" spans="3:9">
-      <c r="C2270" s="28"/>
+      <c r="C2270" s="32"/>
       <c r="D2270" s="24"/>
       <c r="E2270" s="24"/>
       <c r="F2270" s="24"/>
@@ -54436,7 +54790,7 @@
       <c r="I2270" s="24"/>
     </row>
     <row r="2271" spans="3:9">
-      <c r="C2271" s="28"/>
+      <c r="C2271" s="32"/>
       <c r="D2271" s="24"/>
       <c r="E2271" s="24"/>
       <c r="F2271" s="24"/>
@@ -54445,7 +54799,7 @@
       <c r="I2271" s="24"/>
     </row>
     <row r="2272" spans="3:9">
-      <c r="C2272" s="28"/>
+      <c r="C2272" s="32"/>
       <c r="D2272" s="24"/>
       <c r="E2272" s="24"/>
       <c r="F2272" s="24"/>
@@ -54454,7 +54808,7 @@
       <c r="I2272" s="24"/>
     </row>
     <row r="2273" spans="3:9">
-      <c r="C2273" s="28"/>
+      <c r="C2273" s="32"/>
       <c r="D2273" s="24"/>
       <c r="E2273" s="24"/>
       <c r="F2273" s="24"/>
@@ -54463,7 +54817,7 @@
       <c r="I2273" s="24"/>
     </row>
     <row r="2274" spans="3:9">
-      <c r="C2274" s="28"/>
+      <c r="C2274" s="32"/>
       <c r="D2274" s="24"/>
       <c r="E2274" s="24"/>
       <c r="F2274" s="24"/>
@@ -54472,7 +54826,7 @@
       <c r="I2274" s="24"/>
     </row>
     <row r="2275" spans="3:9">
-      <c r="C2275" s="28"/>
+      <c r="C2275" s="32"/>
       <c r="D2275" s="24"/>
       <c r="E2275" s="24"/>
       <c r="F2275" s="24"/>
@@ -54481,7 +54835,7 @@
       <c r="I2275" s="24"/>
     </row>
     <row r="2276" spans="3:9">
-      <c r="C2276" s="28"/>
+      <c r="C2276" s="32"/>
       <c r="D2276" s="24"/>
       <c r="E2276" s="24"/>
       <c r="F2276" s="24"/>
@@ -54490,7 +54844,7 @@
       <c r="I2276" s="24"/>
     </row>
     <row r="2277" spans="3:9">
-      <c r="C2277" s="28"/>
+      <c r="C2277" s="32"/>
       <c r="D2277" s="24"/>
       <c r="E2277" s="24"/>
       <c r="F2277" s="24"/>
@@ -54499,7 +54853,7 @@
       <c r="I2277" s="24"/>
     </row>
     <row r="2278" spans="3:9">
-      <c r="C2278" s="28"/>
+      <c r="C2278" s="32"/>
       <c r="D2278" s="24"/>
       <c r="E2278" s="24"/>
       <c r="F2278" s="24"/>
@@ -54508,7 +54862,7 @@
       <c r="I2278" s="24"/>
     </row>
     <row r="2279" spans="3:9">
-      <c r="C2279" s="28"/>
+      <c r="C2279" s="32"/>
       <c r="D2279" s="24"/>
       <c r="E2279" s="24"/>
       <c r="F2279" s="24"/>
@@ -54517,7 +54871,7 @@
       <c r="I2279" s="24"/>
     </row>
     <row r="2280" spans="3:9">
-      <c r="C2280" s="28"/>
+      <c r="C2280" s="32"/>
       <c r="D2280" s="24"/>
       <c r="E2280" s="24"/>
       <c r="F2280" s="24"/>
@@ -54526,7 +54880,7 @@
       <c r="I2280" s="24"/>
     </row>
     <row r="2281" spans="3:9">
-      <c r="C2281" s="28"/>
+      <c r="C2281" s="32"/>
       <c r="D2281" s="24"/>
       <c r="E2281" s="24"/>
       <c r="F2281" s="24"/>
@@ -54535,7 +54889,7 @@
       <c r="I2281" s="24"/>
     </row>
     <row r="2282" spans="3:9">
-      <c r="C2282" s="28"/>
+      <c r="C2282" s="32"/>
       <c r="D2282" s="24"/>
       <c r="E2282" s="24"/>
       <c r="F2282" s="24"/>
@@ -54544,7 +54898,7 @@
       <c r="I2282" s="24"/>
     </row>
     <row r="2283" spans="3:9">
-      <c r="C2283" s="28"/>
+      <c r="C2283" s="32"/>
       <c r="D2283" s="24"/>
       <c r="E2283" s="24"/>
       <c r="F2283" s="24"/>
@@ -54553,7 +54907,7 @@
       <c r="I2283" s="24"/>
     </row>
     <row r="2284" spans="3:9">
-      <c r="C2284" s="28"/>
+      <c r="C2284" s="32"/>
       <c r="D2284" s="24"/>
       <c r="E2284" s="24"/>
       <c r="F2284" s="24"/>
@@ -54562,7 +54916,7 @@
       <c r="I2284" s="24"/>
     </row>
     <row r="2285" spans="3:9">
-      <c r="C2285" s="28"/>
+      <c r="C2285" s="32"/>
       <c r="D2285" s="24"/>
       <c r="E2285" s="24"/>
       <c r="F2285" s="24"/>
@@ -54571,7 +54925,7 @@
       <c r="I2285" s="24"/>
     </row>
     <row r="2286" spans="3:9">
-      <c r="C2286" s="28"/>
+      <c r="C2286" s="32"/>
       <c r="D2286" s="24"/>
       <c r="E2286" s="24"/>
       <c r="F2286" s="24"/>
@@ -54580,7 +54934,7 @@
       <c r="I2286" s="24"/>
     </row>
     <row r="2287" spans="3:9">
-      <c r="C2287" s="28"/>
+      <c r="C2287" s="32"/>
       <c r="D2287" s="24"/>
       <c r="E2287" s="24"/>
       <c r="F2287" s="24"/>
@@ -54589,7 +54943,7 @@
       <c r="I2287" s="24"/>
     </row>
     <row r="2288" spans="3:9">
-      <c r="C2288" s="28"/>
+      <c r="C2288" s="32"/>
       <c r="D2288" s="24"/>
       <c r="E2288" s="24"/>
       <c r="F2288" s="24"/>
@@ -54598,7 +54952,7 @@
       <c r="I2288" s="24"/>
     </row>
     <row r="2289" spans="3:9">
-      <c r="C2289" s="28"/>
+      <c r="C2289" s="32"/>
       <c r="D2289" s="24"/>
       <c r="E2289" s="24"/>
       <c r="F2289" s="24"/>
@@ -54607,7 +54961,7 @@
       <c r="I2289" s="24"/>
     </row>
     <row r="2290" spans="3:9">
-      <c r="C2290" s="28"/>
+      <c r="C2290" s="32"/>
       <c r="D2290" s="24"/>
       <c r="E2290" s="24"/>
       <c r="F2290" s="24"/>
@@ -54616,7 +54970,7 @@
       <c r="I2290" s="24"/>
     </row>
     <row r="2291" spans="3:9">
-      <c r="C2291" s="28"/>
+      <c r="C2291" s="32"/>
       <c r="D2291" s="24"/>
       <c r="E2291" s="24"/>
       <c r="F2291" s="24"/>
@@ -54625,7 +54979,7 @@
       <c r="I2291" s="24"/>
     </row>
     <row r="2292" spans="3:9">
-      <c r="C2292" s="28"/>
+      <c r="C2292" s="32"/>
       <c r="D2292" s="24"/>
       <c r="E2292" s="24"/>
       <c r="F2292" s="24"/>
@@ -54634,7 +54988,7 @@
       <c r="I2292" s="24"/>
     </row>
     <row r="2293" spans="3:9">
-      <c r="C2293" s="28"/>
+      <c r="C2293" s="32"/>
       <c r="D2293" s="24"/>
       <c r="E2293" s="24"/>
       <c r="F2293" s="24"/>
@@ -54643,7 +54997,7 @@
       <c r="I2293" s="24"/>
     </row>
     <row r="2294" spans="3:9">
-      <c r="C2294" s="28"/>
+      <c r="C2294" s="32"/>
       <c r="D2294" s="24"/>
       <c r="E2294" s="24"/>
       <c r="F2294" s="24"/>
@@ -54652,7 +55006,7 @@
       <c r="I2294" s="24"/>
     </row>
     <row r="2295" spans="3:9">
-      <c r="C2295" s="28"/>
+      <c r="C2295" s="32"/>
       <c r="D2295" s="24"/>
       <c r="E2295" s="24"/>
       <c r="F2295" s="24"/>
@@ -54661,7 +55015,7 @@
       <c r="I2295" s="24"/>
     </row>
     <row r="2296" spans="3:9">
-      <c r="C2296" s="28"/>
+      <c r="C2296" s="32"/>
       <c r="D2296" s="24"/>
       <c r="E2296" s="24"/>
       <c r="F2296" s="24"/>
@@ -54670,7 +55024,7 @@
       <c r="I2296" s="24"/>
     </row>
     <row r="2297" spans="3:9">
-      <c r="C2297" s="28"/>
+      <c r="C2297" s="32"/>
       <c r="D2297" s="24"/>
       <c r="E2297" s="24"/>
       <c r="F2297" s="24"/>
@@ -54679,7 +55033,7 @@
       <c r="I2297" s="24"/>
     </row>
     <row r="2298" spans="3:9">
-      <c r="C2298" s="28"/>
+      <c r="C2298" s="32"/>
       <c r="D2298" s="24"/>
       <c r="E2298" s="24"/>
       <c r="F2298" s="24"/>
@@ -54688,7 +55042,7 @@
       <c r="I2298" s="24"/>
     </row>
     <row r="2299" spans="3:9">
-      <c r="C2299" s="28"/>
+      <c r="C2299" s="32"/>
       <c r="D2299" s="24"/>
       <c r="E2299" s="24"/>
       <c r="F2299" s="24"/>
@@ -54697,7 +55051,7 @@
       <c r="I2299" s="24"/>
     </row>
     <row r="2300" spans="3:9">
-      <c r="C2300" s="28"/>
+      <c r="C2300" s="32"/>
       <c r="D2300" s="24"/>
       <c r="E2300" s="24"/>
       <c r="F2300" s="24"/>
@@ -54706,7 +55060,7 @@
       <c r="I2300" s="24"/>
     </row>
     <row r="2301" spans="3:9">
-      <c r="C2301" s="28"/>
+      <c r="C2301" s="32"/>
       <c r="D2301" s="24"/>
       <c r="E2301" s="24"/>
       <c r="F2301" s="24"/>
@@ -54715,7 +55069,7 @@
       <c r="I2301" s="24"/>
     </row>
     <row r="2302" spans="3:9">
-      <c r="C2302" s="28"/>
+      <c r="C2302" s="32"/>
       <c r="D2302" s="24"/>
       <c r="E2302" s="24"/>
       <c r="F2302" s="24"/>
@@ -54724,7 +55078,7 @@
       <c r="I2302" s="24"/>
     </row>
     <row r="2303" spans="3:9">
-      <c r="C2303" s="28"/>
+      <c r="C2303" s="32"/>
       <c r="D2303" s="24"/>
       <c r="E2303" s="24"/>
       <c r="F2303" s="24"/>
@@ -54733,7 +55087,7 @@
       <c r="I2303" s="24"/>
     </row>
     <row r="2304" spans="3:9">
-      <c r="C2304" s="28"/>
+      <c r="C2304" s="32"/>
       <c r="D2304" s="24"/>
       <c r="E2304" s="24"/>
       <c r="F2304" s="24"/>
@@ -54742,7 +55096,7 @@
       <c r="I2304" s="24"/>
     </row>
     <row r="2305" spans="3:9">
-      <c r="C2305" s="28"/>
+      <c r="C2305" s="32"/>
       <c r="D2305" s="24"/>
       <c r="E2305" s="24"/>
       <c r="F2305" s="24"/>
@@ -54751,7 +55105,7 @@
       <c r="I2305" s="24"/>
     </row>
     <row r="2306" spans="3:9">
-      <c r="C2306" s="28"/>
+      <c r="C2306" s="32"/>
       <c r="D2306" s="24"/>
       <c r="E2306" s="24"/>
       <c r="F2306" s="24"/>
@@ -54760,7 +55114,7 @@
       <c r="I2306" s="24"/>
     </row>
     <row r="2307" spans="3:9">
-      <c r="C2307" s="28"/>
+      <c r="C2307" s="32"/>
       <c r="D2307" s="24"/>
       <c r="E2307" s="24"/>
       <c r="F2307" s="24"/>
@@ -54769,7 +55123,7 @@
       <c r="I2307" s="24"/>
     </row>
     <row r="2308" spans="3:9">
-      <c r="C2308" s="28"/>
+      <c r="C2308" s="32"/>
       <c r="D2308" s="24"/>
       <c r="E2308" s="24"/>
       <c r="F2308" s="24"/>
@@ -54778,7 +55132,7 @@
       <c r="I2308" s="24"/>
     </row>
     <row r="2309" spans="3:9">
-      <c r="C2309" s="28"/>
+      <c r="C2309" s="32"/>
       <c r="D2309" s="25"/>
       <c r="E2309" s="25"/>
       <c r="F2309" s="25"/>
@@ -54787,7 +55141,7 @@
       <c r="I2309" s="25"/>
     </row>
     <row r="2310" spans="3:9">
-      <c r="C2310" s="28"/>
+      <c r="C2310" s="32"/>
       <c r="D2310" s="25"/>
       <c r="E2310" s="25"/>
       <c r="F2310" s="25"/>
@@ -54796,7 +55150,7 @@
       <c r="I2310" s="25"/>
     </row>
     <row r="2311" spans="3:9">
-      <c r="C2311" s="28"/>
+      <c r="C2311" s="32"/>
       <c r="D2311" s="25"/>
       <c r="E2311" s="25"/>
       <c r="F2311" s="25"/>
@@ -54805,7 +55159,7 @@
       <c r="I2311" s="25"/>
     </row>
     <row r="2312" spans="3:9">
-      <c r="C2312" s="28"/>
+      <c r="C2312" s="32"/>
       <c r="D2312" s="25"/>
       <c r="E2312" s="25"/>
       <c r="F2312" s="25"/>
@@ -54814,7 +55168,7 @@
       <c r="I2312" s="25"/>
     </row>
     <row r="2313" spans="3:9">
-      <c r="C2313" s="28"/>
+      <c r="C2313" s="32"/>
       <c r="D2313" s="25"/>
       <c r="E2313" s="25"/>
       <c r="F2313" s="25"/>
@@ -54823,7 +55177,7 @@
       <c r="I2313" s="25"/>
     </row>
     <row r="2314" spans="3:9">
-      <c r="C2314" s="28"/>
+      <c r="C2314" s="32"/>
       <c r="D2314" s="25"/>
       <c r="E2314" s="25"/>
       <c r="F2314" s="25"/>
@@ -54832,7 +55186,7 @@
       <c r="I2314" s="25"/>
     </row>
     <row r="2315" spans="3:9">
-      <c r="C2315" s="28"/>
+      <c r="C2315" s="32"/>
       <c r="D2315" s="25"/>
       <c r="E2315" s="25"/>
       <c r="F2315" s="25"/>
@@ -54841,7 +55195,7 @@
       <c r="I2315" s="25"/>
     </row>
     <row r="2316" spans="3:9">
-      <c r="C2316" s="28"/>
+      <c r="C2316" s="32"/>
       <c r="D2316" s="25"/>
       <c r="E2316" s="25"/>
       <c r="F2316" s="25"/>
@@ -54850,7 +55204,7 @@
       <c r="I2316" s="25"/>
     </row>
     <row r="2317" spans="3:9">
-      <c r="C2317" s="28"/>
+      <c r="C2317" s="32"/>
       <c r="D2317" s="25"/>
       <c r="E2317" s="25"/>
       <c r="F2317" s="25"/>
@@ -54859,7 +55213,7 @@
       <c r="I2317" s="25"/>
     </row>
     <row r="2318" spans="3:9">
-      <c r="C2318" s="28"/>
+      <c r="C2318" s="32"/>
       <c r="D2318" s="25"/>
       <c r="E2318" s="25"/>
       <c r="F2318" s="25"/>
@@ -54868,7 +55222,7 @@
       <c r="I2318" s="25"/>
     </row>
     <row r="2319" spans="3:9">
-      <c r="C2319" s="28"/>
+      <c r="C2319" s="32"/>
       <c r="D2319" s="25"/>
       <c r="E2319" s="25"/>
       <c r="F2319" s="25"/>
@@ -54877,7 +55231,7 @@
       <c r="I2319" s="25"/>
     </row>
     <row r="2320" spans="3:9">
-      <c r="C2320" s="28"/>
+      <c r="C2320" s="32"/>
       <c r="D2320" s="25"/>
       <c r="E2320" s="25"/>
       <c r="F2320" s="25"/>
@@ -54886,7 +55240,7 @@
       <c r="I2320" s="25"/>
     </row>
     <row r="2321" spans="3:9">
-      <c r="C2321" s="28"/>
+      <c r="C2321" s="32"/>
       <c r="D2321" s="25"/>
       <c r="E2321" s="25"/>
       <c r="F2321" s="25"/>
@@ -54895,7 +55249,7 @@
       <c r="I2321" s="25"/>
     </row>
     <row r="2322" spans="3:9">
-      <c r="C2322" s="28"/>
+      <c r="C2322" s="32"/>
       <c r="D2322" s="25"/>
       <c r="E2322" s="25"/>
       <c r="F2322" s="25"/>
@@ -54904,7 +55258,7 @@
       <c r="I2322" s="25"/>
     </row>
     <row r="2323" spans="3:9">
-      <c r="C2323" s="28"/>
+      <c r="C2323" s="32"/>
       <c r="D2323" s="25"/>
       <c r="E2323" s="25"/>
       <c r="F2323" s="25"/>
@@ -54913,7 +55267,7 @@
       <c r="I2323" s="25"/>
     </row>
     <row r="2324" spans="3:9">
-      <c r="C2324" s="28"/>
+      <c r="C2324" s="32"/>
       <c r="D2324" s="25"/>
       <c r="E2324" s="25"/>
       <c r="F2324" s="25"/>
@@ -54922,7 +55276,7 @@
       <c r="I2324" s="25"/>
     </row>
     <row r="2325" spans="3:9">
-      <c r="C2325" s="28"/>
+      <c r="C2325" s="32"/>
       <c r="D2325" s="25"/>
       <c r="E2325" s="25"/>
       <c r="F2325" s="25"/>
@@ -54931,7 +55285,7 @@
       <c r="I2325" s="25"/>
     </row>
     <row r="2326" spans="3:9">
-      <c r="C2326" s="28"/>
+      <c r="C2326" s="32"/>
       <c r="D2326" s="25"/>
       <c r="E2326" s="25"/>
       <c r="F2326" s="25"/>
@@ -54940,7 +55294,7 @@
       <c r="I2326" s="25"/>
     </row>
     <row r="2327" spans="3:9">
-      <c r="C2327" s="28"/>
+      <c r="C2327" s="32"/>
       <c r="D2327" s="25"/>
       <c r="E2327" s="25"/>
       <c r="F2327" s="25"/>
@@ -54949,7 +55303,7 @@
       <c r="I2327" s="25"/>
     </row>
     <row r="2328" spans="3:9">
-      <c r="C2328" s="28"/>
+      <c r="C2328" s="32"/>
       <c r="D2328" s="25"/>
       <c r="E2328" s="25"/>
       <c r="F2328" s="25"/>
@@ -54958,7 +55312,7 @@
       <c r="I2328" s="25"/>
     </row>
     <row r="2329" spans="3:9">
-      <c r="C2329" s="28"/>
+      <c r="C2329" s="32"/>
       <c r="D2329" s="25"/>
       <c r="E2329" s="25"/>
       <c r="F2329" s="25"/>
@@ -54967,7 +55321,7 @@
       <c r="I2329" s="25"/>
     </row>
     <row r="2330" spans="3:9">
-      <c r="C2330" s="28"/>
+      <c r="C2330" s="32"/>
       <c r="D2330" s="25"/>
       <c r="E2330" s="25"/>
       <c r="F2330" s="25"/>
@@ -54976,7 +55330,7 @@
       <c r="I2330" s="25"/>
     </row>
     <row r="2331" spans="3:9">
-      <c r="C2331" s="28"/>
+      <c r="C2331" s="32"/>
       <c r="D2331" s="25"/>
       <c r="E2331" s="25"/>
       <c r="F2331" s="25"/>
@@ -54985,7 +55339,7 @@
       <c r="I2331" s="25"/>
     </row>
     <row r="2332" spans="3:9">
-      <c r="C2332" s="28"/>
+      <c r="C2332" s="32"/>
       <c r="D2332" s="25"/>
       <c r="E2332" s="25"/>
       <c r="F2332" s="25"/>
@@ -54994,7 +55348,7 @@
       <c r="I2332" s="25"/>
     </row>
     <row r="2333" spans="3:9">
-      <c r="C2333" s="28"/>
+      <c r="C2333" s="32"/>
       <c r="D2333" s="25"/>
       <c r="E2333" s="25"/>
       <c r="F2333" s="25"/>
@@ -55003,7 +55357,7 @@
       <c r="I2333" s="25"/>
     </row>
     <row r="2334" spans="3:9">
-      <c r="C2334" s="28"/>
+      <c r="C2334" s="32"/>
       <c r="D2334" s="25"/>
       <c r="E2334" s="25"/>
       <c r="F2334" s="25"/>
@@ -55012,7 +55366,7 @@
       <c r="I2334" s="25"/>
     </row>
     <row r="2335" spans="3:9">
-      <c r="C2335" s="28"/>
+      <c r="C2335" s="32"/>
       <c r="D2335" s="25"/>
       <c r="E2335" s="25"/>
       <c r="F2335" s="25"/>
@@ -55021,7 +55375,7 @@
       <c r="I2335" s="25"/>
     </row>
     <row r="2336" spans="3:9">
-      <c r="C2336" s="28"/>
+      <c r="C2336" s="32"/>
       <c r="D2336" s="25"/>
       <c r="E2336" s="25"/>
       <c r="F2336" s="25"/>
@@ -55030,7 +55384,7 @@
       <c r="I2336" s="25"/>
     </row>
     <row r="2337" spans="3:9">
-      <c r="C2337" s="28"/>
+      <c r="C2337" s="32"/>
       <c r="D2337" s="25"/>
       <c r="E2337" s="25"/>
       <c r="F2337" s="25"/>
@@ -55039,7 +55393,7 @@
       <c r="I2337" s="25"/>
     </row>
     <row r="2338" spans="3:9">
-      <c r="C2338" s="28"/>
+      <c r="C2338" s="32"/>
       <c r="D2338" s="25"/>
       <c r="E2338" s="25"/>
       <c r="F2338" s="25"/>
@@ -55048,7 +55402,7 @@
       <c r="I2338" s="25"/>
     </row>
     <row r="2339" spans="3:9">
-      <c r="C2339" s="28"/>
+      <c r="C2339" s="32"/>
       <c r="D2339" s="25"/>
       <c r="E2339" s="25"/>
       <c r="F2339" s="25"/>
@@ -55057,7 +55411,7 @@
       <c r="I2339" s="25"/>
     </row>
     <row r="2340" spans="3:9">
-      <c r="C2340" s="28"/>
+      <c r="C2340" s="32"/>
       <c r="D2340" s="25"/>
       <c r="E2340" s="25"/>
       <c r="F2340" s="25"/>
@@ -55066,7 +55420,7 @@
       <c r="I2340" s="25"/>
     </row>
     <row r="2341" spans="3:9">
-      <c r="C2341" s="28"/>
+      <c r="C2341" s="32"/>
       <c r="D2341" s="25"/>
       <c r="E2341" s="25"/>
       <c r="F2341" s="25"/>
@@ -55075,7 +55429,7 @@
       <c r="I2341" s="25"/>
     </row>
     <row r="2342" spans="3:9">
-      <c r="C2342" s="28"/>
+      <c r="C2342" s="32"/>
       <c r="D2342" s="25"/>
       <c r="E2342" s="25"/>
       <c r="F2342" s="25"/>
@@ -55084,7 +55438,7 @@
       <c r="I2342" s="25"/>
     </row>
     <row r="2343" spans="3:9">
-      <c r="C2343" s="28"/>
+      <c r="C2343" s="32"/>
       <c r="D2343" s="25"/>
       <c r="E2343" s="25"/>
       <c r="F2343" s="25"/>
@@ -55093,7 +55447,7 @@
       <c r="I2343" s="25"/>
     </row>
     <row r="2344" spans="3:9">
-      <c r="C2344" s="28"/>
+      <c r="C2344" s="32"/>
       <c r="D2344" s="25"/>
       <c r="E2344" s="25"/>
       <c r="F2344" s="25"/>
@@ -55102,7 +55456,7 @@
       <c r="I2344" s="25"/>
     </row>
     <row r="2345" spans="3:9">
-      <c r="C2345" s="28"/>
+      <c r="C2345" s="32"/>
       <c r="D2345" s="25"/>
       <c r="E2345" s="25"/>
       <c r="F2345" s="25"/>
@@ -55111,7 +55465,7 @@
       <c r="I2345" s="25"/>
     </row>
     <row r="2346" spans="3:9">
-      <c r="C2346" s="28"/>
+      <c r="C2346" s="32"/>
       <c r="D2346" s="25"/>
       <c r="E2346" s="25"/>
       <c r="F2346" s="25"/>
@@ -55120,7 +55474,7 @@
       <c r="I2346" s="25"/>
     </row>
     <row r="2347" spans="3:9">
-      <c r="C2347" s="28"/>
+      <c r="C2347" s="32"/>
       <c r="D2347" s="25"/>
       <c r="E2347" s="25"/>
       <c r="F2347" s="25"/>
@@ -55129,7 +55483,7 @@
       <c r="I2347" s="25"/>
     </row>
     <row r="2348" spans="3:9">
-      <c r="C2348" s="28"/>
+      <c r="C2348" s="32"/>
       <c r="D2348" s="25"/>
       <c r="E2348" s="25"/>
       <c r="F2348" s="25"/>
@@ -55138,7 +55492,7 @@
       <c r="I2348" s="25"/>
     </row>
     <row r="2349" spans="3:9">
-      <c r="C2349" s="28"/>
+      <c r="C2349" s="32"/>
       <c r="D2349" s="25"/>
       <c r="E2349" s="25"/>
       <c r="F2349" s="25"/>
@@ -55147,7 +55501,7 @@
       <c r="I2349" s="25"/>
     </row>
     <row r="2350" spans="3:9">
-      <c r="C2350" s="28"/>
+      <c r="C2350" s="32"/>
       <c r="D2350" s="25"/>
       <c r="E2350" s="25"/>
       <c r="F2350" s="25"/>
@@ -55156,7 +55510,7 @@
       <c r="I2350" s="25"/>
     </row>
     <row r="2351" spans="3:9">
-      <c r="C2351" s="27"/>
+      <c r="C2351" s="30"/>
       <c r="D2351" s="16"/>
       <c r="E2351" s="16"/>
       <c r="F2351" s="16"/>
@@ -55165,7 +55519,7 @@
       <c r="I2351" s="16"/>
     </row>
     <row r="2352" spans="3:9">
-      <c r="C2352" s="27"/>
+      <c r="C2352" s="30"/>
       <c r="D2352" s="16"/>
       <c r="E2352" s="16"/>
       <c r="F2352" s="16"/>
@@ -55174,7 +55528,7 @@
       <c r="I2352" s="16"/>
     </row>
     <row r="2353" spans="3:9">
-      <c r="C2353" s="27"/>
+      <c r="C2353" s="30"/>
       <c r="D2353" s="16"/>
       <c r="E2353" s="16"/>
       <c r="F2353" s="16"/>
@@ -55183,7 +55537,7 @@
       <c r="I2353" s="16"/>
     </row>
     <row r="2354" spans="3:9">
-      <c r="C2354" s="27"/>
+      <c r="C2354" s="30"/>
       <c r="D2354" s="16"/>
       <c r="E2354" s="16"/>
       <c r="F2354" s="16"/>
@@ -55192,7 +55546,7 @@
       <c r="I2354" s="16"/>
     </row>
     <row r="2355" spans="3:9">
-      <c r="C2355" s="27"/>
+      <c r="C2355" s="30"/>
       <c r="D2355" s="16"/>
       <c r="E2355" s="16"/>
       <c r="F2355" s="16"/>
@@ -55201,7 +55555,7 @@
       <c r="I2355" s="16"/>
     </row>
     <row r="2356" spans="3:9">
-      <c r="C2356" s="27"/>
+      <c r="C2356" s="30"/>
       <c r="D2356" s="16"/>
       <c r="E2356" s="16"/>
       <c r="F2356" s="16"/>
@@ -55210,7 +55564,7 @@
       <c r="I2356" s="16"/>
     </row>
     <row r="2357" spans="3:9">
-      <c r="C2357" s="27"/>
+      <c r="C2357" s="30"/>
       <c r="D2357" s="16"/>
       <c r="E2357" s="16"/>
       <c r="F2357" s="16"/>
@@ -55219,7 +55573,7 @@
       <c r="I2357" s="16"/>
     </row>
     <row r="2358" spans="3:9">
-      <c r="C2358" s="27"/>
+      <c r="C2358" s="30"/>
       <c r="D2358" s="16"/>
       <c r="E2358" s="16"/>
       <c r="F2358" s="16"/>
@@ -55228,7 +55582,7 @@
       <c r="I2358" s="16"/>
     </row>
     <row r="2359" spans="3:9">
-      <c r="C2359" s="27"/>
+      <c r="C2359" s="30"/>
       <c r="D2359" s="16"/>
       <c r="E2359" s="16"/>
       <c r="F2359" s="16"/>
@@ -55237,7 +55591,7 @@
       <c r="I2359" s="16"/>
     </row>
     <row r="2360" spans="3:9">
-      <c r="C2360" s="27"/>
+      <c r="C2360" s="30"/>
       <c r="D2360" s="16"/>
       <c r="E2360" s="16"/>
       <c r="F2360" s="16"/>
@@ -55246,7 +55600,7 @@
       <c r="I2360" s="16"/>
     </row>
     <row r="2361" spans="3:9">
-      <c r="C2361" s="27"/>
+      <c r="C2361" s="30"/>
       <c r="D2361" s="16"/>
       <c r="E2361" s="16"/>
       <c r="F2361" s="16"/>
@@ -55255,7 +55609,7 @@
       <c r="I2361" s="16"/>
     </row>
     <row r="2362" spans="3:9">
-      <c r="C2362" s="27"/>
+      <c r="C2362" s="30"/>
       <c r="D2362" s="16"/>
       <c r="E2362" s="16"/>
       <c r="F2362" s="16"/>
@@ -55264,7 +55618,7 @@
       <c r="I2362" s="16"/>
     </row>
     <row r="2363" spans="3:9">
-      <c r="C2363" s="27"/>
+      <c r="C2363" s="30"/>
       <c r="D2363" s="16"/>
       <c r="E2363" s="16"/>
       <c r="F2363" s="16"/>
@@ -55273,7 +55627,7 @@
       <c r="I2363" s="16"/>
     </row>
     <row r="2364" spans="3:9">
-      <c r="C2364" s="27"/>
+      <c r="C2364" s="30"/>
       <c r="D2364" s="16"/>
       <c r="E2364" s="16"/>
       <c r="F2364" s="16"/>
@@ -55282,7 +55636,7 @@
       <c r="I2364" s="16"/>
     </row>
     <row r="2365" spans="3:9">
-      <c r="C2365" s="27"/>
+      <c r="C2365" s="30"/>
       <c r="D2365" s="16"/>
       <c r="E2365" s="16"/>
       <c r="F2365" s="16"/>
@@ -55291,7 +55645,7 @@
       <c r="I2365" s="16"/>
     </row>
     <row r="2366" spans="3:9">
-      <c r="C2366" s="27"/>
+      <c r="C2366" s="30"/>
       <c r="D2366" s="16"/>
       <c r="E2366" s="16"/>
       <c r="F2366" s="16"/>
@@ -55300,7 +55654,7 @@
       <c r="I2366" s="16"/>
     </row>
     <row r="2367" spans="3:9">
-      <c r="C2367" s="27"/>
+      <c r="C2367" s="30"/>
       <c r="D2367" s="16"/>
       <c r="E2367" s="16"/>
       <c r="F2367" s="16"/>
@@ -55309,7 +55663,7 @@
       <c r="I2367" s="16"/>
     </row>
     <row r="2368" spans="3:9">
-      <c r="C2368" s="27"/>
+      <c r="C2368" s="30"/>
       <c r="D2368" s="16"/>
       <c r="E2368" s="16"/>
       <c r="F2368" s="16"/>
@@ -55318,7 +55672,7 @@
       <c r="I2368" s="16"/>
     </row>
     <row r="2369" spans="3:9">
-      <c r="C2369" s="27"/>
+      <c r="C2369" s="30"/>
       <c r="D2369" s="16"/>
       <c r="E2369" s="16"/>
       <c r="F2369" s="16"/>
@@ -55327,7 +55681,7 @@
       <c r="I2369" s="16"/>
     </row>
     <row r="2370" spans="3:9">
-      <c r="C2370" s="27"/>
+      <c r="C2370" s="30"/>
       <c r="D2370" s="16"/>
       <c r="E2370" s="16"/>
       <c r="F2370" s="16"/>
@@ -55336,7 +55690,7 @@
       <c r="I2370" s="16"/>
     </row>
     <row r="2371" spans="3:9">
-      <c r="C2371" s="27"/>
+      <c r="C2371" s="30"/>
       <c r="D2371" s="16"/>
       <c r="E2371" s="16"/>
       <c r="F2371" s="16"/>
@@ -55345,7 +55699,7 @@
       <c r="I2371" s="16"/>
     </row>
     <row r="2372" spans="3:9">
-      <c r="C2372" s="27"/>
+      <c r="C2372" s="30"/>
       <c r="D2372" s="16"/>
       <c r="E2372" s="16"/>
       <c r="F2372" s="16"/>
@@ -55354,7 +55708,7 @@
       <c r="I2372" s="16"/>
     </row>
     <row r="2373" spans="3:9">
-      <c r="C2373" s="27"/>
+      <c r="C2373" s="30"/>
       <c r="D2373" s="16"/>
       <c r="E2373" s="16"/>
       <c r="F2373" s="16"/>
@@ -55363,7 +55717,7 @@
       <c r="I2373" s="16"/>
     </row>
     <row r="2374" spans="3:9">
-      <c r="C2374" s="27"/>
+      <c r="C2374" s="30"/>
       <c r="D2374" s="16"/>
       <c r="E2374" s="16"/>
       <c r="F2374" s="16"/>
@@ -55372,7 +55726,7 @@
       <c r="I2374" s="16"/>
     </row>
     <row r="2375" spans="3:9">
-      <c r="C2375" s="27"/>
+      <c r="C2375" s="30"/>
       <c r="D2375" s="16"/>
       <c r="E2375" s="16"/>
       <c r="F2375" s="16"/>
@@ -55381,7 +55735,7 @@
       <c r="I2375" s="16"/>
     </row>
     <row r="2376" spans="3:9">
-      <c r="C2376" s="27"/>
+      <c r="C2376" s="30"/>
       <c r="D2376" s="16"/>
       <c r="E2376" s="16"/>
       <c r="F2376" s="16"/>
@@ -55390,7 +55744,7 @@
       <c r="I2376" s="16"/>
     </row>
     <row r="2377" spans="3:9">
-      <c r="C2377" s="27"/>
+      <c r="C2377" s="30"/>
       <c r="D2377" s="16"/>
       <c r="E2377" s="16"/>
       <c r="F2377" s="16"/>
@@ -55399,7 +55753,7 @@
       <c r="I2377" s="16"/>
     </row>
     <row r="2378" spans="3:9">
-      <c r="C2378" s="27"/>
+      <c r="C2378" s="30"/>
       <c r="D2378" s="16"/>
       <c r="E2378" s="16"/>
       <c r="F2378" s="16"/>
@@ -55408,7 +55762,7 @@
       <c r="I2378" s="16"/>
     </row>
     <row r="2379" spans="3:9">
-      <c r="C2379" s="27"/>
+      <c r="C2379" s="30"/>
       <c r="D2379" s="16"/>
       <c r="E2379" s="16"/>
       <c r="F2379" s="16"/>
@@ -55417,7 +55771,7 @@
       <c r="I2379" s="16"/>
     </row>
     <row r="2380" spans="3:9">
-      <c r="C2380" s="27"/>
+      <c r="C2380" s="30"/>
       <c r="D2380" s="16"/>
       <c r="E2380" s="16"/>
       <c r="F2380" s="16"/>
@@ -55426,7 +55780,7 @@
       <c r="I2380" s="16"/>
     </row>
     <row r="2381" spans="3:9">
-      <c r="C2381" s="27"/>
+      <c r="C2381" s="30"/>
       <c r="D2381" s="16"/>
       <c r="E2381" s="16"/>
       <c r="F2381" s="16"/>
@@ -55435,7 +55789,7 @@
       <c r="I2381" s="16"/>
     </row>
     <row r="2382" spans="3:9">
-      <c r="C2382" s="27"/>
+      <c r="C2382" s="30"/>
       <c r="D2382" s="16"/>
       <c r="E2382" s="16"/>
       <c r="F2382" s="16"/>
@@ -55444,7 +55798,7 @@
       <c r="I2382" s="16"/>
     </row>
     <row r="2383" spans="3:9">
-      <c r="C2383" s="27"/>
+      <c r="C2383" s="30"/>
       <c r="D2383" s="16"/>
       <c r="E2383" s="16"/>
       <c r="F2383" s="16"/>
@@ -55453,7 +55807,7 @@
       <c r="I2383" s="16"/>
     </row>
     <row r="2384" spans="3:9">
-      <c r="C2384" s="27"/>
+      <c r="C2384" s="30"/>
       <c r="D2384" s="16"/>
       <c r="E2384" s="16"/>
       <c r="F2384" s="16"/>
@@ -55462,7 +55816,7 @@
       <c r="I2384" s="16"/>
     </row>
     <row r="2385" spans="3:9">
-      <c r="C2385" s="27"/>
+      <c r="C2385" s="30"/>
       <c r="D2385" s="16"/>
       <c r="E2385" s="16"/>
       <c r="F2385" s="16"/>
@@ -55471,7 +55825,7 @@
       <c r="I2385" s="16"/>
     </row>
     <row r="2386" spans="3:9">
-      <c r="C2386" s="27"/>
+      <c r="C2386" s="30"/>
       <c r="D2386" s="16"/>
       <c r="E2386" s="16"/>
       <c r="F2386" s="16"/>
@@ -55480,7 +55834,7 @@
       <c r="I2386" s="16"/>
     </row>
     <row r="2387" spans="3:9">
-      <c r="C2387" s="27"/>
+      <c r="C2387" s="30"/>
       <c r="D2387" s="16"/>
       <c r="E2387" s="16"/>
       <c r="F2387" s="16"/>
@@ -55489,7 +55843,7 @@
       <c r="I2387" s="16"/>
     </row>
     <row r="2388" spans="3:9">
-      <c r="C2388" s="27"/>
+      <c r="C2388" s="30"/>
       <c r="D2388" s="16"/>
       <c r="E2388" s="16"/>
       <c r="F2388" s="16"/>
@@ -55498,7 +55852,7 @@
       <c r="I2388" s="16"/>
     </row>
     <row r="2389" spans="3:9">
-      <c r="C2389" s="27"/>
+      <c r="C2389" s="30"/>
       <c r="D2389" s="16"/>
       <c r="E2389" s="16"/>
       <c r="F2389" s="16"/>
@@ -55507,7 +55861,7 @@
       <c r="I2389" s="16"/>
     </row>
     <row r="2390" spans="3:9">
-      <c r="C2390" s="27"/>
+      <c r="C2390" s="30"/>
       <c r="D2390" s="16"/>
       <c r="E2390" s="16"/>
       <c r="F2390" s="16"/>
@@ -55516,7 +55870,7 @@
       <c r="I2390" s="16"/>
     </row>
     <row r="2391" spans="3:9">
-      <c r="C2391" s="27"/>
+      <c r="C2391" s="30"/>
       <c r="D2391" s="16"/>
       <c r="E2391" s="16"/>
       <c r="F2391" s="16"/>
@@ -55525,7 +55879,7 @@
       <c r="I2391" s="16"/>
     </row>
     <row r="2392" spans="3:9">
-      <c r="C2392" s="27"/>
+      <c r="C2392" s="30"/>
       <c r="D2392" s="16"/>
       <c r="E2392" s="16"/>
       <c r="F2392" s="16"/>
@@ -55534,7 +55888,7 @@
       <c r="I2392" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E1983">
+  <autoFilter ref="A3:E2019">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -55545,7 +55899,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1948 D1876:D1877 E1876:E1877 D1880" numberStoredAsText="1"/>
+    <ignoredError sqref="D1880 E1876:E1877 D1876:D1877 A1948" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -55556,7 +55910,7 @@
   <dimension ref="B1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -55881,8 +56235,12 @@
       <c r="M9" s="13">
         <v>-25.4</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="N9" s="15">
+        <v>78217</v>
+      </c>
+      <c r="O9" s="15">
+        <v>-11.2</v>
+      </c>
     </row>
     <row r="10" ht="17.75" spans="2:15">
       <c r="B10" s="6" t="s">
@@ -56084,7 +56442,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" ht="17.55" spans="2:5">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -56278,8 +56636,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -56520,7 +56878,7 @@
       <c r="M7" s="13">
         <v>-34.5</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="13">
         <v>45132</v>
       </c>
       <c r="O7" s="15">
@@ -56560,14 +56918,14 @@
       <c r="M8" s="13">
         <v>-31.8</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>56639</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" ht="17.75" spans="2:13">
+    <row r="9" ht="17.75" spans="2:15">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -56604,8 +56962,14 @@
       <c r="M9" s="13">
         <v>-31.4</v>
       </c>
-    </row>
-    <row r="10" ht="17.75" spans="2:13">
+      <c r="N9" s="13">
+        <v>63184</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" ht="17.75" spans="2:15">
       <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
@@ -56642,8 +57006,10 @@
       <c r="M10" s="13">
         <v>-30.3</v>
       </c>
-    </row>
-    <row r="11" ht="17.75" spans="2:13">
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" ht="17.75" spans="2:15">
       <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
@@ -56680,8 +57046,10 @@
       <c r="M11" s="13">
         <v>-28.6</v>
       </c>
-    </row>
-    <row r="12" ht="17.75" spans="2:13">
+      <c r="N11" s="13"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" ht="17.75" spans="2:15">
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
@@ -56718,8 +57086,10 @@
       <c r="M12" s="13">
         <v>-28.2</v>
       </c>
-    </row>
-    <row r="13" ht="17.75" spans="2:13">
+      <c r="N12" s="13"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" ht="17.75" spans="2:15">
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
@@ -56756,8 +57126,10 @@
       <c r="M13" s="13">
         <v>-28.4</v>
       </c>
-    </row>
-    <row r="14" ht="17.75" spans="2:13">
+      <c r="N13" s="13"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" ht="17.75" spans="2:15">
       <c r="B14" s="6" t="s">
         <v>47</v>
       </c>
@@ -56794,6 +57166,8 @@
       <c r="M14" s="13">
         <v>-28.3</v>
       </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" ht="17.55" spans="2:5">
       <c r="B15" s="6"/>
@@ -56989,8 +57363,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -57278,7 +57652,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="9" ht="17.75" spans="2:13">
+    <row r="9" ht="17.75" spans="2:15">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -57315,8 +57689,14 @@
       <c r="M9" s="13">
         <v>-27.1</v>
       </c>
-    </row>
-    <row r="10" ht="17.75" spans="2:13">
+      <c r="N9" s="14">
+        <v>57623</v>
+      </c>
+      <c r="O9" s="16">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="10" ht="17.75" spans="2:15">
       <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
@@ -57353,8 +57733,10 @@
       <c r="M10" s="13">
         <v>-26.8</v>
       </c>
-    </row>
-    <row r="11" ht="17.75" spans="2:13">
+      <c r="N10" s="14"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" ht="17.75" spans="2:15">
       <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
@@ -57391,8 +57773,10 @@
       <c r="M11" s="13">
         <v>-25.7</v>
       </c>
-    </row>
-    <row r="12" ht="17.75" spans="2:13">
+      <c r="N11" s="14"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" ht="17.75" spans="2:15">
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
@@ -57429,8 +57813,10 @@
       <c r="M12" s="13">
         <v>-25.5</v>
       </c>
-    </row>
-    <row r="13" ht="17.75" spans="2:13">
+      <c r="N12" s="14"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" ht="17.75" spans="2:15">
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
@@ -57467,8 +57853,10 @@
       <c r="M13" s="13">
         <v>-26.2</v>
       </c>
-    </row>
-    <row r="14" ht="17.75" spans="2:13">
+      <c r="N13" s="14"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" ht="17.75" spans="2:15">
       <c r="B14" s="6" t="s">
         <v>47</v>
       </c>
@@ -57505,6 +57893,8 @@
       <c r="M14" s="13">
         <v>-26.8</v>
       </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" ht="17.55" spans="2:5">
       <c r="B15" s="6"/>
@@ -57700,8 +58090,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -57989,7 +58379,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="9" ht="17.75" spans="2:13">
+    <row r="9" ht="17.75" spans="2:15">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -58026,8 +58416,14 @@
       <c r="M9" s="13">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="10" ht="17.75" spans="2:13">
+      <c r="N9" s="14">
+        <v>563026</v>
+      </c>
+      <c r="O9" s="15">
+        <v>-7.1</v>
+      </c>
+    </row>
+    <row r="10" ht="17.75" spans="2:15">
       <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
@@ -58064,8 +58460,10 @@
       <c r="M10" s="13">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="11" ht="17.75" spans="2:13">
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" ht="17.75" spans="2:15">
       <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
@@ -58102,8 +58500,10 @@
       <c r="M11" s="13">
         <v>-5.4</v>
       </c>
-    </row>
-    <row r="12" ht="17.75" spans="2:13">
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" ht="17.75" spans="2:15">
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
@@ -58140,8 +58540,10 @@
       <c r="M12" s="13">
         <v>-5.9</v>
       </c>
-    </row>
-    <row r="13" ht="17.75" spans="2:13">
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" ht="17.75" spans="2:15">
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
@@ -58178,8 +58580,10 @@
       <c r="M13" s="13">
         <v>-6.7</v>
       </c>
-    </row>
-    <row r="14" ht="17.75" spans="2:13">
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" ht="17.75" spans="2:15">
       <c r="B14" s="6" t="s">
         <v>47</v>
       </c>
@@ -58216,6 +58620,8 @@
       <c r="M14" s="13">
         <v>-7.3</v>
       </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" ht="17.55" spans="2:5">
       <c r="B15" s="6"/>
@@ -58411,8 +58817,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -58737,8 +59143,12 @@
       <c r="M9" s="13">
         <v>14.1</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="N9" s="15">
+        <v>31239</v>
+      </c>
+      <c r="O9" s="15">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="10" ht="17.75" spans="2:15">
       <c r="B10" s="6" t="s">
@@ -59126,8 +59536,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -59452,8 +59862,12 @@
       <c r="M9" s="13">
         <v>-5.8</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="N9" s="15">
+        <v>51485</v>
+      </c>
+      <c r="O9" s="15">
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="10" ht="17.75" spans="2:15">
       <c r="B10" s="6" t="s">
@@ -59655,7 +60069,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" ht="17.55" spans="2:5">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>

--- a/docs/macro/real-estate/全国房地产投资-2018-2023.xlsx
+++ b/docs/macro/real-estate/全国房地产投资-2018-2023.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6316" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="179">
   <si>
     <t>统计年度</t>
   </si>
@@ -214,6 +214,330 @@
     <t>771271</t>
   </si>
   <si>
+    <t>87269</t>
+  </si>
+  <si>
+    <t>-9.1</t>
+  </si>
+  <si>
+    <t>66279</t>
+  </si>
+  <si>
+    <t>-8.4</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>6269</t>
+  </si>
+  <si>
+    <t>815688</t>
+  </si>
+  <si>
+    <t>574250</t>
+  </si>
+  <si>
+    <t>32260</t>
+  </si>
+  <si>
+    <t>70825</t>
+  </si>
+  <si>
+    <t>72123</t>
+  </si>
+  <si>
+    <t>52512</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>4910</t>
+  </si>
+  <si>
+    <t>48705</t>
+  </si>
+  <si>
+    <t>35319</t>
+  </si>
+  <si>
+    <t>1461</t>
+  </si>
+  <si>
+    <t>3469</t>
+  </si>
+  <si>
+    <t>84806</t>
+  </si>
+  <si>
+    <t>72770</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>4501</t>
+  </si>
+  <si>
+    <t>89070</t>
+  </si>
+  <si>
+    <t>79311</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>4786</t>
+  </si>
+  <si>
+    <t>64537</t>
+  </si>
+  <si>
+    <t>31186</t>
+  </si>
+  <si>
+    <t>4730</t>
+  </si>
+  <si>
+    <t>14027</t>
+  </si>
+  <si>
+    <t>98067</t>
+  </si>
+  <si>
+    <t>12100</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>31252</t>
+  </si>
+  <si>
+    <t>33631</t>
+  </si>
+  <si>
+    <t>17028</t>
+  </si>
+  <si>
+    <t>95922</t>
+  </si>
+  <si>
+    <t>-9.3</t>
+  </si>
+  <si>
+    <t>72799</t>
+  </si>
+  <si>
+    <t>-8.8</t>
+  </si>
+  <si>
+    <t>3794</t>
+  </si>
+  <si>
+    <t>6892</t>
+  </si>
+  <si>
+    <t>822895</t>
+  </si>
+  <si>
+    <t>579361</t>
+  </si>
+  <si>
+    <t>32459</t>
+  </si>
+  <si>
+    <t>71391</t>
+  </si>
+  <si>
+    <t>79177</t>
+  </si>
+  <si>
+    <t>57659</t>
+  </si>
+  <si>
+    <t>2143</t>
+  </si>
+  <si>
+    <t>5369</t>
+  </si>
+  <si>
+    <t>55151</t>
+  </si>
+  <si>
+    <t>40079</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>3883</t>
+  </si>
+  <si>
+    <t>92579</t>
+  </si>
+  <si>
+    <t>79386</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>4973</t>
+  </si>
+  <si>
+    <t>97161</t>
+  </si>
+  <si>
+    <t>86502</t>
+  </si>
+  <si>
+    <t>2832</t>
+  </si>
+  <si>
+    <t>5263</t>
+  </si>
+  <si>
+    <t>64835</t>
+  </si>
+  <si>
+    <t>31362</t>
+  </si>
+  <si>
+    <t>4751</t>
+  </si>
+  <si>
+    <t>14020</t>
+  </si>
+  <si>
+    <t>107345</t>
+  </si>
+  <si>
+    <t>13117</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>34781</t>
+  </si>
+  <si>
+    <t>36596</t>
+  </si>
+  <si>
+    <t>18506</t>
+  </si>
+  <si>
+    <t>104045</t>
+  </si>
+  <si>
+    <t>-9.4</t>
+  </si>
+  <si>
+    <t>78852</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>4145</t>
+  </si>
+  <si>
+    <t>7493</t>
+  </si>
+  <si>
+    <t>831345</t>
+  </si>
+  <si>
+    <t>585309</t>
+  </si>
+  <si>
+    <t>32665</t>
+  </si>
+  <si>
+    <t>71970</t>
+  </si>
+  <si>
+    <t>87456</t>
+  </si>
+  <si>
+    <t>63737</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>65237</t>
+  </si>
+  <si>
+    <t>47581</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>4539</t>
+  </si>
+  <si>
+    <t>100509</t>
+  </si>
+  <si>
+    <t>85964</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>5493</t>
+  </si>
+  <si>
+    <t>105318</t>
+  </si>
+  <si>
+    <t>93646</t>
+  </si>
+  <si>
+    <t>3088</t>
+  </si>
+  <si>
+    <t>5772</t>
+  </si>
+  <si>
+    <t>65385</t>
+  </si>
+  <si>
+    <t>31813</t>
+  </si>
+  <si>
+    <t>4764</t>
+  </si>
+  <si>
+    <t>14069</t>
+  </si>
+  <si>
+    <t>117044</t>
+  </si>
+  <si>
+    <t>14227</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>38505</t>
+  </si>
+  <si>
+    <t>39583</t>
+  </si>
+  <si>
+    <t>19982</t>
+  </si>
+  <si>
     <t>2018年</t>
   </si>
   <si>
@@ -280,7 +604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -503,12 +827,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -697,7 +1027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -726,6 +1056,35 @@
       </top>
       <bottom style="medium">
         <color rgb="FFE8EAEC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,7 +1212,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,115 +1224,115 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -1060,19 +1419,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10469,19 +10828,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1981" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1989" sqref="D1989:E1989"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="13.9910714285714" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="17" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.7321428571429" style="18" customWidth="1"/>
     <col min="6" max="6" width="72.0267857142857" style="18" customWidth="1"/>
     <col min="7" max="9" width="12.5" style="18" customWidth="1"/>
     <col min="10" max="10" width="9.14285714285714" style="19"/>
@@ -51720,7 +52080,7 @@
       </c>
       <c r="I1980" s="16"/>
     </row>
-    <row r="1981" ht="17.75" spans="1:9">
+    <row r="1981" ht="17" spans="1:9">
       <c r="A1981" s="2" t="s">
         <v>57</v>
       </c>
@@ -51738,7 +52098,7 @@
       </c>
       <c r="I1981" s="16"/>
     </row>
-    <row r="1982" ht="17.75" spans="1:9">
+    <row r="1982" ht="17" spans="1:9">
       <c r="A1982" s="2" t="s">
         <v>57</v>
       </c>
@@ -51784,10 +52144,10 @@
       <c r="C1984" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1984" s="27">
+      <c r="D1984" s="26">
         <v>67717</v>
       </c>
-      <c r="E1984" s="28">
+      <c r="E1984" s="26">
         <v>-8.5</v>
       </c>
       <c r="F1984" s="16"/>
@@ -51805,10 +52165,10 @@
       <c r="C1985" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1985" s="27">
+      <c r="D1985" s="26">
         <v>51485</v>
       </c>
-      <c r="E1985" s="28">
+      <c r="E1985" s="26">
         <v>-7.6</v>
       </c>
       <c r="F1985" s="16"/>
@@ -51826,10 +52186,10 @@
       <c r="C1986" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1986" s="27">
+      <c r="D1986" s="26">
         <v>2689</v>
       </c>
-      <c r="E1986" s="28">
+      <c r="E1986" s="26">
         <v>-8.1</v>
       </c>
       <c r="F1986" s="16"/>
@@ -51847,10 +52207,10 @@
       <c r="C1987" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1987" s="27">
+      <c r="D1987" s="26">
         <v>4837</v>
       </c>
-      <c r="E1987" s="28">
+      <c r="E1987" s="26">
         <v>-18.3</v>
       </c>
       <c r="F1987" s="16"/>
@@ -51868,10 +52228,10 @@
       <c r="C1988" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1988" s="27">
+      <c r="D1988" s="26">
         <v>799682</v>
       </c>
-      <c r="E1988" s="28">
+      <c r="E1988" s="26">
         <v>-6.8</v>
       </c>
       <c r="F1988" s="16"/>
@@ -51889,10 +52249,10 @@
       <c r="C1989" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1989" s="27">
+      <c r="D1989" s="26">
         <v>563026</v>
       </c>
-      <c r="E1989" s="28">
+      <c r="E1989" s="26">
         <v>-7.1</v>
       </c>
       <c r="F1989" s="16"/>
@@ -51910,10 +52270,10 @@
       <c r="C1990" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1990" s="27">
+      <c r="D1990" s="26">
         <v>31754</v>
       </c>
-      <c r="E1990" s="28">
+      <c r="E1990" s="26">
         <v>-5.7</v>
       </c>
       <c r="F1990" s="16"/>
@@ -51931,10 +52291,10 @@
       <c r="C1991" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1991" s="27">
+      <c r="D1991" s="26">
         <v>69684</v>
       </c>
-      <c r="E1991" s="28">
+      <c r="E1991" s="26">
         <v>-9.4</v>
       </c>
       <c r="F1991" s="16"/>
@@ -51952,10 +52312,10 @@
       <c r="C1992" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1992" s="27">
+      <c r="D1992" s="26">
         <v>56969</v>
       </c>
-      <c r="E1992" s="28">
+      <c r="E1992" s="26">
         <v>-24.5</v>
       </c>
       <c r="F1992" s="16"/>
@@ -51973,10 +52333,10 @@
       <c r="C1993" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1993" s="27">
+      <c r="D1993" s="26">
         <v>41546</v>
       </c>
-      <c r="E1993" s="28">
+      <c r="E1993" s="26">
         <v>-25</v>
       </c>
       <c r="F1993" s="16"/>
@@ -51994,10 +52354,10 @@
       <c r="C1994" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1994" s="27">
+      <c r="D1994" s="26">
         <v>1515</v>
       </c>
-      <c r="E1994" s="28">
+      <c r="E1994" s="26">
         <v>-20.1</v>
       </c>
       <c r="F1994" s="16"/>
@@ -52015,10 +52375,10 @@
       <c r="C1995" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1995" s="27">
+      <c r="D1995" s="26">
         <v>3849</v>
       </c>
-      <c r="E1995" s="28">
+      <c r="E1995" s="26">
         <v>-25</v>
       </c>
       <c r="F1995" s="16"/>
@@ -52036,10 +52396,10 @@
       <c r="C1996" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1996" s="27">
+      <c r="D1996" s="26">
         <v>38405</v>
       </c>
-      <c r="E1996" s="28">
+      <c r="E1996" s="26">
         <v>20.5</v>
       </c>
       <c r="F1996" s="16"/>
@@ -52057,10 +52417,10 @@
       <c r="C1997" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1997" s="27">
+      <c r="D1997" s="26">
         <v>27954</v>
       </c>
-      <c r="E1997" s="28">
+      <c r="E1997" s="26">
         <v>20.8</v>
       </c>
       <c r="F1997" s="16"/>
@@ -52078,10 +52438,10 @@
       <c r="C1998" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1998" s="27">
+      <c r="D1998" s="26">
         <v>1164</v>
       </c>
-      <c r="E1998" s="28">
+      <c r="E1998" s="26">
         <v>22.2</v>
       </c>
       <c r="F1998" s="16"/>
@@ -52099,10 +52459,10 @@
       <c r="C1999" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1999" s="27">
+      <c r="D1999" s="26">
         <v>2806</v>
       </c>
-      <c r="E1999" s="28">
+      <c r="E1999" s="26">
         <v>5.7</v>
       </c>
       <c r="F1999" s="16"/>
@@ -52162,10 +52522,10 @@
       <c r="C2002" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2002" s="27">
+      <c r="D2002" s="26">
         <v>66563</v>
       </c>
-      <c r="E2002" s="28">
+      <c r="E2002" s="26">
         <v>-6.5</v>
       </c>
       <c r="F2002" s="16"/>
@@ -52183,10 +52543,10 @@
       <c r="C2003" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2003" s="27">
+      <c r="D2003" s="26">
         <v>57623</v>
       </c>
-      <c r="E2003" s="28">
+      <c r="E2003" s="26">
         <v>-4.3</v>
       </c>
       <c r="F2003" s="16"/>
@@ -52204,10 +52564,10 @@
       <c r="C2004" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2004" s="27">
+      <c r="D2004" s="26">
         <v>1430</v>
       </c>
-      <c r="E2004" s="28">
+      <c r="E2004" s="26">
         <v>-18.3</v>
       </c>
       <c r="F2004" s="16"/>
@@ -52225,10 +52585,10 @@
       <c r="C2005" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2005" s="27">
+      <c r="D2005" s="26">
         <v>3418</v>
       </c>
-      <c r="E2005" s="28">
+      <c r="E2005" s="26">
         <v>-19.8</v>
       </c>
       <c r="F2005" s="16"/>
@@ -52246,10 +52606,10 @@
       <c r="C2006" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2006" s="27">
+      <c r="D2006" s="26">
         <v>70450</v>
       </c>
-      <c r="E2006" s="28">
+      <c r="E2006" s="26">
         <v>-1.5</v>
       </c>
       <c r="F2006" s="16"/>
@@ -52267,10 +52627,10 @@
       <c r="C2007" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2007" s="27">
+      <c r="D2007" s="26">
         <v>63184</v>
       </c>
-      <c r="E2007" s="28">
+      <c r="E2007" s="26">
         <v>0.7</v>
       </c>
       <c r="F2007" s="16"/>
@@ -52288,10 +52648,10 @@
       <c r="C2008" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2008" s="27">
+      <c r="D2008" s="26">
         <v>1922</v>
       </c>
-      <c r="E2008" s="28">
+      <c r="E2008" s="26">
         <v>-20.2</v>
       </c>
       <c r="F2008" s="16"/>
@@ -52309,10 +52669,10 @@
       <c r="C2009" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2009" s="27">
+      <c r="D2009" s="26">
         <v>3616</v>
       </c>
-      <c r="E2009" s="28">
+      <c r="E2009" s="26">
         <v>-17</v>
       </c>
       <c r="F2009" s="16"/>
@@ -52330,10 +52690,10 @@
       <c r="C2010" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2010" s="27">
+      <c r="D2010" s="26">
         <v>64564</v>
       </c>
-      <c r="E2010" s="28">
+      <c r="E2010" s="26">
         <v>17.9</v>
       </c>
       <c r="F2010" s="16"/>
@@ -52351,10 +52711,10 @@
       <c r="C2011" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2011" s="27">
+      <c r="D2011" s="26">
         <v>31239</v>
       </c>
-      <c r="E2011" s="28">
+      <c r="E2011" s="26">
         <v>19.5</v>
       </c>
       <c r="F2011" s="16"/>
@@ -52372,10 +52732,10 @@
       <c r="C2012" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2012" s="27">
+      <c r="D2012" s="26">
         <v>4760</v>
       </c>
-      <c r="E2012" s="28">
+      <c r="E2012" s="26">
         <v>21.9</v>
       </c>
       <c r="F2012" s="16"/>
@@ -52393,10 +52753,10 @@
       <c r="C2013" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2013" s="27">
+      <c r="D2013" s="26">
         <v>14073</v>
       </c>
-      <c r="E2013" s="28">
+      <c r="E2013" s="26">
         <v>13.7</v>
       </c>
       <c r="F2013" s="16"/>
@@ -52414,10 +52774,10 @@
       <c r="C2014" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2014" s="27">
+      <c r="D2014" s="26">
         <v>78217</v>
       </c>
-      <c r="E2014" s="28">
+      <c r="E2014" s="26">
         <v>-11.2</v>
       </c>
       <c r="F2014" s="16"/>
@@ -52435,10 +52795,10 @@
       <c r="C2015" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2015" s="27">
+      <c r="D2015" s="26">
         <v>9732</v>
       </c>
-      <c r="E2015" s="28">
+      <c r="E2015" s="26">
         <v>-11.5</v>
       </c>
       <c r="F2015" s="16"/>
@@ -52456,10 +52816,10 @@
       <c r="C2016" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D2016" s="27">
+      <c r="D2016" s="26">
         <v>30</v>
       </c>
-      <c r="E2016" s="28">
+      <c r="E2016" s="26">
         <v>-43</v>
       </c>
       <c r="F2016" s="16"/>
@@ -52477,10 +52837,10 @@
       <c r="C2017" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2017" s="27">
+      <c r="D2017" s="26">
         <v>23916</v>
       </c>
-      <c r="E2017" s="28">
+      <c r="E2017" s="26">
         <v>-23</v>
       </c>
       <c r="F2017" s="16"/>
@@ -52498,10 +52858,10 @@
       <c r="C2018" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2018" s="27">
+      <c r="D2018" s="26">
         <v>27377</v>
       </c>
-      <c r="E2018" s="28">
+      <c r="E2018" s="26">
         <v>-3.8</v>
       </c>
       <c r="F2018" s="16"/>
@@ -52519,10 +52879,10 @@
       <c r="C2019" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2019" s="29">
+      <c r="D2019" s="26">
         <v>13950</v>
       </c>
-      <c r="E2019" s="31">
+      <c r="E2019" s="26">
         <v>-1</v>
       </c>
       <c r="F2019" s="16"/>
@@ -52531,7 +52891,7 @@
       <c r="I2019" s="16"/>
     </row>
     <row r="2020" spans="3:9">
-      <c r="C2020" s="30"/>
+      <c r="C2020" s="27"/>
       <c r="D2020" s="16"/>
       <c r="E2020" s="16"/>
       <c r="F2020" s="16"/>
@@ -52540,7 +52900,7 @@
       <c r="I2020" s="16"/>
     </row>
     <row r="2021" spans="3:9">
-      <c r="C2021" s="30"/>
+      <c r="C2021" s="27"/>
       <c r="D2021" s="16"/>
       <c r="E2021" s="16"/>
       <c r="F2021" s="16"/>
@@ -52548,638 +52908,1452 @@
       <c r="H2021" s="16"/>
       <c r="I2021" s="16"/>
     </row>
-    <row r="2022" spans="3:9">
-      <c r="C2022" s="30"/>
-      <c r="D2022" s="16"/>
-      <c r="E2022" s="16"/>
-      <c r="F2022" s="16"/>
+    <row r="2022" ht="17" spans="1:9">
+      <c r="A2022" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2022" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2022" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2022" s="28">
+        <v>76900</v>
+      </c>
+      <c r="E2022" s="29">
+        <v>-8.8</v>
+      </c>
+      <c r="F2022" s="7"/>
       <c r="G2022" s="16"/>
       <c r="H2022" s="16"/>
       <c r="I2022" s="16"/>
     </row>
-    <row r="2023" spans="3:9">
-      <c r="C2023" s="30"/>
-      <c r="D2023" s="16"/>
-      <c r="E2023" s="16"/>
-      <c r="F2023" s="16"/>
+    <row r="2023" ht="17" spans="1:9">
+      <c r="A2023" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2023" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2023" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2023" s="28">
+        <v>58425</v>
+      </c>
+      <c r="E2023" s="29">
+        <v>-8</v>
+      </c>
+      <c r="F2023" s="7"/>
       <c r="G2023" s="16"/>
       <c r="H2023" s="16"/>
       <c r="I2023" s="16"/>
     </row>
-    <row r="2024" spans="3:9">
-      <c r="C2024" s="30"/>
-      <c r="D2024" s="16"/>
-      <c r="E2024" s="16"/>
-      <c r="F2024" s="16"/>
+    <row r="2024" ht="17" spans="1:9">
+      <c r="A2024" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2024" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2024" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2024" s="28">
+        <v>3036</v>
+      </c>
+      <c r="E2024" s="29">
+        <v>-9.7</v>
+      </c>
+      <c r="F2024" s="7"/>
       <c r="G2024" s="16"/>
       <c r="H2024" s="16"/>
       <c r="I2024" s="16"/>
     </row>
-    <row r="2025" spans="3:9">
-      <c r="C2025" s="30"/>
-      <c r="D2025" s="16"/>
-      <c r="E2025" s="16"/>
-      <c r="F2025" s="16"/>
+    <row r="2025" ht="17" spans="1:9">
+      <c r="A2025" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2025" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2025" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2025" s="28">
+        <v>5490</v>
+      </c>
+      <c r="E2025" s="29">
+        <v>-17.8</v>
+      </c>
+      <c r="F2025" s="7"/>
       <c r="G2025" s="16"/>
       <c r="H2025" s="16"/>
       <c r="I2025" s="16"/>
     </row>
-    <row r="2026" spans="3:9">
-      <c r="C2026" s="30"/>
-      <c r="D2026" s="16"/>
-      <c r="E2026" s="16"/>
-      <c r="F2026" s="16"/>
+    <row r="2026" ht="17" spans="1:9">
+      <c r="A2026" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2026" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2026" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2026" s="28">
+        <v>806415</v>
+      </c>
+      <c r="E2026" s="29">
+        <v>-7.1</v>
+      </c>
+      <c r="F2026" s="7"/>
       <c r="G2026" s="16"/>
       <c r="H2026" s="16"/>
       <c r="I2026" s="16"/>
     </row>
-    <row r="2027" spans="3:9">
-      <c r="C2027" s="30"/>
-      <c r="D2027" s="16"/>
-      <c r="E2027" s="16"/>
-      <c r="F2027" s="16"/>
+    <row r="2027" ht="17" spans="1:9">
+      <c r="A2027" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2027" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2027" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2027" s="28">
+        <v>567792</v>
+      </c>
+      <c r="E2027" s="29">
+        <v>-7.3</v>
+      </c>
+      <c r="F2027" s="7"/>
       <c r="G2027" s="16"/>
       <c r="H2027" s="16"/>
       <c r="I2027" s="16"/>
     </row>
-    <row r="2028" spans="3:9">
-      <c r="C2028" s="30"/>
-      <c r="D2028" s="16"/>
-      <c r="E2028" s="16"/>
-      <c r="F2028" s="16"/>
+    <row r="2028" ht="17" spans="1:9">
+      <c r="A2028" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2028" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2028" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2028" s="28">
+        <v>31962</v>
+      </c>
+      <c r="E2028" s="29">
+        <v>-5.8</v>
+      </c>
+      <c r="F2028" s="7"/>
       <c r="G2028" s="16"/>
       <c r="H2028" s="16"/>
       <c r="I2028" s="16"/>
     </row>
-    <row r="2029" spans="3:9">
-      <c r="C2029" s="30"/>
-      <c r="D2029" s="16"/>
-      <c r="E2029" s="16"/>
-      <c r="F2029" s="16"/>
+    <row r="2029" ht="17" spans="1:9">
+      <c r="A2029" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2029" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2029" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2029" s="28">
+        <v>70258</v>
+      </c>
+      <c r="E2029" s="29">
+        <v>-9.5</v>
+      </c>
+      <c r="F2029" s="7"/>
       <c r="G2029" s="16"/>
       <c r="H2029" s="16"/>
       <c r="I2029" s="16"/>
     </row>
-    <row r="2030" spans="3:9">
-      <c r="C2030" s="30"/>
-      <c r="D2030" s="16"/>
-      <c r="E2030" s="16"/>
-      <c r="F2030" s="16"/>
+    <row r="2030" ht="17" spans="1:9">
+      <c r="A2030" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2030" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2030" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2030" s="28">
+        <v>63891</v>
+      </c>
+      <c r="E2030" s="29">
+        <v>-24.4</v>
+      </c>
+      <c r="F2030" s="7"/>
       <c r="G2030" s="16"/>
       <c r="H2030" s="16"/>
       <c r="I2030" s="16"/>
     </row>
-    <row r="2031" spans="3:9">
-      <c r="C2031" s="30"/>
-      <c r="D2031" s="16"/>
-      <c r="E2031" s="16"/>
-      <c r="F2031" s="16"/>
+    <row r="2031" ht="17" spans="1:9">
+      <c r="A2031" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2031" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2031" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2031" s="28">
+        <v>46636</v>
+      </c>
+      <c r="E2031" s="29">
+        <v>-24.7</v>
+      </c>
+      <c r="F2031" s="7"/>
       <c r="G2031" s="16"/>
       <c r="H2031" s="16"/>
       <c r="I2031" s="16"/>
     </row>
-    <row r="2032" spans="3:9">
-      <c r="C2032" s="30"/>
-      <c r="D2032" s="16"/>
-      <c r="E2032" s="16"/>
-      <c r="F2032" s="16"/>
+    <row r="2032" ht="17" spans="1:9">
+      <c r="A2032" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2032" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2032" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2032" s="28">
+        <v>1662</v>
+      </c>
+      <c r="E2032" s="29">
+        <v>-23.4</v>
+      </c>
+      <c r="F2032" s="7"/>
       <c r="G2032" s="16"/>
       <c r="H2032" s="16"/>
       <c r="I2032" s="16"/>
     </row>
-    <row r="2033" spans="3:9">
-      <c r="C2033" s="30"/>
-      <c r="D2033" s="16"/>
-      <c r="E2033" s="16"/>
-      <c r="F2033" s="16"/>
+    <row r="2033" ht="17" spans="1:9">
+      <c r="A2033" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2033" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2033" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2033" s="28">
+        <v>4358</v>
+      </c>
+      <c r="E2033" s="29">
+        <v>-24.5</v>
+      </c>
+      <c r="F2033" s="7"/>
       <c r="G2033" s="16"/>
       <c r="H2033" s="16"/>
       <c r="I2033" s="16"/>
     </row>
-    <row r="2034" spans="3:9">
-      <c r="C2034" s="30"/>
-      <c r="D2034" s="16"/>
-      <c r="E2034" s="16"/>
-      <c r="F2034" s="16"/>
+    <row r="2034" ht="17" spans="1:9">
+      <c r="A2034" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2034" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2034" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2034" s="28">
+        <v>43726</v>
+      </c>
+      <c r="E2034" s="29">
+        <v>19.2</v>
+      </c>
+      <c r="F2034" s="7"/>
       <c r="G2034" s="16"/>
       <c r="H2034" s="16"/>
       <c r="I2034" s="16"/>
     </row>
-    <row r="2035" spans="3:9">
-      <c r="C2035" s="30"/>
-      <c r="D2035" s="16"/>
-      <c r="E2035" s="16"/>
-      <c r="F2035" s="16"/>
+    <row r="2035" ht="17" spans="1:9">
+      <c r="A2035" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2035" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2035" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2035" s="28">
+        <v>31775</v>
+      </c>
+      <c r="E2035" s="29">
+        <v>19.5</v>
+      </c>
+      <c r="F2035" s="7"/>
       <c r="G2035" s="16"/>
       <c r="H2035" s="16"/>
       <c r="I2035" s="16"/>
     </row>
-    <row r="2036" spans="3:9">
-      <c r="C2036" s="30"/>
-      <c r="D2036" s="16"/>
-      <c r="E2036" s="16"/>
-      <c r="F2036" s="16"/>
+    <row r="2036" ht="17" spans="1:9">
+      <c r="A2036" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2036" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2036" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2036" s="28">
+        <v>1289</v>
+      </c>
+      <c r="E2036" s="29">
+        <v>16.9</v>
+      </c>
+      <c r="F2036" s="7"/>
       <c r="G2036" s="16"/>
       <c r="H2036" s="16"/>
       <c r="I2036" s="16"/>
     </row>
-    <row r="2037" spans="3:9">
-      <c r="C2037" s="30"/>
-      <c r="D2037" s="16"/>
-      <c r="E2037" s="16"/>
-      <c r="F2037" s="16"/>
+    <row r="2037" ht="17" spans="1:9">
+      <c r="A2037" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2037" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2037" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2037" s="28">
+        <v>3187</v>
+      </c>
+      <c r="E2037" s="29">
+        <v>5.1</v>
+      </c>
+      <c r="F2037" s="7"/>
       <c r="G2037" s="16"/>
       <c r="H2037" s="16"/>
       <c r="I2037" s="16"/>
     </row>
-    <row r="2038" spans="3:9">
-      <c r="C2038" s="30"/>
-      <c r="D2038" s="16"/>
-      <c r="E2038" s="16"/>
-      <c r="F2038" s="16"/>
+    <row r="2038" ht="17" spans="1:9">
+      <c r="A2038" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2038" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2038" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2038" s="28">
+        <v>73949</v>
+      </c>
+      <c r="E2038" s="29">
+        <v>-7.1</v>
+      </c>
+      <c r="F2038" s="7"/>
       <c r="G2038" s="16"/>
       <c r="H2038" s="16"/>
       <c r="I2038" s="16"/>
     </row>
-    <row r="2039" spans="3:9">
-      <c r="C2039" s="30"/>
-      <c r="D2039" s="16"/>
-      <c r="E2039" s="16"/>
-      <c r="F2039" s="16"/>
+    <row r="2039" ht="17" spans="1:9">
+      <c r="A2039" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2039" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2039" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2039" s="28">
+        <v>63811</v>
+      </c>
+      <c r="E2039" s="29">
+        <v>-5.5</v>
+      </c>
+      <c r="F2039" s="7"/>
       <c r="G2039" s="16"/>
       <c r="H2039" s="16"/>
       <c r="I2039" s="16"/>
     </row>
-    <row r="2040" spans="3:9">
-      <c r="C2040" s="30"/>
-      <c r="D2040" s="16"/>
-      <c r="E2040" s="16"/>
-      <c r="F2040" s="16"/>
+    <row r="2040" ht="17" spans="1:9">
+      <c r="A2040" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2040" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2040" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2040" s="28">
+        <v>1641</v>
+      </c>
+      <c r="E2040" s="29">
+        <v>-12.7</v>
+      </c>
+      <c r="F2040" s="7"/>
       <c r="G2040" s="16"/>
       <c r="H2040" s="16"/>
       <c r="I2040" s="16"/>
     </row>
-    <row r="2041" spans="3:9">
-      <c r="C2041" s="30"/>
-      <c r="D2041" s="16"/>
-      <c r="E2041" s="16"/>
-      <c r="F2041" s="16"/>
+    <row r="2041" ht="17" spans="1:9">
+      <c r="A2041" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2041" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2041" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2041" s="28">
+        <v>3837</v>
+      </c>
+      <c r="E2041" s="29">
+        <v>-18.5</v>
+      </c>
+      <c r="F2041" s="7"/>
       <c r="G2041" s="16"/>
       <c r="H2041" s="16"/>
       <c r="I2041" s="16"/>
     </row>
-    <row r="2042" spans="3:9">
-      <c r="C2042" s="30"/>
-      <c r="D2042" s="16"/>
-      <c r="E2042" s="16"/>
-      <c r="F2042" s="16"/>
+    <row r="2042" ht="17" spans="1:9">
+      <c r="A2042" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2042" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2042" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2042" s="28">
+        <v>78158</v>
+      </c>
+      <c r="E2042" s="29">
+        <v>-3.2</v>
+      </c>
+      <c r="F2042" s="7"/>
       <c r="G2042" s="16"/>
       <c r="H2042" s="16"/>
       <c r="I2042" s="16"/>
     </row>
-    <row r="2043" spans="3:9">
-      <c r="C2043" s="30"/>
-      <c r="D2043" s="16"/>
-      <c r="E2043" s="16"/>
-      <c r="F2043" s="16"/>
+    <row r="2043" ht="17" spans="1:9">
+      <c r="A2043" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2043" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2043" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2043" s="28">
+        <v>69918</v>
+      </c>
+      <c r="E2043" s="29">
+        <v>-1.5</v>
+      </c>
+      <c r="F2043" s="7"/>
       <c r="G2043" s="16"/>
       <c r="H2043" s="16"/>
       <c r="I2043" s="16"/>
     </row>
-    <row r="2044" spans="3:9">
-      <c r="C2044" s="30"/>
-      <c r="D2044" s="16"/>
-      <c r="E2044" s="16"/>
-      <c r="F2044" s="16"/>
+    <row r="2044" ht="17" spans="1:9">
+      <c r="A2044" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2044" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2044" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2044" s="28">
+        <v>2224</v>
+      </c>
+      <c r="E2044" s="29">
+        <v>-16.6</v>
+      </c>
+      <c r="F2044" s="7"/>
       <c r="G2044" s="16"/>
       <c r="H2044" s="16"/>
       <c r="I2044" s="16"/>
     </row>
-    <row r="2045" spans="3:9">
-      <c r="C2045" s="30"/>
-      <c r="D2045" s="16"/>
-      <c r="E2045" s="16"/>
-      <c r="F2045" s="16"/>
+    <row r="2045" ht="17" spans="1:9">
+      <c r="A2045" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2045" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2045" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2045" s="28">
+        <v>4059</v>
+      </c>
+      <c r="E2045" s="29">
+        <v>-15.8</v>
+      </c>
+      <c r="F2045" s="7"/>
       <c r="G2045" s="16"/>
       <c r="H2045" s="16"/>
       <c r="I2045" s="16"/>
     </row>
-    <row r="2046" spans="3:9">
-      <c r="C2046" s="30"/>
-      <c r="D2046" s="16"/>
-      <c r="E2046" s="16"/>
-      <c r="F2046" s="16"/>
+    <row r="2046" ht="17" spans="1:9">
+      <c r="A2046" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2046" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2046" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2046" s="28">
+        <v>64795</v>
+      </c>
+      <c r="E2046" s="29">
+        <v>18.2</v>
+      </c>
+      <c r="F2046" s="7"/>
       <c r="G2046" s="16"/>
       <c r="H2046" s="16"/>
       <c r="I2046" s="16"/>
     </row>
-    <row r="2047" spans="3:9">
-      <c r="C2047" s="30"/>
-      <c r="D2047" s="16"/>
-      <c r="E2047" s="16"/>
-      <c r="F2047" s="16"/>
+    <row r="2047" ht="17" spans="1:9">
+      <c r="A2047" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2047" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2047" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2047" s="28">
+        <v>31366</v>
+      </c>
+      <c r="E2047" s="29">
+        <v>19.9</v>
+      </c>
+      <c r="F2047" s="7"/>
       <c r="G2047" s="16"/>
       <c r="H2047" s="16"/>
       <c r="I2047" s="16"/>
     </row>
-    <row r="2048" spans="3:9">
-      <c r="C2048" s="30"/>
-      <c r="D2048" s="16"/>
-      <c r="E2048" s="16"/>
-      <c r="F2048" s="16"/>
+    <row r="2048" ht="17" spans="1:9">
+      <c r="A2048" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2048" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2048" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2048" s="28">
+        <v>4736</v>
+      </c>
+      <c r="E2048" s="29">
+        <v>20.6</v>
+      </c>
+      <c r="F2048" s="7"/>
       <c r="G2048" s="16"/>
       <c r="H2048" s="16"/>
       <c r="I2048" s="16"/>
     </row>
-    <row r="2049" spans="3:9">
-      <c r="C2049" s="30"/>
-      <c r="D2049" s="16"/>
-      <c r="E2049" s="16"/>
-      <c r="F2049" s="16"/>
+    <row r="2049" ht="17" spans="1:9">
+      <c r="A2049" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2049" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2049" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2049" s="28">
+        <v>14066</v>
+      </c>
+      <c r="E2049" s="29">
+        <v>13.8</v>
+      </c>
+      <c r="F2049" s="7"/>
       <c r="G2049" s="16"/>
       <c r="H2049" s="16"/>
       <c r="I2049" s="16"/>
     </row>
-    <row r="2050" spans="3:9">
-      <c r="C2050" s="30"/>
-      <c r="D2050" s="16"/>
-      <c r="E2050" s="16"/>
-      <c r="F2050" s="16"/>
+    <row r="2050" ht="17" spans="1:9">
+      <c r="A2050" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2050" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2050" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2050" s="28">
+        <v>87116</v>
+      </c>
+      <c r="E2050" s="29">
+        <v>-12.9</v>
+      </c>
+      <c r="F2050" s="7"/>
       <c r="G2050" s="16"/>
       <c r="H2050" s="16"/>
       <c r="I2050" s="16"/>
     </row>
-    <row r="2051" spans="3:9">
-      <c r="C2051" s="30"/>
-      <c r="D2051" s="16"/>
-      <c r="E2051" s="16"/>
-      <c r="F2051" s="16"/>
+    <row r="2051" ht="17" spans="1:9">
+      <c r="A2051" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2051" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2051" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2051" s="28">
+        <v>10671</v>
+      </c>
+      <c r="E2051" s="29">
+        <v>-12.8</v>
+      </c>
+      <c r="F2051" s="7"/>
       <c r="G2051" s="16"/>
       <c r="H2051" s="16"/>
       <c r="I2051" s="16"/>
     </row>
-    <row r="2052" spans="3:9">
-      <c r="C2052" s="30"/>
-      <c r="D2052" s="16"/>
-      <c r="E2052" s="16"/>
-      <c r="F2052" s="16"/>
+    <row r="2052" ht="17" spans="1:9">
+      <c r="A2052" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2052" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2052" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2052" s="28">
+        <v>35</v>
+      </c>
+      <c r="E2052" s="29">
+        <v>-41.6</v>
+      </c>
+      <c r="F2052" s="7"/>
       <c r="G2052" s="16"/>
       <c r="H2052" s="16"/>
       <c r="I2052" s="16"/>
     </row>
-    <row r="2053" spans="3:9">
-      <c r="C2053" s="30"/>
-      <c r="D2053" s="16"/>
-      <c r="E2053" s="16"/>
-      <c r="F2053" s="16"/>
+    <row r="2053" ht="17" spans="1:9">
+      <c r="A2053" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2053" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2053" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2053" s="28">
+        <v>27195</v>
+      </c>
+      <c r="E2053" s="29">
+        <v>-22.9</v>
+      </c>
+      <c r="F2053" s="7"/>
       <c r="G2053" s="16"/>
       <c r="H2053" s="16"/>
       <c r="I2053" s="16"/>
     </row>
-    <row r="2054" spans="3:9">
-      <c r="C2054" s="30"/>
-      <c r="D2054" s="16"/>
-      <c r="E2054" s="16"/>
-      <c r="F2054" s="16"/>
+    <row r="2054" ht="17" spans="1:9">
+      <c r="A2054" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2054" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2054" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2054" s="28">
+        <v>30185</v>
+      </c>
+      <c r="E2054" s="29">
+        <v>-7.3</v>
+      </c>
+      <c r="F2054" s="7"/>
       <c r="G2054" s="16"/>
       <c r="H2054" s="16"/>
       <c r="I2054" s="16"/>
     </row>
-    <row r="2055" spans="3:9">
-      <c r="C2055" s="30"/>
-      <c r="D2055" s="16"/>
-      <c r="E2055" s="16"/>
-      <c r="F2055" s="16"/>
+    <row r="2055" ht="17.75" spans="1:9">
+      <c r="A2055" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2055" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2055" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2055" s="30">
+        <v>15453</v>
+      </c>
+      <c r="E2055" s="31">
+        <v>-4.3</v>
+      </c>
+      <c r="F2055" s="7"/>
       <c r="G2055" s="16"/>
       <c r="H2055" s="16"/>
       <c r="I2055" s="16"/>
     </row>
-    <row r="2056" spans="3:9">
-      <c r="C2056" s="30"/>
+    <row r="2056" ht="17.55" spans="3:9">
+      <c r="C2056" s="7"/>
       <c r="D2056" s="16"/>
       <c r="E2056" s="16"/>
-      <c r="F2056" s="16"/>
       <c r="G2056" s="16"/>
       <c r="H2056" s="16"/>
       <c r="I2056" s="16"/>
     </row>
     <row r="2057" spans="3:9">
-      <c r="C2057" s="30"/>
+      <c r="C2057" s="7"/>
       <c r="D2057" s="16"/>
       <c r="E2057" s="16"/>
-      <c r="F2057" s="16"/>
       <c r="G2057" s="16"/>
       <c r="H2057" s="16"/>
       <c r="I2057" s="16"/>
     </row>
-    <row r="2058" spans="3:9">
-      <c r="C2058" s="30"/>
-      <c r="D2058" s="16"/>
-      <c r="E2058" s="16"/>
-      <c r="F2058" s="16"/>
+    <row r="2058" ht="17" spans="1:9">
+      <c r="A2058" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2058" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2058" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2058" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2058" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2058" s="7"/>
       <c r="G2058" s="16"/>
       <c r="H2058" s="16"/>
       <c r="I2058" s="16"/>
     </row>
-    <row r="2059" spans="3:9">
-      <c r="C2059" s="30"/>
-      <c r="D2059" s="16"/>
-      <c r="E2059" s="16"/>
-      <c r="F2059" s="16"/>
+    <row r="2059" ht="17" spans="1:9">
+      <c r="A2059" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2059" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2059" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2059" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2059" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2059" s="7"/>
       <c r="G2059" s="16"/>
       <c r="H2059" s="16"/>
       <c r="I2059" s="16"/>
     </row>
-    <row r="2060" spans="3:9">
-      <c r="C2060" s="30"/>
-      <c r="D2060" s="16"/>
-      <c r="E2060" s="16"/>
-      <c r="F2060" s="16"/>
+    <row r="2060" ht="17" spans="1:9">
+      <c r="A2060" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2060" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2060" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2060" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2060" s="16">
+        <v>-11</v>
+      </c>
+      <c r="F2060" s="7"/>
       <c r="G2060" s="16"/>
       <c r="H2060" s="16"/>
       <c r="I2060" s="16"/>
     </row>
-    <row r="2061" spans="3:9">
-      <c r="C2061" s="30"/>
-      <c r="D2061" s="16"/>
-      <c r="E2061" s="16"/>
-      <c r="F2061" s="16"/>
+    <row r="2061" ht="17" spans="1:9">
+      <c r="A2061" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2061" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2061" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2061" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2061" s="16">
+        <v>-17.6</v>
+      </c>
+      <c r="F2061" s="7"/>
       <c r="G2061" s="16"/>
       <c r="H2061" s="16"/>
       <c r="I2061" s="16"/>
     </row>
-    <row r="2062" spans="3:9">
-      <c r="C2062" s="30"/>
-      <c r="D2062" s="16"/>
-      <c r="E2062" s="16"/>
-      <c r="F2062" s="16"/>
+    <row r="2062" ht="17" spans="1:9">
+      <c r="A2062" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2062" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2062" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2062" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2062" s="16">
+        <v>-7.1</v>
+      </c>
+      <c r="F2062" s="7"/>
       <c r="G2062" s="16"/>
       <c r="H2062" s="16"/>
       <c r="I2062" s="16"/>
     </row>
-    <row r="2063" spans="3:9">
-      <c r="C2063" s="30"/>
-      <c r="D2063" s="16"/>
-      <c r="E2063" s="16"/>
-      <c r="F2063" s="16"/>
+    <row r="2063" ht="17" spans="1:9">
+      <c r="A2063" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2063" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2063" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2063" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2063" s="16">
+        <v>-7.4</v>
+      </c>
+      <c r="F2063" s="7"/>
       <c r="G2063" s="16"/>
       <c r="H2063" s="16"/>
       <c r="I2063" s="16"/>
     </row>
-    <row r="2064" spans="3:9">
-      <c r="C2064" s="30"/>
-      <c r="D2064" s="16"/>
-      <c r="E2064" s="16"/>
-      <c r="F2064" s="16"/>
+    <row r="2064" ht="17" spans="1:9">
+      <c r="A2064" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2064" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2064" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2064" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2064" s="16">
+        <v>-5.5</v>
+      </c>
+      <c r="F2064" s="7"/>
       <c r="G2064" s="16"/>
       <c r="H2064" s="16"/>
       <c r="I2064" s="16"/>
     </row>
-    <row r="2065" spans="3:9">
-      <c r="C2065" s="30"/>
-      <c r="D2065" s="16"/>
-      <c r="E2065" s="16"/>
-      <c r="F2065" s="16"/>
+    <row r="2065" ht="17" spans="1:9">
+      <c r="A2065" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2065" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2065" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2065" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2065" s="16">
+        <v>-9.5</v>
+      </c>
+      <c r="F2065" s="7"/>
       <c r="G2065" s="16"/>
       <c r="H2065" s="16"/>
       <c r="I2065" s="16"/>
     </row>
-    <row r="2066" spans="3:9">
-      <c r="C2066" s="30"/>
-      <c r="D2066" s="16"/>
-      <c r="E2066" s="16"/>
-      <c r="F2066" s="16"/>
+    <row r="2066" ht="17" spans="1:9">
+      <c r="A2066" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2066" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2066" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2066" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2066" s="16">
+        <v>-23.4</v>
+      </c>
+      <c r="F2066" s="7"/>
       <c r="G2066" s="16"/>
       <c r="H2066" s="16"/>
       <c r="I2066" s="16"/>
     </row>
-    <row r="2067" spans="3:9">
-      <c r="C2067" s="30"/>
-      <c r="D2067" s="16"/>
-      <c r="E2067" s="16"/>
-      <c r="F2067" s="16"/>
+    <row r="2067" ht="17" spans="1:9">
+      <c r="A2067" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2067" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2067" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2067" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2067" s="16">
+        <v>-23.9</v>
+      </c>
+      <c r="F2067" s="7"/>
       <c r="G2067" s="16"/>
       <c r="H2067" s="16"/>
       <c r="I2067" s="16"/>
     </row>
-    <row r="2068" spans="3:9">
-      <c r="C2068" s="30"/>
-      <c r="D2068" s="16"/>
-      <c r="E2068" s="16"/>
-      <c r="F2068" s="16"/>
+    <row r="2068" ht="17" spans="1:9">
+      <c r="A2068" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2068" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2068" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2068" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2068" s="16">
+        <v>-20.2</v>
+      </c>
+      <c r="F2068" s="7"/>
       <c r="G2068" s="16"/>
       <c r="H2068" s="16"/>
       <c r="I2068" s="16"/>
     </row>
-    <row r="2069" spans="3:9">
-      <c r="C2069" s="30"/>
-      <c r="D2069" s="16"/>
-      <c r="E2069" s="16"/>
-      <c r="F2069" s="16"/>
+    <row r="2069" ht="17" spans="1:9">
+      <c r="A2069" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2069" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2069" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2069" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2069" s="16">
+        <v>-23.6</v>
+      </c>
+      <c r="F2069" s="7"/>
       <c r="G2069" s="16"/>
       <c r="H2069" s="16"/>
       <c r="I2069" s="16"/>
     </row>
-    <row r="2070" spans="3:9">
-      <c r="C2070" s="30"/>
-      <c r="D2070" s="16"/>
-      <c r="E2070" s="16"/>
-      <c r="F2070" s="16"/>
+    <row r="2070" ht="17" spans="1:9">
+      <c r="A2070" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2070" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2070" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2070" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2070" s="16">
+        <v>19.8</v>
+      </c>
+      <c r="F2070" s="7"/>
       <c r="G2070" s="16"/>
       <c r="H2070" s="16"/>
       <c r="I2070" s="16"/>
     </row>
-    <row r="2071" spans="3:9">
-      <c r="C2071" s="30"/>
-      <c r="D2071" s="16"/>
-      <c r="E2071" s="16"/>
-      <c r="F2071" s="16"/>
+    <row r="2071" ht="17" spans="1:9">
+      <c r="A2071" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2071" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2071" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2071" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2071" s="16">
+        <v>20.1</v>
+      </c>
+      <c r="F2071" s="7"/>
       <c r="G2071" s="16"/>
       <c r="H2071" s="16"/>
       <c r="I2071" s="16"/>
     </row>
-    <row r="2072" spans="3:9">
-      <c r="C2072" s="30"/>
-      <c r="D2072" s="16"/>
-      <c r="E2072" s="16"/>
-      <c r="F2072" s="16"/>
+    <row r="2072" ht="17" spans="1:9">
+      <c r="A2072" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2072" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2072" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2072" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2072" s="16">
+        <v>15</v>
+      </c>
+      <c r="F2072" s="7"/>
       <c r="G2072" s="16"/>
       <c r="H2072" s="16"/>
       <c r="I2072" s="16"/>
     </row>
-    <row r="2073" spans="3:9">
-      <c r="C2073" s="30"/>
-      <c r="D2073" s="16"/>
-      <c r="E2073" s="16"/>
-      <c r="F2073" s="16"/>
+    <row r="2073" ht="17" spans="1:9">
+      <c r="A2073" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2073" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2073" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2073" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2073" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="F2073" s="7"/>
       <c r="G2073" s="16"/>
       <c r="H2073" s="16"/>
       <c r="I2073" s="16"/>
     </row>
-    <row r="2074" spans="3:9">
-      <c r="C2074" s="30"/>
-      <c r="D2074" s="16"/>
-      <c r="E2074" s="16"/>
-      <c r="F2074" s="16"/>
+    <row r="2074" ht="17" spans="1:9">
+      <c r="A2074" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2074" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2074" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2074" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2074" s="16">
+        <v>-7.5</v>
+      </c>
+      <c r="F2074" s="7"/>
       <c r="G2074" s="16"/>
       <c r="H2074" s="16"/>
       <c r="I2074" s="16"/>
     </row>
-    <row r="2075" spans="3:9">
-      <c r="C2075" s="30"/>
-      <c r="D2075" s="16"/>
-      <c r="E2075" s="16"/>
-      <c r="F2075" s="16"/>
+    <row r="2075" ht="17" spans="1:9">
+      <c r="A2075" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2075" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2075" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2075" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2075" s="16">
+        <v>-6.3</v>
+      </c>
+      <c r="F2075" s="7"/>
       <c r="G2075" s="16"/>
       <c r="H2075" s="16"/>
       <c r="I2075" s="16"/>
     </row>
-    <row r="2076" spans="3:9">
-      <c r="C2076" s="30"/>
-      <c r="D2076" s="16"/>
-      <c r="E2076" s="16"/>
-      <c r="F2076" s="16"/>
+    <row r="2076" ht="17" spans="1:9">
+      <c r="A2076" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2076" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2076" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2076" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2076" s="16">
+        <v>-11.8</v>
+      </c>
+      <c r="F2076" s="7"/>
       <c r="G2076" s="16"/>
       <c r="H2076" s="16"/>
       <c r="I2076" s="16"/>
     </row>
-    <row r="2077" spans="3:9">
-      <c r="C2077" s="30"/>
-      <c r="D2077" s="16"/>
-      <c r="E2077" s="16"/>
-      <c r="F2077" s="16"/>
+    <row r="2077" ht="17" spans="1:9">
+      <c r="A2077" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2077" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2077" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2077" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2077" s="16">
+        <v>-17</v>
+      </c>
+      <c r="F2077" s="7"/>
       <c r="G2077" s="16"/>
       <c r="H2077" s="16"/>
       <c r="I2077" s="16"/>
     </row>
-    <row r="2078" spans="3:9">
-      <c r="C2078" s="30"/>
-      <c r="D2078" s="16"/>
-      <c r="E2078" s="16"/>
-      <c r="F2078" s="16"/>
+    <row r="2078" ht="17" spans="1:9">
+      <c r="A2078" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2078" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2078" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2078" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2078" s="16">
+        <v>-4.6</v>
+      </c>
+      <c r="F2078" s="7"/>
       <c r="G2078" s="16"/>
       <c r="H2078" s="16"/>
       <c r="I2078" s="16"/>
     </row>
-    <row r="2079" spans="3:9">
-      <c r="C2079" s="30"/>
-      <c r="D2079" s="16"/>
-      <c r="E2079" s="16"/>
-      <c r="F2079" s="16"/>
+    <row r="2079" ht="17" spans="1:9">
+      <c r="A2079" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2079" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2079" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2079" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2079" s="16">
+        <v>-3.2</v>
+      </c>
+      <c r="F2079" s="7"/>
       <c r="G2079" s="16"/>
       <c r="H2079" s="16"/>
       <c r="I2079" s="16"/>
     </row>
-    <row r="2080" spans="3:9">
-      <c r="C2080" s="30"/>
-      <c r="D2080" s="16"/>
-      <c r="E2080" s="16"/>
-      <c r="F2080" s="16"/>
+    <row r="2080" ht="17" spans="1:9">
+      <c r="A2080" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2080" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2080" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2080" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2080" s="16">
+        <v>-16.1</v>
+      </c>
+      <c r="F2080" s="7"/>
       <c r="G2080" s="16"/>
       <c r="H2080" s="16"/>
       <c r="I2080" s="16"/>
     </row>
-    <row r="2081" spans="3:9">
-      <c r="C2081" s="30"/>
-      <c r="D2081" s="16"/>
-      <c r="E2081" s="16"/>
-      <c r="F2081" s="16"/>
+    <row r="2081" ht="17" spans="1:9">
+      <c r="A2081" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2081" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2081" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2081" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2081" s="16">
+        <v>-14.6</v>
+      </c>
+      <c r="F2081" s="7"/>
       <c r="G2081" s="16"/>
       <c r="H2081" s="16"/>
       <c r="I2081" s="16"/>
     </row>
-    <row r="2082" spans="3:9">
-      <c r="C2082" s="30"/>
-      <c r="D2082" s="16"/>
-      <c r="E2082" s="16"/>
-      <c r="F2082" s="16"/>
+    <row r="2082" ht="17" spans="1:9">
+      <c r="A2082" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2082" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2082" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2082" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2082" s="16">
+        <v>18.3</v>
+      </c>
+      <c r="F2082" s="7"/>
       <c r="G2082" s="16"/>
       <c r="H2082" s="16"/>
       <c r="I2082" s="16"/>
     </row>
-    <row r="2083" spans="3:9">
-      <c r="C2083" s="30"/>
-      <c r="D2083" s="16"/>
-      <c r="E2083" s="16"/>
-      <c r="F2083" s="16"/>
+    <row r="2083" ht="17" spans="1:9">
+      <c r="A2083" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2083" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2083" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2083" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2083" s="16">
+        <v>19.7</v>
+      </c>
+      <c r="F2083" s="7"/>
       <c r="G2083" s="16"/>
       <c r="H2083" s="16"/>
       <c r="I2083" s="16"/>
     </row>
-    <row r="2084" spans="3:9">
-      <c r="C2084" s="30"/>
-      <c r="D2084" s="16"/>
-      <c r="E2084" s="16"/>
-      <c r="F2084" s="16"/>
+    <row r="2084" ht="17" spans="1:9">
+      <c r="A2084" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2084" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2084" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2084" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2084" s="16">
+        <v>21.4</v>
+      </c>
+      <c r="F2084" s="7"/>
       <c r="G2084" s="16"/>
       <c r="H2084" s="16"/>
       <c r="I2084" s="16"/>
     </row>
-    <row r="2085" spans="3:9">
-      <c r="C2085" s="30"/>
-      <c r="D2085" s="16"/>
-      <c r="E2085" s="16"/>
-      <c r="F2085" s="16"/>
+    <row r="2085" ht="17" spans="1:9">
+      <c r="A2085" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2085" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2085" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2085" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2085" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="F2085" s="7"/>
       <c r="G2085" s="16"/>
       <c r="H2085" s="16"/>
       <c r="I2085" s="16"/>
     </row>
-    <row r="2086" spans="3:9">
-      <c r="C2086" s="30"/>
-      <c r="D2086" s="16"/>
-      <c r="E2086" s="16"/>
-      <c r="F2086" s="16"/>
+    <row r="2086" ht="17" spans="1:9">
+      <c r="A2086" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2086" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2086" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2086" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2086" s="16">
+        <v>-13.5</v>
+      </c>
+      <c r="F2086" s="7"/>
       <c r="G2086" s="16"/>
       <c r="H2086" s="16"/>
       <c r="I2086" s="16"/>
     </row>
-    <row r="2087" spans="3:9">
-      <c r="C2087" s="30"/>
-      <c r="D2087" s="16"/>
-      <c r="E2087" s="16"/>
-      <c r="F2087" s="16"/>
+    <row r="2087" ht="17" spans="1:9">
+      <c r="A2087" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2087" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2087" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2087" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2087" s="16">
+        <v>-11.1</v>
+      </c>
+      <c r="F2087" s="7"/>
       <c r="G2087" s="16"/>
       <c r="H2087" s="16"/>
       <c r="I2087" s="16"/>
     </row>
-    <row r="2088" spans="3:9">
-      <c r="C2088" s="30"/>
-      <c r="D2088" s="16"/>
-      <c r="E2088" s="16"/>
-      <c r="F2088" s="16"/>
+    <row r="2088" ht="17" spans="1:9">
+      <c r="A2088" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2088" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2088" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2088" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2088" s="16">
+        <v>-40</v>
+      </c>
+      <c r="F2088" s="7"/>
       <c r="G2088" s="16"/>
       <c r="H2088" s="16"/>
       <c r="I2088" s="16"/>
     </row>
-    <row r="2089" spans="3:9">
-      <c r="C2089" s="30"/>
-      <c r="D2089" s="16"/>
-      <c r="E2089" s="16"/>
-      <c r="F2089" s="16"/>
+    <row r="2089" ht="17" spans="1:9">
+      <c r="A2089" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2089" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2089" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2089" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2089" s="16">
+        <v>-21.8</v>
+      </c>
+      <c r="F2089" s="7"/>
       <c r="G2089" s="16"/>
       <c r="H2089" s="16"/>
       <c r="I2089" s="16"/>
     </row>
-    <row r="2090" spans="3:9">
-      <c r="C2090" s="30"/>
-      <c r="D2090" s="16"/>
-      <c r="E2090" s="16"/>
-      <c r="F2090" s="16"/>
+    <row r="2090" ht="17" spans="1:9">
+      <c r="A2090" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2090" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2090" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2090" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2090" s="16">
+        <v>-9.6</v>
+      </c>
+      <c r="F2090" s="7"/>
       <c r="G2090" s="16"/>
       <c r="H2090" s="16"/>
       <c r="I2090" s="16"/>
     </row>
-    <row r="2091" spans="3:9">
-      <c r="C2091" s="30"/>
-      <c r="D2091" s="16"/>
-      <c r="E2091" s="16"/>
-      <c r="F2091" s="16"/>
+    <row r="2091" ht="17" spans="1:9">
+      <c r="A2091" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2091" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2091" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2091" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2091" s="16">
+        <v>-6.9</v>
+      </c>
+      <c r="F2091" s="7"/>
       <c r="G2091" s="16"/>
       <c r="H2091" s="16"/>
       <c r="I2091" s="16"/>
     </row>
     <row r="2092" spans="3:9">
-      <c r="C2092" s="30"/>
+      <c r="C2092" s="27"/>
       <c r="D2092" s="16"/>
       <c r="E2092" s="16"/>
       <c r="F2092" s="16"/>
@@ -53187,308 +54361,716 @@
       <c r="H2092" s="16"/>
       <c r="I2092" s="16"/>
     </row>
-    <row r="2093" spans="3:9">
-      <c r="C2093" s="30"/>
-      <c r="D2093" s="16"/>
-      <c r="E2093" s="16"/>
-      <c r="F2093" s="16"/>
+    <row r="2093" ht="17" spans="1:9">
+      <c r="A2093" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2093" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2093" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2093" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2093" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2093" s="7"/>
       <c r="G2093" s="16"/>
       <c r="H2093" s="16"/>
       <c r="I2093" s="16"/>
     </row>
-    <row r="2094" spans="3:9">
-      <c r="C2094" s="30"/>
-      <c r="D2094" s="16"/>
-      <c r="E2094" s="16"/>
-      <c r="F2094" s="16"/>
+    <row r="2094" ht="17" spans="1:9">
+      <c r="A2094" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2094" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2094" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2094" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2094" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2094" s="7"/>
       <c r="G2094" s="16"/>
       <c r="H2094" s="16"/>
       <c r="I2094" s="16"/>
     </row>
-    <row r="2095" spans="3:9">
-      <c r="C2095" s="30"/>
-      <c r="D2095" s="16"/>
-      <c r="E2095" s="16"/>
-      <c r="F2095" s="16"/>
+    <row r="2095" ht="17" spans="1:9">
+      <c r="A2095" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2095" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2095" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2095" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2095" s="16">
+        <v>-9.7</v>
+      </c>
+      <c r="F2095" s="7"/>
       <c r="G2095" s="16"/>
       <c r="H2095" s="16"/>
       <c r="I2095" s="16"/>
     </row>
-    <row r="2096" spans="3:9">
-      <c r="C2096" s="30"/>
-      <c r="D2096" s="16"/>
-      <c r="E2096" s="16"/>
-      <c r="F2096" s="16"/>
+    <row r="2096" ht="17" spans="1:9">
+      <c r="A2096" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2096" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2096" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2096" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2096" s="16">
+        <v>-17.3</v>
+      </c>
+      <c r="F2096" s="7"/>
       <c r="G2096" s="16"/>
       <c r="H2096" s="16"/>
       <c r="I2096" s="16"/>
     </row>
-    <row r="2097" spans="3:9">
-      <c r="C2097" s="30"/>
-      <c r="D2097" s="16"/>
-      <c r="E2097" s="16"/>
-      <c r="F2097" s="16"/>
+    <row r="2097" ht="17" spans="1:9">
+      <c r="A2097" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2097" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2097" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2097" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2097" s="16">
+        <v>-7.3</v>
+      </c>
+      <c r="F2097" s="7"/>
       <c r="G2097" s="16"/>
       <c r="H2097" s="16"/>
       <c r="I2097" s="16"/>
     </row>
-    <row r="2098" spans="3:9">
-      <c r="C2098" s="30"/>
-      <c r="D2098" s="16"/>
-      <c r="E2098" s="16"/>
-      <c r="F2098" s="16"/>
-      <c r="G2098" s="16"/>
-      <c r="H2098" s="16"/>
-      <c r="I2098" s="16"/>
-    </row>
-    <row r="2099" spans="3:9">
-      <c r="C2099" s="32"/>
-      <c r="D2099" s="24"/>
-      <c r="E2099" s="24"/>
-      <c r="F2099" s="24"/>
+    <row r="2098" ht="17" spans="1:9">
+      <c r="A2098" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2098" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2098" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2098" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2098" s="24">
+        <v>-7.7</v>
+      </c>
+      <c r="F2098" s="7"/>
+      <c r="G2098" s="24"/>
+      <c r="H2098" s="24"/>
+      <c r="I2098" s="24"/>
+    </row>
+    <row r="2099" ht="17" spans="1:9">
+      <c r="A2099" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2099" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2099" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2099" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2099" s="24">
+        <v>-5.7</v>
+      </c>
+      <c r="F2099" s="7"/>
       <c r="G2099" s="24"/>
       <c r="H2099" s="24"/>
       <c r="I2099" s="24"/>
     </row>
-    <row r="2100" spans="3:9">
-      <c r="C2100" s="32"/>
-      <c r="D2100" s="24"/>
-      <c r="E2100" s="24"/>
-      <c r="F2100" s="24"/>
+    <row r="2100" ht="17" spans="1:9">
+      <c r="A2100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2100" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2100" s="24">
+        <v>-9.5</v>
+      </c>
+      <c r="F2100" s="7"/>
       <c r="G2100" s="24"/>
       <c r="H2100" s="24"/>
       <c r="I2100" s="24"/>
     </row>
-    <row r="2101" spans="3:9">
-      <c r="C2101" s="32"/>
-      <c r="D2101" s="24"/>
-      <c r="E2101" s="24"/>
-      <c r="F2101" s="24"/>
+    <row r="2101" ht="17" spans="1:9">
+      <c r="A2101" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2101" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2101" s="24">
+        <v>-23.2</v>
+      </c>
+      <c r="F2101" s="7"/>
       <c r="G2101" s="24"/>
       <c r="H2101" s="24"/>
       <c r="I2101" s="24"/>
     </row>
-    <row r="2102" spans="3:9">
-      <c r="C2102" s="32"/>
-      <c r="D2102" s="24"/>
-      <c r="E2102" s="24"/>
-      <c r="F2102" s="24"/>
+    <row r="2102" ht="17" spans="1:9">
+      <c r="A2102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2102" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2102" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2102" s="24">
+        <v>-23.6</v>
+      </c>
+      <c r="F2102" s="7"/>
       <c r="G2102" s="24"/>
       <c r="H2102" s="24"/>
       <c r="I2102" s="24"/>
     </row>
-    <row r="2103" spans="3:9">
-      <c r="C2103" s="32"/>
-      <c r="D2103" s="24"/>
-      <c r="E2103" s="24"/>
-      <c r="F2103" s="24"/>
+    <row r="2103" ht="17" spans="1:9">
+      <c r="A2103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2103" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2103" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2103" s="24">
+        <v>-20</v>
+      </c>
+      <c r="F2103" s="7"/>
       <c r="G2103" s="24"/>
       <c r="H2103" s="24"/>
       <c r="I2103" s="24"/>
     </row>
-    <row r="2104" spans="3:9">
-      <c r="C2104" s="32"/>
-      <c r="D2104" s="24"/>
-      <c r="E2104" s="24"/>
-      <c r="F2104" s="24"/>
+    <row r="2104" ht="17" spans="1:9">
+      <c r="A2104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2104" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2104" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2104" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2104" s="24">
+        <v>-23.2</v>
+      </c>
+      <c r="F2104" s="7"/>
       <c r="G2104" s="24"/>
       <c r="H2104" s="24"/>
       <c r="I2104" s="24"/>
     </row>
-    <row r="2105" spans="3:9">
-      <c r="C2105" s="32"/>
-      <c r="D2105" s="24"/>
-      <c r="E2105" s="24"/>
-      <c r="F2105" s="24"/>
+    <row r="2105" ht="17" spans="1:9">
+      <c r="A2105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2105" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2105" s="24">
+        <v>19</v>
+      </c>
+      <c r="F2105" s="7"/>
       <c r="G2105" s="24"/>
       <c r="H2105" s="24"/>
       <c r="I2105" s="24"/>
     </row>
-    <row r="2106" spans="3:9">
-      <c r="C2106" s="32"/>
-      <c r="D2106" s="24"/>
-      <c r="E2106" s="24"/>
-      <c r="F2106" s="24"/>
+    <row r="2106" ht="17" spans="1:9">
+      <c r="A2106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2106" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2106" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2106" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2106" s="24">
+        <v>19.3</v>
+      </c>
+      <c r="F2106" s="7"/>
       <c r="G2106" s="24"/>
       <c r="H2106" s="24"/>
       <c r="I2106" s="24"/>
     </row>
-    <row r="2107" spans="3:9">
-      <c r="C2107" s="32"/>
-      <c r="D2107" s="24"/>
-      <c r="E2107" s="24"/>
-      <c r="F2107" s="24"/>
+    <row r="2107" ht="17" spans="1:9">
+      <c r="A2107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2107" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2107" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2107" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2107" s="24">
+        <v>11</v>
+      </c>
+      <c r="F2107" s="7"/>
       <c r="G2107" s="24"/>
       <c r="H2107" s="24"/>
       <c r="I2107" s="24"/>
     </row>
-    <row r="2108" spans="3:9">
-      <c r="C2108" s="32"/>
-      <c r="D2108" s="24"/>
-      <c r="E2108" s="24"/>
-      <c r="F2108" s="24"/>
+    <row r="2108" ht="17" spans="1:9">
+      <c r="A2108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2108" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2108" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2108" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2108" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="F2108" s="7"/>
       <c r="G2108" s="24"/>
       <c r="H2108" s="24"/>
       <c r="I2108" s="24"/>
     </row>
-    <row r="2109" spans="3:9">
-      <c r="C2109" s="32"/>
-      <c r="D2109" s="24"/>
-      <c r="E2109" s="24"/>
-      <c r="F2109" s="24"/>
+    <row r="2109" ht="17" spans="1:9">
+      <c r="A2109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2109" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2109" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2109" s="24">
+        <v>-7.8</v>
+      </c>
+      <c r="F2109" s="7"/>
       <c r="G2109" s="24"/>
       <c r="H2109" s="24"/>
       <c r="I2109" s="24"/>
     </row>
-    <row r="2110" spans="3:9">
-      <c r="C2110" s="32"/>
-      <c r="D2110" s="24"/>
-      <c r="E2110" s="24"/>
-      <c r="F2110" s="24"/>
+    <row r="2110" ht="17" spans="1:9">
+      <c r="A2110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2110" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2110" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2110" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2110" s="24">
+        <v>-6.8</v>
+      </c>
+      <c r="F2110" s="7"/>
       <c r="G2110" s="24"/>
       <c r="H2110" s="24"/>
       <c r="I2110" s="24"/>
     </row>
-    <row r="2111" spans="3:9">
-      <c r="C2111" s="32"/>
-      <c r="D2111" s="24"/>
-      <c r="E2111" s="24"/>
-      <c r="F2111" s="24"/>
+    <row r="2111" ht="17" spans="1:9">
+      <c r="A2111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2111" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2111" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2111" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2111" s="24">
+        <v>-12.6</v>
+      </c>
+      <c r="F2111" s="7"/>
       <c r="G2111" s="24"/>
       <c r="H2111" s="24"/>
       <c r="I2111" s="24"/>
     </row>
-    <row r="2112" spans="3:9">
-      <c r="C2112" s="32"/>
-      <c r="D2112" s="24"/>
-      <c r="E2112" s="24"/>
-      <c r="F2112" s="24"/>
+    <row r="2112" ht="17" spans="1:9">
+      <c r="A2112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2112" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2112" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2112" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2112" s="24">
+        <v>-15.1</v>
+      </c>
+      <c r="F2112" s="7"/>
       <c r="G2112" s="24"/>
       <c r="H2112" s="24"/>
       <c r="I2112" s="24"/>
     </row>
-    <row r="2113" spans="3:9">
-      <c r="C2113" s="32"/>
-      <c r="D2113" s="24"/>
-      <c r="E2113" s="24"/>
-      <c r="F2113" s="24"/>
+    <row r="2113" ht="17" spans="1:9">
+      <c r="A2113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2113" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2113" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2113" s="24">
+        <v>-4.9</v>
+      </c>
+      <c r="F2113" s="7"/>
       <c r="G2113" s="24"/>
       <c r="H2113" s="24"/>
       <c r="I2113" s="24"/>
     </row>
-    <row r="2114" spans="3:9">
-      <c r="C2114" s="32"/>
-      <c r="D2114" s="24"/>
-      <c r="E2114" s="24"/>
-      <c r="F2114" s="24"/>
+    <row r="2114" ht="17" spans="1:9">
+      <c r="A2114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2114" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2114" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2114" s="24">
+        <v>-3.7</v>
+      </c>
+      <c r="F2114" s="7"/>
       <c r="G2114" s="24"/>
       <c r="H2114" s="24"/>
       <c r="I2114" s="24"/>
     </row>
-    <row r="2115" spans="3:9">
-      <c r="C2115" s="32"/>
-      <c r="D2115" s="24"/>
-      <c r="E2115" s="24"/>
-      <c r="F2115" s="24"/>
+    <row r="2115" ht="17" spans="1:9">
+      <c r="A2115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2115" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2115" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2115" s="24">
+        <v>-17.3</v>
+      </c>
+      <c r="F2115" s="7"/>
       <c r="G2115" s="24"/>
       <c r="H2115" s="24"/>
       <c r="I2115" s="24"/>
     </row>
-    <row r="2116" spans="3:9">
-      <c r="C2116" s="32"/>
-      <c r="D2116" s="24"/>
-      <c r="E2116" s="24"/>
-      <c r="F2116" s="24"/>
+    <row r="2116" ht="17" spans="1:9">
+      <c r="A2116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2116" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2116" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2116" s="24">
+        <v>-13</v>
+      </c>
+      <c r="F2116" s="7"/>
       <c r="G2116" s="24"/>
       <c r="H2116" s="24"/>
       <c r="I2116" s="24"/>
     </row>
-    <row r="2117" spans="3:9">
-      <c r="C2117" s="32"/>
-      <c r="D2117" s="24"/>
-      <c r="E2117" s="24"/>
-      <c r="F2117" s="24"/>
+    <row r="2117" ht="17" spans="1:9">
+      <c r="A2117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2117" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2117" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2117" s="24">
+        <v>18.1</v>
+      </c>
+      <c r="F2117" s="7"/>
       <c r="G2117" s="24"/>
       <c r="H2117" s="24"/>
       <c r="I2117" s="24"/>
     </row>
-    <row r="2118" spans="3:9">
-      <c r="C2118" s="32"/>
-      <c r="D2118" s="24"/>
-      <c r="E2118" s="24"/>
-      <c r="F2118" s="24"/>
+    <row r="2118" ht="17" spans="1:9">
+      <c r="A2118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2118" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2118" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2118" s="24">
+        <v>19.7</v>
+      </c>
+      <c r="F2118" s="7"/>
       <c r="G2118" s="24"/>
       <c r="H2118" s="24"/>
       <c r="I2118" s="24"/>
     </row>
-    <row r="2119" spans="3:9">
-      <c r="C2119" s="32"/>
-      <c r="D2119" s="24"/>
-      <c r="E2119" s="24"/>
-      <c r="F2119" s="24"/>
+    <row r="2119" ht="17" spans="1:9">
+      <c r="A2119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2119" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2119" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2119" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2119" s="24">
+        <v>20</v>
+      </c>
+      <c r="F2119" s="7"/>
       <c r="G2119" s="24"/>
       <c r="H2119" s="24"/>
       <c r="I2119" s="24"/>
     </row>
-    <row r="2120" spans="3:9">
-      <c r="C2120" s="32"/>
-      <c r="D2120" s="24"/>
-      <c r="E2120" s="24"/>
-      <c r="F2120" s="24"/>
+    <row r="2120" ht="17" spans="1:9">
+      <c r="A2120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2120" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2120" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2120" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2120" s="24">
+        <v>13.8</v>
+      </c>
+      <c r="F2120" s="7"/>
       <c r="G2120" s="24"/>
       <c r="H2120" s="24"/>
       <c r="I2120" s="24"/>
     </row>
-    <row r="2121" spans="3:9">
-      <c r="C2121" s="32"/>
-      <c r="D2121" s="24"/>
-      <c r="E2121" s="24"/>
-      <c r="F2121" s="24"/>
+    <row r="2121" ht="17" spans="1:9">
+      <c r="A2121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2121" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2121" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2121" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2121" s="24">
+        <v>-13.8</v>
+      </c>
+      <c r="F2121" s="7"/>
       <c r="G2121" s="24"/>
       <c r="H2121" s="24"/>
       <c r="I2121" s="24"/>
     </row>
-    <row r="2122" spans="3:9">
-      <c r="C2122" s="32"/>
-      <c r="D2122" s="24"/>
-      <c r="E2122" s="24"/>
-      <c r="F2122" s="24"/>
+    <row r="2122" ht="17" spans="1:9">
+      <c r="A2122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2122" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2122" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2122" s="24">
+        <v>-11</v>
+      </c>
+      <c r="F2122" s="7"/>
       <c r="G2122" s="24"/>
       <c r="H2122" s="24"/>
       <c r="I2122" s="24"/>
     </row>
-    <row r="2123" spans="3:9">
-      <c r="C2123" s="32"/>
-      <c r="D2123" s="24"/>
-      <c r="E2123" s="24"/>
-      <c r="F2123" s="24"/>
+    <row r="2123" ht="17" spans="1:9">
+      <c r="A2123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2123" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2123" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2123" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2123" s="24">
+        <v>-40.3</v>
+      </c>
+      <c r="F2123" s="7"/>
       <c r="G2123" s="24"/>
       <c r="H2123" s="24"/>
       <c r="I2123" s="24"/>
     </row>
-    <row r="2124" spans="3:9">
-      <c r="C2124" s="32"/>
-      <c r="D2124" s="24"/>
-      <c r="E2124" s="24"/>
-      <c r="F2124" s="24"/>
+    <row r="2124" ht="17" spans="1:9">
+      <c r="A2124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2124" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2124" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2124" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2124" s="24">
+        <v>-21.4</v>
+      </c>
+      <c r="F2124" s="7"/>
       <c r="G2124" s="24"/>
       <c r="H2124" s="24"/>
       <c r="I2124" s="24"/>
     </row>
-    <row r="2125" spans="3:9">
-      <c r="C2125" s="32"/>
-      <c r="D2125" s="24"/>
-      <c r="E2125" s="24"/>
-      <c r="F2125" s="24"/>
+    <row r="2125" ht="17" spans="1:9">
+      <c r="A2125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2125" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2125" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2125" s="24">
+        <v>-10.4</v>
+      </c>
+      <c r="F2125" s="7"/>
       <c r="G2125" s="24"/>
       <c r="H2125" s="24"/>
       <c r="I2125" s="24"/>
     </row>
-    <row r="2126" spans="3:9">
-      <c r="C2126" s="32"/>
-      <c r="D2126" s="24"/>
-      <c r="E2126" s="24"/>
-      <c r="F2126" s="24"/>
+    <row r="2126" ht="17" spans="1:9">
+      <c r="A2126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2126" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2126" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2126" s="24">
+        <v>-7.6</v>
+      </c>
+      <c r="F2126" s="7"/>
       <c r="G2126" s="24"/>
       <c r="H2126" s="24"/>
       <c r="I2126" s="24"/>
@@ -53502,314 +55084,722 @@
       <c r="H2127" s="24"/>
       <c r="I2127" s="24"/>
     </row>
-    <row r="2128" spans="3:9">
-      <c r="C2128" s="32"/>
-      <c r="D2128" s="24"/>
-      <c r="E2128" s="24"/>
-      <c r="F2128" s="24"/>
+    <row r="2128" ht="17" spans="1:9">
+      <c r="A2128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2128" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2128" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2128" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2128" s="7"/>
       <c r="G2128" s="24"/>
       <c r="H2128" s="24"/>
       <c r="I2128" s="24"/>
     </row>
-    <row r="2129" spans="3:9">
-      <c r="C2129" s="32"/>
-      <c r="D2129" s="24"/>
-      <c r="E2129" s="24"/>
-      <c r="F2129" s="24"/>
+    <row r="2129" ht="17" spans="1:9">
+      <c r="A2129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2129" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2129" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2129" s="7"/>
       <c r="G2129" s="24"/>
       <c r="H2129" s="24"/>
       <c r="I2129" s="24"/>
     </row>
-    <row r="2130" spans="3:9">
-      <c r="C2130" s="32"/>
-      <c r="D2130" s="24"/>
-      <c r="E2130" s="24"/>
-      <c r="F2130" s="24"/>
+    <row r="2130" ht="17" spans="1:9">
+      <c r="A2130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2130" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2130" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2130" s="24">
+        <v>-10</v>
+      </c>
+      <c r="F2130" s="7"/>
       <c r="G2130" s="24"/>
       <c r="H2130" s="24"/>
       <c r="I2130" s="24"/>
     </row>
-    <row r="2131" spans="3:9">
-      <c r="C2131" s="32"/>
-      <c r="D2131" s="24"/>
-      <c r="E2131" s="24"/>
-      <c r="F2131" s="24"/>
+    <row r="2131" ht="17" spans="1:9">
+      <c r="A2131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2131" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2131" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2131" s="24">
+        <v>-16.9</v>
+      </c>
+      <c r="F2131" s="7"/>
       <c r="G2131" s="24"/>
       <c r="H2131" s="24"/>
       <c r="I2131" s="24"/>
     </row>
-    <row r="2132" spans="3:9">
-      <c r="C2132" s="32"/>
-      <c r="D2132" s="24"/>
-      <c r="E2132" s="24"/>
-      <c r="F2132" s="24"/>
+    <row r="2132" ht="17" spans="1:9">
+      <c r="A2132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2132" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2132" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2132" s="24">
+        <v>-7.2</v>
+      </c>
+      <c r="F2132" s="7"/>
       <c r="G2132" s="24"/>
       <c r="H2132" s="24"/>
       <c r="I2132" s="24"/>
     </row>
-    <row r="2133" spans="3:9">
-      <c r="C2133" s="32"/>
-      <c r="D2133" s="24"/>
-      <c r="E2133" s="24"/>
-      <c r="F2133" s="24"/>
+    <row r="2133" ht="17" spans="1:9">
+      <c r="A2133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2133" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2133" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2133" s="24">
+        <v>-7.6</v>
+      </c>
+      <c r="F2133" s="7"/>
       <c r="G2133" s="24"/>
       <c r="H2133" s="24"/>
       <c r="I2133" s="24"/>
     </row>
-    <row r="2134" spans="3:9">
-      <c r="C2134" s="32"/>
-      <c r="D2134" s="24"/>
-      <c r="E2134" s="24"/>
-      <c r="F2134" s="24"/>
+    <row r="2134" ht="17" spans="1:9">
+      <c r="A2134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2134" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2134" s="24">
+        <v>-5.7</v>
+      </c>
+      <c r="F2134" s="7"/>
       <c r="G2134" s="24"/>
       <c r="H2134" s="24"/>
       <c r="I2134" s="24"/>
     </row>
-    <row r="2135" spans="3:9">
-      <c r="C2135" s="32"/>
-      <c r="D2135" s="24"/>
-      <c r="E2135" s="24"/>
-      <c r="F2135" s="24"/>
+    <row r="2135" ht="17" spans="1:9">
+      <c r="A2135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2135" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2135" s="24">
+        <v>-9.4</v>
+      </c>
+      <c r="F2135" s="7"/>
       <c r="G2135" s="24"/>
       <c r="H2135" s="24"/>
       <c r="I2135" s="24"/>
     </row>
-    <row r="2136" spans="3:9">
-      <c r="C2136" s="32"/>
-      <c r="D2136" s="24"/>
-      <c r="E2136" s="24"/>
-      <c r="F2136" s="24"/>
+    <row r="2136" ht="17" spans="1:9">
+      <c r="A2136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2136" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2136" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2136" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2136" s="24">
+        <v>-21.2</v>
+      </c>
+      <c r="F2136" s="7"/>
       <c r="G2136" s="24"/>
       <c r="H2136" s="24"/>
       <c r="I2136" s="24"/>
     </row>
-    <row r="2137" spans="3:9">
-      <c r="C2137" s="32"/>
-      <c r="D2137" s="24"/>
-      <c r="E2137" s="24"/>
-      <c r="F2137" s="24"/>
+    <row r="2137" ht="17" spans="1:9">
+      <c r="A2137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2137" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2137" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2137" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2137" s="24">
+        <v>-21.5</v>
+      </c>
+      <c r="F2137" s="7"/>
       <c r="G2137" s="24"/>
       <c r="H2137" s="24"/>
       <c r="I2137" s="24"/>
     </row>
-    <row r="2138" spans="3:9">
-      <c r="C2138" s="32"/>
-      <c r="D2138" s="24"/>
-      <c r="E2138" s="24"/>
-      <c r="F2138" s="24"/>
+    <row r="2138" ht="17" spans="1:9">
+      <c r="A2138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2138" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2138" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2138" s="24">
+        <v>-19.1</v>
+      </c>
+      <c r="F2138" s="7"/>
       <c r="G2138" s="24"/>
       <c r="H2138" s="24"/>
       <c r="I2138" s="24"/>
     </row>
-    <row r="2139" spans="3:9">
-      <c r="C2139" s="32"/>
-      <c r="D2139" s="24"/>
-      <c r="E2139" s="24"/>
-      <c r="F2139" s="24"/>
+    <row r="2139" ht="17" spans="1:9">
+      <c r="A2139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2139" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2139" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2139" s="24">
+        <v>-21.7</v>
+      </c>
+      <c r="F2139" s="7"/>
       <c r="G2139" s="24"/>
       <c r="H2139" s="24"/>
       <c r="I2139" s="24"/>
     </row>
-    <row r="2140" spans="3:9">
-      <c r="C2140" s="32"/>
-      <c r="D2140" s="24"/>
-      <c r="E2140" s="24"/>
-      <c r="F2140" s="24"/>
-      <c r="G2140" s="24"/>
-      <c r="H2140" s="24"/>
-      <c r="I2140" s="24"/>
-    </row>
-    <row r="2141" spans="3:9">
-      <c r="C2141" s="30"/>
-      <c r="D2141" s="16"/>
-      <c r="E2141" s="16"/>
-      <c r="F2141" s="16"/>
+    <row r="2140" ht="17" spans="1:9">
+      <c r="A2140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2140" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2140" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2140" s="16">
+        <v>17.9</v>
+      </c>
+      <c r="F2140" s="7"/>
+      <c r="G2140" s="16"/>
+      <c r="H2140" s="16"/>
+      <c r="I2140" s="16"/>
+    </row>
+    <row r="2141" ht="17" spans="1:9">
+      <c r="A2141" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2141" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2141" s="16">
+        <v>18.5</v>
+      </c>
+      <c r="F2141" s="7"/>
       <c r="G2141" s="16"/>
       <c r="H2141" s="16"/>
       <c r="I2141" s="16"/>
     </row>
-    <row r="2142" spans="3:9">
-      <c r="C2142" s="30"/>
-      <c r="D2142" s="16"/>
-      <c r="E2142" s="16"/>
-      <c r="F2142" s="16"/>
+    <row r="2142" ht="17" spans="1:9">
+      <c r="A2142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2142" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2142" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2142" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="F2142" s="7"/>
       <c r="G2142" s="16"/>
       <c r="H2142" s="16"/>
       <c r="I2142" s="16"/>
     </row>
-    <row r="2143" spans="3:9">
-      <c r="C2143" s="30"/>
-      <c r="D2143" s="16"/>
-      <c r="E2143" s="16"/>
-      <c r="F2143" s="16"/>
+    <row r="2143" ht="17" spans="1:9">
+      <c r="A2143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2143" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2143" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2143" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2143" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F2143" s="7"/>
       <c r="G2143" s="16"/>
       <c r="H2143" s="16"/>
       <c r="I2143" s="16"/>
     </row>
-    <row r="2144" spans="3:9">
-      <c r="C2144" s="30"/>
-      <c r="D2144" s="16"/>
-      <c r="E2144" s="16"/>
-      <c r="F2144" s="16"/>
+    <row r="2144" ht="17" spans="1:9">
+      <c r="A2144" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2144" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2144" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2144" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2144" s="16">
+        <v>-8</v>
+      </c>
+      <c r="F2144" s="7"/>
       <c r="G2144" s="16"/>
       <c r="H2144" s="16"/>
       <c r="I2144" s="16"/>
     </row>
-    <row r="2145" spans="3:9">
-      <c r="C2145" s="30"/>
-      <c r="D2145" s="16"/>
-      <c r="E2145" s="16"/>
-      <c r="F2145" s="16"/>
+    <row r="2145" ht="17" spans="1:9">
+      <c r="A2145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2145" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2145" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2145" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2145" s="16">
+        <v>-7.3</v>
+      </c>
+      <c r="F2145" s="7"/>
       <c r="G2145" s="16"/>
       <c r="H2145" s="16"/>
       <c r="I2145" s="16"/>
     </row>
-    <row r="2146" spans="3:9">
-      <c r="C2146" s="30"/>
-      <c r="D2146" s="16"/>
-      <c r="E2146" s="16"/>
-      <c r="F2146" s="16"/>
+    <row r="2146" ht="17" spans="1:9">
+      <c r="A2146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2146" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2146" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2146" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2146" s="16">
+        <v>-11.5</v>
+      </c>
+      <c r="F2146" s="7"/>
       <c r="G2146" s="16"/>
       <c r="H2146" s="16"/>
       <c r="I2146" s="16"/>
     </row>
-    <row r="2147" spans="3:9">
-      <c r="C2147" s="30"/>
-      <c r="D2147" s="16"/>
-      <c r="E2147" s="16"/>
-      <c r="F2147" s="16"/>
+    <row r="2147" ht="17" spans="1:9">
+      <c r="A2147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2147" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2147" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2147" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2147" s="16">
+        <v>-13.9</v>
+      </c>
+      <c r="F2147" s="7"/>
       <c r="G2147" s="16"/>
       <c r="H2147" s="16"/>
       <c r="I2147" s="16"/>
     </row>
-    <row r="2148" spans="3:9">
-      <c r="C2148" s="30"/>
-      <c r="D2148" s="16"/>
-      <c r="E2148" s="16"/>
-      <c r="F2148" s="16"/>
+    <row r="2148" ht="17" spans="1:9">
+      <c r="A2148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2148" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2148" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2148" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2148" s="16">
+        <v>-5.2</v>
+      </c>
+      <c r="F2148" s="7"/>
       <c r="G2148" s="16"/>
       <c r="H2148" s="16"/>
       <c r="I2148" s="16"/>
     </row>
-    <row r="2149" spans="3:9">
-      <c r="C2149" s="30"/>
-      <c r="D2149" s="16"/>
-      <c r="E2149" s="16"/>
-      <c r="F2149" s="16"/>
+    <row r="2149" ht="17" spans="1:9">
+      <c r="A2149" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2149" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2149" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2149" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2149" s="16">
+        <v>-4.3</v>
+      </c>
+      <c r="F2149" s="7"/>
       <c r="G2149" s="16"/>
       <c r="H2149" s="16"/>
       <c r="I2149" s="16"/>
     </row>
-    <row r="2150" spans="3:9">
-      <c r="C2150" s="30"/>
-      <c r="D2150" s="16"/>
-      <c r="E2150" s="16"/>
-      <c r="F2150" s="16"/>
+    <row r="2150" ht="17" spans="1:9">
+      <c r="A2150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2150" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2150" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2150" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2150" s="16">
+        <v>-15.1</v>
+      </c>
+      <c r="F2150" s="7"/>
       <c r="G2150" s="16"/>
       <c r="H2150" s="16"/>
       <c r="I2150" s="16"/>
     </row>
-    <row r="2151" spans="3:9">
-      <c r="C2151" s="30"/>
-      <c r="D2151" s="16"/>
-      <c r="E2151" s="16"/>
-      <c r="F2151" s="16"/>
+    <row r="2151" ht="17" spans="1:9">
+      <c r="A2151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2151" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2151" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2151" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2151" s="16">
+        <v>-11.9</v>
+      </c>
+      <c r="F2151" s="7"/>
       <c r="G2151" s="16"/>
       <c r="H2151" s="16"/>
       <c r="I2151" s="16"/>
     </row>
-    <row r="2152" spans="3:9">
-      <c r="C2152" s="30"/>
-      <c r="D2152" s="16"/>
-      <c r="E2152" s="16"/>
-      <c r="F2152" s="16"/>
+    <row r="2152" ht="17" spans="1:9">
+      <c r="A2152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2152" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2152" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2152" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2152" s="16">
+        <v>18</v>
+      </c>
+      <c r="F2152" s="7"/>
       <c r="G2152" s="16"/>
       <c r="H2152" s="16"/>
       <c r="I2152" s="16"/>
     </row>
-    <row r="2153" spans="3:9">
-      <c r="C2153" s="30"/>
-      <c r="D2153" s="16"/>
-      <c r="E2153" s="16"/>
-      <c r="F2153" s="16"/>
+    <row r="2153" ht="17" spans="1:9">
+      <c r="A2153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2153" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2153" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2153" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2153" s="16">
+        <v>20.4</v>
+      </c>
+      <c r="F2153" s="7"/>
       <c r="G2153" s="16"/>
       <c r="H2153" s="16"/>
       <c r="I2153" s="16"/>
     </row>
-    <row r="2154" spans="3:9">
-      <c r="C2154" s="30"/>
-      <c r="D2154" s="16"/>
-      <c r="E2154" s="16"/>
-      <c r="F2154" s="16"/>
+    <row r="2154" ht="17" spans="1:9">
+      <c r="A2154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2154" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2154" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2154" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2154" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="F2154" s="7"/>
       <c r="G2154" s="16"/>
       <c r="H2154" s="16"/>
       <c r="I2154" s="16"/>
     </row>
-    <row r="2155" spans="3:9">
-      <c r="C2155" s="30"/>
-      <c r="D2155" s="16"/>
-      <c r="E2155" s="16"/>
-      <c r="F2155" s="16"/>
+    <row r="2155" ht="17" spans="1:9">
+      <c r="A2155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2155" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2155" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2155" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2155" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="F2155" s="7"/>
       <c r="G2155" s="16"/>
       <c r="H2155" s="16"/>
       <c r="I2155" s="16"/>
     </row>
-    <row r="2156" spans="3:9">
-      <c r="C2156" s="30"/>
-      <c r="D2156" s="16"/>
-      <c r="E2156" s="16"/>
-      <c r="F2156" s="16"/>
+    <row r="2156" ht="17" spans="1:9">
+      <c r="A2156" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2156" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2156" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2156" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2156" s="16">
+        <v>-13.4</v>
+      </c>
+      <c r="F2156" s="7"/>
       <c r="G2156" s="16"/>
       <c r="H2156" s="16"/>
       <c r="I2156" s="16"/>
     </row>
-    <row r="2157" spans="3:9">
-      <c r="C2157" s="30"/>
-      <c r="D2157" s="16"/>
-      <c r="E2157" s="16"/>
-      <c r="F2157" s="16"/>
+    <row r="2157" ht="17" spans="1:9">
+      <c r="A2157" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2157" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2157" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2157" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2157" s="16">
+        <v>-9.8</v>
+      </c>
+      <c r="F2157" s="7"/>
       <c r="G2157" s="16"/>
       <c r="H2157" s="16"/>
       <c r="I2157" s="16"/>
     </row>
-    <row r="2158" spans="3:9">
-      <c r="C2158" s="30"/>
-      <c r="D2158" s="16"/>
-      <c r="E2158" s="16"/>
-      <c r="F2158" s="16"/>
+    <row r="2158" ht="17" spans="1:9">
+      <c r="A2158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2158" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2158" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2158" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2158" s="16">
+        <v>-35.1</v>
+      </c>
+      <c r="F2158" s="7"/>
       <c r="G2158" s="16"/>
       <c r="H2158" s="16"/>
       <c r="I2158" s="16"/>
     </row>
-    <row r="2159" spans="3:9">
-      <c r="C2159" s="30"/>
-      <c r="D2159" s="16"/>
-      <c r="E2159" s="16"/>
-      <c r="F2159" s="16"/>
+    <row r="2159" ht="17" spans="1:9">
+      <c r="A2159" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2159" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2159" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2159" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2159" s="16">
+        <v>-20.3</v>
+      </c>
+      <c r="F2159" s="7"/>
       <c r="G2159" s="16"/>
       <c r="H2159" s="16"/>
       <c r="I2159" s="16"/>
     </row>
-    <row r="2160" spans="3:9">
-      <c r="C2160" s="30"/>
-      <c r="D2160" s="16"/>
-      <c r="E2160" s="16"/>
-      <c r="F2160" s="16"/>
+    <row r="2160" ht="17" spans="1:9">
+      <c r="A2160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2160" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2160" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2160" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2160" s="16">
+        <v>-10.9</v>
+      </c>
+      <c r="F2160" s="7"/>
       <c r="G2160" s="16"/>
       <c r="H2160" s="16"/>
       <c r="I2160" s="16"/>
     </row>
-    <row r="2161" spans="3:9">
-      <c r="C2161" s="30"/>
-      <c r="D2161" s="16"/>
-      <c r="E2161" s="16"/>
-      <c r="F2161" s="16"/>
+    <row r="2161" ht="17" spans="1:9">
+      <c r="A2161" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2161" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2161" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2161" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2161" s="16">
+        <v>-8.1</v>
+      </c>
+      <c r="F2161" s="7"/>
       <c r="G2161" s="16"/>
       <c r="H2161" s="16"/>
       <c r="I2161" s="16"/>
     </row>
     <row r="2162" spans="3:9">
-      <c r="C2162" s="30"/>
+      <c r="C2162" s="27"/>
       <c r="D2162" s="16"/>
       <c r="E2162" s="16"/>
       <c r="F2162" s="16"/>
@@ -53818,7 +55808,7 @@
       <c r="I2162" s="16"/>
     </row>
     <row r="2163" spans="3:9">
-      <c r="C2163" s="30"/>
+      <c r="C2163" s="27"/>
       <c r="D2163" s="16"/>
       <c r="E2163" s="16"/>
       <c r="F2163" s="16"/>
@@ -53827,7 +55817,7 @@
       <c r="I2163" s="16"/>
     </row>
     <row r="2164" spans="3:9">
-      <c r="C2164" s="30"/>
+      <c r="C2164" s="27"/>
       <c r="D2164" s="16"/>
       <c r="E2164" s="16"/>
       <c r="F2164" s="16"/>
@@ -53836,7 +55826,7 @@
       <c r="I2164" s="16"/>
     </row>
     <row r="2165" spans="3:9">
-      <c r="C2165" s="30"/>
+      <c r="C2165" s="27"/>
       <c r="D2165" s="16"/>
       <c r="E2165" s="16"/>
       <c r="F2165" s="16"/>
@@ -53845,7 +55835,7 @@
       <c r="I2165" s="16"/>
     </row>
     <row r="2166" spans="3:9">
-      <c r="C2166" s="30"/>
+      <c r="C2166" s="27"/>
       <c r="D2166" s="16"/>
       <c r="E2166" s="16"/>
       <c r="F2166" s="16"/>
@@ -53854,7 +55844,7 @@
       <c r="I2166" s="16"/>
     </row>
     <row r="2167" spans="3:9">
-      <c r="C2167" s="30"/>
+      <c r="C2167" s="27"/>
       <c r="D2167" s="16"/>
       <c r="E2167" s="16"/>
       <c r="F2167" s="16"/>
@@ -53863,7 +55853,7 @@
       <c r="I2167" s="16"/>
     </row>
     <row r="2168" spans="3:9">
-      <c r="C2168" s="30"/>
+      <c r="C2168" s="27"/>
       <c r="D2168" s="16"/>
       <c r="E2168" s="16"/>
       <c r="F2168" s="16"/>
@@ -53872,7 +55862,7 @@
       <c r="I2168" s="16"/>
     </row>
     <row r="2169" spans="3:9">
-      <c r="C2169" s="30"/>
+      <c r="C2169" s="27"/>
       <c r="D2169" s="16"/>
       <c r="E2169" s="16"/>
       <c r="F2169" s="16"/>
@@ -53881,7 +55871,7 @@
       <c r="I2169" s="16"/>
     </row>
     <row r="2170" spans="3:9">
-      <c r="C2170" s="30"/>
+      <c r="C2170" s="27"/>
       <c r="D2170" s="16"/>
       <c r="E2170" s="16"/>
       <c r="F2170" s="16"/>
@@ -53890,7 +55880,7 @@
       <c r="I2170" s="16"/>
     </row>
     <row r="2171" spans="3:9">
-      <c r="C2171" s="30"/>
+      <c r="C2171" s="27"/>
       <c r="D2171" s="16"/>
       <c r="E2171" s="16"/>
       <c r="F2171" s="16"/>
@@ -53899,7 +55889,7 @@
       <c r="I2171" s="16"/>
     </row>
     <row r="2172" spans="3:9">
-      <c r="C2172" s="30"/>
+      <c r="C2172" s="27"/>
       <c r="D2172" s="16"/>
       <c r="E2172" s="16"/>
       <c r="F2172" s="16"/>
@@ -53908,7 +55898,7 @@
       <c r="I2172" s="16"/>
     </row>
     <row r="2173" spans="3:9">
-      <c r="C2173" s="30"/>
+      <c r="C2173" s="27"/>
       <c r="D2173" s="16"/>
       <c r="E2173" s="16"/>
       <c r="F2173" s="16"/>
@@ -53917,7 +55907,7 @@
       <c r="I2173" s="16"/>
     </row>
     <row r="2174" spans="3:9">
-      <c r="C2174" s="30"/>
+      <c r="C2174" s="27"/>
       <c r="D2174" s="16"/>
       <c r="E2174" s="16"/>
       <c r="F2174" s="16"/>
@@ -53926,7 +55916,7 @@
       <c r="I2174" s="16"/>
     </row>
     <row r="2175" spans="3:9">
-      <c r="C2175" s="30"/>
+      <c r="C2175" s="27"/>
       <c r="D2175" s="16"/>
       <c r="E2175" s="16"/>
       <c r="F2175" s="16"/>
@@ -53935,7 +55925,7 @@
       <c r="I2175" s="16"/>
     </row>
     <row r="2176" spans="3:9">
-      <c r="C2176" s="30"/>
+      <c r="C2176" s="27"/>
       <c r="D2176" s="16"/>
       <c r="E2176" s="16"/>
       <c r="F2176" s="16"/>
@@ -53944,7 +55934,7 @@
       <c r="I2176" s="16"/>
     </row>
     <row r="2177" spans="3:9">
-      <c r="C2177" s="30"/>
+      <c r="C2177" s="27"/>
       <c r="D2177" s="16"/>
       <c r="E2177" s="16"/>
       <c r="F2177" s="16"/>
@@ -53953,7 +55943,7 @@
       <c r="I2177" s="16"/>
     </row>
     <row r="2178" spans="3:9">
-      <c r="C2178" s="30"/>
+      <c r="C2178" s="27"/>
       <c r="D2178" s="16"/>
       <c r="E2178" s="16"/>
       <c r="F2178" s="16"/>
@@ -53962,7 +55952,7 @@
       <c r="I2178" s="16"/>
     </row>
     <row r="2179" spans="3:9">
-      <c r="C2179" s="30"/>
+      <c r="C2179" s="27"/>
       <c r="D2179" s="16"/>
       <c r="E2179" s="16"/>
       <c r="F2179" s="16"/>
@@ -53971,7 +55961,7 @@
       <c r="I2179" s="16"/>
     </row>
     <row r="2180" spans="3:9">
-      <c r="C2180" s="30"/>
+      <c r="C2180" s="27"/>
       <c r="D2180" s="16"/>
       <c r="E2180" s="16"/>
       <c r="F2180" s="16"/>
@@ -53980,7 +55970,7 @@
       <c r="I2180" s="16"/>
     </row>
     <row r="2181" spans="3:9">
-      <c r="C2181" s="30"/>
+      <c r="C2181" s="27"/>
       <c r="D2181" s="16"/>
       <c r="E2181" s="16"/>
       <c r="F2181" s="16"/>
@@ -53989,7 +55979,7 @@
       <c r="I2181" s="16"/>
     </row>
     <row r="2182" spans="3:9">
-      <c r="C2182" s="30"/>
+      <c r="C2182" s="27"/>
       <c r="D2182" s="16"/>
       <c r="E2182" s="16"/>
       <c r="F2182" s="16"/>
@@ -53998,7 +55988,7 @@
       <c r="I2182" s="16"/>
     </row>
     <row r="2183" spans="3:9">
-      <c r="C2183" s="30"/>
+      <c r="C2183" s="27"/>
       <c r="D2183" s="16"/>
       <c r="E2183" s="16"/>
       <c r="F2183" s="16"/>
@@ -54007,7 +55997,7 @@
       <c r="I2183" s="16"/>
     </row>
     <row r="2184" spans="3:9">
-      <c r="C2184" s="30"/>
+      <c r="C2184" s="27"/>
       <c r="D2184" s="16"/>
       <c r="E2184" s="16"/>
       <c r="F2184" s="16"/>
@@ -54016,7 +56006,7 @@
       <c r="I2184" s="16"/>
     </row>
     <row r="2185" spans="3:9">
-      <c r="C2185" s="30"/>
+      <c r="C2185" s="27"/>
       <c r="D2185" s="16"/>
       <c r="E2185" s="16"/>
       <c r="F2185" s="16"/>
@@ -54025,7 +56015,7 @@
       <c r="I2185" s="16"/>
     </row>
     <row r="2186" spans="3:9">
-      <c r="C2186" s="30"/>
+      <c r="C2186" s="27"/>
       <c r="D2186" s="16"/>
       <c r="E2186" s="16"/>
       <c r="F2186" s="16"/>
@@ -54034,7 +56024,7 @@
       <c r="I2186" s="16"/>
     </row>
     <row r="2187" spans="3:9">
-      <c r="C2187" s="30"/>
+      <c r="C2187" s="27"/>
       <c r="D2187" s="16"/>
       <c r="E2187" s="16"/>
       <c r="F2187" s="16"/>
@@ -54043,7 +56033,7 @@
       <c r="I2187" s="16"/>
     </row>
     <row r="2188" spans="3:9">
-      <c r="C2188" s="30"/>
+      <c r="C2188" s="27"/>
       <c r="D2188" s="16"/>
       <c r="E2188" s="16"/>
       <c r="F2188" s="16"/>
@@ -54052,7 +56042,7 @@
       <c r="I2188" s="16"/>
     </row>
     <row r="2189" spans="3:9">
-      <c r="C2189" s="30"/>
+      <c r="C2189" s="27"/>
       <c r="D2189" s="16"/>
       <c r="E2189" s="16"/>
       <c r="F2189" s="16"/>
@@ -54061,7 +56051,7 @@
       <c r="I2189" s="16"/>
     </row>
     <row r="2190" spans="3:9">
-      <c r="C2190" s="30"/>
+      <c r="C2190" s="27"/>
       <c r="D2190" s="16"/>
       <c r="E2190" s="16"/>
       <c r="F2190" s="16"/>
@@ -54070,7 +56060,7 @@
       <c r="I2190" s="16"/>
     </row>
     <row r="2191" spans="3:9">
-      <c r="C2191" s="30"/>
+      <c r="C2191" s="27"/>
       <c r="D2191" s="16"/>
       <c r="E2191" s="16"/>
       <c r="F2191" s="16"/>
@@ -54079,7 +56069,7 @@
       <c r="I2191" s="16"/>
     </row>
     <row r="2192" spans="3:9">
-      <c r="C2192" s="30"/>
+      <c r="C2192" s="27"/>
       <c r="D2192" s="16"/>
       <c r="E2192" s="16"/>
       <c r="F2192" s="16"/>
@@ -54088,7 +56078,7 @@
       <c r="I2192" s="16"/>
     </row>
     <row r="2193" spans="3:9">
-      <c r="C2193" s="30"/>
+      <c r="C2193" s="27"/>
       <c r="D2193" s="16"/>
       <c r="E2193" s="16"/>
       <c r="F2193" s="16"/>
@@ -54097,7 +56087,7 @@
       <c r="I2193" s="16"/>
     </row>
     <row r="2194" spans="3:9">
-      <c r="C2194" s="30"/>
+      <c r="C2194" s="27"/>
       <c r="D2194" s="16"/>
       <c r="E2194" s="16"/>
       <c r="F2194" s="16"/>
@@ -54106,7 +56096,7 @@
       <c r="I2194" s="16"/>
     </row>
     <row r="2195" spans="3:9">
-      <c r="C2195" s="30"/>
+      <c r="C2195" s="27"/>
       <c r="D2195" s="16"/>
       <c r="E2195" s="16"/>
       <c r="F2195" s="16"/>
@@ -54115,7 +56105,7 @@
       <c r="I2195" s="16"/>
     </row>
     <row r="2196" spans="3:9">
-      <c r="C2196" s="30"/>
+      <c r="C2196" s="27"/>
       <c r="D2196" s="16"/>
       <c r="E2196" s="16"/>
       <c r="F2196" s="16"/>
@@ -54124,7 +56114,7 @@
       <c r="I2196" s="16"/>
     </row>
     <row r="2197" spans="3:9">
-      <c r="C2197" s="30"/>
+      <c r="C2197" s="27"/>
       <c r="D2197" s="16"/>
       <c r="E2197" s="16"/>
       <c r="F2197" s="16"/>
@@ -54133,7 +56123,7 @@
       <c r="I2197" s="16"/>
     </row>
     <row r="2198" spans="3:9">
-      <c r="C2198" s="30"/>
+      <c r="C2198" s="27"/>
       <c r="D2198" s="16"/>
       <c r="E2198" s="16"/>
       <c r="F2198" s="16"/>
@@ -54142,7 +56132,7 @@
       <c r="I2198" s="16"/>
     </row>
     <row r="2199" spans="3:9">
-      <c r="C2199" s="30"/>
+      <c r="C2199" s="27"/>
       <c r="D2199" s="16"/>
       <c r="E2199" s="16"/>
       <c r="F2199" s="16"/>
@@ -54151,7 +56141,7 @@
       <c r="I2199" s="16"/>
     </row>
     <row r="2200" spans="3:9">
-      <c r="C2200" s="30"/>
+      <c r="C2200" s="27"/>
       <c r="D2200" s="16"/>
       <c r="E2200" s="16"/>
       <c r="F2200" s="16"/>
@@ -54160,7 +56150,7 @@
       <c r="I2200" s="16"/>
     </row>
     <row r="2201" spans="3:9">
-      <c r="C2201" s="30"/>
+      <c r="C2201" s="27"/>
       <c r="D2201" s="16"/>
       <c r="E2201" s="16"/>
       <c r="F2201" s="16"/>
@@ -54169,7 +56159,7 @@
       <c r="I2201" s="16"/>
     </row>
     <row r="2202" spans="3:9">
-      <c r="C2202" s="30"/>
+      <c r="C2202" s="27"/>
       <c r="D2202" s="16"/>
       <c r="E2202" s="16"/>
       <c r="F2202" s="16"/>
@@ -54178,7 +56168,7 @@
       <c r="I2202" s="16"/>
     </row>
     <row r="2203" spans="3:9">
-      <c r="C2203" s="30"/>
+      <c r="C2203" s="27"/>
       <c r="D2203" s="16"/>
       <c r="E2203" s="16"/>
       <c r="F2203" s="16"/>
@@ -54187,7 +56177,7 @@
       <c r="I2203" s="16"/>
     </row>
     <row r="2204" spans="3:9">
-      <c r="C2204" s="30"/>
+      <c r="C2204" s="27"/>
       <c r="D2204" s="16"/>
       <c r="E2204" s="16"/>
       <c r="F2204" s="16"/>
@@ -54196,7 +56186,7 @@
       <c r="I2204" s="16"/>
     </row>
     <row r="2205" spans="3:9">
-      <c r="C2205" s="30"/>
+      <c r="C2205" s="27"/>
       <c r="D2205" s="16"/>
       <c r="E2205" s="16"/>
       <c r="F2205" s="16"/>
@@ -54205,7 +56195,7 @@
       <c r="I2205" s="16"/>
     </row>
     <row r="2206" spans="3:9">
-      <c r="C2206" s="30"/>
+      <c r="C2206" s="27"/>
       <c r="D2206" s="16"/>
       <c r="E2206" s="16"/>
       <c r="F2206" s="16"/>
@@ -54214,7 +56204,7 @@
       <c r="I2206" s="16"/>
     </row>
     <row r="2207" spans="3:9">
-      <c r="C2207" s="30"/>
+      <c r="C2207" s="27"/>
       <c r="D2207" s="16"/>
       <c r="E2207" s="16"/>
       <c r="F2207" s="16"/>
@@ -54223,7 +56213,7 @@
       <c r="I2207" s="16"/>
     </row>
     <row r="2208" spans="3:9">
-      <c r="C2208" s="30"/>
+      <c r="C2208" s="27"/>
       <c r="D2208" s="16"/>
       <c r="E2208" s="16"/>
       <c r="F2208" s="16"/>
@@ -54232,7 +56222,7 @@
       <c r="I2208" s="16"/>
     </row>
     <row r="2209" spans="3:9">
-      <c r="C2209" s="30"/>
+      <c r="C2209" s="27"/>
       <c r="D2209" s="16"/>
       <c r="E2209" s="16"/>
       <c r="F2209" s="16"/>
@@ -54241,7 +56231,7 @@
       <c r="I2209" s="16"/>
     </row>
     <row r="2210" spans="3:9">
-      <c r="C2210" s="30"/>
+      <c r="C2210" s="27"/>
       <c r="D2210" s="16"/>
       <c r="E2210" s="16"/>
       <c r="F2210" s="16"/>
@@ -54250,7 +56240,7 @@
       <c r="I2210" s="16"/>
     </row>
     <row r="2211" spans="3:9">
-      <c r="C2211" s="30"/>
+      <c r="C2211" s="27"/>
       <c r="D2211" s="16"/>
       <c r="E2211" s="16"/>
       <c r="F2211" s="16"/>
@@ -54259,7 +56249,7 @@
       <c r="I2211" s="16"/>
     </row>
     <row r="2212" spans="3:9">
-      <c r="C2212" s="30"/>
+      <c r="C2212" s="27"/>
       <c r="D2212" s="16"/>
       <c r="E2212" s="16"/>
       <c r="F2212" s="16"/>
@@ -54268,7 +56258,7 @@
       <c r="I2212" s="16"/>
     </row>
     <row r="2213" spans="3:9">
-      <c r="C2213" s="30"/>
+      <c r="C2213" s="27"/>
       <c r="D2213" s="16"/>
       <c r="E2213" s="16"/>
       <c r="F2213" s="16"/>
@@ -54277,7 +56267,7 @@
       <c r="I2213" s="16"/>
     </row>
     <row r="2214" spans="3:9">
-      <c r="C2214" s="30"/>
+      <c r="C2214" s="27"/>
       <c r="D2214" s="16"/>
       <c r="E2214" s="16"/>
       <c r="F2214" s="16"/>
@@ -54286,7 +56276,7 @@
       <c r="I2214" s="16"/>
     </row>
     <row r="2215" spans="3:9">
-      <c r="C2215" s="30"/>
+      <c r="C2215" s="27"/>
       <c r="D2215" s="16"/>
       <c r="E2215" s="16"/>
       <c r="F2215" s="16"/>
@@ -54295,7 +56285,7 @@
       <c r="I2215" s="16"/>
     </row>
     <row r="2216" spans="3:9">
-      <c r="C2216" s="30"/>
+      <c r="C2216" s="27"/>
       <c r="D2216" s="16"/>
       <c r="E2216" s="16"/>
       <c r="F2216" s="16"/>
@@ -54304,7 +56294,7 @@
       <c r="I2216" s="16"/>
     </row>
     <row r="2217" spans="3:9">
-      <c r="C2217" s="30"/>
+      <c r="C2217" s="27"/>
       <c r="D2217" s="16"/>
       <c r="E2217" s="16"/>
       <c r="F2217" s="16"/>
@@ -54313,7 +56303,7 @@
       <c r="I2217" s="16"/>
     </row>
     <row r="2218" spans="3:9">
-      <c r="C2218" s="30"/>
+      <c r="C2218" s="27"/>
       <c r="D2218" s="16"/>
       <c r="E2218" s="16"/>
       <c r="F2218" s="16"/>
@@ -54322,7 +56312,7 @@
       <c r="I2218" s="16"/>
     </row>
     <row r="2219" spans="3:9">
-      <c r="C2219" s="30"/>
+      <c r="C2219" s="27"/>
       <c r="D2219" s="16"/>
       <c r="E2219" s="16"/>
       <c r="F2219" s="16"/>
@@ -54331,7 +56321,7 @@
       <c r="I2219" s="16"/>
     </row>
     <row r="2220" spans="3:9">
-      <c r="C2220" s="30"/>
+      <c r="C2220" s="27"/>
       <c r="D2220" s="16"/>
       <c r="E2220" s="16"/>
       <c r="F2220" s="16"/>
@@ -54340,7 +56330,7 @@
       <c r="I2220" s="16"/>
     </row>
     <row r="2221" spans="3:9">
-      <c r="C2221" s="30"/>
+      <c r="C2221" s="27"/>
       <c r="D2221" s="16"/>
       <c r="E2221" s="16"/>
       <c r="F2221" s="16"/>
@@ -54349,7 +56339,7 @@
       <c r="I2221" s="16"/>
     </row>
     <row r="2222" spans="3:9">
-      <c r="C2222" s="30"/>
+      <c r="C2222" s="27"/>
       <c r="D2222" s="16"/>
       <c r="E2222" s="16"/>
       <c r="F2222" s="16"/>
@@ -54358,7 +56348,7 @@
       <c r="I2222" s="16"/>
     </row>
     <row r="2223" spans="3:9">
-      <c r="C2223" s="30"/>
+      <c r="C2223" s="27"/>
       <c r="D2223" s="16"/>
       <c r="E2223" s="16"/>
       <c r="F2223" s="16"/>
@@ -54367,16 +56357,16 @@
       <c r="I2223" s="16"/>
     </row>
     <row r="2224" spans="3:9">
-      <c r="C2224" s="30"/>
-      <c r="D2224" s="16"/>
-      <c r="E2224" s="16"/>
-      <c r="F2224" s="16"/>
-      <c r="G2224" s="16"/>
-      <c r="H2224" s="16"/>
-      <c r="I2224" s="16"/>
+      <c r="C2224" s="27"/>
+      <c r="D2224" s="33"/>
+      <c r="E2224" s="33"/>
+      <c r="F2224" s="33"/>
+      <c r="G2224" s="33"/>
+      <c r="H2224" s="33"/>
+      <c r="I2224" s="33"/>
     </row>
     <row r="2225" spans="3:9">
-      <c r="C2225" s="30"/>
+      <c r="C2225" s="27"/>
       <c r="D2225" s="33"/>
       <c r="E2225" s="33"/>
       <c r="F2225" s="33"/>
@@ -54385,7 +56375,7 @@
       <c r="I2225" s="33"/>
     </row>
     <row r="2226" spans="3:9">
-      <c r="C2226" s="30"/>
+      <c r="C2226" s="27"/>
       <c r="D2226" s="33"/>
       <c r="E2226" s="33"/>
       <c r="F2226" s="33"/>
@@ -54394,7 +56384,7 @@
       <c r="I2226" s="33"/>
     </row>
     <row r="2227" spans="3:9">
-      <c r="C2227" s="30"/>
+      <c r="C2227" s="27"/>
       <c r="D2227" s="33"/>
       <c r="E2227" s="33"/>
       <c r="F2227" s="33"/>
@@ -54403,7 +56393,7 @@
       <c r="I2227" s="33"/>
     </row>
     <row r="2228" spans="3:9">
-      <c r="C2228" s="30"/>
+      <c r="C2228" s="27"/>
       <c r="D2228" s="33"/>
       <c r="E2228" s="33"/>
       <c r="F2228" s="33"/>
@@ -54412,7 +56402,7 @@
       <c r="I2228" s="33"/>
     </row>
     <row r="2229" spans="3:9">
-      <c r="C2229" s="30"/>
+      <c r="C2229" s="27"/>
       <c r="D2229" s="33"/>
       <c r="E2229" s="33"/>
       <c r="F2229" s="33"/>
@@ -54421,7 +56411,7 @@
       <c r="I2229" s="33"/>
     </row>
     <row r="2230" spans="3:9">
-      <c r="C2230" s="30"/>
+      <c r="C2230" s="27"/>
       <c r="D2230" s="33"/>
       <c r="E2230" s="33"/>
       <c r="F2230" s="33"/>
@@ -54430,7 +56420,7 @@
       <c r="I2230" s="33"/>
     </row>
     <row r="2231" spans="3:9">
-      <c r="C2231" s="30"/>
+      <c r="C2231" s="27"/>
       <c r="D2231" s="33"/>
       <c r="E2231" s="33"/>
       <c r="F2231" s="33"/>
@@ -54439,7 +56429,7 @@
       <c r="I2231" s="33"/>
     </row>
     <row r="2232" spans="3:9">
-      <c r="C2232" s="30"/>
+      <c r="C2232" s="27"/>
       <c r="D2232" s="33"/>
       <c r="E2232" s="33"/>
       <c r="F2232" s="33"/>
@@ -54448,7 +56438,7 @@
       <c r="I2232" s="33"/>
     </row>
     <row r="2233" spans="3:9">
-      <c r="C2233" s="30"/>
+      <c r="C2233" s="27"/>
       <c r="D2233" s="33"/>
       <c r="E2233" s="33"/>
       <c r="F2233" s="33"/>
@@ -54457,7 +56447,7 @@
       <c r="I2233" s="33"/>
     </row>
     <row r="2234" spans="3:9">
-      <c r="C2234" s="30"/>
+      <c r="C2234" s="27"/>
       <c r="D2234" s="33"/>
       <c r="E2234" s="33"/>
       <c r="F2234" s="33"/>
@@ -54466,7 +56456,7 @@
       <c r="I2234" s="33"/>
     </row>
     <row r="2235" spans="3:9">
-      <c r="C2235" s="30"/>
+      <c r="C2235" s="27"/>
       <c r="D2235" s="33"/>
       <c r="E2235" s="33"/>
       <c r="F2235" s="33"/>
@@ -54475,7 +56465,7 @@
       <c r="I2235" s="33"/>
     </row>
     <row r="2236" spans="3:9">
-      <c r="C2236" s="30"/>
+      <c r="C2236" s="27"/>
       <c r="D2236" s="33"/>
       <c r="E2236" s="33"/>
       <c r="F2236" s="33"/>
@@ -54484,7 +56474,7 @@
       <c r="I2236" s="33"/>
     </row>
     <row r="2237" spans="3:9">
-      <c r="C2237" s="30"/>
+      <c r="C2237" s="27"/>
       <c r="D2237" s="33"/>
       <c r="E2237" s="33"/>
       <c r="F2237" s="33"/>
@@ -54493,7 +56483,7 @@
       <c r="I2237" s="33"/>
     </row>
     <row r="2238" spans="3:9">
-      <c r="C2238" s="30"/>
+      <c r="C2238" s="27"/>
       <c r="D2238" s="33"/>
       <c r="E2238" s="33"/>
       <c r="F2238" s="33"/>
@@ -54502,7 +56492,7 @@
       <c r="I2238" s="33"/>
     </row>
     <row r="2239" spans="3:9">
-      <c r="C2239" s="30"/>
+      <c r="C2239" s="27"/>
       <c r="D2239" s="33"/>
       <c r="E2239" s="33"/>
       <c r="F2239" s="33"/>
@@ -54511,7 +56501,7 @@
       <c r="I2239" s="33"/>
     </row>
     <row r="2240" spans="3:9">
-      <c r="C2240" s="30"/>
+      <c r="C2240" s="27"/>
       <c r="D2240" s="33"/>
       <c r="E2240" s="33"/>
       <c r="F2240" s="33"/>
@@ -54520,7 +56510,7 @@
       <c r="I2240" s="33"/>
     </row>
     <row r="2241" spans="3:9">
-      <c r="C2241" s="30"/>
+      <c r="C2241" s="27"/>
       <c r="D2241" s="33"/>
       <c r="E2241" s="33"/>
       <c r="F2241" s="33"/>
@@ -54529,7 +56519,7 @@
       <c r="I2241" s="33"/>
     </row>
     <row r="2242" spans="3:9">
-      <c r="C2242" s="30"/>
+      <c r="C2242" s="27"/>
       <c r="D2242" s="33"/>
       <c r="E2242" s="33"/>
       <c r="F2242" s="33"/>
@@ -54538,7 +56528,7 @@
       <c r="I2242" s="33"/>
     </row>
     <row r="2243" spans="3:9">
-      <c r="C2243" s="30"/>
+      <c r="C2243" s="27"/>
       <c r="D2243" s="33"/>
       <c r="E2243" s="33"/>
       <c r="F2243" s="33"/>
@@ -54547,7 +56537,7 @@
       <c r="I2243" s="33"/>
     </row>
     <row r="2244" spans="3:9">
-      <c r="C2244" s="30"/>
+      <c r="C2244" s="27"/>
       <c r="D2244" s="33"/>
       <c r="E2244" s="33"/>
       <c r="F2244" s="33"/>
@@ -54556,7 +56546,7 @@
       <c r="I2244" s="33"/>
     </row>
     <row r="2245" spans="3:9">
-      <c r="C2245" s="30"/>
+      <c r="C2245" s="27"/>
       <c r="D2245" s="33"/>
       <c r="E2245" s="33"/>
       <c r="F2245" s="33"/>
@@ -54565,7 +56555,7 @@
       <c r="I2245" s="33"/>
     </row>
     <row r="2246" spans="3:9">
-      <c r="C2246" s="30"/>
+      <c r="C2246" s="27"/>
       <c r="D2246" s="33"/>
       <c r="E2246" s="33"/>
       <c r="F2246" s="33"/>
@@ -54574,7 +56564,7 @@
       <c r="I2246" s="33"/>
     </row>
     <row r="2247" spans="3:9">
-      <c r="C2247" s="30"/>
+      <c r="C2247" s="27"/>
       <c r="D2247" s="33"/>
       <c r="E2247" s="33"/>
       <c r="F2247" s="33"/>
@@ -54583,7 +56573,7 @@
       <c r="I2247" s="33"/>
     </row>
     <row r="2248" spans="3:9">
-      <c r="C2248" s="30"/>
+      <c r="C2248" s="27"/>
       <c r="D2248" s="33"/>
       <c r="E2248" s="33"/>
       <c r="F2248" s="33"/>
@@ -54592,7 +56582,7 @@
       <c r="I2248" s="33"/>
     </row>
     <row r="2249" spans="3:9">
-      <c r="C2249" s="30"/>
+      <c r="C2249" s="27"/>
       <c r="D2249" s="33"/>
       <c r="E2249" s="33"/>
       <c r="F2249" s="33"/>
@@ -54601,7 +56591,7 @@
       <c r="I2249" s="33"/>
     </row>
     <row r="2250" spans="3:9">
-      <c r="C2250" s="30"/>
+      <c r="C2250" s="27"/>
       <c r="D2250" s="33"/>
       <c r="E2250" s="33"/>
       <c r="F2250" s="33"/>
@@ -54610,7 +56600,7 @@
       <c r="I2250" s="33"/>
     </row>
     <row r="2251" spans="3:9">
-      <c r="C2251" s="30"/>
+      <c r="C2251" s="27"/>
       <c r="D2251" s="33"/>
       <c r="E2251" s="33"/>
       <c r="F2251" s="33"/>
@@ -54619,7 +56609,7 @@
       <c r="I2251" s="33"/>
     </row>
     <row r="2252" spans="3:9">
-      <c r="C2252" s="30"/>
+      <c r="C2252" s="27"/>
       <c r="D2252" s="33"/>
       <c r="E2252" s="33"/>
       <c r="F2252" s="33"/>
@@ -54628,7 +56618,7 @@
       <c r="I2252" s="33"/>
     </row>
     <row r="2253" spans="3:9">
-      <c r="C2253" s="30"/>
+      <c r="C2253" s="27"/>
       <c r="D2253" s="33"/>
       <c r="E2253" s="33"/>
       <c r="F2253" s="33"/>
@@ -54637,7 +56627,7 @@
       <c r="I2253" s="33"/>
     </row>
     <row r="2254" spans="3:9">
-      <c r="C2254" s="30"/>
+      <c r="C2254" s="27"/>
       <c r="D2254" s="33"/>
       <c r="E2254" s="33"/>
       <c r="F2254" s="33"/>
@@ -54646,7 +56636,7 @@
       <c r="I2254" s="33"/>
     </row>
     <row r="2255" spans="3:9">
-      <c r="C2255" s="30"/>
+      <c r="C2255" s="27"/>
       <c r="D2255" s="33"/>
       <c r="E2255" s="33"/>
       <c r="F2255" s="33"/>
@@ -54655,7 +56645,7 @@
       <c r="I2255" s="33"/>
     </row>
     <row r="2256" spans="3:9">
-      <c r="C2256" s="30"/>
+      <c r="C2256" s="27"/>
       <c r="D2256" s="33"/>
       <c r="E2256" s="33"/>
       <c r="F2256" s="33"/>
@@ -54664,7 +56654,7 @@
       <c r="I2256" s="33"/>
     </row>
     <row r="2257" spans="3:9">
-      <c r="C2257" s="30"/>
+      <c r="C2257" s="27"/>
       <c r="D2257" s="33"/>
       <c r="E2257" s="33"/>
       <c r="F2257" s="33"/>
@@ -54673,7 +56663,7 @@
       <c r="I2257" s="33"/>
     </row>
     <row r="2258" spans="3:9">
-      <c r="C2258" s="30"/>
+      <c r="C2258" s="27"/>
       <c r="D2258" s="33"/>
       <c r="E2258" s="33"/>
       <c r="F2258" s="33"/>
@@ -54682,7 +56672,7 @@
       <c r="I2258" s="33"/>
     </row>
     <row r="2259" spans="3:9">
-      <c r="C2259" s="30"/>
+      <c r="C2259" s="27"/>
       <c r="D2259" s="33"/>
       <c r="E2259" s="33"/>
       <c r="F2259" s="33"/>
@@ -54691,7 +56681,7 @@
       <c r="I2259" s="33"/>
     </row>
     <row r="2260" spans="3:9">
-      <c r="C2260" s="30"/>
+      <c r="C2260" s="27"/>
       <c r="D2260" s="33"/>
       <c r="E2260" s="33"/>
       <c r="F2260" s="33"/>
@@ -54700,7 +56690,7 @@
       <c r="I2260" s="33"/>
     </row>
     <row r="2261" spans="3:9">
-      <c r="C2261" s="30"/>
+      <c r="C2261" s="27"/>
       <c r="D2261" s="33"/>
       <c r="E2261" s="33"/>
       <c r="F2261" s="33"/>
@@ -54709,7 +56699,7 @@
       <c r="I2261" s="33"/>
     </row>
     <row r="2262" spans="3:9">
-      <c r="C2262" s="30"/>
+      <c r="C2262" s="27"/>
       <c r="D2262" s="33"/>
       <c r="E2262" s="33"/>
       <c r="F2262" s="33"/>
@@ -54718,7 +56708,7 @@
       <c r="I2262" s="33"/>
     </row>
     <row r="2263" spans="3:9">
-      <c r="C2263" s="30"/>
+      <c r="C2263" s="27"/>
       <c r="D2263" s="33"/>
       <c r="E2263" s="33"/>
       <c r="F2263" s="33"/>
@@ -54727,7 +56717,7 @@
       <c r="I2263" s="33"/>
     </row>
     <row r="2264" spans="3:9">
-      <c r="C2264" s="30"/>
+      <c r="C2264" s="27"/>
       <c r="D2264" s="33"/>
       <c r="E2264" s="33"/>
       <c r="F2264" s="33"/>
@@ -54736,7 +56726,7 @@
       <c r="I2264" s="33"/>
     </row>
     <row r="2265" spans="3:9">
-      <c r="C2265" s="30"/>
+      <c r="C2265" s="27"/>
       <c r="D2265" s="33"/>
       <c r="E2265" s="33"/>
       <c r="F2265" s="33"/>
@@ -54745,13 +56735,13 @@
       <c r="I2265" s="33"/>
     </row>
     <row r="2266" spans="3:9">
-      <c r="C2266" s="30"/>
-      <c r="D2266" s="33"/>
-      <c r="E2266" s="33"/>
-      <c r="F2266" s="33"/>
-      <c r="G2266" s="33"/>
-      <c r="H2266" s="33"/>
-      <c r="I2266" s="33"/>
+      <c r="C2266" s="32"/>
+      <c r="D2266" s="24"/>
+      <c r="E2266" s="24"/>
+      <c r="F2266" s="24"/>
+      <c r="G2266" s="24"/>
+      <c r="H2266" s="24"/>
+      <c r="I2266" s="24"/>
     </row>
     <row r="2267" spans="3:9">
       <c r="C2267" s="32"/>
@@ -55124,12 +57114,12 @@
     </row>
     <row r="2308" spans="3:9">
       <c r="C2308" s="32"/>
-      <c r="D2308" s="24"/>
-      <c r="E2308" s="24"/>
-      <c r="F2308" s="24"/>
-      <c r="G2308" s="24"/>
-      <c r="H2308" s="24"/>
-      <c r="I2308" s="24"/>
+      <c r="D2308" s="25"/>
+      <c r="E2308" s="25"/>
+      <c r="F2308" s="25"/>
+      <c r="G2308" s="25"/>
+      <c r="H2308" s="25"/>
+      <c r="I2308" s="25"/>
     </row>
     <row r="2309" spans="3:9">
       <c r="C2309" s="32"/>
@@ -55501,16 +57491,16 @@
       <c r="I2349" s="25"/>
     </row>
     <row r="2350" spans="3:9">
-      <c r="C2350" s="32"/>
-      <c r="D2350" s="25"/>
-      <c r="E2350" s="25"/>
-      <c r="F2350" s="25"/>
-      <c r="G2350" s="25"/>
-      <c r="H2350" s="25"/>
-      <c r="I2350" s="25"/>
+      <c r="C2350" s="27"/>
+      <c r="D2350" s="16"/>
+      <c r="E2350" s="16"/>
+      <c r="F2350" s="16"/>
+      <c r="G2350" s="16"/>
+      <c r="H2350" s="16"/>
+      <c r="I2350" s="16"/>
     </row>
     <row r="2351" spans="3:9">
-      <c r="C2351" s="30"/>
+      <c r="C2351" s="27"/>
       <c r="D2351" s="16"/>
       <c r="E2351" s="16"/>
       <c r="F2351" s="16"/>
@@ -55519,7 +57509,7 @@
       <c r="I2351" s="16"/>
     </row>
     <row r="2352" spans="3:9">
-      <c r="C2352" s="30"/>
+      <c r="C2352" s="27"/>
       <c r="D2352" s="16"/>
       <c r="E2352" s="16"/>
       <c r="F2352" s="16"/>
@@ -55528,7 +57518,7 @@
       <c r="I2352" s="16"/>
     </row>
     <row r="2353" spans="3:9">
-      <c r="C2353" s="30"/>
+      <c r="C2353" s="27"/>
       <c r="D2353" s="16"/>
       <c r="E2353" s="16"/>
       <c r="F2353" s="16"/>
@@ -55537,7 +57527,7 @@
       <c r="I2353" s="16"/>
     </row>
     <row r="2354" spans="3:9">
-      <c r="C2354" s="30"/>
+      <c r="C2354" s="27"/>
       <c r="D2354" s="16"/>
       <c r="E2354" s="16"/>
       <c r="F2354" s="16"/>
@@ -55546,7 +57536,7 @@
       <c r="I2354" s="16"/>
     </row>
     <row r="2355" spans="3:9">
-      <c r="C2355" s="30"/>
+      <c r="C2355" s="27"/>
       <c r="D2355" s="16"/>
       <c r="E2355" s="16"/>
       <c r="F2355" s="16"/>
@@ -55555,7 +57545,7 @@
       <c r="I2355" s="16"/>
     </row>
     <row r="2356" spans="3:9">
-      <c r="C2356" s="30"/>
+      <c r="C2356" s="27"/>
       <c r="D2356" s="16"/>
       <c r="E2356" s="16"/>
       <c r="F2356" s="16"/>
@@ -55564,7 +57554,7 @@
       <c r="I2356" s="16"/>
     </row>
     <row r="2357" spans="3:9">
-      <c r="C2357" s="30"/>
+      <c r="C2357" s="27"/>
       <c r="D2357" s="16"/>
       <c r="E2357" s="16"/>
       <c r="F2357" s="16"/>
@@ -55573,7 +57563,7 @@
       <c r="I2357" s="16"/>
     </row>
     <row r="2358" spans="3:9">
-      <c r="C2358" s="30"/>
+      <c r="C2358" s="27"/>
       <c r="D2358" s="16"/>
       <c r="E2358" s="16"/>
       <c r="F2358" s="16"/>
@@ -55582,7 +57572,7 @@
       <c r="I2358" s="16"/>
     </row>
     <row r="2359" spans="3:9">
-      <c r="C2359" s="30"/>
+      <c r="C2359" s="27"/>
       <c r="D2359" s="16"/>
       <c r="E2359" s="16"/>
       <c r="F2359" s="16"/>
@@ -55591,7 +57581,7 @@
       <c r="I2359" s="16"/>
     </row>
     <row r="2360" spans="3:9">
-      <c r="C2360" s="30"/>
+      <c r="C2360" s="27"/>
       <c r="D2360" s="16"/>
       <c r="E2360" s="16"/>
       <c r="F2360" s="16"/>
@@ -55600,7 +57590,7 @@
       <c r="I2360" s="16"/>
     </row>
     <row r="2361" spans="3:9">
-      <c r="C2361" s="30"/>
+      <c r="C2361" s="27"/>
       <c r="D2361" s="16"/>
       <c r="E2361" s="16"/>
       <c r="F2361" s="16"/>
@@ -55609,7 +57599,7 @@
       <c r="I2361" s="16"/>
     </row>
     <row r="2362" spans="3:9">
-      <c r="C2362" s="30"/>
+      <c r="C2362" s="27"/>
       <c r="D2362" s="16"/>
       <c r="E2362" s="16"/>
       <c r="F2362" s="16"/>
@@ -55618,7 +57608,7 @@
       <c r="I2362" s="16"/>
     </row>
     <row r="2363" spans="3:9">
-      <c r="C2363" s="30"/>
+      <c r="C2363" s="27"/>
       <c r="D2363" s="16"/>
       <c r="E2363" s="16"/>
       <c r="F2363" s="16"/>
@@ -55627,7 +57617,7 @@
       <c r="I2363" s="16"/>
     </row>
     <row r="2364" spans="3:9">
-      <c r="C2364" s="30"/>
+      <c r="C2364" s="27"/>
       <c r="D2364" s="16"/>
       <c r="E2364" s="16"/>
       <c r="F2364" s="16"/>
@@ -55636,7 +57626,7 @@
       <c r="I2364" s="16"/>
     </row>
     <row r="2365" spans="3:9">
-      <c r="C2365" s="30"/>
+      <c r="C2365" s="27"/>
       <c r="D2365" s="16"/>
       <c r="E2365" s="16"/>
       <c r="F2365" s="16"/>
@@ -55645,7 +57635,7 @@
       <c r="I2365" s="16"/>
     </row>
     <row r="2366" spans="3:9">
-      <c r="C2366" s="30"/>
+      <c r="C2366" s="27"/>
       <c r="D2366" s="16"/>
       <c r="E2366" s="16"/>
       <c r="F2366" s="16"/>
@@ -55654,7 +57644,7 @@
       <c r="I2366" s="16"/>
     </row>
     <row r="2367" spans="3:9">
-      <c r="C2367" s="30"/>
+      <c r="C2367" s="27"/>
       <c r="D2367" s="16"/>
       <c r="E2367" s="16"/>
       <c r="F2367" s="16"/>
@@ -55663,7 +57653,7 @@
       <c r="I2367" s="16"/>
     </row>
     <row r="2368" spans="3:9">
-      <c r="C2368" s="30"/>
+      <c r="C2368" s="27"/>
       <c r="D2368" s="16"/>
       <c r="E2368" s="16"/>
       <c r="F2368" s="16"/>
@@ -55672,7 +57662,7 @@
       <c r="I2368" s="16"/>
     </row>
     <row r="2369" spans="3:9">
-      <c r="C2369" s="30"/>
+      <c r="C2369" s="27"/>
       <c r="D2369" s="16"/>
       <c r="E2369" s="16"/>
       <c r="F2369" s="16"/>
@@ -55681,7 +57671,7 @@
       <c r="I2369" s="16"/>
     </row>
     <row r="2370" spans="3:9">
-      <c r="C2370" s="30"/>
+      <c r="C2370" s="27"/>
       <c r="D2370" s="16"/>
       <c r="E2370" s="16"/>
       <c r="F2370" s="16"/>
@@ -55690,7 +57680,7 @@
       <c r="I2370" s="16"/>
     </row>
     <row r="2371" spans="3:9">
-      <c r="C2371" s="30"/>
+      <c r="C2371" s="27"/>
       <c r="D2371" s="16"/>
       <c r="E2371" s="16"/>
       <c r="F2371" s="16"/>
@@ -55699,7 +57689,7 @@
       <c r="I2371" s="16"/>
     </row>
     <row r="2372" spans="3:9">
-      <c r="C2372" s="30"/>
+      <c r="C2372" s="27"/>
       <c r="D2372" s="16"/>
       <c r="E2372" s="16"/>
       <c r="F2372" s="16"/>
@@ -55708,7 +57698,7 @@
       <c r="I2372" s="16"/>
     </row>
     <row r="2373" spans="3:9">
-      <c r="C2373" s="30"/>
+      <c r="C2373" s="27"/>
       <c r="D2373" s="16"/>
       <c r="E2373" s="16"/>
       <c r="F2373" s="16"/>
@@ -55717,7 +57707,7 @@
       <c r="I2373" s="16"/>
     </row>
     <row r="2374" spans="3:9">
-      <c r="C2374" s="30"/>
+      <c r="C2374" s="27"/>
       <c r="D2374" s="16"/>
       <c r="E2374" s="16"/>
       <c r="F2374" s="16"/>
@@ -55726,7 +57716,7 @@
       <c r="I2374" s="16"/>
     </row>
     <row r="2375" spans="3:9">
-      <c r="C2375" s="30"/>
+      <c r="C2375" s="27"/>
       <c r="D2375" s="16"/>
       <c r="E2375" s="16"/>
       <c r="F2375" s="16"/>
@@ -55735,7 +57725,7 @@
       <c r="I2375" s="16"/>
     </row>
     <row r="2376" spans="3:9">
-      <c r="C2376" s="30"/>
+      <c r="C2376" s="27"/>
       <c r="D2376" s="16"/>
       <c r="E2376" s="16"/>
       <c r="F2376" s="16"/>
@@ -55744,7 +57734,7 @@
       <c r="I2376" s="16"/>
     </row>
     <row r="2377" spans="3:9">
-      <c r="C2377" s="30"/>
+      <c r="C2377" s="27"/>
       <c r="D2377" s="16"/>
       <c r="E2377" s="16"/>
       <c r="F2377" s="16"/>
@@ -55753,7 +57743,7 @@
       <c r="I2377" s="16"/>
     </row>
     <row r="2378" spans="3:9">
-      <c r="C2378" s="30"/>
+      <c r="C2378" s="27"/>
       <c r="D2378" s="16"/>
       <c r="E2378" s="16"/>
       <c r="F2378" s="16"/>
@@ -55762,7 +57752,7 @@
       <c r="I2378" s="16"/>
     </row>
     <row r="2379" spans="3:9">
-      <c r="C2379" s="30"/>
+      <c r="C2379" s="27"/>
       <c r="D2379" s="16"/>
       <c r="E2379" s="16"/>
       <c r="F2379" s="16"/>
@@ -55771,7 +57761,7 @@
       <c r="I2379" s="16"/>
     </row>
     <row r="2380" spans="3:9">
-      <c r="C2380" s="30"/>
+      <c r="C2380" s="27"/>
       <c r="D2380" s="16"/>
       <c r="E2380" s="16"/>
       <c r="F2380" s="16"/>
@@ -55780,7 +57770,7 @@
       <c r="I2380" s="16"/>
     </row>
     <row r="2381" spans="3:9">
-      <c r="C2381" s="30"/>
+      <c r="C2381" s="27"/>
       <c r="D2381" s="16"/>
       <c r="E2381" s="16"/>
       <c r="F2381" s="16"/>
@@ -55789,7 +57779,7 @@
       <c r="I2381" s="16"/>
     </row>
     <row r="2382" spans="3:9">
-      <c r="C2382" s="30"/>
+      <c r="C2382" s="27"/>
       <c r="D2382" s="16"/>
       <c r="E2382" s="16"/>
       <c r="F2382" s="16"/>
@@ -55798,7 +57788,7 @@
       <c r="I2382" s="16"/>
     </row>
     <row r="2383" spans="3:9">
-      <c r="C2383" s="30"/>
+      <c r="C2383" s="27"/>
       <c r="D2383" s="16"/>
       <c r="E2383" s="16"/>
       <c r="F2383" s="16"/>
@@ -55807,7 +57797,7 @@
       <c r="I2383" s="16"/>
     </row>
     <row r="2384" spans="3:9">
-      <c r="C2384" s="30"/>
+      <c r="C2384" s="27"/>
       <c r="D2384" s="16"/>
       <c r="E2384" s="16"/>
       <c r="F2384" s="16"/>
@@ -55816,7 +57806,7 @@
       <c r="I2384" s="16"/>
     </row>
     <row r="2385" spans="3:9">
-      <c r="C2385" s="30"/>
+      <c r="C2385" s="27"/>
       <c r="D2385" s="16"/>
       <c r="E2385" s="16"/>
       <c r="F2385" s="16"/>
@@ -55825,7 +57815,7 @@
       <c r="I2385" s="16"/>
     </row>
     <row r="2386" spans="3:9">
-      <c r="C2386" s="30"/>
+      <c r="C2386" s="27"/>
       <c r="D2386" s="16"/>
       <c r="E2386" s="16"/>
       <c r="F2386" s="16"/>
@@ -55834,7 +57824,7 @@
       <c r="I2386" s="16"/>
     </row>
     <row r="2387" spans="3:9">
-      <c r="C2387" s="30"/>
+      <c r="C2387" s="27"/>
       <c r="D2387" s="16"/>
       <c r="E2387" s="16"/>
       <c r="F2387" s="16"/>
@@ -55843,7 +57833,7 @@
       <c r="I2387" s="16"/>
     </row>
     <row r="2388" spans="3:9">
-      <c r="C2388" s="30"/>
+      <c r="C2388" s="27"/>
       <c r="D2388" s="16"/>
       <c r="E2388" s="16"/>
       <c r="F2388" s="16"/>
@@ -55852,7 +57842,7 @@
       <c r="I2388" s="16"/>
     </row>
     <row r="2389" spans="3:9">
-      <c r="C2389" s="30"/>
+      <c r="C2389" s="27"/>
       <c r="D2389" s="16"/>
       <c r="E2389" s="16"/>
       <c r="F2389" s="16"/>
@@ -55861,7 +57851,7 @@
       <c r="I2389" s="16"/>
     </row>
     <row r="2390" spans="3:9">
-      <c r="C2390" s="30"/>
+      <c r="C2390" s="27"/>
       <c r="D2390" s="16"/>
       <c r="E2390" s="16"/>
       <c r="F2390" s="16"/>
@@ -55870,22 +57860,13 @@
       <c r="I2390" s="16"/>
     </row>
     <row r="2391" spans="3:9">
-      <c r="C2391" s="30"/>
+      <c r="C2391" s="27"/>
       <c r="D2391" s="16"/>
       <c r="E2391" s="16"/>
       <c r="F2391" s="16"/>
       <c r="G2391" s="16"/>
       <c r="H2391" s="16"/>
       <c r="I2391" s="16"/>
-    </row>
-    <row r="2392" spans="3:9">
-      <c r="C2392" s="30"/>
-      <c r="D2392" s="16"/>
-      <c r="E2392" s="16"/>
-      <c r="F2392" s="16"/>
-      <c r="G2392" s="16"/>
-      <c r="H2392" s="16"/>
-      <c r="I2392" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E2019">
@@ -55899,7 +57880,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D1880 E1876:E1877 D1876:D1877 A1948" numberStoredAsText="1"/>
+    <ignoredError sqref="A1948 D1876:D1877 E1876:E1877 D1880" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -55910,7 +57891,7 @@
   <dimension ref="B1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -55930,27 +57911,27 @@
     <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -56612,7 +58593,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -56636,8 +58617,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -56657,27 +58638,27 @@
     <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -56730,7 +58711,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -56770,7 +58751,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -56810,7 +58791,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -56850,7 +58831,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -56890,7 +58871,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -56930,7 +58911,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D9" s="9">
         <v>66328</v>
@@ -56974,7 +58955,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D10" s="9">
         <v>75831</v>
@@ -57014,7 +58995,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D11" s="9">
         <v>88364</v>
@@ -57054,7 +59035,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D12" s="9">
         <v>98355</v>
@@ -57094,7 +59075,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D13" s="9">
         <v>109947</v>
@@ -57134,7 +59115,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D14" s="9">
         <v>126393</v>
@@ -57339,7 +59320,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -57364,7 +59345,7 @@
   <dimension ref="B1:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -57384,27 +59365,27 @@
     <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -58066,7 +60047,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -58090,8 +60071,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -58111,27 +60092,27 @@
     <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -58793,7 +60774,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -58817,8 +60798,8 @@
   <sheetPr/>
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -58838,27 +60819,27 @@
     <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -59512,7 +61493,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -59537,7 +61518,7 @@
   <dimension ref="B1:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:O9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -59557,27 +61538,27 @@
     <row r="2" spans="2:15">
       <c r="B2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -60239,7 +62220,7 @@
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
